--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BA6CBAE-11B2-4029-847E-76177FED3512}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D32510E-BF64-4701-ABDB-101E8C693A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5205" yWindow="3270" windowWidth="11520" windowHeight="12240" activeTab="4" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
     <sheet name="Report" sheetId="4" r:id="rId1"/>
@@ -44,7 +44,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="8" r:id="rId12"/>
+    <pivotCache cacheId="16" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -69,7 +69,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6432" uniqueCount="1959">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6439" uniqueCount="1961">
   <si>
     <t>Ticket</t>
   </si>
@@ -5891,9 +5891,6 @@
     <t>DFLTPGCOH_001500 Merck KGaA, Germany</t>
   </si>
   <si>
-    <t>Sought out to Leslie regarding this object as it's missing in the CC Group Hier. But not in Cost Center search.</t>
-  </si>
-  <si>
     <t>CLFF_1000$$$DE20506400</t>
   </si>
   <si>
@@ -5946,6 +5943,15 @@
   </si>
   <si>
     <t>CLFF_VMCA$$$TW10DB3302 Taiwan PM Fleet</t>
+  </si>
+  <si>
+    <t>FR7076100</t>
+  </si>
+  <si>
+    <t>CLFF_1000$$$DE10GIT04K</t>
+  </si>
+  <si>
+    <t>G000000893</t>
   </si>
 </sst>
 </file>
@@ -6541,7 +6547,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="72">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6632,6 +6638,11 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="100">
     <cellStyle name="AF Column - IBM Cognos" xfId="7" xr:uid="{F7169E42-F219-404B-8E76-A130536EB5C5}"/>
@@ -6735,7 +6746,7 @@
     <cellStyle name="Summary Row Name TM1 - IBM Cognos" xfId="60" xr:uid="{D1A5E0FD-B729-4808-9590-433008E10ACE}"/>
     <cellStyle name="Unsaved Change - IBM Cognos" xfId="61" xr:uid="{F9FC678A-A77B-4A12-8D40-17609F28802A}"/>
   </cellStyles>
-  <dxfs count="31">
+  <dxfs count="35">
     <dxf>
       <fill>
         <patternFill patternType="solid">
@@ -6765,12 +6776,30 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <bgColor rgb="FFFF0000"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6849,6 +6878,16 @@
       </font>
     </dxf>
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <fill>
         <patternFill patternType="solid">
           <bgColor rgb="FFFF0000"/>
@@ -6892,13 +6931,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pierre Collado" refreshedDate="45701.004717592594" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="496" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pierre Collado" refreshedDate="45701.015394097223" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="497" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
   <cacheSource type="worksheet">
     <worksheetSource name="Proc"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="App" numFmtId="0">
-      <sharedItems containsBlank="1" count="1243">
+      <sharedItems containsBlank="1" count="1244">
         <s v="FR0000000"/>
         <s v="FR6943059"/>
         <s v="FR6940622"/>
@@ -6961,6 +7000,7 @@
         <s v="FR7064092"/>
         <s v="FR7067731"/>
         <s v="FR7070747"/>
+        <s v="FR7076100"/>
         <m u="1"/>
         <s v="FR5900147" u="1"/>
         <s v="FR6280266" u="1"/>
@@ -8198,11 +8238,11 @@
         <s v="HC"/>
         <s v="LS"/>
         <s v="EL"/>
+        <s v="Electronics" u="1"/>
         <s v="Healthcare" u="1"/>
+        <s v="No known" u="1"/>
+        <e v="#N/A" u="1"/>
         <s v="Life Science" u="1"/>
-        <s v="Electronics" u="1"/>
-        <e v="#N/A" u="1"/>
-        <s v="No known" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="Forecast" numFmtId="0">
@@ -8210,12 +8250,12 @@
         <s v="F0"/>
         <s v="F1"/>
         <m u="1"/>
+        <s v="F3" u="1"/>
         <s v="F2" u="1"/>
-        <s v="F3" u="1"/>
       </sharedItems>
     </cacheField>
     <cacheField name="DateOpened" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-11T04:00:09"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-12T04:00:09"/>
     </cacheField>
     <cacheField name="DateMapped" numFmtId="14">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-01T00:00:00" maxDate="2025-02-06T00:00:00"/>
@@ -8250,7 +8290,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="496">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="497">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -14427,15 +14467,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$KR07DB3307 PM Fleet Deprec"/>
     <s v="P000000923"/>
-    <s v="P000000470 EL-SC-CC Customer Fulfillment Asia 2"/>
+    <s v="P000000923"/>
     <s v="LFF (MDG-F)"/>
     <s v="KR07DB3307"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14448,15 +14488,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$KR07DB3305 AM Fleet Deprec"/>
     <s v="P000000805"/>
-    <s v="P000000470 EL-SC-CC Customer Fulfillment Asia 2"/>
+    <s v="P000000805"/>
     <s v="LFF (MDG-F)"/>
     <s v="KR07DB3305"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14469,15 +14509,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$US10DB3015 NA PM WF6 Fleet"/>
     <s v="P000000932"/>
-    <s v="P000000475 EL-SC-CU Customer Fulfillment US"/>
+    <s v="P000000932"/>
     <s v="LFF (MDG-F)"/>
     <s v="US10DB3015"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14490,15 +14530,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$US10DB3018 NA Distribution"/>
     <s v="P000000932"/>
-    <s v="P000000475 EL-SC-CU Customer Fulfillment US"/>
+    <s v="P000000932"/>
     <s v="LFF (MDG-F)"/>
     <s v="US10DB3018"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14511,15 +14551,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$US10DB3019 NA Distribution"/>
     <s v="P000000932"/>
-    <s v="P000000475 EL-SC-CU Customer Fulfillment US"/>
+    <s v="P000000932"/>
     <s v="LFF (MDG-F)"/>
     <s v="US10DB3019"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14532,15 +14572,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$US10DB3010 NA AM Fleet"/>
     <s v="P000000818"/>
-    <s v="P000000475 EL-SC-CU Customer Fulfillment US"/>
+    <s v="P000000818"/>
     <s v="LFF (MDG-F)"/>
     <s v="US10DB3010"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14553,15 +14593,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$KR16DB3301 Fleet Depreciation"/>
     <s v="P000000905"/>
-    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="P000000905"/>
     <s v="LFF (MDG-F)"/>
     <s v="KR16DB3301"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14574,15 +14614,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$KR15DB3300 PM NH3 Fleet Deprec"/>
     <s v="P000000914"/>
-    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="P000000914"/>
     <s v="LFF (MDG-F)"/>
     <s v="KR15DB3300"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14595,15 +14635,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$KR15DB3302 PM NF3 Fleet Deprec"/>
     <s v="P000000914"/>
-    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="P000000914"/>
     <s v="LFF (MDG-F)"/>
     <s v="KR15DB3302"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14616,15 +14656,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$KR15DB3307 AM Fleet Depreciation"/>
     <s v="P000000923"/>
-    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="P000000923"/>
     <s v="LFF (MDG-F)"/>
     <s v="KR15DB3307"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -14637,15 +14677,15 @@
   </r>
   <r>
     <x v="39"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CVRSM_VMCA$$TW10DB3302 Taiwan PM Fleet"/>
     <s v="P000000943"/>
-    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="P000000943"/>
     <s v="LFF (MDG-F)"/>
     <s v="TW10DB3302"/>
     <s v="Successfully loaded to 2025."/>
-    <b v="0"/>
+    <b v="1"/>
     <x v="3"/>
     <x v="1"/>
     <d v="2025-01-24T12:39:05"/>
@@ -18568,7 +18608,7 @@
     <x v="5"/>
     <s v="CORAERP_MMOR1945.9115"/>
     <s v="G000001174 "/>
-    <s v="G000000698 GKB FS&amp;P A&amp;F - ABP"/>
+    <s v="G000000698"/>
     <s v="Non-LFF"/>
     <s v=""/>
     <m/>
@@ -18586,13 +18626,13 @@
   <r>
     <x v="59"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="5"/>
     <s v="CLFF_1000$$$DE10G69660"/>
     <s v="G000001174 "/>
     <s v="DFLTPGCOH_001500 Merck KGaA, Germany"/>
     <s v="LFF (MDG-F)"/>
     <s v="DE10G69660"/>
-    <s v="Sought out to Leslie regarding this object as it's missing in the CC Group Hier. But not in Cost Center search."/>
+    <m/>
     <b v="0"/>
     <x v="0"/>
     <x v="1"/>
@@ -18649,10 +18689,10 @@
   <r>
     <x v="61"/>
     <x v="1"/>
-    <x v="3"/>
+    <x v="5"/>
     <s v="CLFF_1000$$$DE10624906"/>
     <s v="G000000235"/>
-    <s v="G000000237 FJ1 DX - Exceptionals"/>
+    <s v="G000000237"/>
     <s v="LFF (MDG-F)"/>
     <s v="DE10624906"/>
     <m/>
@@ -18665,1195 +18705,1216 @@
     <x v="0"/>
     <n v="2"/>
     <s v="Jojeff Tagnong"/>
+    <m/>
+  </r>
+  <r>
+    <x v="62"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="CLFF_1000$$$DE10GIT04K"/>
+    <s v="G000000893"/>
+    <m/>
+    <s v="LFF (MDG-F)"/>
+    <s v="DE10GIT04K"/>
+    <m/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2025-02-12T04:00:09"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Jay-R Lizardo"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="1244">
-        <item m="1" x="628"/>
+      <items count="1245">
+        <item m="1" x="629"/>
         <item x="0"/>
+        <item m="1" x="699"/>
+        <item m="1" x="1120"/>
+        <item m="1" x="282"/>
+        <item m="1" x="1137"/>
+        <item m="1" x="659"/>
+        <item m="1" x="749"/>
+        <item m="1" x="1170"/>
+        <item m="1" x="964"/>
+        <item m="1" x="652"/>
+        <item m="1" x="1236"/>
+        <item m="1" x="982"/>
+        <item m="1" x="1226"/>
+        <item m="1" x="600"/>
+        <item m="1" x="501"/>
+        <item m="1" x="205"/>
+        <item m="1" x="466"/>
+        <item m="1" x="1190"/>
+        <item m="1" x="258"/>
+        <item m="1" x="566"/>
+        <item m="1" x="934"/>
+        <item m="1" x="649"/>
+        <item m="1" x="742"/>
+        <item m="1" x="1038"/>
+        <item m="1" x="1223"/>
+        <item m="1" x="684"/>
+        <item m="1" x="706"/>
+        <item m="1" x="471"/>
+        <item m="1" x="872"/>
+        <item m="1" x="631"/>
+        <item m="1" x="1177"/>
+        <item m="1" x="834"/>
+        <item m="1" x="267"/>
+        <item m="1" x="375"/>
+        <item m="1" x="1162"/>
+        <item m="1" x="926"/>
+        <item m="1" x="180"/>
+        <item m="1" x="1012"/>
+        <item m="1" x="678"/>
+        <item m="1" x="973"/>
+        <item m="1" x="559"/>
+        <item m="1" x="911"/>
+        <item m="1" x="170"/>
+        <item m="1" x="200"/>
+        <item m="1" x="1239"/>
+        <item m="1" x="918"/>
+        <item m="1" x="986"/>
+        <item m="1" x="1093"/>
+        <item m="1" x="862"/>
+        <item m="1" x="960"/>
+        <item m="1" x="799"/>
+        <item m="1" x="254"/>
+        <item m="1" x="445"/>
+        <item m="1" x="1221"/>
+        <item m="1" x="789"/>
+        <item m="1" x="929"/>
+        <item m="1" x="457"/>
+        <item m="1" x="418"/>
+        <item m="1" x="710"/>
+        <item m="1" x="602"/>
+        <item m="1" x="635"/>
+        <item m="1" x="194"/>
+        <item m="1" x="333"/>
+        <item m="1" x="995"/>
+        <item m="1" x="1212"/>
+        <item m="1" x="398"/>
+        <item m="1" x="803"/>
+        <item m="1" x="813"/>
+        <item m="1" x="990"/>
+        <item m="1" x="1100"/>
+        <item m="1" x="978"/>
+        <item m="1" x="273"/>
+        <item m="1" x="1121"/>
+        <item m="1" x="851"/>
+        <item m="1" x="838"/>
+        <item m="1" x="373"/>
+        <item m="1" x="726"/>
+        <item m="1" x="1073"/>
+        <item m="1" x="191"/>
+        <item m="1" x="770"/>
+        <item m="1" x="1123"/>
+        <item m="1" x="961"/>
+        <item m="1" x="696"/>
+        <item m="1" x="738"/>
+        <item m="1" x="619"/>
+        <item m="1" x="854"/>
+        <item m="1" x="666"/>
+        <item m="1" x="898"/>
+        <item m="1" x="382"/>
+        <item m="1" x="1211"/>
+        <item m="1" x="736"/>
+        <item m="1" x="1022"/>
+        <item m="1" x="99"/>
+        <item m="1" x="1227"/>
+        <item m="1" x="763"/>
+        <item m="1" x="1052"/>
+        <item m="1" x="965"/>
+        <item m="1" x="743"/>
+        <item m="1" x="253"/>
+        <item m="1" x="260"/>
+        <item m="1" x="300"/>
+        <item m="1" x="482"/>
+        <item m="1" x="906"/>
+        <item m="1" x="667"/>
+        <item m="1" x="783"/>
+        <item m="1" x="846"/>
+        <item m="1" x="993"/>
+        <item m="1" x="1076"/>
+        <item m="1" x="638"/>
+        <item m="1" x="359"/>
+        <item m="1" x="202"/>
+        <item m="1" x="345"/>
+        <item m="1" x="1220"/>
+        <item m="1" x="377"/>
+        <item m="1" x="1058"/>
+        <item m="1" x="987"/>
+        <item m="1" x="605"/>
+        <item m="1" x="677"/>
+        <item m="1" x="543"/>
+        <item m="1" x="800"/>
+        <item m="1" x="1175"/>
+        <item m="1" x="351"/>
+        <item m="1" x="299"/>
+        <item m="1" x="234"/>
+        <item m="1" x="900"/>
+        <item m="1" x="1160"/>
+        <item m="1" x="1088"/>
+        <item m="1" x="745"/>
+        <item m="1" x="269"/>
+        <item m="1" x="994"/>
+        <item m="1" x="446"/>
+        <item m="1" x="700"/>
+        <item m="1" x="875"/>
+        <item m="1" x="983"/>
+        <item m="1" x="103"/>
+        <item m="1" x="932"/>
+        <item m="1" x="895"/>
+        <item m="1" x="336"/>
+        <item m="1" x="784"/>
+        <item m="1" x="672"/>
+        <item m="1" x="625"/>
+        <item m="1" x="358"/>
+        <item m="1" x="294"/>
+        <item m="1" x="534"/>
+        <item m="1" x="721"/>
+        <item m="1" x="128"/>
+        <item m="1" x="467"/>
+        <item m="1" x="326"/>
+        <item m="1" x="68"/>
+        <item m="1" x="578"/>
+        <item m="1" x="779"/>
+        <item m="1" x="661"/>
+        <item m="1" x="707"/>
+        <item m="1" x="1026"/>
+        <item m="1" x="608"/>
+        <item m="1" x="1134"/>
+        <item m="1" x="858"/>
+        <item m="1" x="797"/>
+        <item m="1" x="311"/>
+        <item m="1" x="944"/>
+        <item m="1" x="1222"/>
+        <item m="1" x="910"/>
+        <item m="1" x="894"/>
+        <item m="1" x="181"/>
+        <item m="1" x="229"/>
+        <item m="1" x="764"/>
+        <item m="1" x="270"/>
+        <item m="1" x="1207"/>
+        <item m="1" x="873"/>
+        <item m="1" x="798"/>
+        <item m="1" x="750"/>
+        <item m="1" x="551"/>
+        <item m="1" x="179"/>
+        <item m="1" x="279"/>
+        <item m="1" x="385"/>
+        <item m="1" x="1118"/>
+        <item m="1" x="1150"/>
+        <item m="1" x="849"/>
+        <item m="1" x="576"/>
+        <item m="1" x="664"/>
+        <item m="1" x="174"/>
+        <item m="1" x="214"/>
+        <item m="1" x="553"/>
+        <item m="1" x="778"/>
+        <item m="1" x="691"/>
+        <item m="1" x="349"/>
+        <item m="1" x="582"/>
+        <item m="1" x="296"/>
+        <item m="1" x="491"/>
+        <item m="1" x="413"/>
+        <item m="1" x="248"/>
+        <item m="1" x="384"/>
+        <item m="1" x="754"/>
+        <item m="1" x="164"/>
+        <item m="1" x="403"/>
+        <item m="1" x="195"/>
+        <item m="1" x="888"/>
+        <item m="1" x="1077"/>
+        <item m="1" x="687"/>
+        <item m="1" x="331"/>
+        <item m="1" x="981"/>
+        <item m="1" x="826"/>
+        <item m="1" x="343"/>
+        <item m="1" x="344"/>
+        <item m="1" x="529"/>
+        <item m="1" x="219"/>
+        <item m="1" x="408"/>
+        <item m="1" x="203"/>
+        <item m="1" x="389"/>
+        <item m="1" x="957"/>
+        <item m="1" x="468"/>
+        <item m="1" x="835"/>
+        <item m="1" x="885"/>
+        <item m="1" x="1019"/>
+        <item m="1" x="1023"/>
+        <item m="1" x="740"/>
+        <item m="1" x="581"/>
+        <item m="1" x="620"/>
+        <item m="1" x="1187"/>
+        <item m="1" x="480"/>
+        <item m="1" x="292"/>
+        <item m="1" x="670"/>
+        <item m="1" x="127"/>
+        <item m="1" x="1191"/>
+        <item m="1" x="654"/>
+        <item m="1" x="88"/>
+        <item m="1" x="1109"/>
+        <item m="1" x="1152"/>
+        <item m="1" x="989"/>
+        <item m="1" x="366"/>
+        <item m="1" x="105"/>
+        <item m="1" x="1039"/>
+        <item m="1" x="430"/>
+        <item m="1" x="66"/>
+        <item m="1" x="1210"/>
+        <item m="1" x="454"/>
+        <item m="1" x="609"/>
+        <item m="1" x="1054"/>
+        <item m="1" x="141"/>
+        <item m="1" x="966"/>
+        <item m="1" x="774"/>
+        <item m="1" x="639"/>
+        <item m="1" x="509"/>
+        <item m="1" x="256"/>
+        <item m="1" x="757"/>
+        <item m="1" x="459"/>
+        <item m="1" x="997"/>
+        <item m="1" x="319"/>
+        <item m="1" x="1067"/>
+        <item m="1" x="1074"/>
+        <item m="1" x="758"/>
+        <item m="1" x="948"/>
+        <item m="1" x="365"/>
+        <item m="1" x="662"/>
+        <item m="1" x="951"/>
+        <item m="1" x="535"/>
+        <item m="1" x="825"/>
+        <item m="1" x="464"/>
+        <item m="1" x="249"/>
+        <item m="1" x="453"/>
+        <item m="1" x="1219"/>
+        <item m="1" x="1161"/>
+        <item m="1" x="306"/>
+        <item m="1" x="1107"/>
+        <item m="1" x="113"/>
+        <item m="1" x="1129"/>
+        <item m="1" x="148"/>
+        <item m="1" x="450"/>
+        <item m="1" x="548"/>
+        <item m="1" x="495"/>
+        <item m="1" x="1102"/>
+        <item m="1" x="1005"/>
+        <item m="1" x="246"/>
+        <item m="1" x="816"/>
+        <item m="1" x="1024"/>
+        <item m="1" x="1158"/>
+        <item m="1" x="1065"/>
+        <item m="1" x="151"/>
+        <item m="1" x="1231"/>
+        <item m="1" x="302"/>
+        <item m="1" x="583"/>
+        <item m="1" x="1027"/>
+        <item m="1" x="150"/>
+        <item m="1" x="1086"/>
+        <item m="1" x="315"/>
+        <item m="1" x="959"/>
+        <item m="1" x="823"/>
+        <item m="1" x="801"/>
+        <item m="1" x="380"/>
+        <item m="1" x="342"/>
+        <item m="1" x="1154"/>
+        <item m="1" x="95"/>
+        <item m="1" x="277"/>
+        <item m="1" x="936"/>
+        <item m="1" x="1047"/>
+        <item m="1" x="974"/>
+        <item m="1" x="1178"/>
+        <item m="1" x="682"/>
+        <item m="1" x="309"/>
+        <item m="1" x="429"/>
+        <item m="1" x="748"/>
+        <item m="1" x="490"/>
+        <item m="1" x="818"/>
+        <item m="1" x="431"/>
+        <item m="1" x="233"/>
+        <item m="1" x="886"/>
+        <item m="1" x="288"/>
+        <item m="1" x="168"/>
+        <item m="1" x="1020"/>
+        <item m="1" x="1167"/>
+        <item m="1" x="868"/>
+        <item m="1" x="133"/>
+        <item m="1" x="1059"/>
+        <item m="1" x="857"/>
+        <item m="1" x="967"/>
+        <item m="1" x="1106"/>
+        <item m="1" x="334"/>
+        <item m="1" x="526"/>
+        <item m="1" x="364"/>
+        <item m="1" x="632"/>
+        <item m="1" x="556"/>
+        <item m="1" x="586"/>
+        <item m="1" x="1122"/>
+        <item m="1" x="568"/>
+        <item m="1" x="771"/>
+        <item m="1" x="303"/>
+        <item m="1" x="502"/>
+        <item m="1" x="476"/>
+        <item m="1" x="819"/>
+        <item m="1" x="722"/>
+        <item m="1" x="950"/>
+        <item m="1" x="472"/>
+        <item m="1" x="1108"/>
+        <item m="1" x="310"/>
+        <item m="1" x="236"/>
+        <item m="1" x="492"/>
+        <item m="1" x="1033"/>
+        <item m="1" x="143"/>
+        <item m="1" x="144"/>
+        <item m="1" x="440"/>
+        <item m="1" x="1113"/>
+        <item m="1" x="507"/>
+        <item m="1" x="152"/>
+        <item m="1" x="312"/>
+        <item m="1" x="554"/>
+        <item m="1" x="865"/>
+        <item m="1" x="837"/>
+        <item m="1" x="508"/>
+        <item m="1" x="89"/>
+        <item m="1" x="227"/>
+        <item m="1" x="439"/>
+        <item m="1" x="327"/>
+        <item m="1" x="84"/>
+        <item m="1" x="1037"/>
+        <item m="1" x="1166"/>
+        <item m="1" x="636"/>
+        <item m="1" x="1066"/>
+        <item m="1" x="1126"/>
+        <item m="1" x="149"/>
+        <item m="1" x="1164"/>
+        <item m="1" x="902"/>
+        <item m="1" x="325"/>
+        <item m="1" x="511"/>
+        <item m="1" x="415"/>
+        <item m="1" x="777"/>
+        <item m="1" x="348"/>
+        <item m="1" x="564"/>
+        <item m="1" x="859"/>
+        <item m="1" x="984"/>
+        <item m="1" x="487"/>
+        <item m="1" x="615"/>
+        <item m="1" x="427"/>
+        <item m="1" x="353"/>
+        <item m="1" x="864"/>
+        <item m="1" x="979"/>
+        <item m="1" x="1141"/>
+        <item m="1" x="183"/>
+        <item m="1" x="387"/>
+        <item m="1" x="827"/>
+        <item m="1" x="228"/>
+        <item m="1" x="515"/>
+        <item m="1" x="896"/>
+        <item m="1" x="161"/>
+        <item m="1" x="371"/>
+        <item m="1" x="481"/>
+        <item m="1" x="1087"/>
+        <item m="1" x="320"/>
+        <item m="1" x="590"/>
+        <item m="1" x="1143"/>
+        <item m="1" x="271"/>
+        <item m="1" x="460"/>
+        <item m="1" x="648"/>
+        <item m="1" x="985"/>
+        <item m="1" x="283"/>
+        <item m="1" x="539"/>
+        <item m="1" x="381"/>
+        <item m="1" x="877"/>
+        <item m="1" x="1063"/>
+        <item m="1" x="189"/>
+        <item m="1" x="409"/>
+        <item m="1" x="1145"/>
+        <item m="1" x="1110"/>
+        <item m="1" x="210"/>
+        <item m="1" x="527"/>
+        <item m="1" x="1051"/>
+        <item m="1" x="1182"/>
+        <item m="1" x="1053"/>
+        <item m="1" x="1028"/>
+        <item m="1" x="159"/>
+        <item m="1" x="335"/>
+        <item m="1" x="417"/>
+        <item m="1" x="406"/>
+        <item m="1" x="633"/>
+        <item m="1" x="121"/>
+        <item m="1" x="820"/>
+        <item m="1" x="891"/>
+        <item m="1" x="73"/>
+        <item m="1" x="1151"/>
+        <item m="1" x="1013"/>
+        <item m="1" x="1142"/>
+        <item m="1" x="1172"/>
+        <item m="1" x="1208"/>
+        <item m="1" x="1146"/>
+        <item m="1" x="510"/>
+        <item m="1" x="870"/>
+        <item m="1" x="477"/>
+        <item m="1" x="883"/>
+        <item m="1" x="848"/>
+        <item m="1" x="286"/>
+        <item m="1" x="324"/>
+        <item m="1" x="462"/>
+        <item m="1" x="927"/>
+        <item m="1" x="447"/>
+        <item m="1" x="193"/>
+        <item m="1" x="1192"/>
+        <item m="1" x="942"/>
+        <item m="1" x="775"/>
+        <item m="1" x="807"/>
+        <item m="1" x="856"/>
+        <item m="1" x="281"/>
+        <item m="1" x="623"/>
+        <item m="1" x="968"/>
+        <item m="1" x="119"/>
+        <item m="1" x="362"/>
+        <item m="1" x="262"/>
+        <item m="1" x="259"/>
+        <item m="1" x="263"/>
+        <item m="1" x="64"/>
+        <item m="1" x="285"/>
+        <item m="1" x="1082"/>
+        <item m="1" x="86"/>
+        <item m="1" x="732"/>
+        <item m="1" x="1169"/>
+        <item m="1" x="980"/>
+        <item m="1" x="240"/>
+        <item m="1" x="1240"/>
+        <item m="1" x="169"/>
+        <item m="1" x="536"/>
+        <item m="1" x="759"/>
+        <item m="1" x="215"/>
+        <item m="1" x="668"/>
+        <item m="1" x="828"/>
+        <item m="1" x="1096"/>
+        <item m="1" x="998"/>
+        <item m="1" x="77"/>
+        <item m="1" x="760"/>
+        <item m="1" x="160"/>
+        <item m="1" x="396"/>
+        <item m="1" x="368"/>
+        <item m="1" x="130"/>
+        <item m="1" x="723"/>
+        <item m="1" x="730"/>
+        <item m="1" x="830"/>
+        <item m="1" x="579"/>
+        <item m="1" x="1079"/>
+        <item m="1" x="488"/>
+        <item m="1" x="1198"/>
+        <item m="1" x="833"/>
+        <item m="1" x="724"/>
+        <item m="1" x="388"/>
+        <item m="1" x="796"/>
+        <item m="1" x="1094"/>
+        <item m="1" x="1159"/>
+        <item m="1" x="1138"/>
+        <item m="1" x="1068"/>
+        <item m="1" x="817"/>
+        <item m="1" x="930"/>
+        <item m="1" x="443"/>
+        <item m="1" x="892"/>
+        <item m="1" x="717"/>
+        <item m="1" x="676"/>
+        <item m="1" x="674"/>
+        <item m="1" x="675"/>
+        <item m="1" x="372"/>
+        <item m="1" x="416"/>
+        <item m="1" x="1029"/>
+        <item m="1" x="594"/>
+        <item m="1" x="436"/>
+        <item m="1" x="478"/>
+        <item m="1" x="524"/>
+        <item m="1" x="776"/>
+        <item m="1" x="1114"/>
+        <item m="1" x="1203"/>
+        <item m="1" x="321"/>
+        <item m="1" x="272"/>
+        <item m="1" x="109"/>
+        <item m="1" x="131"/>
+        <item m="1" x="428"/>
+        <item m="1" x="216"/>
+        <item m="1" x="544"/>
+        <item m="1" x="1080"/>
+        <item m="1" x="421"/>
+        <item m="1" x="213"/>
+        <item m="1" x="972"/>
+        <item m="1" x="90"/>
+        <item m="1" x="1098"/>
+        <item m="1" x="1173"/>
+        <item m="1" x="1237"/>
+        <item m="1" x="1112"/>
+        <item m="1" x="355"/>
+        <item m="1" x="132"/>
+        <item m="1" x="596"/>
+        <item m="1" x="680"/>
+        <item m="1" x="876"/>
+        <item m="1" x="844"/>
+        <item m="1" x="880"/>
+        <item m="1" x="657"/>
+        <item m="1" x="695"/>
+        <item m="1" x="1136"/>
+        <item m="1" x="899"/>
+        <item m="1" x="869"/>
+        <item m="1" x="808"/>
+        <item m="1" x="881"/>
+        <item m="1" x="82"/>
+        <item m="1" x="87"/>
+        <item m="1" x="690"/>
+        <item m="1" x="1075"/>
+        <item m="1" x="645"/>
+        <item m="1" x="1215"/>
+        <item m="1" x="614"/>
+        <item m="1" x="790"/>
+        <item m="1" x="861"/>
+        <item m="1" x="475"/>
+        <item m="1" x="307"/>
+        <item m="1" x="683"/>
+        <item m="1" x="369"/>
+        <item m="1" x="1224"/>
+        <item m="1" x="1139"/>
+        <item m="1" x="952"/>
+        <item m="1" x="209"/>
+        <item m="1" x="136"/>
+        <item m="1" x="709"/>
+        <item m="1" x="953"/>
+        <item m="1" x="1242"/>
+        <item m="1" x="588"/>
+        <item m="1" x="1189"/>
+        <item m="1" x="123"/>
+        <item m="1" x="237"/>
+        <item m="1" x="549"/>
+        <item m="1" x="640"/>
+        <item m="1" x="1069"/>
+        <item m="1" x="393"/>
+        <item m="1" x="1072"/>
+        <item m="1" x="489"/>
+        <item m="1" x="1061"/>
+        <item m="1" x="1225"/>
+        <item m="1" x="153"/>
+        <item m="1" x="1209"/>
+        <item m="1" x="100"/>
+        <item m="1" x="962"/>
+        <item m="1" x="580"/>
+        <item m="1" x="411"/>
+        <item m="1" x="374"/>
+        <item m="1" x="518"/>
+        <item m="1" x="117"/>
+        <item m="1" x="1202"/>
+        <item m="1" x="201"/>
+        <item m="1" x="222"/>
+        <item m="1" x="1095"/>
+        <item m="1" x="1174"/>
+        <item m="1" x="688"/>
+        <item m="1" x="829"/>
+        <item m="1" x="530"/>
+        <item m="1" x="643"/>
+        <item m="1" x="792"/>
+        <item m="1" x="909"/>
+        <item m="1" x="496"/>
+        <item m="1" x="772"/>
+        <item m="1" x="591"/>
+        <item m="1" x="1228"/>
+        <item m="1" x="81"/>
+        <item m="1" x="520"/>
+        <item m="1" x="461"/>
+        <item m="1" x="422"/>
+        <item m="1" x="1216"/>
+        <item m="1" x="1034"/>
+        <item m="1" x="1165"/>
+        <item m="1" x="178"/>
+        <item m="1" x="1176"/>
+        <item m="1" x="1163"/>
+        <item m="1" x="1040"/>
+        <item m="1" x="275"/>
+        <item m="1" x="644"/>
+        <item m="1" x="737"/>
+        <item m="1" x="483"/>
+        <item m="1" x="1081"/>
+        <item m="1" x="867"/>
+        <item m="1" x="887"/>
+        <item m="1" x="781"/>
+        <item m="1" x="124"/>
+        <item m="1" x="954"/>
+        <item m="1" x="1116"/>
+        <item m="1" x="521"/>
+        <item m="1" x="1235"/>
+        <item m="1" x="729"/>
+        <item m="1" x="316"/>
+        <item m="1" x="449"/>
+        <item m="1" x="485"/>
+        <item m="1" x="1144"/>
+        <item m="1" x="1128"/>
+        <item m="1" x="188"/>
+        <item m="1" x="190"/>
+        <item m="1" x="104"/>
+        <item m="1" x="1064"/>
+        <item m="1" x="106"/>
+        <item m="1" x="523"/>
+        <item m="1" x="423"/>
+        <item m="1" x="879"/>
+        <item m="1" x="822"/>
+        <item m="1" x="1171"/>
+        <item m="1" x="1103"/>
+        <item m="1" x="595"/>
+        <item m="1" x="809"/>
+        <item m="1" x="1044"/>
+        <item m="1" x="157"/>
+        <item m="1" x="589"/>
+        <item m="1" x="519"/>
+        <item m="1" x="1213"/>
+        <item m="1" x="1180"/>
+        <item m="1" x="611"/>
+        <item m="1" x="217"/>
+        <item m="1" x="512"/>
+        <item m="1" x="685"/>
+        <item m="1" x="139"/>
+        <item m="1" x="975"/>
+        <item m="1" x="569"/>
+        <item m="1" x="379"/>
+        <item m="1" x="473"/>
+        <item m="1" x="919"/>
+        <item m="1" x="1218"/>
+        <item m="1" x="297"/>
+        <item m="1" x="1070"/>
+        <item m="1" x="291"/>
+        <item m="1" x="855"/>
+        <item m="1" x="627"/>
+        <item m="1" x="558"/>
+        <item m="1" x="280"/>
+        <item m="1" x="347"/>
+        <item m="1" x="135"/>
+        <item m="1" x="935"/>
+        <item m="1" x="448"/>
+        <item m="1" x="172"/>
+        <item m="1" x="786"/>
+        <item m="1" x="1101"/>
+        <item m="1" x="641"/>
+        <item m="1" x="599"/>
+        <item m="1" x="70"/>
+        <item m="1" x="1206"/>
+        <item m="1" x="456"/>
+        <item m="1" x="516"/>
+        <item m="1" x="923"/>
+        <item m="1" x="1200"/>
+        <item m="1" x="1125"/>
+        <item m="1" x="976"/>
+        <item m="1" x="1091"/>
+        <item m="1" x="252"/>
+        <item m="1" x="451"/>
+        <item m="1" x="284"/>
+        <item m="1" x="76"/>
+        <item m="1" x="689"/>
+        <item m="1" x="138"/>
+        <item m="1" x="360"/>
+        <item m="1" x="304"/>
+        <item m="1" x="250"/>
+        <item m="1" x="1205"/>
+        <item m="1" x="301"/>
+        <item m="1" x="903"/>
+        <item m="1" x="1115"/>
+        <item m="1" x="241"/>
+        <item m="1" x="145"/>
+        <item m="1" x="938"/>
+        <item m="1" x="914"/>
+        <item m="1" x="955"/>
+        <item m="1" x="874"/>
+        <item m="1" x="218"/>
+        <item m="1" x="574"/>
+        <item m="1" x="842"/>
+        <item m="1" x="1092"/>
+        <item m="1" x="686"/>
+        <item m="1" x="804"/>
+        <item m="1" x="1148"/>
+        <item m="1" x="560"/>
+        <item m="1" x="404"/>
+        <item m="1" x="637"/>
+        <item m="1" x="584"/>
+        <item m="1" x="514"/>
+        <item m="1" x="1031"/>
+        <item m="1" x="718"/>
+        <item m="1" x="814"/>
+        <item m="1" x="65"/>
+        <item m="1" x="610"/>
+        <item m="1" x="212"/>
+        <item m="1" x="479"/>
+        <item m="1" x="617"/>
+        <item m="1" x="147"/>
+        <item m="1" x="264"/>
+        <item m="1" x="719"/>
+        <item m="1" x="916"/>
+        <item m="1" x="1186"/>
+        <item m="1" x="1229"/>
+        <item m="1" x="839"/>
+        <item m="1" x="187"/>
+        <item m="1" x="115"/>
+        <item m="1" x="701"/>
+        <item m="1" x="323"/>
+        <item m="1" x="597"/>
+        <item m="1" x="225"/>
+        <item m="1" x="328"/>
+        <item m="1" x="755"/>
+        <item m="1" x="1111"/>
+        <item m="1" x="1042"/>
+        <item m="1" x="458"/>
+        <item m="1" x="493"/>
+        <item m="1" x="769"/>
+        <item m="1" x="1199"/>
+        <item m="1" x="925"/>
+        <item m="1" x="91"/>
+        <item m="1" x="1153"/>
+        <item m="1" x="199"/>
+        <item m="1" x="845"/>
+        <item m="1" x="890"/>
+        <item m="1" x="893"/>
+        <item m="1" x="1233"/>
+        <item m="1" x="126"/>
+        <item m="1" x="904"/>
+        <item m="1" x="1001"/>
+        <item m="1" x="773"/>
+        <item m="1" x="943"/>
+        <item m="1" x="185"/>
+        <item m="1" x="577"/>
+        <item m="1" x="424"/>
+        <item m="1" x="1036"/>
+        <item m="1" x="1131"/>
+        <item m="1" x="660"/>
+        <item m="1" x="1099"/>
+        <item m="1" x="1147"/>
+        <item m="1" x="500"/>
+        <item m="1" x="1003"/>
+        <item m="1" x="866"/>
+        <item m="1" x="1149"/>
+        <item m="1" x="1193"/>
+        <item m="1" x="931"/>
+        <item m="1" x="541"/>
+        <item m="1" x="346"/>
+        <item m="1" x="1181"/>
+        <item m="1" x="728"/>
+        <item m="1" x="702"/>
+        <item m="1" x="711"/>
+        <item m="1" x="1232"/>
+        <item m="1" x="956"/>
+        <item m="1" x="651"/>
+        <item m="1" x="920"/>
+        <item m="1" x="897"/>
+        <item m="1" x="513"/>
+        <item m="1" x="414"/>
+        <item m="1" x="913"/>
+        <item m="1" x="308"/>
+        <item m="1" x="265"/>
+        <item m="1" x="207"/>
+        <item m="1" x="1194"/>
+        <item m="1" x="810"/>
+        <item m="1" x="545"/>
+        <item m="1" x="626"/>
+        <item m="1" x="107"/>
+        <item m="1" x="1183"/>
+        <item m="1" x="734"/>
+        <item m="1" x="882"/>
+        <item m="1" x="330"/>
+        <item m="1" x="1014"/>
+        <item m="1" x="517"/>
+        <item m="1" x="410"/>
+        <item m="1" x="1238"/>
+        <item m="1" x="540"/>
+        <item m="1" x="1179"/>
+        <item m="1" x="765"/>
+        <item m="1" x="441"/>
+        <item m="1" x="232"/>
+        <item m="1" x="175"/>
+        <item m="1" x="469"/>
+        <item m="1" x="166"/>
+        <item m="1" x="137"/>
+        <item m="1" x="154"/>
+        <item m="1" x="433"/>
+        <item m="1" x="278"/>
+        <item m="1" x="585"/>
+        <item m="1" x="642"/>
+        <item m="1" x="741"/>
+        <item m="1" x="612"/>
+        <item m="1" x="945"/>
+        <item m="1" x="1009"/>
+        <item m="1" x="221"/>
+        <item m="1" x="231"/>
+        <item m="1" x="420"/>
+        <item m="1" x="562"/>
+        <item m="1" x="352"/>
+        <item m="1" x="905"/>
+        <item m="1" x="655"/>
+        <item m="1" x="572"/>
+        <item m="1" x="705"/>
+        <item m="1" x="1011"/>
+        <item m="1" x="949"/>
+        <item m="1" x="1035"/>
+        <item m="1" x="791"/>
+        <item m="1" x="211"/>
+        <item m="1" x="1217"/>
+        <item m="1" x="630"/>
+        <item m="1" x="245"/>
+        <item m="1" x="69"/>
+        <item m="1" x="1214"/>
         <item m="1" x="698"/>
-        <item m="1" x="1119"/>
-        <item m="1" x="281"/>
-        <item m="1" x="1136"/>
+        <item m="1" x="665"/>
+        <item m="1" x="437"/>
+        <item m="1" x="317"/>
+        <item m="1" x="401"/>
+        <item m="1" x="555"/>
+        <item m="1" x="1130"/>
+        <item m="1" x="1049"/>
+        <item m="1" x="425"/>
+        <item m="1" x="498"/>
+        <item m="1" x="505"/>
+        <item m="1" x="1043"/>
+        <item m="1" x="646"/>
+        <item m="1" x="118"/>
+        <item m="1" x="679"/>
+        <item m="1" x="958"/>
+        <item m="1" x="1084"/>
+        <item m="1" x="977"/>
+        <item m="1" x="785"/>
+        <item m="1" x="1083"/>
+        <item m="1" x="97"/>
+        <item m="1" x="1000"/>
+        <item m="1" x="79"/>
+        <item m="1" x="419"/>
+        <item m="1" x="83"/>
+        <item m="1" x="242"/>
+        <item m="1" x="332"/>
+        <item m="1" x="338"/>
+        <item m="1" x="756"/>
+        <item m="1" x="1010"/>
+        <item m="1" x="537"/>
+        <item m="1" x="108"/>
+        <item m="1" x="314"/>
+        <item m="1" x="102"/>
+        <item m="1" x="1097"/>
+        <item m="1" x="322"/>
         <item m="1" x="658"/>
-        <item m="1" x="748"/>
-        <item m="1" x="1169"/>
+        <item m="1" x="1117"/>
+        <item m="1" x="444"/>
+        <item m="1" x="386"/>
+        <item m="1" x="782"/>
+        <item m="1" x="339"/>
+        <item m="1" x="647"/>
+        <item m="1" x="941"/>
+        <item m="1" x="80"/>
+        <item m="1" x="593"/>
+        <item m="1" x="712"/>
+        <item m="1" x="204"/>
+        <item m="1" x="546"/>
+        <item m="1" x="681"/>
+        <item m="1" x="432"/>
+        <item m="1" x="470"/>
+        <item m="1" x="197"/>
+        <item m="1" x="603"/>
+        <item m="1" x="67"/>
+        <item m="1" x="739"/>
+        <item m="1" x="1132"/>
+        <item m="1" x="853"/>
+        <item m="1" x="847"/>
+        <item m="1" x="746"/>
+        <item m="1" x="72"/>
+        <item m="1" x="878"/>
+        <item m="1" x="921"/>
+        <item m="1" x="727"/>
+        <item m="1" x="71"/>
+        <item m="1" x="1078"/>
+        <item m="1" x="1045"/>
+        <item m="1" x="75"/>
+        <item m="1" x="354"/>
+        <item m="1" x="744"/>
+        <item m="1" x="999"/>
+        <item m="1" x="196"/>
+        <item m="1" x="92"/>
+        <item m="1" x="251"/>
+        <item m="1" x="142"/>
+        <item m="1" x="550"/>
+        <item m="1" x="363"/>
+        <item m="1" x="361"/>
+        <item m="1" x="532"/>
+        <item m="1" x="634"/>
+        <item m="1" x="538"/>
+        <item m="1" x="735"/>
+        <item m="1" x="587"/>
+        <item m="1" x="452"/>
+        <item m="1" x="567"/>
+        <item m="1" x="1060"/>
+        <item m="1" x="1155"/>
+        <item m="1" x="412"/>
+        <item m="1" x="1135"/>
+        <item m="1" x="177"/>
+        <item m="1" x="1124"/>
+        <item m="1" x="821"/>
+        <item m="1" x="992"/>
+        <item m="1" x="1071"/>
+        <item m="1" x="751"/>
         <item m="1" x="963"/>
-        <item m="1" x="651"/>
-        <item m="1" x="1235"/>
-        <item m="1" x="981"/>
-        <item m="1" x="1225"/>
-        <item m="1" x="599"/>
-        <item m="1" x="500"/>
-        <item m="1" x="204"/>
-        <item m="1" x="465"/>
-        <item m="1" x="1189"/>
-        <item m="1" x="257"/>
-        <item m="1" x="565"/>
-        <item m="1" x="933"/>
-        <item m="1" x="648"/>
-        <item m="1" x="741"/>
-        <item m="1" x="1037"/>
-        <item m="1" x="1222"/>
-        <item m="1" x="683"/>
-        <item m="1" x="705"/>
-        <item m="1" x="470"/>
-        <item m="1" x="871"/>
-        <item m="1" x="630"/>
-        <item m="1" x="1176"/>
-        <item m="1" x="833"/>
-        <item m="1" x="266"/>
-        <item m="1" x="374"/>
-        <item m="1" x="1161"/>
-        <item m="1" x="925"/>
-        <item m="1" x="179"/>
-        <item m="1" x="1011"/>
-        <item m="1" x="677"/>
-        <item m="1" x="972"/>
-        <item m="1" x="558"/>
-        <item m="1" x="910"/>
-        <item m="1" x="169"/>
-        <item m="1" x="199"/>
-        <item m="1" x="1238"/>
+        <item m="1" x="255"/>
+        <item m="1" x="238"/>
+        <item m="1" x="860"/>
+        <item m="1" x="832"/>
+        <item m="1" x="394"/>
+        <item m="1" x="1230"/>
+        <item m="1" x="802"/>
+        <item m="1" x="542"/>
+        <item m="1" x="616"/>
+        <item m="1" x="575"/>
+        <item m="1" x="1085"/>
+        <item m="1" x="1089"/>
+        <item m="1" x="85"/>
+        <item m="1" x="969"/>
+        <item m="1" x="1015"/>
+        <item m="1" x="134"/>
+        <item m="1" x="506"/>
+        <item m="1" x="497"/>
+        <item m="1" x="1004"/>
+        <item m="1" x="703"/>
+        <item m="1" x="907"/>
+        <item m="1" x="573"/>
+        <item m="1" x="924"/>
+        <item m="1" x="112"/>
+        <item m="1" x="235"/>
+        <item m="1" x="1204"/>
+        <item m="1" x="824"/>
+        <item m="1" x="1196"/>
+        <item m="1" x="116"/>
+        <item m="1" x="376"/>
+        <item m="1" x="192"/>
+        <item m="1" x="125"/>
+        <item m="1" x="140"/>
+        <item m="1" x="692"/>
+        <item m="1" x="725"/>
+        <item m="1" x="397"/>
+        <item m="1" x="815"/>
+        <item m="1" x="1133"/>
+        <item m="1" x="484"/>
+        <item m="1" x="563"/>
+        <item m="1" x="713"/>
+        <item m="1" x="1201"/>
+        <item m="1" x="378"/>
+        <item m="1" x="390"/>
+        <item m="1" x="400"/>
+        <item m="1" x="1021"/>
+        <item m="1" x="1157"/>
+        <item m="1" x="74"/>
+        <item m="1" x="901"/>
+        <item m="1" x="1197"/>
+        <item m="1" x="298"/>
+        <item m="1" x="613"/>
+        <item m="1" x="1234"/>
+        <item m="1" x="1140"/>
+        <item m="1" x="287"/>
+        <item m="1" x="399"/>
+        <item m="1" x="486"/>
+        <item m="1" x="811"/>
+        <item m="1" x="1008"/>
+        <item m="1" x="243"/>
+        <item m="1" x="714"/>
+        <item m="1" x="239"/>
+        <item m="1" x="208"/>
+        <item m="1" x="156"/>
+        <item m="1" x="1127"/>
+        <item m="1" x="720"/>
+        <item m="1" x="1168"/>
+        <item m="1" x="561"/>
+        <item m="1" x="1185"/>
+        <item m="1" x="937"/>
+        <item m="1" x="226"/>
+        <item m="1" x="1041"/>
+        <item m="1" x="1055"/>
+        <item m="1" x="715"/>
+        <item m="1" x="1090"/>
+        <item m="1" x="928"/>
+        <item m="1" x="793"/>
+        <item m="1" x="110"/>
+        <item m="1" x="939"/>
+        <item m="1" x="671"/>
+        <item m="1" x="604"/>
+        <item m="1" x="947"/>
+        <item m="1" x="531"/>
+        <item m="1" x="165"/>
+        <item m="1" x="337"/>
+        <item m="1" x="114"/>
+        <item m="1" x="463"/>
+        <item m="1" x="841"/>
+        <item m="1" x="426"/>
+        <item m="1" x="289"/>
+        <item m="1" x="504"/>
+        <item m="1" x="182"/>
+        <item m="1" x="434"/>
+        <item m="1" x="305"/>
+        <item m="1" x="656"/>
+        <item m="1" x="1243"/>
+        <item m="1" x="697"/>
+        <item m="1" x="293"/>
+        <item m="1" x="570"/>
+        <item m="1" x="276"/>
+        <item m="1" x="329"/>
+        <item m="1" x="621"/>
+        <item m="1" x="889"/>
+        <item m="1" x="606"/>
+        <item m="1" x="1056"/>
+        <item m="1" x="618"/>
+        <item m="1" x="852"/>
+        <item m="1" x="167"/>
+        <item m="1" x="650"/>
+        <item m="1" x="290"/>
+        <item m="1" x="220"/>
+        <item m="1" x="946"/>
+        <item m="1" x="261"/>
+        <item m="1" x="970"/>
+        <item m="1" x="162"/>
+        <item m="1" x="787"/>
+        <item m="1" x="794"/>
+        <item m="1" x="198"/>
+        <item m="1" x="716"/>
+        <item m="1" x="94"/>
         <item m="1" x="917"/>
-        <item m="1" x="985"/>
-        <item m="1" x="1092"/>
-        <item m="1" x="861"/>
-        <item m="1" x="959"/>
-        <item m="1" x="798"/>
-        <item m="1" x="253"/>
-        <item m="1" x="444"/>
-        <item m="1" x="1220"/>
-        <item m="1" x="788"/>
-        <item m="1" x="928"/>
-        <item m="1" x="456"/>
-        <item m="1" x="417"/>
-        <item m="1" x="709"/>
-        <item m="1" x="601"/>
-        <item m="1" x="634"/>
-        <item m="1" x="193"/>
-        <item m="1" x="332"/>
-        <item m="1" x="994"/>
-        <item m="1" x="1211"/>
-        <item m="1" x="397"/>
-        <item m="1" x="802"/>
+        <item m="1" x="622"/>
+        <item m="1" x="843"/>
         <item m="1" x="812"/>
-        <item m="1" x="989"/>
-        <item m="1" x="1099"/>
-        <item m="1" x="977"/>
-        <item m="1" x="272"/>
-        <item m="1" x="1120"/>
-        <item m="1" x="850"/>
-        <item m="1" x="837"/>
-        <item m="1" x="372"/>
-        <item m="1" x="725"/>
-        <item m="1" x="1072"/>
-        <item m="1" x="190"/>
-        <item m="1" x="769"/>
-        <item m="1" x="1122"/>
-        <item m="1" x="960"/>
-        <item m="1" x="695"/>
-        <item m="1" x="737"/>
-        <item m="1" x="618"/>
-        <item m="1" x="853"/>
-        <item m="1" x="665"/>
-        <item m="1" x="897"/>
-        <item m="1" x="381"/>
-        <item m="1" x="1210"/>
-        <item m="1" x="735"/>
-        <item m="1" x="1021"/>
-        <item m="1" x="98"/>
-        <item m="1" x="1226"/>
-        <item m="1" x="762"/>
-        <item m="1" x="1051"/>
-        <item m="1" x="964"/>
-        <item m="1" x="742"/>
-        <item m="1" x="252"/>
-        <item m="1" x="259"/>
-        <item m="1" x="299"/>
-        <item m="1" x="481"/>
-        <item m="1" x="905"/>
-        <item m="1" x="666"/>
-        <item m="1" x="782"/>
-        <item m="1" x="845"/>
-        <item m="1" x="992"/>
-        <item m="1" x="1075"/>
-        <item m="1" x="637"/>
-        <item m="1" x="358"/>
-        <item m="1" x="201"/>
-        <item m="1" x="344"/>
-        <item m="1" x="1219"/>
-        <item m="1" x="376"/>
-        <item m="1" x="1057"/>
-        <item m="1" x="986"/>
-        <item m="1" x="604"/>
-        <item m="1" x="676"/>
-        <item m="1" x="542"/>
-        <item m="1" x="799"/>
-        <item m="1" x="1174"/>
-        <item m="1" x="350"/>
-        <item m="1" x="298"/>
-        <item m="1" x="233"/>
-        <item m="1" x="899"/>
-        <item m="1" x="1159"/>
-        <item m="1" x="1087"/>
-        <item m="1" x="744"/>
-        <item m="1" x="268"/>
-        <item m="1" x="993"/>
-        <item m="1" x="445"/>
-        <item m="1" x="699"/>
-        <item m="1" x="874"/>
-        <item m="1" x="982"/>
-        <item m="1" x="102"/>
-        <item m="1" x="931"/>
-        <item m="1" x="894"/>
-        <item m="1" x="335"/>
-        <item m="1" x="783"/>
-        <item m="1" x="671"/>
-        <item m="1" x="624"/>
-        <item m="1" x="357"/>
-        <item m="1" x="293"/>
-        <item m="1" x="533"/>
-        <item m="1" x="720"/>
-        <item m="1" x="127"/>
-        <item m="1" x="466"/>
-        <item m="1" x="325"/>
-        <item m="1" x="67"/>
-        <item m="1" x="577"/>
-        <item m="1" x="778"/>
-        <item m="1" x="660"/>
-        <item m="1" x="706"/>
-        <item m="1" x="1025"/>
-        <item m="1" x="607"/>
-        <item m="1" x="1133"/>
-        <item m="1" x="857"/>
-        <item m="1" x="796"/>
-        <item m="1" x="310"/>
-        <item m="1" x="943"/>
-        <item m="1" x="1221"/>
-        <item m="1" x="909"/>
-        <item m="1" x="893"/>
-        <item m="1" x="180"/>
-        <item m="1" x="228"/>
-        <item m="1" x="763"/>
-        <item m="1" x="269"/>
-        <item m="1" x="1206"/>
-        <item m="1" x="872"/>
-        <item m="1" x="797"/>
-        <item m="1" x="749"/>
-        <item m="1" x="550"/>
-        <item m="1" x="178"/>
-        <item m="1" x="278"/>
-        <item m="1" x="384"/>
-        <item m="1" x="1117"/>
-        <item m="1" x="1149"/>
-        <item m="1" x="848"/>
-        <item m="1" x="575"/>
-        <item m="1" x="663"/>
-        <item m="1" x="173"/>
-        <item m="1" x="213"/>
-        <item m="1" x="552"/>
-        <item m="1" x="777"/>
-        <item m="1" x="690"/>
-        <item m="1" x="348"/>
-        <item m="1" x="581"/>
-        <item m="1" x="295"/>
-        <item m="1" x="490"/>
-        <item m="1" x="412"/>
-        <item m="1" x="247"/>
+        <item m="1" x="1032"/>
+        <item m="1" x="805"/>
         <item m="1" x="383"/>
-        <item m="1" x="753"/>
-        <item m="1" x="163"/>
-        <item m="1" x="402"/>
-        <item m="1" x="194"/>
-        <item m="1" x="887"/>
-        <item m="1" x="1076"/>
-        <item m="1" x="686"/>
-        <item m="1" x="330"/>
-        <item m="1" x="980"/>
-        <item m="1" x="825"/>
-        <item m="1" x="342"/>
-        <item m="1" x="343"/>
-        <item m="1" x="528"/>
-        <item m="1" x="218"/>
-        <item m="1" x="407"/>
-        <item m="1" x="202"/>
-        <item m="1" x="388"/>
-        <item m="1" x="956"/>
-        <item m="1" x="467"/>
-        <item m="1" x="834"/>
         <item m="1" x="884"/>
         <item m="1" x="1018"/>
-        <item m="1" x="1022"/>
-        <item m="1" x="739"/>
-        <item m="1" x="580"/>
-        <item m="1" x="619"/>
-        <item m="1" x="1186"/>
-        <item m="1" x="479"/>
-        <item m="1" x="291"/>
+        <item m="1" x="708"/>
+        <item m="1" x="840"/>
+        <item m="1" x="173"/>
+        <item m="1" x="1006"/>
+        <item m="1" x="663"/>
+        <item m="1" x="528"/>
+        <item m="1" x="912"/>
+        <item m="1" x="438"/>
+        <item m="1" x="761"/>
+        <item m="1" x="295"/>
+        <item m="1" x="391"/>
+        <item m="1" x="788"/>
+        <item m="1" x="557"/>
+        <item m="1" x="101"/>
+        <item m="1" x="435"/>
+        <item m="1" x="915"/>
+        <item m="1" x="1017"/>
+        <item m="1" x="120"/>
+        <item m="1" x="405"/>
+        <item m="1" x="340"/>
+        <item m="1" x="673"/>
+        <item m="1" x="766"/>
+        <item m="1" x="206"/>
+        <item m="1" x="1188"/>
+        <item m="1" x="171"/>
+        <item m="1" x="244"/>
+        <item m="1" x="1025"/>
+        <item m="1" x="533"/>
+        <item m="1" x="547"/>
+        <item m="1" x="601"/>
+        <item m="1" x="176"/>
+        <item m="1" x="455"/>
+        <item m="1" x="850"/>
+        <item m="1" x="762"/>
+        <item m="1" x="552"/>
+        <item m="1" x="499"/>
+        <item m="1" x="129"/>
+        <item m="1" x="367"/>
+        <item m="1" x="831"/>
+        <item m="1" x="465"/>
+        <item m="1" x="628"/>
+        <item m="1" x="565"/>
+        <item m="1" x="747"/>
+        <item m="1" x="111"/>
+        <item m="1" x="592"/>
+        <item m="1" x="266"/>
         <item m="1" x="669"/>
-        <item m="1" x="126"/>
-        <item m="1" x="1190"/>
+        <item m="1" x="795"/>
+        <item m="1" x="871"/>
+        <item m="1" x="806"/>
+        <item m="1" x="767"/>
+        <item m="1" x="693"/>
+        <item m="1" x="1104"/>
+        <item m="1" x="996"/>
+        <item m="1" x="247"/>
+        <item m="1" x="988"/>
+        <item m="1" x="442"/>
+        <item m="1" x="752"/>
+        <item m="1" x="158"/>
+        <item m="1" x="731"/>
+        <item m="1" x="598"/>
+        <item m="1" x="1030"/>
+        <item m="1" x="184"/>
+        <item m="1" x="1241"/>
+        <item m="1" x="223"/>
+        <item m="1" x="163"/>
+        <item m="1" x="733"/>
+        <item m="1" x="933"/>
+        <item m="1" x="836"/>
+        <item m="1" x="122"/>
+        <item m="1" x="274"/>
+        <item m="1" x="1062"/>
+        <item m="1" x="1002"/>
+        <item m="1" x="257"/>
+        <item m="1" x="230"/>
+        <item m="1" x="525"/>
+        <item m="1" x="146"/>
+        <item m="1" x="753"/>
+        <item m="1" x="186"/>
+        <item m="1" x="356"/>
         <item m="1" x="653"/>
-        <item m="1" x="87"/>
-        <item m="1" x="1108"/>
-        <item m="1" x="1151"/>
-        <item m="1" x="988"/>
-        <item m="1" x="365"/>
-        <item m="1" x="104"/>
-        <item m="1" x="1038"/>
-        <item m="1" x="429"/>
-        <item m="1" x="65"/>
-        <item m="1" x="1209"/>
-        <item m="1" x="453"/>
-        <item m="1" x="608"/>
-        <item m="1" x="1053"/>
-        <item m="1" x="140"/>
-        <item m="1" x="965"/>
-        <item m="1" x="773"/>
-        <item m="1" x="638"/>
-        <item m="1" x="508"/>
-        <item m="1" x="255"/>
-        <item m="1" x="756"/>
-        <item m="1" x="458"/>
-        <item m="1" x="996"/>
+        <item m="1" x="1184"/>
+        <item m="1" x="224"/>
+        <item m="1" x="494"/>
+        <item m="1" x="341"/>
+        <item m="1" x="503"/>
+        <item m="1" x="1057"/>
+        <item m="1" x="940"/>
+        <item m="1" x="402"/>
+        <item m="1" x="155"/>
+        <item m="1" x="1105"/>
+        <item m="1" x="268"/>
+        <item m="1" x="1050"/>
+        <item m="1" x="607"/>
+        <item m="1" x="991"/>
+        <item m="1" x="350"/>
+        <item m="1" x="522"/>
+        <item m="1" x="1007"/>
+        <item m="1" x="1195"/>
+        <item m="1" x="971"/>
+        <item m="1" x="370"/>
+        <item m="1" x="313"/>
+        <item m="1" x="1016"/>
+        <item m="1" x="780"/>
+        <item m="1" x="624"/>
+        <item m="1" x="1048"/>
+        <item m="1" x="96"/>
+        <item m="1" x="93"/>
+        <item m="1" x="768"/>
+        <item m="1" x="908"/>
+        <item m="1" x="863"/>
+        <item m="1" x="1046"/>
+        <item m="1" x="571"/>
         <item m="1" x="318"/>
-        <item m="1" x="1066"/>
-        <item m="1" x="1073"/>
-        <item m="1" x="757"/>
-        <item m="1" x="947"/>
-        <item m="1" x="364"/>
-        <item m="1" x="661"/>
-        <item m="1" x="950"/>
-        <item m="1" x="534"/>
-        <item m="1" x="824"/>
-        <item m="1" x="463"/>
-        <item m="1" x="248"/>
-        <item m="1" x="452"/>
-        <item m="1" x="1218"/>
-        <item m="1" x="1160"/>
-        <item m="1" x="305"/>
-        <item m="1" x="1106"/>
-        <item m="1" x="112"/>
-        <item m="1" x="1128"/>
-        <item m="1" x="147"/>
-        <item m="1" x="449"/>
-        <item m="1" x="547"/>
-        <item m="1" x="494"/>
-        <item m="1" x="1101"/>
-        <item m="1" x="1004"/>
-        <item m="1" x="245"/>
-        <item m="1" x="815"/>
-        <item m="1" x="1023"/>
-        <item m="1" x="1157"/>
-        <item m="1" x="1064"/>
-        <item m="1" x="150"/>
-        <item m="1" x="1230"/>
-        <item m="1" x="301"/>
-        <item m="1" x="582"/>
-        <item m="1" x="1026"/>
-        <item m="1" x="149"/>
-        <item m="1" x="1085"/>
-        <item m="1" x="314"/>
-        <item m="1" x="958"/>
-        <item m="1" x="822"/>
-        <item m="1" x="800"/>
-        <item m="1" x="379"/>
-        <item m="1" x="341"/>
-        <item m="1" x="1153"/>
-        <item m="1" x="94"/>
-        <item m="1" x="276"/>
-        <item m="1" x="935"/>
-        <item m="1" x="1046"/>
-        <item m="1" x="973"/>
-        <item m="1" x="1177"/>
-        <item m="1" x="681"/>
-        <item m="1" x="308"/>
-        <item m="1" x="428"/>
-        <item m="1" x="747"/>
-        <item m="1" x="489"/>
-        <item m="1" x="817"/>
-        <item m="1" x="430"/>
-        <item m="1" x="232"/>
-        <item m="1" x="885"/>
-        <item m="1" x="287"/>
-        <item m="1" x="167"/>
-        <item m="1" x="1019"/>
-        <item m="1" x="1166"/>
-        <item m="1" x="867"/>
-        <item m="1" x="132"/>
-        <item m="1" x="1058"/>
-        <item m="1" x="856"/>
-        <item m="1" x="966"/>
-        <item m="1" x="1105"/>
-        <item m="1" x="333"/>
-        <item m="1" x="525"/>
-        <item m="1" x="363"/>
-        <item m="1" x="631"/>
-        <item m="1" x="555"/>
-        <item m="1" x="585"/>
-        <item m="1" x="1121"/>
-        <item m="1" x="567"/>
-        <item m="1" x="770"/>
-        <item m="1" x="302"/>
-        <item m="1" x="501"/>
-        <item m="1" x="475"/>
-        <item m="1" x="818"/>
-        <item m="1" x="721"/>
-        <item m="1" x="949"/>
-        <item m="1" x="471"/>
-        <item m="1" x="1107"/>
-        <item m="1" x="309"/>
-        <item m="1" x="235"/>
-        <item m="1" x="491"/>
-        <item m="1" x="1032"/>
-        <item m="1" x="142"/>
-        <item m="1" x="143"/>
-        <item m="1" x="439"/>
-        <item m="1" x="1112"/>
-        <item m="1" x="506"/>
-        <item m="1" x="151"/>
-        <item m="1" x="311"/>
-        <item m="1" x="553"/>
-        <item m="1" x="864"/>
-        <item m="1" x="836"/>
-        <item m="1" x="507"/>
-        <item m="1" x="88"/>
-        <item m="1" x="226"/>
-        <item m="1" x="438"/>
-        <item m="1" x="326"/>
-        <item m="1" x="83"/>
-        <item m="1" x="1036"/>
-        <item m="1" x="1165"/>
-        <item m="1" x="635"/>
-        <item m="1" x="1065"/>
-        <item m="1" x="1125"/>
-        <item m="1" x="148"/>
-        <item m="1" x="1163"/>
-        <item m="1" x="901"/>
-        <item m="1" x="324"/>
-        <item m="1" x="510"/>
-        <item m="1" x="414"/>
-        <item m="1" x="776"/>
-        <item m="1" x="347"/>
-        <item m="1" x="563"/>
-        <item m="1" x="858"/>
-        <item m="1" x="983"/>
-        <item m="1" x="486"/>
-        <item m="1" x="614"/>
-        <item m="1" x="426"/>
-        <item m="1" x="352"/>
-        <item m="1" x="863"/>
-        <item m="1" x="978"/>
-        <item m="1" x="1140"/>
-        <item m="1" x="182"/>
-        <item m="1" x="386"/>
-        <item m="1" x="826"/>
-        <item m="1" x="227"/>
-        <item m="1" x="514"/>
-        <item m="1" x="895"/>
-        <item m="1" x="160"/>
-        <item m="1" x="370"/>
-        <item m="1" x="480"/>
-        <item m="1" x="1086"/>
-        <item m="1" x="319"/>
-        <item m="1" x="589"/>
-        <item m="1" x="1142"/>
-        <item m="1" x="270"/>
-        <item m="1" x="459"/>
-        <item m="1" x="647"/>
-        <item m="1" x="984"/>
-        <item m="1" x="282"/>
-        <item m="1" x="538"/>
-        <item m="1" x="380"/>
-        <item m="1" x="876"/>
-        <item m="1" x="1062"/>
-        <item m="1" x="188"/>
-        <item m="1" x="408"/>
-        <item m="1" x="1144"/>
-        <item m="1" x="1109"/>
-        <item m="1" x="209"/>
-        <item m="1" x="526"/>
-        <item m="1" x="1050"/>
-        <item m="1" x="1181"/>
-        <item m="1" x="1052"/>
-        <item m="1" x="1027"/>
-        <item m="1" x="158"/>
-        <item m="1" x="334"/>
-        <item m="1" x="416"/>
-        <item m="1" x="405"/>
-        <item m="1" x="632"/>
-        <item m="1" x="120"/>
-        <item m="1" x="819"/>
-        <item m="1" x="890"/>
-        <item m="1" x="72"/>
-        <item m="1" x="1150"/>
-        <item m="1" x="1012"/>
-        <item m="1" x="1141"/>
-        <item m="1" x="1171"/>
-        <item m="1" x="1207"/>
-        <item m="1" x="1145"/>
-        <item m="1" x="509"/>
-        <item m="1" x="869"/>
-        <item m="1" x="476"/>
-        <item m="1" x="882"/>
-        <item m="1" x="847"/>
-        <item m="1" x="285"/>
-        <item m="1" x="323"/>
-        <item m="1" x="461"/>
-        <item m="1" x="926"/>
-        <item m="1" x="446"/>
-        <item m="1" x="192"/>
-        <item m="1" x="1191"/>
-        <item m="1" x="941"/>
-        <item m="1" x="774"/>
-        <item m="1" x="806"/>
-        <item m="1" x="855"/>
-        <item m="1" x="280"/>
-        <item m="1" x="622"/>
-        <item m="1" x="967"/>
-        <item m="1" x="118"/>
-        <item m="1" x="361"/>
-        <item m="1" x="261"/>
-        <item m="1" x="258"/>
-        <item m="1" x="262"/>
-        <item m="1" x="63"/>
-        <item m="1" x="284"/>
-        <item m="1" x="1081"/>
-        <item m="1" x="85"/>
-        <item m="1" x="731"/>
-        <item m="1" x="1168"/>
-        <item m="1" x="979"/>
-        <item m="1" x="239"/>
-        <item m="1" x="1239"/>
-        <item m="1" x="168"/>
-        <item m="1" x="535"/>
-        <item m="1" x="758"/>
-        <item m="1" x="214"/>
-        <item m="1" x="667"/>
-        <item m="1" x="827"/>
-        <item m="1" x="1095"/>
-        <item m="1" x="997"/>
-        <item m="1" x="76"/>
-        <item m="1" x="759"/>
-        <item m="1" x="159"/>
-        <item m="1" x="395"/>
-        <item m="1" x="367"/>
-        <item m="1" x="129"/>
-        <item m="1" x="722"/>
-        <item m="1" x="729"/>
-        <item m="1" x="829"/>
-        <item m="1" x="578"/>
-        <item m="1" x="1078"/>
-        <item m="1" x="487"/>
-        <item m="1" x="1197"/>
-        <item m="1" x="832"/>
-        <item m="1" x="723"/>
-        <item m="1" x="387"/>
-        <item m="1" x="795"/>
-        <item m="1" x="1093"/>
-        <item m="1" x="1158"/>
-        <item m="1" x="1137"/>
-        <item m="1" x="1067"/>
-        <item m="1" x="816"/>
-        <item m="1" x="929"/>
-        <item m="1" x="442"/>
-        <item m="1" x="891"/>
-        <item m="1" x="716"/>
-        <item m="1" x="675"/>
-        <item m="1" x="673"/>
-        <item m="1" x="674"/>
-        <item m="1" x="371"/>
-        <item m="1" x="415"/>
-        <item m="1" x="1028"/>
-        <item m="1" x="593"/>
-        <item m="1" x="435"/>
-        <item m="1" x="477"/>
-        <item m="1" x="523"/>
-        <item m="1" x="775"/>
-        <item m="1" x="1113"/>
-        <item m="1" x="1202"/>
-        <item m="1" x="320"/>
-        <item m="1" x="271"/>
-        <item m="1" x="108"/>
-        <item m="1" x="130"/>
-        <item m="1" x="427"/>
-        <item m="1" x="215"/>
-        <item m="1" x="543"/>
-        <item m="1" x="1079"/>
-        <item m="1" x="420"/>
-        <item m="1" x="212"/>
-        <item m="1" x="971"/>
-        <item m="1" x="89"/>
-        <item m="1" x="1097"/>
-        <item m="1" x="1172"/>
-        <item m="1" x="1236"/>
-        <item m="1" x="1111"/>
-        <item m="1" x="354"/>
-        <item m="1" x="131"/>
-        <item m="1" x="595"/>
-        <item m="1" x="679"/>
-        <item m="1" x="875"/>
-        <item m="1" x="843"/>
-        <item m="1" x="879"/>
-        <item m="1" x="656"/>
+        <item m="1" x="392"/>
+        <item m="1" x="922"/>
+        <item m="1" x="474"/>
+        <item m="1" x="704"/>
+        <item m="1" x="1119"/>
+        <item m="1" x="357"/>
         <item m="1" x="694"/>
-        <item m="1" x="1135"/>
-        <item m="1" x="898"/>
-        <item m="1" x="868"/>
-        <item m="1" x="807"/>
-        <item m="1" x="880"/>
-        <item m="1" x="81"/>
-        <item m="1" x="86"/>
-        <item m="1" x="689"/>
-        <item m="1" x="1074"/>
-        <item m="1" x="644"/>
-        <item m="1" x="1214"/>
-        <item m="1" x="613"/>
-        <item m="1" x="789"/>
-        <item m="1" x="860"/>
-        <item m="1" x="474"/>
-        <item m="1" x="306"/>
-        <item m="1" x="682"/>
-        <item m="1" x="368"/>
-        <item m="1" x="1223"/>
-        <item m="1" x="1138"/>
-        <item m="1" x="951"/>
-        <item m="1" x="208"/>
-        <item m="1" x="135"/>
-        <item m="1" x="708"/>
-        <item m="1" x="952"/>
-        <item m="1" x="1241"/>
-        <item m="1" x="587"/>
-        <item m="1" x="1188"/>
-        <item m="1" x="122"/>
-        <item m="1" x="236"/>
-        <item m="1" x="548"/>
-        <item m="1" x="639"/>
-        <item m="1" x="1068"/>
-        <item m="1" x="392"/>
-        <item m="1" x="1071"/>
-        <item m="1" x="488"/>
-        <item m="1" x="1060"/>
-        <item m="1" x="1224"/>
-        <item m="1" x="152"/>
-        <item m="1" x="1208"/>
-        <item m="1" x="99"/>
-        <item m="1" x="961"/>
-        <item m="1" x="579"/>
-        <item m="1" x="410"/>
-        <item m="1" x="373"/>
-        <item m="1" x="517"/>
-        <item m="1" x="116"/>
-        <item m="1" x="1201"/>
-        <item m="1" x="200"/>
-        <item m="1" x="221"/>
-        <item m="1" x="1094"/>
-        <item m="1" x="1173"/>
-        <item m="1" x="687"/>
-        <item m="1" x="828"/>
-        <item m="1" x="529"/>
-        <item m="1" x="642"/>
-        <item m="1" x="791"/>
-        <item m="1" x="908"/>
-        <item m="1" x="495"/>
-        <item m="1" x="771"/>
-        <item m="1" x="590"/>
-        <item m="1" x="1227"/>
-        <item m="1" x="80"/>
-        <item m="1" x="519"/>
-        <item m="1" x="460"/>
-        <item m="1" x="421"/>
-        <item m="1" x="1215"/>
-        <item m="1" x="1033"/>
-        <item m="1" x="1164"/>
-        <item m="1" x="177"/>
-        <item m="1" x="1175"/>
-        <item m="1" x="1162"/>
-        <item m="1" x="1039"/>
-        <item m="1" x="274"/>
-        <item m="1" x="643"/>
-        <item m="1" x="736"/>
-        <item m="1" x="482"/>
-        <item m="1" x="1080"/>
-        <item m="1" x="866"/>
-        <item m="1" x="886"/>
-        <item m="1" x="780"/>
-        <item m="1" x="123"/>
-        <item m="1" x="953"/>
-        <item m="1" x="1115"/>
-        <item m="1" x="520"/>
-        <item m="1" x="1234"/>
-        <item m="1" x="728"/>
-        <item m="1" x="315"/>
-        <item m="1" x="448"/>
-        <item m="1" x="484"/>
-        <item m="1" x="1143"/>
-        <item m="1" x="1127"/>
-        <item m="1" x="187"/>
-        <item m="1" x="189"/>
-        <item m="1" x="103"/>
-        <item m="1" x="1063"/>
-        <item m="1" x="105"/>
-        <item m="1" x="522"/>
-        <item m="1" x="422"/>
-        <item m="1" x="878"/>
-        <item m="1" x="821"/>
-        <item m="1" x="1170"/>
-        <item m="1" x="1102"/>
-        <item m="1" x="594"/>
-        <item m="1" x="808"/>
-        <item m="1" x="1043"/>
-        <item m="1" x="156"/>
-        <item m="1" x="588"/>
-        <item m="1" x="518"/>
-        <item m="1" x="1212"/>
-        <item m="1" x="1179"/>
-        <item m="1" x="610"/>
-        <item m="1" x="216"/>
-        <item m="1" x="511"/>
-        <item m="1" x="684"/>
-        <item m="1" x="138"/>
-        <item m="1" x="974"/>
-        <item m="1" x="568"/>
-        <item m="1" x="378"/>
-        <item m="1" x="472"/>
-        <item m="1" x="918"/>
-        <item m="1" x="1217"/>
-        <item m="1" x="296"/>
-        <item m="1" x="1069"/>
-        <item m="1" x="290"/>
-        <item m="1" x="854"/>
-        <item m="1" x="626"/>
-        <item m="1" x="557"/>
-        <item m="1" x="279"/>
-        <item m="1" x="346"/>
-        <item m="1" x="134"/>
-        <item m="1" x="934"/>
-        <item m="1" x="447"/>
-        <item m="1" x="171"/>
-        <item m="1" x="785"/>
-        <item m="1" x="1100"/>
-        <item m="1" x="640"/>
-        <item m="1" x="598"/>
-        <item m="1" x="69"/>
-        <item m="1" x="1205"/>
-        <item m="1" x="455"/>
-        <item m="1" x="515"/>
-        <item m="1" x="922"/>
-        <item m="1" x="1199"/>
-        <item m="1" x="1124"/>
-        <item m="1" x="975"/>
-        <item m="1" x="1090"/>
-        <item m="1" x="251"/>
-        <item m="1" x="450"/>
-        <item m="1" x="283"/>
-        <item m="1" x="75"/>
-        <item m="1" x="688"/>
-        <item m="1" x="137"/>
-        <item m="1" x="359"/>
-        <item m="1" x="303"/>
-        <item m="1" x="249"/>
-        <item m="1" x="1204"/>
-        <item m="1" x="300"/>
-        <item m="1" x="902"/>
-        <item m="1" x="1114"/>
-        <item m="1" x="240"/>
-        <item m="1" x="144"/>
-        <item m="1" x="937"/>
-        <item m="1" x="913"/>
-        <item m="1" x="954"/>
-        <item m="1" x="873"/>
-        <item m="1" x="217"/>
-        <item m="1" x="573"/>
-        <item m="1" x="841"/>
-        <item m="1" x="1091"/>
-        <item m="1" x="685"/>
-        <item m="1" x="803"/>
-        <item m="1" x="1147"/>
-        <item m="1" x="559"/>
-        <item m="1" x="403"/>
-        <item m="1" x="636"/>
-        <item m="1" x="583"/>
-        <item m="1" x="513"/>
-        <item m="1" x="1030"/>
-        <item m="1" x="717"/>
-        <item m="1" x="813"/>
-        <item m="1" x="64"/>
-        <item m="1" x="609"/>
-        <item m="1" x="211"/>
-        <item m="1" x="478"/>
-        <item m="1" x="616"/>
-        <item m="1" x="146"/>
-        <item m="1" x="263"/>
-        <item m="1" x="718"/>
-        <item m="1" x="915"/>
-        <item m="1" x="1185"/>
-        <item m="1" x="1228"/>
-        <item m="1" x="838"/>
-        <item m="1" x="186"/>
-        <item m="1" x="114"/>
-        <item m="1" x="700"/>
-        <item m="1" x="322"/>
-        <item m="1" x="596"/>
-        <item m="1" x="224"/>
-        <item m="1" x="327"/>
-        <item m="1" x="754"/>
-        <item m="1" x="1110"/>
-        <item m="1" x="1041"/>
-        <item m="1" x="457"/>
-        <item m="1" x="492"/>
-        <item m="1" x="768"/>
-        <item m="1" x="1198"/>
-        <item m="1" x="924"/>
-        <item m="1" x="90"/>
-        <item m="1" x="1152"/>
-        <item m="1" x="198"/>
-        <item m="1" x="844"/>
-        <item m="1" x="889"/>
-        <item m="1" x="892"/>
-        <item m="1" x="1232"/>
-        <item m="1" x="125"/>
-        <item m="1" x="903"/>
-        <item m="1" x="1000"/>
-        <item m="1" x="772"/>
-        <item m="1" x="942"/>
-        <item m="1" x="184"/>
-        <item m="1" x="576"/>
-        <item m="1" x="423"/>
-        <item m="1" x="1035"/>
-        <item m="1" x="1130"/>
-        <item m="1" x="659"/>
-        <item m="1" x="1098"/>
-        <item m="1" x="1146"/>
-        <item m="1" x="499"/>
-        <item m="1" x="1002"/>
-        <item m="1" x="865"/>
-        <item m="1" x="1148"/>
-        <item m="1" x="1192"/>
-        <item m="1" x="930"/>
-        <item m="1" x="540"/>
-        <item m="1" x="345"/>
-        <item m="1" x="1180"/>
-        <item m="1" x="727"/>
-        <item m="1" x="701"/>
-        <item m="1" x="710"/>
-        <item m="1" x="1231"/>
-        <item m="1" x="955"/>
-        <item m="1" x="650"/>
-        <item m="1" x="919"/>
-        <item m="1" x="896"/>
-        <item m="1" x="512"/>
-        <item m="1" x="413"/>
-        <item m="1" x="912"/>
-        <item m="1" x="307"/>
-        <item m="1" x="264"/>
-        <item m="1" x="206"/>
-        <item m="1" x="1193"/>
-        <item m="1" x="809"/>
-        <item m="1" x="544"/>
-        <item m="1" x="625"/>
-        <item m="1" x="106"/>
-        <item m="1" x="1182"/>
-        <item m="1" x="733"/>
-        <item m="1" x="881"/>
-        <item m="1" x="329"/>
-        <item m="1" x="1013"/>
-        <item m="1" x="516"/>
-        <item m="1" x="409"/>
-        <item m="1" x="1237"/>
-        <item m="1" x="539"/>
-        <item m="1" x="1178"/>
-        <item m="1" x="764"/>
-        <item m="1" x="440"/>
-        <item m="1" x="231"/>
-        <item m="1" x="174"/>
-        <item m="1" x="468"/>
-        <item m="1" x="165"/>
-        <item m="1" x="136"/>
-        <item m="1" x="153"/>
-        <item m="1" x="432"/>
-        <item m="1" x="277"/>
-        <item m="1" x="584"/>
-        <item m="1" x="641"/>
-        <item m="1" x="740"/>
-        <item m="1" x="611"/>
-        <item m="1" x="944"/>
-        <item m="1" x="1008"/>
-        <item m="1" x="220"/>
-        <item m="1" x="230"/>
-        <item m="1" x="419"/>
-        <item m="1" x="561"/>
-        <item m="1" x="351"/>
-        <item m="1" x="904"/>
-        <item m="1" x="654"/>
-        <item m="1" x="571"/>
-        <item m="1" x="704"/>
-        <item m="1" x="1010"/>
-        <item m="1" x="948"/>
-        <item m="1" x="1034"/>
-        <item m="1" x="790"/>
-        <item m="1" x="210"/>
-        <item m="1" x="1216"/>
-        <item m="1" x="629"/>
-        <item m="1" x="244"/>
-        <item m="1" x="68"/>
-        <item m="1" x="1213"/>
-        <item m="1" x="697"/>
-        <item m="1" x="664"/>
-        <item m="1" x="436"/>
-        <item m="1" x="316"/>
-        <item m="1" x="400"/>
-        <item m="1" x="554"/>
-        <item m="1" x="1129"/>
-        <item m="1" x="1048"/>
-        <item m="1" x="424"/>
-        <item m="1" x="497"/>
-        <item m="1" x="504"/>
-        <item m="1" x="1042"/>
-        <item m="1" x="645"/>
-        <item m="1" x="117"/>
-        <item m="1" x="678"/>
-        <item m="1" x="957"/>
-        <item m="1" x="1083"/>
-        <item m="1" x="976"/>
-        <item m="1" x="784"/>
-        <item m="1" x="1082"/>
-        <item m="1" x="96"/>
-        <item m="1" x="999"/>
         <item m="1" x="78"/>
-        <item m="1" x="418"/>
-        <item m="1" x="82"/>
-        <item m="1" x="241"/>
-        <item m="1" x="331"/>
-        <item m="1" x="337"/>
-        <item m="1" x="755"/>
-        <item m="1" x="1009"/>
-        <item m="1" x="536"/>
-        <item m="1" x="107"/>
-        <item m="1" x="313"/>
-        <item m="1" x="101"/>
-        <item m="1" x="1096"/>
-        <item m="1" x="321"/>
-        <item m="1" x="657"/>
-        <item m="1" x="1116"/>
-        <item m="1" x="443"/>
-        <item m="1" x="385"/>
-        <item m="1" x="781"/>
-        <item m="1" x="338"/>
-        <item m="1" x="646"/>
-        <item m="1" x="940"/>
-        <item m="1" x="79"/>
-        <item m="1" x="592"/>
-        <item m="1" x="711"/>
-        <item m="1" x="203"/>
-        <item m="1" x="545"/>
-        <item m="1" x="680"/>
-        <item m="1" x="431"/>
-        <item m="1" x="469"/>
-        <item m="1" x="196"/>
-        <item m="1" x="602"/>
-        <item m="1" x="66"/>
-        <item m="1" x="738"/>
-        <item m="1" x="1131"/>
-        <item m="1" x="852"/>
-        <item m="1" x="846"/>
-        <item m="1" x="745"/>
-        <item m="1" x="71"/>
-        <item m="1" x="877"/>
-        <item m="1" x="920"/>
-        <item m="1" x="726"/>
-        <item m="1" x="70"/>
-        <item m="1" x="1077"/>
-        <item m="1" x="1044"/>
-        <item m="1" x="74"/>
-        <item m="1" x="353"/>
-        <item m="1" x="743"/>
-        <item m="1" x="998"/>
-        <item m="1" x="195"/>
-        <item m="1" x="91"/>
-        <item m="1" x="250"/>
-        <item m="1" x="141"/>
-        <item m="1" x="549"/>
-        <item m="1" x="362"/>
-        <item m="1" x="360"/>
-        <item m="1" x="531"/>
-        <item m="1" x="633"/>
-        <item m="1" x="537"/>
-        <item m="1" x="734"/>
-        <item m="1" x="586"/>
-        <item m="1" x="451"/>
-        <item m="1" x="566"/>
-        <item m="1" x="1059"/>
-        <item m="1" x="1154"/>
-        <item m="1" x="411"/>
-        <item m="1" x="1134"/>
-        <item m="1" x="176"/>
-        <item m="1" x="1123"/>
-        <item m="1" x="820"/>
-        <item m="1" x="991"/>
-        <item m="1" x="1070"/>
-        <item m="1" x="750"/>
-        <item m="1" x="962"/>
-        <item m="1" x="254"/>
-        <item m="1" x="237"/>
-        <item m="1" x="859"/>
-        <item m="1" x="831"/>
-        <item m="1" x="393"/>
-        <item m="1" x="1229"/>
-        <item m="1" x="801"/>
-        <item m="1" x="541"/>
-        <item m="1" x="615"/>
-        <item m="1" x="574"/>
-        <item m="1" x="1084"/>
-        <item m="1" x="1088"/>
-        <item m="1" x="84"/>
-        <item m="1" x="968"/>
-        <item m="1" x="1014"/>
-        <item m="1" x="133"/>
-        <item m="1" x="505"/>
-        <item m="1" x="496"/>
-        <item m="1" x="1003"/>
-        <item m="1" x="702"/>
-        <item m="1" x="906"/>
-        <item m="1" x="572"/>
-        <item m="1" x="923"/>
-        <item m="1" x="111"/>
-        <item m="1" x="234"/>
-        <item m="1" x="1203"/>
-        <item m="1" x="823"/>
-        <item m="1" x="1195"/>
-        <item m="1" x="115"/>
-        <item m="1" x="375"/>
-        <item m="1" x="191"/>
-        <item m="1" x="124"/>
-        <item m="1" x="139"/>
-        <item m="1" x="691"/>
-        <item m="1" x="724"/>
-        <item m="1" x="396"/>
-        <item m="1" x="814"/>
-        <item m="1" x="1132"/>
-        <item m="1" x="483"/>
-        <item m="1" x="562"/>
-        <item m="1" x="712"/>
-        <item m="1" x="1200"/>
-        <item m="1" x="377"/>
-        <item m="1" x="389"/>
-        <item m="1" x="399"/>
-        <item m="1" x="1020"/>
-        <item m="1" x="1156"/>
-        <item m="1" x="73"/>
-        <item m="1" x="900"/>
-        <item m="1" x="1196"/>
-        <item m="1" x="297"/>
-        <item m="1" x="612"/>
-        <item m="1" x="1233"/>
-        <item m="1" x="1139"/>
-        <item m="1" x="286"/>
-        <item m="1" x="398"/>
-        <item m="1" x="485"/>
-        <item m="1" x="810"/>
-        <item m="1" x="1007"/>
-        <item m="1" x="242"/>
-        <item m="1" x="713"/>
-        <item m="1" x="238"/>
-        <item m="1" x="207"/>
-        <item m="1" x="155"/>
-        <item m="1" x="1126"/>
-        <item m="1" x="719"/>
-        <item m="1" x="1167"/>
-        <item m="1" x="560"/>
-        <item m="1" x="1184"/>
-        <item m="1" x="936"/>
-        <item m="1" x="225"/>
-        <item m="1" x="1040"/>
-        <item m="1" x="1054"/>
-        <item m="1" x="714"/>
-        <item m="1" x="1089"/>
-        <item m="1" x="927"/>
-        <item m="1" x="792"/>
-        <item m="1" x="109"/>
-        <item m="1" x="938"/>
-        <item m="1" x="670"/>
-        <item m="1" x="603"/>
-        <item m="1" x="946"/>
-        <item m="1" x="530"/>
-        <item m="1" x="164"/>
-        <item m="1" x="336"/>
-        <item m="1" x="113"/>
-        <item m="1" x="462"/>
-        <item m="1" x="840"/>
-        <item m="1" x="425"/>
-        <item m="1" x="288"/>
-        <item m="1" x="503"/>
-        <item m="1" x="181"/>
-        <item m="1" x="433"/>
-        <item m="1" x="304"/>
-        <item m="1" x="655"/>
-        <item m="1" x="1242"/>
-        <item m="1" x="696"/>
-        <item m="1" x="292"/>
-        <item m="1" x="569"/>
-        <item m="1" x="275"/>
-        <item m="1" x="328"/>
-        <item m="1" x="620"/>
-        <item m="1" x="888"/>
-        <item m="1" x="605"/>
-        <item m="1" x="1055"/>
-        <item m="1" x="617"/>
-        <item m="1" x="851"/>
-        <item m="1" x="166"/>
-        <item m="1" x="649"/>
-        <item m="1" x="289"/>
-        <item m="1" x="219"/>
-        <item m="1" x="945"/>
-        <item m="1" x="260"/>
-        <item m="1" x="969"/>
-        <item m="1" x="161"/>
-        <item m="1" x="786"/>
-        <item m="1" x="793"/>
-        <item m="1" x="197"/>
-        <item m="1" x="715"/>
-        <item m="1" x="93"/>
-        <item m="1" x="916"/>
-        <item m="1" x="621"/>
-        <item m="1" x="842"/>
-        <item m="1" x="811"/>
-        <item m="1" x="1031"/>
-        <item m="1" x="804"/>
-        <item m="1" x="382"/>
-        <item m="1" x="883"/>
-        <item m="1" x="1017"/>
-        <item m="1" x="707"/>
-        <item m="1" x="839"/>
-        <item m="1" x="172"/>
-        <item m="1" x="1005"/>
-        <item m="1" x="662"/>
-        <item m="1" x="527"/>
-        <item m="1" x="911"/>
-        <item m="1" x="437"/>
-        <item m="1" x="760"/>
-        <item m="1" x="294"/>
-        <item m="1" x="390"/>
-        <item m="1" x="787"/>
-        <item m="1" x="556"/>
-        <item m="1" x="100"/>
-        <item m="1" x="434"/>
-        <item m="1" x="914"/>
-        <item m="1" x="1016"/>
-        <item m="1" x="119"/>
-        <item m="1" x="404"/>
-        <item m="1" x="339"/>
-        <item m="1" x="672"/>
-        <item m="1" x="765"/>
-        <item m="1" x="205"/>
-        <item m="1" x="1187"/>
-        <item m="1" x="170"/>
-        <item m="1" x="243"/>
-        <item m="1" x="1024"/>
-        <item m="1" x="532"/>
-        <item m="1" x="546"/>
-        <item m="1" x="600"/>
-        <item m="1" x="175"/>
-        <item m="1" x="454"/>
-        <item m="1" x="849"/>
-        <item m="1" x="761"/>
-        <item m="1" x="551"/>
-        <item m="1" x="498"/>
-        <item m="1" x="128"/>
-        <item m="1" x="366"/>
-        <item m="1" x="830"/>
-        <item m="1" x="464"/>
-        <item m="1" x="627"/>
-        <item m="1" x="564"/>
-        <item m="1" x="746"/>
-        <item m="1" x="110"/>
-        <item m="1" x="591"/>
-        <item m="1" x="265"/>
-        <item m="1" x="668"/>
-        <item m="1" x="794"/>
-        <item m="1" x="870"/>
-        <item m="1" x="805"/>
-        <item m="1" x="766"/>
-        <item m="1" x="692"/>
-        <item m="1" x="1103"/>
-        <item m="1" x="995"/>
-        <item m="1" x="246"/>
-        <item m="1" x="987"/>
-        <item m="1" x="441"/>
-        <item m="1" x="751"/>
-        <item m="1" x="157"/>
-        <item m="1" x="730"/>
-        <item m="1" x="597"/>
-        <item m="1" x="1029"/>
-        <item m="1" x="183"/>
-        <item m="1" x="1240"/>
-        <item m="1" x="222"/>
-        <item m="1" x="162"/>
-        <item m="1" x="732"/>
-        <item m="1" x="932"/>
-        <item m="1" x="835"/>
-        <item m="1" x="121"/>
-        <item m="1" x="273"/>
-        <item m="1" x="1061"/>
-        <item m="1" x="1001"/>
-        <item m="1" x="256"/>
-        <item m="1" x="229"/>
-        <item m="1" x="524"/>
-        <item m="1" x="145"/>
-        <item m="1" x="752"/>
-        <item m="1" x="185"/>
-        <item m="1" x="355"/>
-        <item m="1" x="652"/>
-        <item m="1" x="1183"/>
-        <item m="1" x="223"/>
-        <item m="1" x="493"/>
-        <item m="1" x="340"/>
-        <item m="1" x="502"/>
-        <item m="1" x="1056"/>
-        <item m="1" x="939"/>
-        <item m="1" x="401"/>
-        <item m="1" x="154"/>
-        <item m="1" x="1104"/>
-        <item m="1" x="267"/>
-        <item m="1" x="1049"/>
-        <item m="1" x="606"/>
-        <item m="1" x="990"/>
-        <item m="1" x="349"/>
-        <item m="1" x="521"/>
-        <item m="1" x="1006"/>
-        <item m="1" x="1194"/>
-        <item m="1" x="970"/>
-        <item m="1" x="369"/>
-        <item m="1" x="312"/>
-        <item m="1" x="1015"/>
-        <item m="1" x="779"/>
-        <item m="1" x="623"/>
-        <item m="1" x="1047"/>
-        <item m="1" x="95"/>
-        <item m="1" x="92"/>
-        <item m="1" x="767"/>
-        <item m="1" x="907"/>
-        <item m="1" x="862"/>
-        <item m="1" x="1045"/>
-        <item m="1" x="570"/>
-        <item m="1" x="317"/>
-        <item m="1" x="391"/>
-        <item m="1" x="921"/>
-        <item m="1" x="473"/>
-        <item m="1" x="703"/>
-        <item m="1" x="1118"/>
-        <item m="1" x="356"/>
-        <item m="1" x="693"/>
-        <item m="1" x="77"/>
-        <item m="1" x="406"/>
+        <item m="1" x="407"/>
         <item x="2"/>
         <item x="1"/>
         <item x="4"/>
@@ -19915,10 +19976,11 @@
         <item x="59"/>
         <item x="60"/>
         <item x="61"/>
-        <item m="1" x="394"/>
-        <item m="1" x="1155"/>
-        <item m="1" x="97"/>
-        <item m="1" x="62"/>
+        <item x="62"/>
+        <item m="1" x="395"/>
+        <item m="1" x="1156"/>
+        <item m="1" x="98"/>
+        <item m="1" x="63"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -19981,7 +20043,7 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="18">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -19990,9 +20052,6 @@
     </i>
     <i r="2">
       <x v="8"/>
-    </i>
-    <i r="2">
-      <x v="10"/>
     </i>
     <i r="1">
       <x v="1237"/>
@@ -20007,16 +20066,16 @@
       <x v="3"/>
     </i>
     <i r="2">
-      <x v="4"/>
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1239"/>
+    </i>
+    <i r="2">
+      <x v="11"/>
     </i>
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1216"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
     </i>
     <i r="1">
       <x v="1220"/>
@@ -20047,7 +20106,7 @@
     <dataField name="Count of Obj" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="30">
+    <format dxfId="34">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -20059,7 +20118,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="33">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -20071,7 +20130,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="32">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -20083,7 +20142,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="31">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -20109,7 +20168,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="8" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -20144,12 +20203,12 @@
     <pivotField showAll="0"/>
     <pivotField axis="axisRow" showAll="0">
       <items count="10">
-        <item sd="0" m="1" x="6"/>
         <item sd="0" m="1" x="4"/>
         <item sd="0" m="1" x="5"/>
+        <item sd="0" m="1" x="8"/>
         <item x="0"/>
         <item m="1" x="7"/>
-        <item sd="0" m="1" x="8"/>
+        <item sd="0" m="1" x="6"/>
         <item x="2"/>
         <item x="1"/>
         <item x="3"/>
@@ -20161,8 +20220,8 @@
         <item h="1" x="0"/>
         <item h="1" x="1"/>
         <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="3"/>
-        <item m="1" x="4"/>
+        <item h="1" m="1" x="4"/>
+        <item m="1" x="3"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20205,20 +20264,20 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C980" totalsRowShown="0" totalsRowDxfId="26">
-  <autoFilter ref="A1:C980" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C981" totalsRowShown="0" totalsRowDxfId="29">
+  <autoFilter ref="A1:C981" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{96F9219D-1D74-4611-A7AA-8AB4E044352A}" name="Ticket" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{D6F02EDE-42BA-4EF9-A278-EA070340E315}" name="Number" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{F6A90E5F-0E5C-41D7-A40C-1CC9A86DC194}" name="Status" totalsRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{96F9219D-1D74-4611-A7AA-8AB4E044352A}" name="Ticket" totalsRowDxfId="28"/>
+    <tableColumn id="2" xr3:uid="{D6F02EDE-42BA-4EF9-A278-EA070340E315}" name="Number" totalsRowDxfId="27"/>
+    <tableColumn id="3" xr3:uid="{F6A90E5F-0E5C-41D7-A40C-1CC9A86DC194}" name="Status" totalsRowDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S497" totalsRowShown="0">
-  <autoFilter ref="A1:S497" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S498" totalsRowShown="0">
+  <autoFilter ref="A1:S498" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
     <filterColumn colId="1">
       <filters>
         <filter val="open"/>
@@ -20235,36 +20294,36 @@
   </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{5BF112CC-BAD1-48FD-B930-E0EF8CA67570}" name="App"/>
-    <tableColumn id="2" xr3:uid="{F44F7455-95E4-448C-84F7-0BD5E8515FF2}" name="Filter" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{F44F7455-95E4-448C-84F7-0BD5E8515FF2}" name="Filter" dataDxfId="25">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{5F4F076A-2403-4720-A29D-FC0FB8EA120F}" name="Status"/>
     <tableColumn id="4" xr3:uid="{394D0319-2A38-45A3-AB7A-456D5C3C825D}" name="Obj"/>
     <tableColumn id="5" xr3:uid="{85258F80-F70E-46C9-B73A-0E7A23F5BAA8}" name="Requested"/>
-    <tableColumn id="6" xr3:uid="{136D6DA2-77DB-4BF7-9073-FBF6D323E39D}" name="CurrentParent" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{136D6DA2-77DB-4BF7-9073-FBF6D323E39D}" name="CurrentParent" dataDxfId="24"/>
     <tableColumn id="7" xr3:uid="{D69C8A00-2CB4-4F31-920A-C1D332375D40}" name="type"/>
-    <tableColumn id="9" xr3:uid="{3D246B09-CC89-411A-9E7E-B79496797F29}" name="LFF_ID" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{3D246B09-CC89-411A-9E7E-B79496797F29}" name="LFF_ID" dataDxfId="23">
       <calculatedColumnFormula>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{0F3D2251-8320-43C5-9772-41A1D1B49BAD}" name="Analysis"/>
-    <tableColumn id="11" xr3:uid="{D9BF87CD-B2A1-4ABE-AAB8-595DDF492F11}" name="Check" dataDxfId="19">
+    <tableColumn id="11" xr3:uid="{D9BF87CD-B2A1-4ABE-AAB8-595DDF492F11}" name="Check" dataDxfId="22">
       <calculatedColumnFormula>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{9DAA192A-7AAB-4460-A9EA-787D5AF7E069}" name="Sector" dataDxfId="18">
+    <tableColumn id="24" xr3:uid="{9DAA192A-7AAB-4460-A9EA-787D5AF7E069}" name="Sector" dataDxfId="21">
       <calculatedColumnFormula>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{EFBC6B71-E109-48FC-AE50-5015496DB0CA}" name="Forecast" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{F0BFEDC5-AB85-4752-8DBE-1E2D2A86C38C}" name="DateOpened" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{78B7D816-31FE-4F8F-8018-91CE8D5DE9A2}" name="DateMapped" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{37F76675-DAA7-497A-B0C3-D5ADC87396FC}" name="DateClosed" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{77371810-6F86-4EEF-85D0-5FCFC20B88DC}" name="Delayed?" dataDxfId="13">
+    <tableColumn id="13" xr3:uid="{EFBC6B71-E109-48FC-AE50-5015496DB0CA}" name="Forecast" dataDxfId="20"/>
+    <tableColumn id="15" xr3:uid="{F0BFEDC5-AB85-4752-8DBE-1E2D2A86C38C}" name="DateOpened" dataDxfId="19"/>
+    <tableColumn id="17" xr3:uid="{78B7D816-31FE-4F8F-8018-91CE8D5DE9A2}" name="DateMapped" dataDxfId="18"/>
+    <tableColumn id="16" xr3:uid="{37F76675-DAA7-497A-B0C3-D5ADC87396FC}" name="DateClosed" dataDxfId="17"/>
+    <tableColumn id="23" xr3:uid="{77371810-6F86-4EEF-85D0-5FCFC20B88DC}" name="Delayed?" dataDxfId="16">
       <calculatedColumnFormula>IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6AC4A96E-CE6C-49CA-A4F1-794160BB5940}" name="DaysAgeing" dataDxfId="12">
+    <tableColumn id="18" xr3:uid="{6AC4A96E-CE6C-49CA-A4F1-794160BB5940}" name="DaysAgeing" dataDxfId="15">
       <calculatedColumnFormula>IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{7CC86552-2F6D-4DFA-8F17-7AFF536FE9EE}" name="Author" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{87389AE1-9ECE-4C7F-80F9-48A35BE78A62}" name="Prognosis" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{7CC86552-2F6D-4DFA-8F17-7AFF536FE9EE}" name="Author" dataDxfId="14"/>
+    <tableColumn id="22" xr3:uid="{87389AE1-9ECE-4C7F-80F9-48A35BE78A62}" name="Prognosis" dataDxfId="13"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20316,12 +20375,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3F8396D3-971A-405D-9996-529D23A1D423}" name="YelTable" displayName="YelTable" ref="A1:F5" totalsRowShown="0">
   <autoFilter ref="A1:F5" xr:uid="{3F8396D3-971A-405D-9996-529D23A1D423}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{1E05904C-33DE-48E5-8213-D72B8227C597}" name="Sector" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{73647D57-303F-4AF5-983C-1CCB32EBD08D}" name="Forecast Period" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FA11B267-B5E3-452C-A4E3-1668B4A12A28}" name="Number of Tickets Raised" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1E05904C-33DE-48E5-8213-D72B8227C597}" name="Sector" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{73647D57-303F-4AF5-983C-1CCB32EBD08D}" name="Forecast Period" dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{FA11B267-B5E3-452C-A4E3-1668B4A12A28}" name="Number of Tickets Raised" dataDxfId="10"/>
     <tableColumn id="1" xr3:uid="{441BC59C-A1EA-4CA8-B944-D602CD57D89D}" name="Delayed Tickets"/>
-    <tableColumn id="5" xr3:uid="{29680677-3B0F-4EC4-81FF-46A6FDD4C5F7}" name="Number of Total Objects" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{3D96D299-AEA2-4D9C-9BE6-F98ADF0CDB84}" name="Commentary for delayed tickets" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{29680677-3B0F-4EC4-81FF-46A6FDD4C5F7}" name="Number of Total Objects" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{3D96D299-AEA2-4D9C-9BE6-F98ADF0CDB84}" name="Commentary for delayed tickets" dataDxfId="8"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20625,10 +20684,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27B7123-EEA1-4BA6-8CFC-B80BB9988DCB}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -20653,7 +20712,7 @@
       <c r="A2" s="66" t="s">
         <v>365</v>
       </c>
-      <c r="B2" s="62" t="s">
+      <c r="B2" s="72" t="s">
         <v>954</v>
       </c>
     </row>
@@ -20682,8 +20741,8 @@
       <c r="A5" s="17" t="s">
         <v>897</v>
       </c>
-      <c r="B5" s="60">
-        <v>5</v>
+      <c r="B5" s="73">
+        <v>6</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -20693,7 +20752,7 @@
       <c r="A6" s="67" t="s">
         <v>1937</v>
       </c>
-      <c r="B6" s="60">
+      <c r="B6" s="73">
         <v>2</v>
       </c>
       <c r="C6"/>
@@ -20704,18 +20763,18 @@
       <c r="A7" s="68" t="s">
         <v>370</v>
       </c>
-      <c r="B7" s="60">
-        <v>1</v>
+      <c r="B7" s="73">
+        <v>2</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
       <c r="E7"/>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="68" t="s">
-        <v>377</v>
-      </c>
-      <c r="B8" s="60">
+      <c r="A8" s="67" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B8" s="73">
         <v>1</v>
       </c>
       <c r="C8" s="56"/>
@@ -20723,137 +20782,129 @@
       <c r="E8"/>
     </row>
     <row r="9" spans="1:6">
-      <c r="A9" s="67" t="s">
-        <v>1942</v>
-      </c>
-      <c r="B9" s="60">
+      <c r="A9" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="B9" s="73">
         <v>1</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="68" t="s">
-        <v>375</v>
-      </c>
-      <c r="B10" s="60">
-        <v>1</v>
+      <c r="A10" s="67" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B10" s="73">
+        <v>2</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="67" t="s">
-        <v>1945</v>
-      </c>
-      <c r="B11" s="60">
-        <v>2</v>
+      <c r="A11" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="B11" s="73">
+        <v>1</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="B12" s="60">
+        <v>370</v>
+      </c>
+      <c r="B12" s="73">
         <v>1</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="68" t="s">
-        <v>404</v>
-      </c>
-      <c r="B13" s="60">
+      <c r="A13" s="67" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B13" s="73">
         <v>1</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="17" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B14" s="60">
-        <v>29</v>
+      <c r="A14" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="B14" s="73">
+        <v>1</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="67" t="s">
-        <v>1721</v>
-      </c>
-      <c r="B15" s="60">
-        <v>11</v>
+      <c r="A15" s="17" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B15" s="73">
+        <v>18</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="B16" s="60">
-        <v>11</v>
+      <c r="A16" s="67" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B16" s="73">
+        <v>1</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="67" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B17" s="60">
+      <c r="A17" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="73">
         <v>1</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="B18" s="60">
-        <v>1</v>
+      <c r="A18" s="67" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B18" s="73">
+        <v>17</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="67" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B19" s="60">
-        <v>17</v>
+      <c r="A19" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" s="73">
+        <v>15</v>
       </c>
       <c r="C19" s="47"/>
       <c r="D19"/>
     </row>
     <row r="20" spans="1:4">
       <c r="A20" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="B20" s="60">
-        <v>15</v>
+        <v>370</v>
+      </c>
+      <c r="B20" s="73">
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A21" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="B21" s="60">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="17" t="s">
+      <c r="A21" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B22" s="60">
-        <v>34</v>
+      <c r="B21" s="73">
+        <v>24</v>
       </c>
     </row>
   </sheetData>
@@ -21073,10 +21124,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6F094-6CC7-43A2-BBFE-8797416561A7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D980"/>
+  <dimension ref="A1:D981"/>
   <sheetViews>
     <sheetView topLeftCell="A951" workbookViewId="0">
-      <selection activeCell="C980" sqref="C980"/>
+      <selection activeCell="C981" sqref="C981"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31879,9 +31930,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="981" spans="1:3">
+      <c r="A981" s="74" t="s">
+        <v>1721</v>
+      </c>
+      <c r="B981" s="30">
+        <v>11</v>
+      </c>
+      <c r="C981" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A545 A548:A568 A570:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31915,8 +31977,8 @@
       <c r="A1" s="66" t="s">
         <v>390</v>
       </c>
-      <c r="B1" s="62" t="s">
-        <v>1947</v>
+      <c r="B1" s="72" t="s">
+        <v>1946</v>
       </c>
     </row>
     <row r="3" spans="1:2">
@@ -31931,7 +31993,7 @@
       <c r="A4" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B4" s="60"/>
+      <c r="B4" s="73"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31961,10 +32023,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36F6EB-8AC5-4AC7-9C5A-FF7A5ACB8647}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S497"/>
+  <dimension ref="A1:S498"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D504" sqref="D504"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E514" sqref="E514"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -31977,7 +32039,7 @@
     <col min="6" max="6" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
     <col min="8" max="8" width="12.42578125" customWidth="1" outlineLevel="1"/>
-    <col min="9" max="9" width="117" customWidth="1" outlineLevel="1"/>
+    <col min="9" max="9" width="45" customWidth="1" outlineLevel="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1" outlineLevel="1"/>
     <col min="11" max="11" width="11.42578125" customWidth="1" outlineLevel="1"/>
     <col min="12" max="12" width="10.7109375" customWidth="1" outlineLevel="1"/>
@@ -49663,7 +49725,7 @@
       </c>
       <c r="B296" s="32" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C296" s="63" t="s">
         <v>369</v>
@@ -49720,7 +49782,7 @@
       </c>
       <c r="B297" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C297" s="63" t="s">
         <v>369</v>
@@ -49777,7 +49839,7 @@
       </c>
       <c r="B298" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C298" s="63" t="s">
         <v>369</v>
@@ -49834,7 +49896,7 @@
       </c>
       <c r="B299" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C299" s="63" t="s">
         <v>369</v>
@@ -49891,7 +49953,7 @@
       </c>
       <c r="B300" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C300" s="63" t="s">
         <v>369</v>
@@ -49948,7 +50010,7 @@
       </c>
       <c r="B301" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C301" s="63" t="s">
         <v>369</v>
@@ -50005,7 +50067,7 @@
       </c>
       <c r="B302" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C302" s="63" t="s">
         <v>369</v>
@@ -50062,7 +50124,7 @@
       </c>
       <c r="B303" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C303" s="63" t="s">
         <v>369</v>
@@ -50119,7 +50181,7 @@
       </c>
       <c r="B304" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C304" s="63" t="s">
         <v>369</v>
@@ -50176,7 +50238,7 @@
       </c>
       <c r="B305" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C305" s="63" t="s">
         <v>369</v>
@@ -50233,7 +50295,7 @@
       </c>
       <c r="B306" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C306" s="63" t="s">
         <v>369</v>
@@ -60741,8 +60803,8 @@
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
         <v>open</v>
       </c>
-      <c r="C494" s="62" t="s">
-        <v>377</v>
+      <c r="C494" s="72" t="s">
+        <v>370</v>
       </c>
       <c r="D494" t="s">
         <v>1938</v>
@@ -60759,9 +60821,6 @@
       <c r="H494" s="60" t="str">
         <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
         <v>DE10G69660</v>
-      </c>
-      <c r="I494" t="s">
-        <v>1940</v>
       </c>
       <c r="J494" s="60" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -60794,7 +60853,7 @@
     </row>
     <row r="495" spans="1:19">
       <c r="A495" t="s">
-        <v>1942</v>
+        <v>1941</v>
       </c>
       <c r="B495" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -60804,10 +60863,10 @@
         <v>375</v>
       </c>
       <c r="D495" t="s">
-        <v>1941</v>
+        <v>1940</v>
       </c>
       <c r="E495" s="62" t="s">
-        <v>1943</v>
+        <v>1942</v>
       </c>
       <c r="F495" s="62" t="s">
         <v>476</v>
@@ -60850,7 +60909,7 @@
     </row>
     <row r="496" spans="1:19" hidden="1">
       <c r="A496" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B496" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -60866,7 +60925,7 @@
         <v>484</v>
       </c>
       <c r="F496" s="60" t="s">
-        <v>1944</v>
+        <v>1943</v>
       </c>
       <c r="G496" s="62" t="s">
         <v>406</v>
@@ -60876,7 +60935,7 @@
         <v>DE10624905</v>
       </c>
       <c r="I496" t="s">
-        <v>1946</v>
+        <v>1945</v>
       </c>
       <c r="J496" s="60" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -60909,14 +60968,14 @@
     </row>
     <row r="497" spans="1:19">
       <c r="A497" s="62" t="s">
-        <v>1945</v>
+        <v>1944</v>
       </c>
       <c r="B497" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
         <v>open</v>
       </c>
-      <c r="C497" s="62" t="s">
-        <v>404</v>
+      <c r="C497" s="72" t="s">
+        <v>370</v>
       </c>
       <c r="D497" t="s">
         <v>552</v>
@@ -60963,6 +61022,60 @@
         <v>538</v>
       </c>
       <c r="S497" s="60"/>
+    </row>
+    <row r="498" spans="1:19">
+      <c r="A498" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B498" s="60" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C498" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="D498" t="s">
+        <v>1959</v>
+      </c>
+      <c r="E498" s="72" t="s">
+        <v>1960</v>
+      </c>
+      <c r="F498" s="60"/>
+      <c r="G498" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H498" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>DE10GIT04K</v>
+      </c>
+      <c r="J498" s="60" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K498" s="60" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>MGF</v>
+      </c>
+      <c r="L498" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M498" s="69">
+        <v>45700.166770833333</v>
+      </c>
+      <c r="N498" s="69"/>
+      <c r="O498" s="69"/>
+      <c r="P498" s="69" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q498" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R498" s="69" t="s">
+        <v>1532</v>
+      </c>
+      <c r="S498" s="60"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -60987,7 +61100,7 @@
           <x14:formula1>
             <xm:f>STAT!$A$15:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G497</xm:sqref>
+          <xm:sqref>G2:G498</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -61010,7 +61123,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="71" t="s">
-        <v>1948</v>
+        <v>1947</v>
       </c>
       <c r="B1" t="str">
         <f>LEFT(A1,22)</f>
@@ -61019,7 +61132,7 @@
     </row>
     <row r="2" spans="1:2">
       <c r="A2" s="70" t="s">
-        <v>1949</v>
+        <v>1948</v>
       </c>
       <c r="B2" s="62" t="str">
         <f t="shared" ref="B2:B11" si="0">LEFT(A2,22)</f>
@@ -61028,7 +61141,7 @@
     </row>
     <row r="3" spans="1:2">
       <c r="A3" s="71" t="s">
-        <v>1950</v>
+        <v>1949</v>
       </c>
       <c r="B3" s="62" t="str">
         <f t="shared" si="0"/>
@@ -61037,7 +61150,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="70" t="s">
-        <v>1951</v>
+        <v>1950</v>
       </c>
       <c r="B4" s="62" t="str">
         <f t="shared" si="0"/>
@@ -61046,7 +61159,7 @@
     </row>
     <row r="5" spans="1:2">
       <c r="A5" s="71" t="s">
-        <v>1952</v>
+        <v>1951</v>
       </c>
       <c r="B5" s="62" t="str">
         <f t="shared" si="0"/>
@@ -61055,7 +61168,7 @@
     </row>
     <row r="6" spans="1:2">
       <c r="A6" s="70" t="s">
-        <v>1953</v>
+        <v>1952</v>
       </c>
       <c r="B6" s="62" t="str">
         <f t="shared" si="0"/>
@@ -61064,7 +61177,7 @@
     </row>
     <row r="7" spans="1:2">
       <c r="A7" s="71" t="s">
-        <v>1954</v>
+        <v>1953</v>
       </c>
       <c r="B7" s="62" t="str">
         <f t="shared" si="0"/>
@@ -61073,7 +61186,7 @@
     </row>
     <row r="8" spans="1:2">
       <c r="A8" s="70" t="s">
-        <v>1955</v>
+        <v>1954</v>
       </c>
       <c r="B8" s="62" t="str">
         <f t="shared" si="0"/>
@@ -61082,7 +61195,7 @@
     </row>
     <row r="9" spans="1:2">
       <c r="A9" s="71" t="s">
-        <v>1956</v>
+        <v>1955</v>
       </c>
       <c r="B9" s="62" t="str">
         <f t="shared" si="0"/>
@@ -61091,7 +61204,7 @@
     </row>
     <row r="10" spans="1:2">
       <c r="A10" s="70" t="s">
-        <v>1957</v>
+        <v>1956</v>
       </c>
       <c r="B10" s="62" t="str">
         <f t="shared" si="0"/>
@@ -61100,7 +61213,7 @@
     </row>
     <row r="11" spans="1:2">
       <c r="A11" s="71" t="s">
-        <v>1958</v>
+        <v>1957</v>
       </c>
       <c r="B11" s="62" t="str">
         <f t="shared" si="0"/>

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pierre\Downloads\GCOH\GCOHFilesTicketsEtc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D32510E-BF64-4701-ABDB-101E8C693A76}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B973298-E504-40F0-8DEE-C0C60DC049FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
-    <sheet name="Report" sheetId="4" r:id="rId1"/>
-    <sheet name="OK" sheetId="2" r:id="rId2"/>
-    <sheet name="KPI" sheetId="5" r:id="rId3"/>
+    <sheet name="KPI" sheetId="5" r:id="rId1"/>
+    <sheet name="Report" sheetId="4" r:id="rId2"/>
+    <sheet name="OK" sheetId="2" r:id="rId3"/>
     <sheet name="Cognos_Office_Connection_Cache" sheetId="27" state="veryHidden" r:id="rId4"/>
     <sheet name="PROC" sheetId="1" r:id="rId5"/>
     <sheet name="Sheet1" sheetId="30" r:id="rId6"/>
@@ -26,29 +26,41 @@
     <sheet name="YelTable" sheetId="24" r:id="rId11"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OK!$A$67:$C$67</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Report!$A$2:$F$1358</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">OK!$A$67:$C$67</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Report!$A$2:$F$1358</definedName>
     <definedName name="ExternalData_1" localSheetId="10" hidden="1">YelTable!$A$1:$E$5</definedName>
     <definedName name="ID" localSheetId="7" hidden="1">"11df023c-e208-4a95-a33f-89fc899f93e2"</definedName>
     <definedName name="ID" localSheetId="3" hidden="1">"2a3db827-714b-4faa-bb51-2014605cb534"</definedName>
     <definedName name="ID" localSheetId="6" hidden="1">"1674431f-d921-4a60-ac16-391ea703d727"</definedName>
-    <definedName name="ID" localSheetId="2" hidden="1">"20d7715d-e8e5-4ce6-b982-cc1766d7d262"</definedName>
-    <definedName name="ID" localSheetId="1" hidden="1">"3405cb58-fd44-4fad-9200-0d16e9e7f3c3"</definedName>
+    <definedName name="ID" localSheetId="0" hidden="1">"20d7715d-e8e5-4ce6-b982-cc1766d7d262"</definedName>
+    <definedName name="ID" localSheetId="2" hidden="1">"3405cb58-fd44-4fad-9200-0d16e9e7f3c3"</definedName>
     <definedName name="ID" localSheetId="4" hidden="1">"72dc3ac4-3eea-4f75-a89f-23e0f7c0aea3"</definedName>
-    <definedName name="ID" localSheetId="0" hidden="1">"9b7b77e6-0d16-420c-bac7-c8407b61711d"</definedName>
+    <definedName name="ID" localSheetId="1" hidden="1">"9b7b77e6-0d16-420c-bac7-c8407b61711d"</definedName>
     <definedName name="ID" localSheetId="9" hidden="1">"c468ed45-a6ca-446e-80e1-d829c05bd576"</definedName>
+    <definedName name="ID" localSheetId="5" hidden="1">"ea558a00-e85a-4587-b359-8d3fbd08c95e"</definedName>
     <definedName name="ID" localSheetId="8" hidden="1">"8f990a44-8323-4d8f-b636-10cabacbf74e"</definedName>
     <definedName name="ID" localSheetId="10" hidden="1">"4ab86a3f-2fde-4e70-96e5-3a05e08aa847"</definedName>
     <definedName name="ID_1" localSheetId="4" hidden="1">"950e9516-c611-49ca-a5ff-94a8943ffd05"</definedName>
     <definedName name="tm1\\_0_H">"{ ""server"" : ""http://pafe.merckgroup.com"", ""cube"" : ""{ \""server\"" : \""rc-2024\"", \""cube\"" : \""mPnL_2024\""}""}"</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="16" r:id="rId12"/>
+    <pivotCache cacheId="58" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -5959,12 +5971,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <numFmts count="6">
-    <numFmt numFmtId="41" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="164" formatCode="_(&quot;₱&quot;* #,##0_);_(&quot;₱&quot;* \(#,##0\);_(&quot;₱&quot;* &quot;-&quot;_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(&quot;₱&quot;* #,##0.00_);_(&quot;₱&quot;* \(#,##0.00\);_(&quot;₱&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="167" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="166" formatCode="_(&quot;₱&quot;* #,##0_);_(&quot;₱&quot;* \(#,##0\);_(&quot;₱&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="167" formatCode="_(&quot;₱&quot;* #,##0.00_);_(&quot;₱&quot;* \(#,##0.00\);_(&quot;₱&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -6498,10 +6510,10 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="8"/>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="0">
+    <xf numFmtId="169" fontId="16" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="168" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
@@ -6511,14 +6523,14 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="41" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="15" applyNumberFormat="0" applyProtection="0"/>
+    <xf numFmtId="167" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="165" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="43" fontId="20" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="7" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="7" applyFill="0" applyAlignment="0" applyProtection="0"/>
@@ -6545,9 +6557,9 @@
     </xf>
     <xf numFmtId="3" fontId="7" fillId="0" borderId="7" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6640,9 +6652,6 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="100">
     <cellStyle name="AF Column - IBM Cognos" xfId="7" xr:uid="{F7169E42-F219-404B-8E76-A130536EB5C5}"/>
@@ -6746,60 +6755,14 @@
     <cellStyle name="Summary Row Name TM1 - IBM Cognos" xfId="60" xr:uid="{D1A5E0FD-B729-4808-9590-433008E10ACE}"/>
     <cellStyle name="Unsaved Change - IBM Cognos" xfId="61" xr:uid="{F9FC678A-A77B-4A12-8D40-17609F28802A}"/>
   </cellStyles>
-  <dxfs count="35">
+  <dxfs count="27">
     <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
       <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -6822,22 +6785,22 @@
       <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="2" formatCode="0.00"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="168" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6876,16 +6839,6 @@
       <font>
         <b val="0"/>
       </font>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -6931,7 +6884,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Pierre Collado" refreshedDate="45701.015394097223" createdVersion="7" refreshedVersion="7" minRefreshableVersion="3" recordCount="497" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45701.598317013886" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="497" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
   <cacheSource type="worksheet">
     <worksheetSource name="Proc"/>
   </cacheSource>
@@ -8258,10 +8211,10 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-12T04:00:09"/>
     </cacheField>
     <cacheField name="DateMapped" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-01T00:00:00" maxDate="2025-02-06T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-01T00:00:00" maxDate="2025-02-14T00:00:00"/>
     </cacheField>
     <cacheField name="DateClosed" numFmtId="14">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-06T00:00:00" maxDate="2025-02-06T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-06T00:00:00" maxDate="2025-02-14T00:00:00"/>
     </cacheField>
     <cacheField name="Delayed?" numFmtId="14">
       <sharedItems containsBlank="1" count="4">
@@ -18646,8 +18599,8 @@
   </r>
   <r>
     <x v="60"/>
-    <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CLFF_1000$$$DE20506400"/>
     <s v="G000000353"/>
     <s v="G000000517"/>
@@ -18658,8 +18611,8 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2025-02-10T09:59:05"/>
-    <m/>
-    <m/>
+    <d v="2025-02-13T00:00:00"/>
+    <d v="2025-02-13T00:00:00"/>
     <x v="0"/>
     <n v="3"/>
     <s v="Francesco Ricioppo"/>
@@ -18732,8 +18685,104 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+  <pivotFields count="19">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="17">
+        <item x="2"/>
+        <item x="3"/>
+        <item m="1" x="10"/>
+        <item x="5"/>
+        <item m="1" x="12"/>
+        <item x="1"/>
+        <item m="1" x="11"/>
+        <item x="0"/>
+        <item m="1" x="9"/>
+        <item m="1" x="15"/>
+        <item x="4"/>
+        <item x="6"/>
+        <item x="7"/>
+        <item x="8"/>
+        <item m="1" x="14"/>
+        <item m="1" x="13"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="10">
+        <item sd="0" m="1" x="4"/>
+        <item sd="0" m="1" x="5"/>
+        <item sd="0" m="1" x="8"/>
+        <item x="0"/>
+        <item m="1" x="7"/>
+        <item sd="0" m="1" x="6"/>
+        <item x="2"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
+      <items count="6">
+        <item h="1" x="0"/>
+        <item h="1" x="1"/>
+        <item h="1" m="1" x="2"/>
+        <item h="1" m="1" x="4"/>
+        <item m="1" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField numFmtId="14" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField numFmtId="2" showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+  </pivotFields>
+  <rowFields count="2">
+    <field x="10"/>
+    <field x="2"/>
+  </rowFields>
+  <rowItems count="1">
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <pageFields count="1">
+    <pageField fld="11" hier="-1"/>
+  </pageFields>
+  <dataFields count="1">
+    <dataField name="Count of Obj" fld="3" subtotal="count" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="1245">
@@ -20043,7 +20092,7 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="17">
+  <rowItems count="15">
     <i>
       <x/>
     </i>
@@ -20052,12 +20101,6 @@
     </i>
     <i r="2">
       <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1237"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
     </i>
     <i r="1">
       <x v="1238"/>
@@ -20106,7 +20149,7 @@
     <dataField name="Count of Obj" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="34">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -20118,7 +20161,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="33">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -20130,7 +20173,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="32">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -20142,7 +20185,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="31">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -20167,109 +20210,13 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="7" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
-  <pivotFields count="19">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="17">
-        <item x="2"/>
-        <item x="3"/>
-        <item m="1" x="10"/>
-        <item x="5"/>
-        <item m="1" x="12"/>
-        <item x="1"/>
-        <item m="1" x="11"/>
-        <item x="0"/>
-        <item m="1" x="9"/>
-        <item m="1" x="15"/>
-        <item x="4"/>
-        <item x="6"/>
-        <item x="7"/>
-        <item x="8"/>
-        <item m="1" x="14"/>
-        <item m="1" x="13"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="10">
-        <item sd="0" m="1" x="4"/>
-        <item sd="0" m="1" x="5"/>
-        <item sd="0" m="1" x="8"/>
-        <item x="0"/>
-        <item m="1" x="7"/>
-        <item sd="0" m="1" x="6"/>
-        <item x="2"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default" sd="0"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisPage" multipleItemSelectionAllowed="1" showAll="0">
-      <items count="6">
-        <item h="1" x="0"/>
-        <item h="1" x="1"/>
-        <item h="1" m="1" x="2"/>
-        <item h="1" m="1" x="4"/>
-        <item m="1" x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField numFmtId="14" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField numFmtId="2" showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-  </pivotFields>
-  <rowFields count="2">
-    <field x="10"/>
-    <field x="2"/>
-  </rowFields>
-  <rowItems count="1">
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <pageFields count="1">
-    <pageField fld="11" hier="-1"/>
-  </pageFields>
-  <dataFields count="1">
-    <dataField name="Count of Obj" fld="3" subtotal="count" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C981" totalsRowShown="0" totalsRowDxfId="29">
-  <autoFilter ref="A1:C981" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C982" totalsRowShown="0" totalsRowDxfId="22">
+  <autoFilter ref="A1:C982" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{96F9219D-1D74-4611-A7AA-8AB4E044352A}" name="Ticket" totalsRowDxfId="28"/>
-    <tableColumn id="2" xr3:uid="{D6F02EDE-42BA-4EF9-A278-EA070340E315}" name="Number" totalsRowDxfId="27"/>
-    <tableColumn id="3" xr3:uid="{F6A90E5F-0E5C-41D7-A40C-1CC9A86DC194}" name="Status" totalsRowDxfId="26"/>
+    <tableColumn id="1" xr3:uid="{96F9219D-1D74-4611-A7AA-8AB4E044352A}" name="Ticket" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{D6F02EDE-42BA-4EF9-A278-EA070340E315}" name="Number" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{F6A90E5F-0E5C-41D7-A40C-1CC9A86DC194}" name="Status" totalsRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20294,36 +20241,36 @@
   </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{5BF112CC-BAD1-48FD-B930-E0EF8CA67570}" name="App"/>
-    <tableColumn id="2" xr3:uid="{F44F7455-95E4-448C-84F7-0BD5E8515FF2}" name="Filter" dataDxfId="25">
+    <tableColumn id="2" xr3:uid="{F44F7455-95E4-448C-84F7-0BD5E8515FF2}" name="Filter" dataDxfId="18">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{5F4F076A-2403-4720-A29D-FC0FB8EA120F}" name="Status"/>
     <tableColumn id="4" xr3:uid="{394D0319-2A38-45A3-AB7A-456D5C3C825D}" name="Obj"/>
     <tableColumn id="5" xr3:uid="{85258F80-F70E-46C9-B73A-0E7A23F5BAA8}" name="Requested"/>
-    <tableColumn id="6" xr3:uid="{136D6DA2-77DB-4BF7-9073-FBF6D323E39D}" name="CurrentParent" dataDxfId="24"/>
+    <tableColumn id="6" xr3:uid="{136D6DA2-77DB-4BF7-9073-FBF6D323E39D}" name="CurrentParent" dataDxfId="17"/>
     <tableColumn id="7" xr3:uid="{D69C8A00-2CB4-4F31-920A-C1D332375D40}" name="type"/>
-    <tableColumn id="9" xr3:uid="{3D246B09-CC89-411A-9E7E-B79496797F29}" name="LFF_ID" dataDxfId="23">
+    <tableColumn id="9" xr3:uid="{3D246B09-CC89-411A-9E7E-B79496797F29}" name="LFF_ID" dataDxfId="16">
       <calculatedColumnFormula>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{0F3D2251-8320-43C5-9772-41A1D1B49BAD}" name="Analysis"/>
-    <tableColumn id="11" xr3:uid="{D9BF87CD-B2A1-4ABE-AAB8-595DDF492F11}" name="Check" dataDxfId="22">
+    <tableColumn id="11" xr3:uid="{D9BF87CD-B2A1-4ABE-AAB8-595DDF492F11}" name="Check" dataDxfId="15">
       <calculatedColumnFormula>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{9DAA192A-7AAB-4460-A9EA-787D5AF7E069}" name="Sector" dataDxfId="21">
+    <tableColumn id="24" xr3:uid="{9DAA192A-7AAB-4460-A9EA-787D5AF7E069}" name="Sector" dataDxfId="14">
       <calculatedColumnFormula>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{EFBC6B71-E109-48FC-AE50-5015496DB0CA}" name="Forecast" dataDxfId="20"/>
-    <tableColumn id="15" xr3:uid="{F0BFEDC5-AB85-4752-8DBE-1E2D2A86C38C}" name="DateOpened" dataDxfId="19"/>
-    <tableColumn id="17" xr3:uid="{78B7D816-31FE-4F8F-8018-91CE8D5DE9A2}" name="DateMapped" dataDxfId="18"/>
-    <tableColumn id="16" xr3:uid="{37F76675-DAA7-497A-B0C3-D5ADC87396FC}" name="DateClosed" dataDxfId="17"/>
-    <tableColumn id="23" xr3:uid="{77371810-6F86-4EEF-85D0-5FCFC20B88DC}" name="Delayed?" dataDxfId="16">
+    <tableColumn id="13" xr3:uid="{EFBC6B71-E109-48FC-AE50-5015496DB0CA}" name="Forecast" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{F0BFEDC5-AB85-4752-8DBE-1E2D2A86C38C}" name="DateOpened" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{78B7D816-31FE-4F8F-8018-91CE8D5DE9A2}" name="DateMapped" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{37F76675-DAA7-497A-B0C3-D5ADC87396FC}" name="DateClosed" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{77371810-6F86-4EEF-85D0-5FCFC20B88DC}" name="Delayed?" dataDxfId="9">
       <calculatedColumnFormula>IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6AC4A96E-CE6C-49CA-A4F1-794160BB5940}" name="DaysAgeing" dataDxfId="15">
+    <tableColumn id="18" xr3:uid="{6AC4A96E-CE6C-49CA-A4F1-794160BB5940}" name="DaysAgeing" dataDxfId="8">
       <calculatedColumnFormula>IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{7CC86552-2F6D-4DFA-8F17-7AFF536FE9EE}" name="Author" dataDxfId="14"/>
-    <tableColumn id="22" xr3:uid="{87389AE1-9ECE-4C7F-80F9-48A35BE78A62}" name="Prognosis" dataDxfId="13"/>
+    <tableColumn id="19" xr3:uid="{7CC86552-2F6D-4DFA-8F17-7AFF536FE9EE}" name="Author" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{87389AE1-9ECE-4C7F-80F9-48A35BE78A62}" name="Prognosis" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -20375,21 +20322,21 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3F8396D3-971A-405D-9996-529D23A1D423}" name="YelTable" displayName="YelTable" ref="A1:F5" totalsRowShown="0">
   <autoFilter ref="A1:F5" xr:uid="{3F8396D3-971A-405D-9996-529D23A1D423}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{1E05904C-33DE-48E5-8213-D72B8227C597}" name="Sector" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{73647D57-303F-4AF5-983C-1CCB32EBD08D}" name="Forecast Period" dataDxfId="11"/>
-    <tableColumn id="4" xr3:uid="{FA11B267-B5E3-452C-A4E3-1668B4A12A28}" name="Number of Tickets Raised" dataDxfId="10"/>
+    <tableColumn id="3" xr3:uid="{1E05904C-33DE-48E5-8213-D72B8227C597}" name="Sector" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{73647D57-303F-4AF5-983C-1CCB32EBD08D}" name="Forecast Period" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FA11B267-B5E3-452C-A4E3-1668B4A12A28}" name="Number of Tickets Raised" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{441BC59C-A1EA-4CA8-B944-D602CD57D89D}" name="Delayed Tickets"/>
-    <tableColumn id="5" xr3:uid="{29680677-3B0F-4EC4-81FF-46A6FDD4C5F7}" name="Number of Total Objects" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{3D96D299-AEA2-4D9C-9BE6-F98ADF0CDB84}" name="Commentary for delayed tickets" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{29680677-3B0F-4EC4-81FF-46A6FDD4C5F7}" name="Number of Total Objects" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3D96D299-AEA2-4D9C-9BE6-F98ADF0CDB84}" name="Commentary for delayed tickets" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -20427,7 +20374,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -20533,7 +20480,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -20675,244 +20622,55 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27B7123-EEA1-4BA6-8CFC-B80BB9988DCB}">
-  <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:K21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BA190F-5488-4632-AF91-93A699854F94}">
+  <sheetPr codeName="Sheet3"/>
+  <dimension ref="A1:C4"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A21" sqref="A21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="20.140625" customWidth="1"/>
-    <col min="7" max="10" width="9.140625" hidden="1" customWidth="1"/>
-    <col min="11" max="11" width="26" hidden="1" customWidth="1"/>
-    <col min="12" max="16384" width="9.140625" hidden="1"/>
+    <col min="1" max="1" width="12.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" customWidth="1"/>
+    <col min="4" max="16384" width="9.140625" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
-      <c r="E1" s="22" t="s">
-        <v>1667</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="66" t="s">
-        <v>365</v>
-      </c>
-      <c r="B2" s="72" t="s">
-        <v>954</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="F3" t="s">
-        <v>727</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" s="66" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="66" t="s">
+        <v>390</v>
+      </c>
+      <c r="B1" s="72" t="s">
+        <v>1946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="66" t="s">
         <v>366</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B3" t="s">
         <v>726</v>
       </c>
-      <c r="C4"/>
-      <c r="D4"/>
-      <c r="E4" t="s">
-        <v>367</v>
-      </c>
-      <c r="F4" t="s">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="A5" s="17" t="s">
-        <v>897</v>
-      </c>
-      <c r="B5" s="73">
-        <v>6</v>
-      </c>
-      <c r="C5"/>
-      <c r="D5"/>
-      <c r="E5"/>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="67" t="s">
-        <v>1937</v>
-      </c>
-      <c r="B6" s="73">
-        <v>2</v>
-      </c>
-      <c r="C6"/>
-      <c r="D6"/>
-      <c r="E6"/>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="B7" s="73">
-        <v>2</v>
-      </c>
-      <c r="C7"/>
-      <c r="D7"/>
-      <c r="E7"/>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="67" t="s">
-        <v>1941</v>
-      </c>
-      <c r="B8" s="73">
-        <v>1</v>
-      </c>
-      <c r="C8" s="56"/>
-      <c r="D8"/>
-      <c r="E8"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="68" t="s">
-        <v>375</v>
-      </c>
-      <c r="B9" s="73">
-        <v>1</v>
-      </c>
-      <c r="C9"/>
-      <c r="D9"/>
-    </row>
-    <row r="10" spans="1:6">
-      <c r="A10" s="67" t="s">
-        <v>1944</v>
-      </c>
-      <c r="B10" s="73">
-        <v>2</v>
-      </c>
-      <c r="C10" s="53"/>
-      <c r="D10"/>
-    </row>
-    <row r="11" spans="1:6">
-      <c r="A11" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="B11" s="73">
-        <v>1</v>
-      </c>
-      <c r="C11"/>
-      <c r="D11"/>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="B12" s="73">
-        <v>1</v>
-      </c>
-      <c r="C12"/>
-      <c r="D12"/>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="67" t="s">
-        <v>1958</v>
-      </c>
-      <c r="B13" s="73">
-        <v>1</v>
-      </c>
-      <c r="C13"/>
-      <c r="D13"/>
-    </row>
-    <row r="14" spans="1:6">
-      <c r="A14" s="68" t="s">
-        <v>375</v>
-      </c>
-      <c r="B14" s="73">
-        <v>1</v>
-      </c>
-      <c r="C14" s="53"/>
-      <c r="D14"/>
-    </row>
-    <row r="15" spans="1:6">
-      <c r="A15" s="17" t="s">
-        <v>1793</v>
-      </c>
-      <c r="B15" s="73">
-        <v>18</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="67" t="s">
-        <v>1766</v>
-      </c>
-      <c r="B16" s="73">
-        <v>1</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" s="73">
-        <v>1</v>
-      </c>
-      <c r="C17"/>
-      <c r="D17"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="67" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B18" s="73">
-        <v>17</v>
-      </c>
-      <c r="C18"/>
-      <c r="D18"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="B19" s="73">
-        <v>15</v>
-      </c>
-      <c r="C19" s="47"/>
-      <c r="D19"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="B20" s="73">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1">
-      <c r="A21" s="17" t="s">
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" s="17" t="s">
         <v>381</v>
       </c>
-      <c r="B21" s="73">
-        <v>24</v>
-      </c>
+      <c r="B4" s="73"/>
     </row>
   </sheetData>
-  <autoFilter ref="A2:F1358" xr:uid="{B27B7123-EEA1-4BA6-8CFC-B80BB9988DCB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId2"/>
   <customProperties>
-    <customPr name="_pios_id" r:id="rId3"/>
+    <customPr name="_pios_id" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
@@ -21122,12 +20880,233 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B27B7123-EEA1-4BA6-8CFC-B80BB9988DCB}">
+  <sheetPr codeName="Sheet2"/>
+  <dimension ref="A1:K21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="31.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.28515625" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.140625" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" hidden="1" customWidth="1"/>
+    <col min="11" max="11" width="26" hidden="1" customWidth="1"/>
+    <col min="12" max="16384" width="9.140625" hidden="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="E1" s="22" t="s">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="66" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2" s="72" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="F3" t="s">
+        <v>727</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="66" t="s">
+        <v>366</v>
+      </c>
+      <c r="B4" t="s">
+        <v>726</v>
+      </c>
+      <c r="C4"/>
+      <c r="D4"/>
+      <c r="E4" t="s">
+        <v>367</v>
+      </c>
+      <c r="F4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" s="17" t="s">
+        <v>897</v>
+      </c>
+      <c r="B5" s="73">
+        <v>5</v>
+      </c>
+      <c r="C5"/>
+      <c r="D5"/>
+      <c r="E5"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="67" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B6" s="73">
+        <v>2</v>
+      </c>
+      <c r="C6"/>
+      <c r="D6"/>
+      <c r="E6"/>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B7" s="73">
+        <v>2</v>
+      </c>
+      <c r="C7"/>
+      <c r="D7"/>
+      <c r="E7"/>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="67" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B8" s="73">
+        <v>2</v>
+      </c>
+      <c r="C8" s="56"/>
+      <c r="D8"/>
+      <c r="E8"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="B9" s="73">
+        <v>1</v>
+      </c>
+      <c r="C9"/>
+      <c r="D9"/>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B10" s="73">
+        <v>1</v>
+      </c>
+      <c r="C10" s="53"/>
+      <c r="D10"/>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="67" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B11" s="73">
+        <v>1</v>
+      </c>
+      <c r="C11"/>
+      <c r="D11"/>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="68" t="s">
+        <v>375</v>
+      </c>
+      <c r="B12" s="73">
+        <v>1</v>
+      </c>
+      <c r="C12"/>
+      <c r="D12"/>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="17" t="s">
+        <v>1793</v>
+      </c>
+      <c r="B13" s="73">
+        <v>18</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="67" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B14" s="73">
+        <v>1</v>
+      </c>
+      <c r="C14" s="53"/>
+      <c r="D14"/>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B15" s="73">
+        <v>1</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="67" t="s">
+        <v>1825</v>
+      </c>
+      <c r="B16" s="73">
+        <v>17</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="B17" s="73">
+        <v>15</v>
+      </c>
+      <c r="C17"/>
+      <c r="D17"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B18" s="73">
+        <v>2</v>
+      </c>
+      <c r="C18"/>
+      <c r="D18"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B19" s="73">
+        <v>23</v>
+      </c>
+      <c r="C19" s="47"/>
+      <c r="D19"/>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" customHeight="1"/>
+  </sheetData>
+  <autoFilter ref="A2:F1358" xr:uid="{B27B7123-EEA1-4BA6-8CFC-B80BB9988DCB}"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId3"/>
+  </customProperties>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6F094-6CC7-43A2-BBFE-8797416561A7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D981"/>
+  <dimension ref="A1:D982"/>
   <sheetViews>
-    <sheetView topLeftCell="A951" workbookViewId="0">
-      <selection activeCell="C981" sqref="C981"/>
+    <sheetView topLeftCell="A949" workbookViewId="0">
+      <selection activeCell="G970" sqref="G970"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31931,7 +31910,7 @@
       </c>
     </row>
     <row r="981" spans="1:3">
-      <c r="A981" s="74" t="s">
+      <c r="A981" s="31" t="s">
         <v>1721</v>
       </c>
       <c r="B981" s="30">
@@ -31941,9 +31920,20 @@
         <v>4</v>
       </c>
     </row>
+    <row r="982" spans="1:3">
+      <c r="A982" t="s">
+        <v>1941</v>
+      </c>
+      <c r="B982">
+        <v>1</v>
+      </c>
+      <c r="C982" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A545 A548:A568 A570:A1048576">
-    <cfRule type="duplicateValues" dxfId="30" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -31953,53 +31943,6 @@
   <tableParts count="1">
     <tablePart r:id="rId3"/>
   </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D1BA190F-5488-4632-AF91-93A699854F94}">
-  <sheetPr codeName="Sheet3"/>
-  <dimension ref="A1:C4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="13.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" customWidth="1"/>
-    <col min="4" max="16384" width="9.140625" hidden="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" s="66" t="s">
-        <v>390</v>
-      </c>
-      <c r="B1" s="72" t="s">
-        <v>1946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" s="66" t="s">
-        <v>366</v>
-      </c>
-      <c r="B3" t="s">
-        <v>726</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B4" s="73"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <customProperties>
-    <customPr name="_pios_id" r:id="rId2"/>
-  </customProperties>
 </worksheet>
 </file>
 
@@ -32026,7 +31969,7 @@
   <dimension ref="A1:S498"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E514" sqref="E514"/>
+      <selection activeCell="B495" sqref="B495"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -60857,10 +60800,10 @@
       </c>
       <c r="B495" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C495" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D495" t="s">
         <v>1940</v>
@@ -60892,8 +60835,12 @@
       <c r="M495" s="64">
         <v>45698.416030092594</v>
       </c>
-      <c r="N495" s="69"/>
-      <c r="O495" s="69"/>
+      <c r="N495" s="69">
+        <v>45701</v>
+      </c>
+      <c r="O495" s="69">
+        <v>45701</v>
+      </c>
       <c r="P495" s="69" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
         <v>on track</v>
@@ -61222,6 +61169,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <customProperties>
+    <customPr name="_pios_id" r:id="rId1"/>
+  </customProperties>
 </worksheet>
 </file>
 

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B973298-E504-40F0-8DEE-C0C60DC049FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1293FC67-C2E9-411E-978D-0AD68E342F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="58" r:id="rId12"/>
+    <pivotCache cacheId="80" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -18685,7 +18685,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -18781,7 +18781,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="58" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -20634,7 +20634,7 @@
   <dimension ref="A1:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A21" sqref="A21"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -20885,7 +20885,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -31969,7 +31969,7 @@
   <dimension ref="A1:S498"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B495" sqref="B495"/>
+      <selection activeCell="D506" sqref="D506"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -60794,7 +60794,7 @@
       </c>
       <c r="S494" s="60"/>
     </row>
-    <row r="495" spans="1:19">
+    <row r="495" spans="1:19" hidden="1">
       <c r="A495" t="s">
         <v>1941</v>
       </c>

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1293FC67-C2E9-411E-978D-0AD68E342F97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75B5537-A79B-49FF-89BE-7A287B04680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="80" r:id="rId12"/>
+    <pivotCache cacheId="1" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6439" uniqueCount="1961">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6447" uniqueCount="1965">
   <si>
     <t>Ticket</t>
   </si>
@@ -5964,19 +5964,32 @@
   </si>
   <si>
     <t>G000000893</t>
+  </si>
+  <si>
+    <t>CLFF_7210$$$2034C00019 Hub Organoids</t>
+  </si>
+  <si>
+    <t>L000007871</t>
+  </si>
+  <si>
+    <t>GCOHM01 Global Cost Object Hierarchy</t>
+  </si>
+  <si>
+    <t>FR7079666</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <numFmts count="6">
+  <numFmts count="7">
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="166" formatCode="_(&quot;₱&quot;* #,##0_);_(&quot;₱&quot;* \(#,##0\);_(&quot;₱&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="167" formatCode="_(&quot;₱&quot;* #,##0.00_);_(&quot;₱&quot;* \(#,##0.00\);_(&quot;₱&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="168" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="169" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
   </numFmts>
   <fonts count="24">
     <font>
@@ -6559,7 +6572,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -6652,6 +6665,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="100">
     <cellStyle name="AF Column - IBM Cognos" xfId="7" xr:uid="{F7169E42-F219-404B-8E76-A130536EB5C5}"/>
@@ -18685,7 +18699,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -18781,7 +18795,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="80" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -20223,8 +20237,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S498" totalsRowShown="0">
-  <autoFilter ref="A1:S498" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S499" totalsRowShown="0">
+  <autoFilter ref="A1:S499" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
     <filterColumn colId="1">
       <filters>
         <filter val="open"/>
@@ -20884,8 +20898,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -31966,10 +31980,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36F6EB-8AC5-4AC7-9C5A-FF7A5ACB8647}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S498"/>
+  <dimension ref="A1:S499"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D506" sqref="D506"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D504" sqref="D504"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -61024,6 +61038,62 @@
       </c>
       <c r="S498" s="60"/>
     </row>
+    <row r="499" spans="1:19">
+      <c r="A499" t="s">
+        <v>1964</v>
+      </c>
+      <c r="B499" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C499" t="s">
+        <v>404</v>
+      </c>
+      <c r="D499" t="s">
+        <v>1961</v>
+      </c>
+      <c r="E499" t="s">
+        <v>1962</v>
+      </c>
+      <c r="F499" s="73" t="s">
+        <v>1963</v>
+      </c>
+      <c r="G499" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H499" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>2034C00019</v>
+      </c>
+      <c r="J499" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K499" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L499" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M499" s="69">
+        <v>45701.389467592591</v>
+      </c>
+      <c r="N499" s="74"/>
+      <c r="O499" s="74"/>
+      <c r="P499" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q499" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R499" s="74" t="s">
+        <v>858</v>
+      </c>
+      <c r="S499" s="73"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -61047,7 +61117,7 @@
           <x14:formula1>
             <xm:f>STAT!$A$15:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G498</xm:sqref>
+          <xm:sqref>G2:G499</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C75B5537-A79B-49FF-89BE-7A287B04680B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA616A2F-3D34-4A3E-8C0B-0B81094A52B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="1" r:id="rId12"/>
+    <pivotCache cacheId="2" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6447" uniqueCount="1965">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6530" uniqueCount="1982">
   <si>
     <t>Ticket</t>
   </si>
@@ -5976,6 +5976,57 @@
   </si>
   <si>
     <t>FR7079666</t>
+  </si>
+  <si>
+    <t>FR7081100</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648610</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/604750</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648912</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648916</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648921</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648913</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648914</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648915</t>
+  </si>
+  <si>
+    <t>PHOENX_0101/648917</t>
+  </si>
+  <si>
+    <t>L000013890</t>
+  </si>
+  <si>
+    <t>L000013891</t>
+  </si>
+  <si>
+    <t>L000013595</t>
+  </si>
+  <si>
+    <t>L000013330</t>
+  </si>
+  <si>
+    <t>L000012371</t>
+  </si>
+  <si>
+    <t>Marvin Graef</t>
+  </si>
+  <si>
+    <t>Requested node is non-existent</t>
   </si>
 </sst>
 </file>
@@ -6814,7 +6865,7 @@
       <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -18699,7 +18750,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -18795,7 +18846,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -20237,8 +20288,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S499" totalsRowShown="0">
-  <autoFilter ref="A1:S499" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S508" totalsRowShown="0">
+  <autoFilter ref="A1:S508" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
     <filterColumn colId="1">
       <filters>
         <filter val="open"/>
@@ -20291,8 +20342,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92618A58-C4E3-4E95-B0AA-9A83DBB6280E}" name="Table4" displayName="Table4" ref="A1:B113" totalsRowShown="0">
-  <autoFilter ref="A1:B113" xr:uid="{92618A58-C4E3-4E95-B0AA-9A83DBB6280E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{92618A58-C4E3-4E95-B0AA-9A83DBB6280E}" name="Table4" displayName="Table4" ref="A1:B114" totalsRowShown="0">
+  <autoFilter ref="A1:B114" xr:uid="{92618A58-C4E3-4E95-B0AA-9A83DBB6280E}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{3B75FB62-4A54-4090-931B-B52201DF1C2A}" name="Person"/>
     <tableColumn id="2" xr3:uid="{0921F6D6-E98A-4F94-9591-4AA0953348CA}" name="sd"/>
@@ -31980,10 +32031,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36F6EB-8AC5-4AC7-9C5A-FF7A5ACB8647}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S499"/>
+  <dimension ref="A1:S508"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D504" sqref="D504"/>
+      <selection activeCell="C494" sqref="C494"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -38313,7 +38364,7 @@
       </c>
       <c r="Q107" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="R107" s="64" t="s">
         <v>1113</v>
@@ -49726,7 +49777,7 @@
       </c>
       <c r="Q296" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R296" s="64" t="s">
         <v>1113</v>
@@ -49783,7 +49834,7 @@
       </c>
       <c r="Q297" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R297" s="64" t="s">
         <v>1113</v>
@@ -49840,7 +49891,7 @@
       </c>
       <c r="Q298" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R298" s="64" t="s">
         <v>1113</v>
@@ -49897,7 +49948,7 @@
       </c>
       <c r="Q299" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R299" s="64" t="s">
         <v>1113</v>
@@ -49954,7 +50005,7 @@
       </c>
       <c r="Q300" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R300" s="64" t="s">
         <v>1113</v>
@@ -50011,7 +50062,7 @@
       </c>
       <c r="Q301" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R301" s="64" t="s">
         <v>1113</v>
@@ -50068,7 +50119,7 @@
       </c>
       <c r="Q302" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R302" s="64" t="s">
         <v>1113</v>
@@ -50125,7 +50176,7 @@
       </c>
       <c r="Q303" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R303" s="64" t="s">
         <v>1113</v>
@@ -50182,7 +50233,7 @@
       </c>
       <c r="Q304" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R304" s="64" t="s">
         <v>1113</v>
@@ -50239,7 +50290,7 @@
       </c>
       <c r="Q305" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R305" s="64" t="s">
         <v>1113</v>
@@ -50296,7 +50347,7 @@
       </c>
       <c r="Q306" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="R306" s="64" t="s">
         <v>1113</v>
@@ -51234,7 +51285,7 @@
       </c>
       <c r="Q322" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="R322" s="69" t="s">
         <v>1767</v>
@@ -53782,7 +53833,7 @@
       </c>
       <c r="Q365" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R365" s="69" t="s">
         <v>1532</v>
@@ -53836,7 +53887,7 @@
       </c>
       <c r="Q366" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R366" s="69" t="s">
         <v>1532</v>
@@ -53890,7 +53941,7 @@
       </c>
       <c r="Q367" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R367" s="69" t="s">
         <v>1532</v>
@@ -53944,7 +53995,7 @@
       </c>
       <c r="Q368" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R368" s="69" t="s">
         <v>1532</v>
@@ -53998,7 +54049,7 @@
       </c>
       <c r="Q369" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R369" s="69" t="s">
         <v>1532</v>
@@ -54052,7 +54103,7 @@
       </c>
       <c r="Q370" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R370" s="69" t="s">
         <v>1532</v>
@@ -54106,7 +54157,7 @@
       </c>
       <c r="Q371" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R371" s="69" t="s">
         <v>1532</v>
@@ -54160,7 +54211,7 @@
       </c>
       <c r="Q372" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R372" s="69" t="s">
         <v>1532</v>
@@ -54214,7 +54265,7 @@
       </c>
       <c r="Q373" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R373" s="69" t="s">
         <v>1532</v>
@@ -54268,7 +54319,7 @@
       </c>
       <c r="Q374" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R374" s="69" t="s">
         <v>1532</v>
@@ -54322,7 +54373,7 @@
       </c>
       <c r="Q375" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R375" s="69" t="s">
         <v>1532</v>
@@ -54376,7 +54427,7 @@
       </c>
       <c r="Q376" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R376" s="69" t="s">
         <v>1532</v>
@@ -54430,7 +54481,7 @@
       </c>
       <c r="Q377" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R377" s="69" t="s">
         <v>1532</v>
@@ -54484,7 +54535,7 @@
       </c>
       <c r="Q378" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R378" s="69" t="s">
         <v>1532</v>
@@ -54538,7 +54589,7 @@
       </c>
       <c r="Q379" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R379" s="69" t="s">
         <v>1532</v>
@@ -54592,7 +54643,7 @@
       </c>
       <c r="Q380" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R380" s="69" t="s">
         <v>1532</v>
@@ -54646,7 +54697,7 @@
       </c>
       <c r="Q381" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R381" s="69" t="s">
         <v>1532</v>
@@ -54763,7 +54814,7 @@
       </c>
       <c r="Q383" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R383" s="69" t="s">
         <v>575</v>
@@ -54817,7 +54868,7 @@
       </c>
       <c r="Q384" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R384" s="69" t="s">
         <v>575</v>
@@ -54871,7 +54922,7 @@
       </c>
       <c r="Q385" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R385" s="69" t="s">
         <v>575</v>
@@ -54925,7 +54976,7 @@
       </c>
       <c r="Q386" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R386" s="69" t="s">
         <v>575</v>
@@ -54979,7 +55030,7 @@
       </c>
       <c r="Q387" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R387" s="69" t="s">
         <v>575</v>
@@ -55033,7 +55084,7 @@
       </c>
       <c r="Q388" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R388" s="69" t="s">
         <v>575</v>
@@ -55087,7 +55138,7 @@
       </c>
       <c r="Q389" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R389" s="69" t="s">
         <v>575</v>
@@ -55141,7 +55192,7 @@
       </c>
       <c r="Q390" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R390" s="69" t="s">
         <v>575</v>
@@ -55195,7 +55246,7 @@
       </c>
       <c r="Q391" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R391" s="69" t="s">
         <v>575</v>
@@ -55249,7 +55300,7 @@
       </c>
       <c r="Q392" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R392" s="69" t="s">
         <v>575</v>
@@ -55303,7 +55354,7 @@
       </c>
       <c r="Q393" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R393" s="69" t="s">
         <v>575</v>
@@ -55357,7 +55408,7 @@
       </c>
       <c r="Q394" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R394" s="69" t="s">
         <v>575</v>
@@ -55411,7 +55462,7 @@
       </c>
       <c r="Q395" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R395" s="69" t="s">
         <v>575</v>
@@ -55465,7 +55516,7 @@
       </c>
       <c r="Q396" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R396" s="69" t="s">
         <v>575</v>
@@ -55519,7 +55570,7 @@
       </c>
       <c r="Q397" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R397" s="69" t="s">
         <v>575</v>
@@ -55573,7 +55624,7 @@
       </c>
       <c r="Q398" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R398" s="69" t="s">
         <v>575</v>
@@ -55627,7 +55678,7 @@
       </c>
       <c r="Q399" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R399" s="69" t="s">
         <v>575</v>
@@ -55681,7 +55732,7 @@
       </c>
       <c r="Q400" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R400" s="69" t="s">
         <v>575</v>
@@ -55735,7 +55786,7 @@
       </c>
       <c r="Q401" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R401" s="69" t="s">
         <v>575</v>
@@ -55789,7 +55840,7 @@
       </c>
       <c r="Q402" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R402" s="69" t="s">
         <v>575</v>
@@ -55843,7 +55894,7 @@
       </c>
       <c r="Q403" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R403" s="69" t="s">
         <v>575</v>
@@ -55897,7 +55948,7 @@
       </c>
       <c r="Q404" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R404" s="69" t="s">
         <v>575</v>
@@ -55951,7 +56002,7 @@
       </c>
       <c r="Q405" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R405" s="69" t="s">
         <v>575</v>
@@ -56005,7 +56056,7 @@
       </c>
       <c r="Q406" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R406" s="69" t="s">
         <v>575</v>
@@ -56059,7 +56110,7 @@
       </c>
       <c r="Q407" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R407" s="69" t="s">
         <v>575</v>
@@ -56113,7 +56164,7 @@
       </c>
       <c r="Q408" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R408" s="69" t="s">
         <v>575</v>
@@ -56167,7 +56218,7 @@
       </c>
       <c r="Q409" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R409" s="69" t="s">
         <v>575</v>
@@ -56221,7 +56272,7 @@
       </c>
       <c r="Q410" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R410" s="69" t="s">
         <v>575</v>
@@ -56275,7 +56326,7 @@
       </c>
       <c r="Q411" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R411" s="69" t="s">
         <v>575</v>
@@ -56329,7 +56380,7 @@
       </c>
       <c r="Q412" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R412" s="69" t="s">
         <v>575</v>
@@ -56383,7 +56434,7 @@
       </c>
       <c r="Q413" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R413" s="69" t="s">
         <v>575</v>
@@ -56437,7 +56488,7 @@
       </c>
       <c r="Q414" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R414" s="69" t="s">
         <v>575</v>
@@ -56491,7 +56542,7 @@
       </c>
       <c r="Q415" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R415" s="69" t="s">
         <v>575</v>
@@ -56545,7 +56596,7 @@
       </c>
       <c r="Q416" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R416" s="69" t="s">
         <v>575</v>
@@ -56599,7 +56650,7 @@
       </c>
       <c r="Q417" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R417" s="69" t="s">
         <v>575</v>
@@ -56653,7 +56704,7 @@
       </c>
       <c r="Q418" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R418" s="69" t="s">
         <v>575</v>
@@ -56707,7 +56758,7 @@
       </c>
       <c r="Q419" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R419" s="69" t="s">
         <v>575</v>
@@ -56761,7 +56812,7 @@
       </c>
       <c r="Q420" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R420" s="69" t="s">
         <v>575</v>
@@ -56815,7 +56866,7 @@
       </c>
       <c r="Q421" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R421" s="69" t="s">
         <v>575</v>
@@ -56869,7 +56920,7 @@
       </c>
       <c r="Q422" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R422" s="69" t="s">
         <v>575</v>
@@ -56923,7 +56974,7 @@
       </c>
       <c r="Q423" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R423" s="69" t="s">
         <v>575</v>
@@ -57277,7 +57328,7 @@
       </c>
       <c r="Q429" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R429" s="69" t="s">
         <v>858</v>
@@ -57331,7 +57382,7 @@
       </c>
       <c r="Q430" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R430" s="69" t="s">
         <v>858</v>
@@ -57385,7 +57436,7 @@
       </c>
       <c r="Q431" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R431" s="69" t="s">
         <v>858</v>
@@ -57439,7 +57490,7 @@
       </c>
       <c r="Q432" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R432" s="69" t="s">
         <v>858</v>
@@ -57493,7 +57544,7 @@
       </c>
       <c r="Q433" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R433" s="69" t="s">
         <v>858</v>
@@ -57547,7 +57598,7 @@
       </c>
       <c r="Q434" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R434" s="69" t="s">
         <v>858</v>
@@ -57601,7 +57652,7 @@
       </c>
       <c r="Q435" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R435" s="69" t="s">
         <v>858</v>
@@ -57655,7 +57706,7 @@
       </c>
       <c r="Q436" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R436" s="69" t="s">
         <v>858</v>
@@ -57709,7 +57760,7 @@
       </c>
       <c r="Q437" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R437" s="69" t="s">
         <v>858</v>
@@ -57763,7 +57814,7 @@
       </c>
       <c r="Q438" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R438" s="69" t="s">
         <v>858</v>
@@ -57817,7 +57868,7 @@
       </c>
       <c r="Q439" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R439" s="69" t="s">
         <v>858</v>
@@ -57871,7 +57922,7 @@
       </c>
       <c r="Q440" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R440" s="69" t="s">
         <v>858</v>
@@ -57925,7 +57976,7 @@
       </c>
       <c r="Q441" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R441" s="69" t="s">
         <v>858</v>
@@ -57979,7 +58030,7 @@
       </c>
       <c r="Q442" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R442" s="69" t="s">
         <v>858</v>
@@ -58033,7 +58084,7 @@
       </c>
       <c r="Q443" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R443" s="69" t="s">
         <v>858</v>
@@ -58087,7 +58138,7 @@
       </c>
       <c r="Q444" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R444" s="69" t="s">
         <v>858</v>
@@ -58141,7 +58192,7 @@
       </c>
       <c r="Q445" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R445" s="69" t="s">
         <v>858</v>
@@ -58195,7 +58246,7 @@
       </c>
       <c r="Q446" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R446" s="69" t="s">
         <v>858</v>
@@ -58249,7 +58300,7 @@
       </c>
       <c r="Q447" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R447" s="69" t="s">
         <v>858</v>
@@ -58303,7 +58354,7 @@
       </c>
       <c r="Q448" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R448" s="69" t="s">
         <v>858</v>
@@ -58357,7 +58408,7 @@
       </c>
       <c r="Q449" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R449" s="69" t="s">
         <v>858</v>
@@ -58411,7 +58462,7 @@
       </c>
       <c r="Q450" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R450" s="69" t="s">
         <v>858</v>
@@ -58465,7 +58516,7 @@
       </c>
       <c r="Q451" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R451" s="69" t="s">
         <v>858</v>
@@ -58519,7 +58570,7 @@
       </c>
       <c r="Q452" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R452" s="69" t="s">
         <v>858</v>
@@ -58573,7 +58624,7 @@
       </c>
       <c r="Q453" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R453" s="69" t="s">
         <v>858</v>
@@ -58627,7 +58678,7 @@
       </c>
       <c r="Q454" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R454" s="69" t="s">
         <v>858</v>
@@ -58681,7 +58732,7 @@
       </c>
       <c r="Q455" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R455" s="69" t="s">
         <v>858</v>
@@ -58735,7 +58786,7 @@
       </c>
       <c r="Q456" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R456" s="69" t="s">
         <v>858</v>
@@ -58789,7 +58840,7 @@
       </c>
       <c r="Q457" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R457" s="69" t="s">
         <v>858</v>
@@ -58843,7 +58894,7 @@
       </c>
       <c r="Q458" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R458" s="69" t="s">
         <v>858</v>
@@ -58897,7 +58948,7 @@
       </c>
       <c r="Q459" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R459" s="69" t="s">
         <v>858</v>
@@ -58951,7 +59002,7 @@
       </c>
       <c r="Q460" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R460" s="69" t="s">
         <v>858</v>
@@ -59005,7 +59056,7 @@
       </c>
       <c r="Q461" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R461" s="69" t="s">
         <v>858</v>
@@ -59059,7 +59110,7 @@
       </c>
       <c r="Q462" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R462" s="69" t="s">
         <v>858</v>
@@ -59113,7 +59164,7 @@
       </c>
       <c r="Q463" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R463" s="69" t="s">
         <v>858</v>
@@ -59167,7 +59218,7 @@
       </c>
       <c r="Q464" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R464" s="69" t="s">
         <v>858</v>
@@ -59221,7 +59272,7 @@
       </c>
       <c r="Q465" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R465" s="69" t="s">
         <v>858</v>
@@ -59275,7 +59326,7 @@
       </c>
       <c r="Q466" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R466" s="69" t="s">
         <v>858</v>
@@ -59329,7 +59380,7 @@
       </c>
       <c r="Q467" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R467" s="69" t="s">
         <v>858</v>
@@ -59383,7 +59434,7 @@
       </c>
       <c r="Q468" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R468" s="69" t="s">
         <v>858</v>
@@ -59437,7 +59488,7 @@
       </c>
       <c r="Q469" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R469" s="69" t="s">
         <v>858</v>
@@ -59491,7 +59542,7 @@
       </c>
       <c r="Q470" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R470" s="69" t="s">
         <v>858</v>
@@ -59545,7 +59596,7 @@
       </c>
       <c r="Q471" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R471" s="69" t="s">
         <v>858</v>
@@ -59599,7 +59650,7 @@
       </c>
       <c r="Q472" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R472" s="69" t="s">
         <v>858</v>
@@ -59653,7 +59704,7 @@
       </c>
       <c r="Q473" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R473" s="69" t="s">
         <v>858</v>
@@ -59707,7 +59758,7 @@
       </c>
       <c r="Q474" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R474" s="69" t="s">
         <v>858</v>
@@ -59761,7 +59812,7 @@
       </c>
       <c r="Q475" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R475" s="69" t="s">
         <v>858</v>
@@ -59815,7 +59866,7 @@
       </c>
       <c r="Q476" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R476" s="69" t="s">
         <v>858</v>
@@ -59869,7 +59920,7 @@
       </c>
       <c r="Q477" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R477" s="69" t="s">
         <v>858</v>
@@ -59923,7 +59974,7 @@
       </c>
       <c r="Q478" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R478" s="69" t="s">
         <v>858</v>
@@ -59977,7 +60028,7 @@
       </c>
       <c r="Q479" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R479" s="69" t="s">
         <v>858</v>
@@ -60031,7 +60082,7 @@
       </c>
       <c r="Q480" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R480" s="69" t="s">
         <v>858</v>
@@ -60085,7 +60136,7 @@
       </c>
       <c r="Q481" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R481" s="69" t="s">
         <v>858</v>
@@ -60139,7 +60190,7 @@
       </c>
       <c r="Q482" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R482" s="69" t="s">
         <v>858</v>
@@ -60193,7 +60244,7 @@
       </c>
       <c r="Q483" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R483" s="69" t="s">
         <v>858</v>
@@ -60247,7 +60298,7 @@
       </c>
       <c r="Q484" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R484" s="69" t="s">
         <v>858</v>
@@ -60301,7 +60352,7 @@
       </c>
       <c r="Q485" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R485" s="69" t="s">
         <v>538</v>
@@ -60355,7 +60406,7 @@
       </c>
       <c r="Q486" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R486" s="69" t="s">
         <v>538</v>
@@ -60409,7 +60460,7 @@
       </c>
       <c r="Q487" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R487" s="69" t="s">
         <v>538</v>
@@ -60461,11 +60512,11 @@
       <c r="O488" s="69"/>
       <c r="P488" s="69" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
-        <v>on track</v>
+        <v>yep</v>
       </c>
       <c r="Q488" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R488" s="69" t="s">
         <v>1532</v>
@@ -60517,11 +60568,11 @@
       <c r="O489" s="69"/>
       <c r="P489" s="69" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
-        <v>on track</v>
+        <v>yep</v>
       </c>
       <c r="Q489" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R489" s="69" t="s">
         <v>1532</v>
@@ -60573,11 +60624,11 @@
       <c r="O490" s="69"/>
       <c r="P490" s="69" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
-        <v>on track</v>
+        <v>yep</v>
       </c>
       <c r="Q490" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R490" s="69" t="s">
         <v>1532</v>
@@ -60629,11 +60680,11 @@
       <c r="O491" s="69"/>
       <c r="P491" s="69" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
-        <v>on track</v>
+        <v>yep</v>
       </c>
       <c r="Q491" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R491" s="69" t="s">
         <v>1532</v>
@@ -60685,11 +60736,11 @@
       <c r="O492" s="69"/>
       <c r="P492" s="69" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
-        <v>on track</v>
+        <v>yep</v>
       </c>
       <c r="Q492" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R492" s="69" t="s">
         <v>1532</v>
@@ -60745,7 +60796,7 @@
       </c>
       <c r="Q493" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R493" s="69" t="s">
         <v>538</v>
@@ -60761,7 +60812,7 @@
         <v>open</v>
       </c>
       <c r="C494" s="72" t="s">
-        <v>370</v>
+        <v>377</v>
       </c>
       <c r="D494" t="s">
         <v>1938</v>
@@ -60801,7 +60852,7 @@
       </c>
       <c r="Q494" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R494" s="69" t="s">
         <v>538</v>
@@ -60920,7 +60971,7 @@
       </c>
       <c r="Q496" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R496" s="69" t="s">
         <v>538</v>
@@ -60977,7 +61028,7 @@
       </c>
       <c r="Q497" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R497" s="69" t="s">
         <v>538</v>
@@ -61031,7 +61082,7 @@
       </c>
       <c r="Q498" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R498" s="69" t="s">
         <v>1532</v>
@@ -61046,8 +61097,8 @@
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
         <v>open</v>
       </c>
-      <c r="C499" t="s">
-        <v>404</v>
+      <c r="C499" s="72" t="s">
+        <v>370</v>
       </c>
       <c r="D499" t="s">
         <v>1961</v>
@@ -61087,12 +61138,543 @@
       </c>
       <c r="Q499" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R499" s="74" t="s">
         <v>858</v>
       </c>
       <c r="S499" s="73"/>
+    </row>
+    <row r="500" spans="1:19">
+      <c r="A500" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B500" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C500" t="s">
+        <v>377</v>
+      </c>
+      <c r="D500" t="s">
+        <v>1966</v>
+      </c>
+      <c r="E500" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F500" s="73" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G500" t="s">
+        <v>400</v>
+      </c>
+      <c r="H500" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="I500" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J500" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K500" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L500" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M500" s="69">
+        <v>45701.611967592595</v>
+      </c>
+      <c r="N500" s="74"/>
+      <c r="O500" s="74"/>
+      <c r="P500" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q500" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R500" s="74" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S500" s="73"/>
+    </row>
+    <row r="501" spans="1:19">
+      <c r="A501" s="72" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B501" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C501" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D501" t="s">
+        <v>1967</v>
+      </c>
+      <c r="E501" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F501" s="73" t="s">
+        <v>1978</v>
+      </c>
+      <c r="G501" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H501" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="I501" s="72" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J501" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K501" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L501" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M501" s="69">
+        <v>45701.611967592595</v>
+      </c>
+      <c r="N501" s="74"/>
+      <c r="O501" s="74"/>
+      <c r="P501" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q501" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R501" s="74" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S501" s="73"/>
+    </row>
+    <row r="502" spans="1:19">
+      <c r="A502" s="72" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B502" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C502" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D502" t="s">
+        <v>1968</v>
+      </c>
+      <c r="E502" t="s">
+        <v>1975</v>
+      </c>
+      <c r="F502" s="73" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G502" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H502" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="I502" s="72" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J502" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K502" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L502" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M502" s="69">
+        <v>45701.611967592595</v>
+      </c>
+      <c r="N502" s="74"/>
+      <c r="O502" s="74"/>
+      <c r="P502" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q502" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R502" s="74" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S502" s="73"/>
+    </row>
+    <row r="503" spans="1:19">
+      <c r="A503" s="72" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B503" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C503" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D503" t="s">
+        <v>1969</v>
+      </c>
+      <c r="E503" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F503" s="73" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G503" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H503" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="I503" s="72" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J503" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K503" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L503" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M503" s="69">
+        <v>45701.611967592595</v>
+      </c>
+      <c r="N503" s="74"/>
+      <c r="O503" s="74"/>
+      <c r="P503" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q503" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R503" s="74" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S503" s="73"/>
+    </row>
+    <row r="504" spans="1:19">
+      <c r="A504" s="72" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B504" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C504" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D504" t="s">
+        <v>1970</v>
+      </c>
+      <c r="E504" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F504" s="73" t="s">
+        <v>1977</v>
+      </c>
+      <c r="G504" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H504" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="I504" s="72" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J504" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K504" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L504" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M504" s="69">
+        <v>45701.611967592595</v>
+      </c>
+      <c r="N504" s="74"/>
+      <c r="O504" s="74"/>
+      <c r="P504" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q504" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R504" s="74" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S504" s="73"/>
+    </row>
+    <row r="505" spans="1:19">
+      <c r="A505" s="72" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B505" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C505" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D505" t="s">
+        <v>1971</v>
+      </c>
+      <c r="E505" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F505" s="73" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G505" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H505" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="I505" s="72" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J505" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K505" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L505" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M505" s="69">
+        <v>45701.611967592595</v>
+      </c>
+      <c r="N505" s="74"/>
+      <c r="O505" s="74"/>
+      <c r="P505" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q505" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R505" s="74" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S505" s="73"/>
+    </row>
+    <row r="506" spans="1:19">
+      <c r="A506" s="72" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B506" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C506" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D506" t="s">
+        <v>1972</v>
+      </c>
+      <c r="E506" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F506" s="73" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G506" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H506" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="I506" s="72" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J506" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K506" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L506" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M506" s="69">
+        <v>45701.611967592595</v>
+      </c>
+      <c r="N506" s="74"/>
+      <c r="O506" s="74"/>
+      <c r="P506" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q506" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R506" s="74" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S506" s="73"/>
+    </row>
+    <row r="507" spans="1:19">
+      <c r="A507" s="72" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B507" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C507" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D507" t="s">
+        <v>1973</v>
+      </c>
+      <c r="E507" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F507" s="73" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G507" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H507" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="I507" s="72" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J507" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K507" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L507" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M507" s="69">
+        <v>45701.611967592595</v>
+      </c>
+      <c r="N507" s="74"/>
+      <c r="O507" s="74"/>
+      <c r="P507" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q507" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R507" s="74" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S507" s="73"/>
+    </row>
+    <row r="508" spans="1:19">
+      <c r="A508" s="72" t="s">
+        <v>1965</v>
+      </c>
+      <c r="B508" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C508" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D508" t="s">
+        <v>1974</v>
+      </c>
+      <c r="E508" t="s">
+        <v>1976</v>
+      </c>
+      <c r="F508" s="73" t="s">
+        <v>1979</v>
+      </c>
+      <c r="G508" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H508" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="I508" s="72" t="s">
+        <v>1981</v>
+      </c>
+      <c r="J508" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K508" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>LS</v>
+      </c>
+      <c r="L508" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M508" s="69">
+        <v>45701.611967592595</v>
+      </c>
+      <c r="N508" s="74"/>
+      <c r="O508" s="74"/>
+      <c r="P508" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q508" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>1</v>
+      </c>
+      <c r="R508" s="74" t="s">
+        <v>1980</v>
+      </c>
+      <c r="S508" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -61100,13 +61682,14 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA904D87-F005-470F-89A3-B2D56E752386}">
           <x14:formula1>
             <xm:f>STAT!$A$1:$A$11</xm:f>
@@ -61117,7 +61700,7 @@
           <x14:formula1>
             <xm:f>STAT!$A$15:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G499</xm:sqref>
+          <xm:sqref>G2:G508</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -64017,10 +64600,10 @@
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8BC0DDE-30CA-4DA6-A9D7-CF7B41BA9FCB}">
   <sheetPr codeName="Sheet7"/>
-  <dimension ref="A1:B113"/>
+  <dimension ref="A1:B114"/>
   <sheetViews>
     <sheetView topLeftCell="A82" workbookViewId="0">
-      <selection activeCell="I98" sqref="I98"/>
+      <selection activeCell="F112" sqref="F112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -64864,8 +65447,8 @@
       <c r="A105" t="s">
         <v>1205</v>
       </c>
-      <c r="B105" t="s">
-        <v>597</v>
+      <c r="B105" s="72" t="s">
+        <v>594</v>
       </c>
     </row>
     <row r="106" spans="1:2">
@@ -64930,6 +65513,14 @@
       </c>
       <c r="B113" t="s">
         <v>596</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2">
+      <c r="A114" t="s">
+        <v>1980</v>
+      </c>
+      <c r="B114" t="s">
+        <v>595</v>
       </c>
     </row>
   </sheetData>

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA616A2F-3D34-4A3E-8C0B-0B81094A52B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6C486D-03F8-4FBE-B42F-8C210536373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="2" r:id="rId12"/>
+    <pivotCache cacheId="34" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6530" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="1982">
   <si>
     <t>Ticket</t>
   </si>
@@ -6026,7 +6026,7 @@
     <t>Marvin Graef</t>
   </si>
   <si>
-    <t>Requested node is non-existent</t>
+    <t>Requested node is non-existent. Reached out with the requester.</t>
   </si>
 </sst>
 </file>
@@ -6865,7 +6865,7 @@
       <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6949,13 +6949,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45701.598317013886" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="497" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45702.681953703701" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="507" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
   <cacheSource type="worksheet">
     <worksheetSource name="Proc"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="App" numFmtId="0">
-      <sharedItems containsBlank="1" count="1244">
+      <sharedItems containsBlank="1" count="1246">
         <s v="FR0000000"/>
         <s v="FR6943059"/>
         <s v="FR6940622"/>
@@ -7019,6 +7019,8 @@
         <s v="FR7067731"/>
         <s v="FR7070747"/>
         <s v="FR7076100"/>
+        <s v="FR7079666"/>
+        <s v="FR7081100"/>
         <m u="1"/>
         <s v="FR5900147" u="1"/>
         <s v="FR6280266" u="1"/>
@@ -8273,15 +8275,15 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DateOpened" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-12T04:00:09"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-13T14:41:14"/>
     </cacheField>
-    <cacheField name="DateMapped" numFmtId="14">
+    <cacheField name="DateMapped" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-01T00:00:00" maxDate="2025-02-14T00:00:00"/>
     </cacheField>
-    <cacheField name="DateClosed" numFmtId="14">
+    <cacheField name="DateClosed" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-06T00:00:00" maxDate="2025-02-14T00:00:00"/>
     </cacheField>
-    <cacheField name="Delayed?" numFmtId="14">
+    <cacheField name="Delayed?" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
         <s v="on track"/>
         <s v="yep"/>
@@ -8290,9 +8292,9 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DaysAgeing" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="39"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
     </cacheField>
-    <cacheField name="Author" numFmtId="14">
+    <cacheField name="Author" numFmtId="0">
       <sharedItems/>
     </cacheField>
     <cacheField name="Prognosis" numFmtId="0">
@@ -8308,7 +8310,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="497">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="507">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -10531,7 +10533,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="39"/>
+    <n v="40"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14500,7 +14502,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14521,7 +14523,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14542,7 +14544,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14563,7 +14565,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14584,7 +14586,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14605,7 +14607,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14626,7 +14628,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14647,7 +14649,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14668,7 +14670,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14689,7 +14691,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14710,7 +14712,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="14"/>
+    <n v="15"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -15032,7 +15034,7 @@
   <r>
     <x v="45"/>
     <x v="1"/>
-    <x v="5"/>
+    <x v="2"/>
     <s v="CLFF_1000$$$DE50TODA13"/>
     <s v="H000004262"/>
     <s v="H000000678"/>
@@ -15046,7 +15048,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="10"/>
+    <n v="11"/>
     <s v="Volker Ogan"/>
     <m/>
   </r>
@@ -15949,7 +15951,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -15970,7 +15972,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -15991,7 +15993,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16012,7 +16014,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16033,7 +16035,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16054,7 +16056,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16075,7 +16077,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16096,7 +16098,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16117,7 +16119,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16138,7 +16140,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16159,7 +16161,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16180,7 +16182,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16201,7 +16203,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16222,7 +16224,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16243,7 +16245,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16264,7 +16266,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16285,7 +16287,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16327,7 +16329,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16348,7 +16350,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16369,7 +16371,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16390,7 +16392,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16411,7 +16413,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16432,7 +16434,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16453,7 +16455,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16474,7 +16476,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16495,7 +16497,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16516,7 +16518,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16537,7 +16539,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16558,7 +16560,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16579,7 +16581,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16600,7 +16602,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16621,7 +16623,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16642,7 +16644,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16663,7 +16665,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16684,7 +16686,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16705,7 +16707,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16726,7 +16728,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16747,7 +16749,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16768,7 +16770,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16789,7 +16791,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16810,7 +16812,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16831,7 +16833,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16852,7 +16854,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16873,7 +16875,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16894,7 +16896,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16915,7 +16917,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16936,7 +16938,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16957,7 +16959,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16978,7 +16980,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16999,7 +17001,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17020,7 +17022,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17041,7 +17043,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17062,7 +17064,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17083,7 +17085,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17104,7 +17106,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17125,7 +17127,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17146,7 +17148,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17167,7 +17169,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17293,7 +17295,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17314,7 +17316,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17335,7 +17337,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17356,7 +17358,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17377,7 +17379,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17398,7 +17400,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17419,7 +17421,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17440,7 +17442,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17461,7 +17463,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17482,7 +17484,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17503,7 +17505,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17524,7 +17526,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17545,7 +17547,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17566,7 +17568,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17587,7 +17589,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17608,7 +17610,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17629,7 +17631,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17650,7 +17652,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17671,7 +17673,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17692,7 +17694,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17713,7 +17715,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17734,7 +17736,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17755,7 +17757,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17776,7 +17778,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17797,7 +17799,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17818,7 +17820,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17839,7 +17841,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17860,7 +17862,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17881,7 +17883,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17902,7 +17904,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17923,7 +17925,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17944,7 +17946,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17965,7 +17967,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17986,7 +17988,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18007,7 +18009,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18028,7 +18030,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18049,7 +18051,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18070,7 +18072,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18091,7 +18093,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18112,7 +18114,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18133,7 +18135,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18154,7 +18156,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18175,7 +18177,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18196,7 +18198,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18217,7 +18219,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18238,7 +18240,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18259,7 +18261,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18280,7 +18282,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18301,7 +18303,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18322,7 +18324,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18343,7 +18345,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18364,7 +18366,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18385,7 +18387,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18406,7 +18408,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18427,7 +18429,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18448,7 +18450,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18469,7 +18471,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18490,7 +18492,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18511,7 +18513,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18531,8 +18533,8 @@
     <d v="2025-02-06T14:26:11"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
+    <n v="6"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18552,8 +18554,8 @@
     <d v="2025-02-06T14:26:11"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
+    <n v="6"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18573,8 +18575,8 @@
     <d v="2025-02-06T14:26:11"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
+    <n v="6"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18594,8 +18596,8 @@
     <d v="2025-02-06T14:26:11"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
+    <n v="6"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18615,15 +18617,15 @@
     <d v="2025-02-06T14:26:11"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
+    <n v="6"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
   <r>
     <x v="59"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CORAERP_MMOR1945.9115"/>
     <s v="G000001174 "/>
     <s v="G000000698"/>
@@ -18637,14 +18639,14 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="4"/>
+    <n v="5"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
   <r>
     <x v="59"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="4"/>
     <s v="CLFF_1000$$$DE10G69660"/>
     <s v="G000001174 "/>
     <s v="DFLTPGCOH_001500 Merck KGaA, Germany"/>
@@ -18658,7 +18660,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="4"/>
+    <n v="5"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18685,7 +18687,7 @@
   </r>
   <r>
     <x v="61"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <s v="CLFF_1000$$$DE10624905"/>
     <s v="G000000235"/>
@@ -18700,14 +18702,14 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="2"/>
+    <n v="3"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
   <r>
     <x v="61"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CLFF_1000$$$DE10624906"/>
     <s v="G000000235"/>
     <s v="G000000237"/>
@@ -18721,14 +18723,14 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="2"/>
+    <n v="3"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
   <r>
     <x v="62"/>
-    <x v="1"/>
-    <x v="6"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CLFF_1000$$$DE10GIT04K"/>
     <s v="G000000893"/>
     <m/>
@@ -18742,15 +18744,225 @@
     <m/>
     <m/>
     <x v="0"/>
+    <n v="2"/>
+    <s v="Jay-R Lizardo"/>
+    <m/>
+  </r>
+  <r>
+    <x v="63"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="CLFF_7210$$$2034C00019 Hub Organoids"/>
+    <s v="L000007871"/>
+    <s v="GCOHM01 Global Cost Object Hierarchy"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="2034C00019"/>
+    <m/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T09:20:50"/>
+    <m/>
+    <m/>
+    <x v="0"/>
     <n v="1"/>
-    <s v="Jay-R Lizardo"/>
+    <s v="Jayson Martinez"/>
+    <m/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="PHOENX_0101/648610"/>
+    <s v="L000013890"/>
+    <s v="L000013595"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <s v="Requested node is non-existent"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T14:41:14"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Marvin Graef"/>
+    <m/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="PHOENX_0101/604750"/>
+    <s v="L000013890"/>
+    <s v="L000013330"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <s v="Requested node is non-existent"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T14:41:14"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Marvin Graef"/>
+    <m/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="PHOENX_0101/648912"/>
+    <s v="L000013890"/>
+    <s v="L000012371"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <s v="Requested node is non-existent"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T14:41:14"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Marvin Graef"/>
+    <m/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="PHOENX_0101/648916"/>
+    <s v="L000013891"/>
+    <s v="L000013595"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <s v="Requested node is non-existent"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T14:41:14"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Marvin Graef"/>
+    <m/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="PHOENX_0101/648921"/>
+    <s v="L000013891"/>
+    <s v="L000013595"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <s v="Requested node is non-existent"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T14:41:14"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Marvin Graef"/>
+    <m/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="PHOENX_0101/648913"/>
+    <s v="L000013891"/>
+    <s v="L000012371"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <s v="Requested node is non-existent"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T14:41:14"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Marvin Graef"/>
+    <m/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="PHOENX_0101/648914"/>
+    <s v="L000013891"/>
+    <s v="L000012371"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <s v="Requested node is non-existent"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T14:41:14"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Marvin Graef"/>
+    <m/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="PHOENX_0101/648915"/>
+    <s v="L000013891"/>
+    <s v="L000012371"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <s v="Requested node is non-existent"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T14:41:14"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Marvin Graef"/>
+    <m/>
+  </r>
+  <r>
+    <x v="64"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="PHOENX_0101/648917"/>
+    <s v="L000013891"/>
+    <s v="L000012371"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <s v="Requested node is non-existent"/>
+    <b v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <d v="2025-02-13T14:41:14"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="1"/>
+    <s v="Marvin Graef"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -18846,1189 +19058,1189 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="2" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B19" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="1245">
-        <item m="1" x="629"/>
+      <items count="1247">
+        <item m="1" x="631"/>
         <item x="0"/>
-        <item m="1" x="699"/>
+        <item m="1" x="701"/>
+        <item m="1" x="1122"/>
+        <item m="1" x="284"/>
+        <item m="1" x="1139"/>
+        <item m="1" x="661"/>
+        <item m="1" x="751"/>
+        <item m="1" x="1172"/>
+        <item m="1" x="966"/>
+        <item m="1" x="654"/>
+        <item m="1" x="1238"/>
+        <item m="1" x="984"/>
+        <item m="1" x="1228"/>
+        <item m="1" x="602"/>
+        <item m="1" x="503"/>
+        <item m="1" x="207"/>
+        <item m="1" x="468"/>
+        <item m="1" x="1192"/>
+        <item m="1" x="260"/>
+        <item m="1" x="568"/>
+        <item m="1" x="936"/>
+        <item m="1" x="651"/>
+        <item m="1" x="744"/>
+        <item m="1" x="1040"/>
+        <item m="1" x="1225"/>
+        <item m="1" x="686"/>
+        <item m="1" x="708"/>
+        <item m="1" x="473"/>
+        <item m="1" x="874"/>
+        <item m="1" x="633"/>
+        <item m="1" x="1179"/>
+        <item m="1" x="836"/>
+        <item m="1" x="269"/>
+        <item m="1" x="377"/>
+        <item m="1" x="1164"/>
+        <item m="1" x="928"/>
+        <item m="1" x="182"/>
+        <item m="1" x="1014"/>
+        <item m="1" x="680"/>
+        <item m="1" x="975"/>
+        <item m="1" x="561"/>
+        <item m="1" x="913"/>
+        <item m="1" x="172"/>
+        <item m="1" x="202"/>
+        <item m="1" x="1241"/>
+        <item m="1" x="920"/>
+        <item m="1" x="988"/>
+        <item m="1" x="1095"/>
+        <item m="1" x="864"/>
+        <item m="1" x="962"/>
+        <item m="1" x="801"/>
+        <item m="1" x="256"/>
+        <item m="1" x="447"/>
+        <item m="1" x="1223"/>
+        <item m="1" x="791"/>
+        <item m="1" x="931"/>
+        <item m="1" x="459"/>
+        <item m="1" x="420"/>
+        <item m="1" x="712"/>
+        <item m="1" x="604"/>
+        <item m="1" x="637"/>
+        <item m="1" x="196"/>
+        <item m="1" x="335"/>
+        <item m="1" x="997"/>
+        <item m="1" x="1214"/>
+        <item m="1" x="400"/>
+        <item m="1" x="805"/>
+        <item m="1" x="815"/>
+        <item m="1" x="992"/>
+        <item m="1" x="1102"/>
+        <item m="1" x="980"/>
+        <item m="1" x="275"/>
+        <item m="1" x="1123"/>
+        <item m="1" x="853"/>
+        <item m="1" x="840"/>
+        <item m="1" x="375"/>
+        <item m="1" x="728"/>
+        <item m="1" x="1075"/>
+        <item m="1" x="193"/>
+        <item m="1" x="772"/>
+        <item m="1" x="1125"/>
+        <item m="1" x="963"/>
+        <item m="1" x="698"/>
+        <item m="1" x="740"/>
+        <item m="1" x="621"/>
+        <item m="1" x="856"/>
+        <item m="1" x="668"/>
+        <item m="1" x="900"/>
+        <item m="1" x="384"/>
+        <item m="1" x="1213"/>
+        <item m="1" x="738"/>
+        <item m="1" x="1024"/>
+        <item m="1" x="101"/>
+        <item m="1" x="1229"/>
+        <item m="1" x="765"/>
+        <item m="1" x="1054"/>
+        <item m="1" x="967"/>
+        <item m="1" x="745"/>
+        <item m="1" x="255"/>
+        <item m="1" x="262"/>
+        <item m="1" x="302"/>
+        <item m="1" x="484"/>
+        <item m="1" x="908"/>
+        <item m="1" x="669"/>
+        <item m="1" x="785"/>
+        <item m="1" x="848"/>
+        <item m="1" x="995"/>
+        <item m="1" x="1078"/>
+        <item m="1" x="640"/>
+        <item m="1" x="361"/>
+        <item m="1" x="204"/>
+        <item m="1" x="347"/>
+        <item m="1" x="1222"/>
+        <item m="1" x="379"/>
+        <item m="1" x="1060"/>
+        <item m="1" x="989"/>
+        <item m="1" x="607"/>
+        <item m="1" x="679"/>
+        <item m="1" x="545"/>
+        <item m="1" x="802"/>
+        <item m="1" x="1177"/>
+        <item m="1" x="353"/>
+        <item m="1" x="301"/>
+        <item m="1" x="236"/>
+        <item m="1" x="902"/>
+        <item m="1" x="1162"/>
+        <item m="1" x="1090"/>
+        <item m="1" x="747"/>
+        <item m="1" x="271"/>
+        <item m="1" x="996"/>
+        <item m="1" x="448"/>
+        <item m="1" x="702"/>
+        <item m="1" x="877"/>
+        <item m="1" x="985"/>
+        <item m="1" x="105"/>
+        <item m="1" x="934"/>
+        <item m="1" x="897"/>
+        <item m="1" x="338"/>
+        <item m="1" x="786"/>
+        <item m="1" x="674"/>
+        <item m="1" x="627"/>
+        <item m="1" x="360"/>
+        <item m="1" x="296"/>
+        <item m="1" x="536"/>
+        <item m="1" x="723"/>
+        <item m="1" x="130"/>
+        <item m="1" x="469"/>
+        <item m="1" x="328"/>
+        <item m="1" x="70"/>
+        <item m="1" x="580"/>
+        <item m="1" x="781"/>
+        <item m="1" x="663"/>
+        <item m="1" x="709"/>
+        <item m="1" x="1028"/>
+        <item m="1" x="610"/>
+        <item m="1" x="1136"/>
+        <item m="1" x="860"/>
+        <item m="1" x="799"/>
+        <item m="1" x="313"/>
+        <item m="1" x="946"/>
+        <item m="1" x="1224"/>
+        <item m="1" x="912"/>
+        <item m="1" x="896"/>
+        <item m="1" x="183"/>
+        <item m="1" x="231"/>
+        <item m="1" x="766"/>
+        <item m="1" x="272"/>
+        <item m="1" x="1209"/>
+        <item m="1" x="875"/>
+        <item m="1" x="800"/>
+        <item m="1" x="752"/>
+        <item m="1" x="553"/>
+        <item m="1" x="181"/>
+        <item m="1" x="281"/>
+        <item m="1" x="387"/>
         <item m="1" x="1120"/>
-        <item m="1" x="282"/>
-        <item m="1" x="1137"/>
-        <item m="1" x="659"/>
-        <item m="1" x="749"/>
-        <item m="1" x="1170"/>
-        <item m="1" x="964"/>
-        <item m="1" x="652"/>
-        <item m="1" x="1236"/>
+        <item m="1" x="1152"/>
+        <item m="1" x="851"/>
+        <item m="1" x="578"/>
+        <item m="1" x="666"/>
+        <item m="1" x="176"/>
+        <item m="1" x="216"/>
+        <item m="1" x="555"/>
+        <item m="1" x="780"/>
+        <item m="1" x="693"/>
+        <item m="1" x="351"/>
+        <item m="1" x="584"/>
+        <item m="1" x="298"/>
+        <item m="1" x="493"/>
+        <item m="1" x="415"/>
+        <item m="1" x="250"/>
+        <item m="1" x="386"/>
+        <item m="1" x="756"/>
+        <item m="1" x="166"/>
+        <item m="1" x="405"/>
+        <item m="1" x="197"/>
+        <item m="1" x="890"/>
+        <item m="1" x="1079"/>
+        <item m="1" x="689"/>
+        <item m="1" x="333"/>
+        <item m="1" x="983"/>
+        <item m="1" x="828"/>
+        <item m="1" x="345"/>
+        <item m="1" x="346"/>
+        <item m="1" x="531"/>
+        <item m="1" x="221"/>
+        <item m="1" x="410"/>
+        <item m="1" x="205"/>
+        <item m="1" x="391"/>
+        <item m="1" x="959"/>
+        <item m="1" x="470"/>
+        <item m="1" x="837"/>
+        <item m="1" x="887"/>
+        <item m="1" x="1021"/>
+        <item m="1" x="1025"/>
+        <item m="1" x="742"/>
+        <item m="1" x="583"/>
+        <item m="1" x="622"/>
+        <item m="1" x="1189"/>
+        <item m="1" x="482"/>
+        <item m="1" x="294"/>
+        <item m="1" x="672"/>
+        <item m="1" x="129"/>
+        <item m="1" x="1193"/>
+        <item m="1" x="656"/>
+        <item m="1" x="90"/>
+        <item m="1" x="1111"/>
+        <item m="1" x="1154"/>
+        <item m="1" x="991"/>
+        <item m="1" x="368"/>
+        <item m="1" x="107"/>
+        <item m="1" x="1041"/>
+        <item m="1" x="432"/>
+        <item m="1" x="68"/>
+        <item m="1" x="1212"/>
+        <item m="1" x="456"/>
+        <item m="1" x="611"/>
+        <item m="1" x="1056"/>
+        <item m="1" x="143"/>
+        <item m="1" x="968"/>
+        <item m="1" x="776"/>
+        <item m="1" x="641"/>
+        <item m="1" x="511"/>
+        <item m="1" x="258"/>
+        <item m="1" x="759"/>
+        <item m="1" x="461"/>
+        <item m="1" x="999"/>
+        <item m="1" x="321"/>
+        <item m="1" x="1069"/>
+        <item m="1" x="1076"/>
+        <item m="1" x="760"/>
+        <item m="1" x="950"/>
+        <item m="1" x="367"/>
+        <item m="1" x="664"/>
+        <item m="1" x="953"/>
+        <item m="1" x="537"/>
+        <item m="1" x="827"/>
+        <item m="1" x="466"/>
+        <item m="1" x="251"/>
+        <item m="1" x="455"/>
+        <item m="1" x="1221"/>
+        <item m="1" x="1163"/>
+        <item m="1" x="308"/>
+        <item m="1" x="1109"/>
+        <item m="1" x="115"/>
+        <item m="1" x="1131"/>
+        <item m="1" x="150"/>
+        <item m="1" x="452"/>
+        <item m="1" x="550"/>
+        <item m="1" x="497"/>
+        <item m="1" x="1104"/>
+        <item m="1" x="1007"/>
+        <item m="1" x="248"/>
+        <item m="1" x="818"/>
+        <item m="1" x="1026"/>
+        <item m="1" x="1160"/>
+        <item m="1" x="1067"/>
+        <item m="1" x="153"/>
+        <item m="1" x="1233"/>
+        <item m="1" x="304"/>
+        <item m="1" x="585"/>
+        <item m="1" x="1029"/>
+        <item m="1" x="152"/>
+        <item m="1" x="1088"/>
+        <item m="1" x="317"/>
+        <item m="1" x="961"/>
+        <item m="1" x="825"/>
+        <item m="1" x="803"/>
+        <item m="1" x="382"/>
+        <item m="1" x="344"/>
+        <item m="1" x="1156"/>
+        <item m="1" x="97"/>
+        <item m="1" x="279"/>
+        <item m="1" x="938"/>
+        <item m="1" x="1049"/>
+        <item m="1" x="976"/>
+        <item m="1" x="1180"/>
+        <item m="1" x="684"/>
+        <item m="1" x="311"/>
+        <item m="1" x="431"/>
+        <item m="1" x="750"/>
+        <item m="1" x="492"/>
+        <item m="1" x="820"/>
+        <item m="1" x="433"/>
+        <item m="1" x="235"/>
+        <item m="1" x="888"/>
+        <item m="1" x="290"/>
+        <item m="1" x="170"/>
+        <item m="1" x="1022"/>
+        <item m="1" x="1169"/>
+        <item m="1" x="870"/>
+        <item m="1" x="135"/>
+        <item m="1" x="1061"/>
+        <item m="1" x="859"/>
+        <item m="1" x="969"/>
+        <item m="1" x="1108"/>
+        <item m="1" x="336"/>
+        <item m="1" x="528"/>
+        <item m="1" x="366"/>
+        <item m="1" x="634"/>
+        <item m="1" x="558"/>
+        <item m="1" x="588"/>
+        <item m="1" x="1124"/>
+        <item m="1" x="570"/>
+        <item m="1" x="773"/>
+        <item m="1" x="305"/>
+        <item m="1" x="504"/>
+        <item m="1" x="478"/>
+        <item m="1" x="821"/>
+        <item m="1" x="724"/>
+        <item m="1" x="952"/>
+        <item m="1" x="474"/>
+        <item m="1" x="1110"/>
+        <item m="1" x="312"/>
+        <item m="1" x="238"/>
+        <item m="1" x="494"/>
+        <item m="1" x="1035"/>
+        <item m="1" x="145"/>
+        <item m="1" x="146"/>
+        <item m="1" x="442"/>
+        <item m="1" x="1115"/>
+        <item m="1" x="509"/>
+        <item m="1" x="154"/>
+        <item m="1" x="314"/>
+        <item m="1" x="556"/>
+        <item m="1" x="867"/>
+        <item m="1" x="839"/>
+        <item m="1" x="510"/>
+        <item m="1" x="91"/>
+        <item m="1" x="229"/>
+        <item m="1" x="441"/>
+        <item m="1" x="329"/>
+        <item m="1" x="86"/>
+        <item m="1" x="1039"/>
+        <item m="1" x="1168"/>
+        <item m="1" x="638"/>
+        <item m="1" x="1068"/>
+        <item m="1" x="1128"/>
+        <item m="1" x="151"/>
+        <item m="1" x="1166"/>
+        <item m="1" x="904"/>
+        <item m="1" x="327"/>
+        <item m="1" x="513"/>
+        <item m="1" x="417"/>
+        <item m="1" x="779"/>
+        <item m="1" x="350"/>
+        <item m="1" x="566"/>
+        <item m="1" x="861"/>
+        <item m="1" x="986"/>
+        <item m="1" x="489"/>
+        <item m="1" x="617"/>
+        <item m="1" x="429"/>
+        <item m="1" x="355"/>
+        <item m="1" x="866"/>
+        <item m="1" x="981"/>
+        <item m="1" x="1143"/>
+        <item m="1" x="185"/>
+        <item m="1" x="389"/>
+        <item m="1" x="829"/>
+        <item m="1" x="230"/>
+        <item m="1" x="517"/>
+        <item m="1" x="898"/>
+        <item m="1" x="163"/>
+        <item m="1" x="373"/>
+        <item m="1" x="483"/>
+        <item m="1" x="1089"/>
+        <item m="1" x="322"/>
+        <item m="1" x="592"/>
+        <item m="1" x="1145"/>
+        <item m="1" x="273"/>
+        <item m="1" x="462"/>
+        <item m="1" x="650"/>
+        <item m="1" x="987"/>
+        <item m="1" x="285"/>
+        <item m="1" x="541"/>
+        <item m="1" x="383"/>
+        <item m="1" x="879"/>
+        <item m="1" x="1065"/>
+        <item m="1" x="191"/>
+        <item m="1" x="411"/>
+        <item m="1" x="1147"/>
+        <item m="1" x="1112"/>
+        <item m="1" x="212"/>
+        <item m="1" x="529"/>
+        <item m="1" x="1053"/>
+        <item m="1" x="1184"/>
+        <item m="1" x="1055"/>
+        <item m="1" x="1030"/>
+        <item m="1" x="161"/>
+        <item m="1" x="337"/>
+        <item m="1" x="419"/>
+        <item m="1" x="408"/>
+        <item m="1" x="635"/>
+        <item m="1" x="123"/>
+        <item m="1" x="822"/>
+        <item m="1" x="893"/>
+        <item m="1" x="75"/>
+        <item m="1" x="1153"/>
+        <item m="1" x="1015"/>
+        <item m="1" x="1144"/>
+        <item m="1" x="1174"/>
+        <item m="1" x="1210"/>
+        <item m="1" x="1148"/>
+        <item m="1" x="512"/>
+        <item m="1" x="872"/>
+        <item m="1" x="479"/>
+        <item m="1" x="885"/>
+        <item m="1" x="850"/>
+        <item m="1" x="288"/>
+        <item m="1" x="326"/>
+        <item m="1" x="464"/>
+        <item m="1" x="929"/>
+        <item m="1" x="449"/>
+        <item m="1" x="195"/>
+        <item m="1" x="1194"/>
+        <item m="1" x="944"/>
+        <item m="1" x="777"/>
+        <item m="1" x="809"/>
+        <item m="1" x="858"/>
+        <item m="1" x="283"/>
+        <item m="1" x="625"/>
+        <item m="1" x="970"/>
+        <item m="1" x="121"/>
+        <item m="1" x="364"/>
+        <item m="1" x="264"/>
+        <item m="1" x="261"/>
+        <item m="1" x="265"/>
+        <item m="1" x="66"/>
+        <item m="1" x="287"/>
+        <item m="1" x="1084"/>
+        <item m="1" x="88"/>
+        <item m="1" x="734"/>
+        <item m="1" x="1171"/>
         <item m="1" x="982"/>
-        <item m="1" x="1226"/>
-        <item m="1" x="600"/>
-        <item m="1" x="501"/>
-        <item m="1" x="205"/>
-        <item m="1" x="466"/>
-        <item m="1" x="1190"/>
-        <item m="1" x="258"/>
-        <item m="1" x="566"/>
-        <item m="1" x="934"/>
-        <item m="1" x="649"/>
-        <item m="1" x="742"/>
-        <item m="1" x="1038"/>
-        <item m="1" x="1223"/>
-        <item m="1" x="684"/>
-        <item m="1" x="706"/>
-        <item m="1" x="471"/>
-        <item m="1" x="872"/>
-        <item m="1" x="631"/>
-        <item m="1" x="1177"/>
-        <item m="1" x="834"/>
-        <item m="1" x="267"/>
-        <item m="1" x="375"/>
-        <item m="1" x="1162"/>
-        <item m="1" x="926"/>
-        <item m="1" x="180"/>
-        <item m="1" x="1012"/>
-        <item m="1" x="678"/>
-        <item m="1" x="973"/>
-        <item m="1" x="559"/>
-        <item m="1" x="911"/>
-        <item m="1" x="170"/>
-        <item m="1" x="200"/>
-        <item m="1" x="1239"/>
-        <item m="1" x="918"/>
-        <item m="1" x="986"/>
-        <item m="1" x="1093"/>
-        <item m="1" x="862"/>
-        <item m="1" x="960"/>
-        <item m="1" x="799"/>
-        <item m="1" x="254"/>
-        <item m="1" x="445"/>
-        <item m="1" x="1221"/>
-        <item m="1" x="789"/>
-        <item m="1" x="929"/>
-        <item m="1" x="457"/>
-        <item m="1" x="418"/>
-        <item m="1" x="710"/>
-        <item m="1" x="602"/>
-        <item m="1" x="635"/>
-        <item m="1" x="194"/>
-        <item m="1" x="333"/>
-        <item m="1" x="995"/>
-        <item m="1" x="1212"/>
-        <item m="1" x="398"/>
-        <item m="1" x="803"/>
-        <item m="1" x="813"/>
-        <item m="1" x="990"/>
-        <item m="1" x="1100"/>
-        <item m="1" x="978"/>
-        <item m="1" x="273"/>
-        <item m="1" x="1121"/>
-        <item m="1" x="851"/>
-        <item m="1" x="838"/>
-        <item m="1" x="373"/>
-        <item m="1" x="726"/>
-        <item m="1" x="1073"/>
-        <item m="1" x="191"/>
-        <item m="1" x="770"/>
-        <item m="1" x="1123"/>
-        <item m="1" x="961"/>
-        <item m="1" x="696"/>
-        <item m="1" x="738"/>
-        <item m="1" x="619"/>
-        <item m="1" x="854"/>
-        <item m="1" x="666"/>
-        <item m="1" x="898"/>
-        <item m="1" x="382"/>
-        <item m="1" x="1211"/>
-        <item m="1" x="736"/>
-        <item m="1" x="1022"/>
-        <item m="1" x="99"/>
-        <item m="1" x="1227"/>
-        <item m="1" x="763"/>
-        <item m="1" x="1052"/>
-        <item m="1" x="965"/>
-        <item m="1" x="743"/>
-        <item m="1" x="253"/>
-        <item m="1" x="260"/>
-        <item m="1" x="300"/>
-        <item m="1" x="482"/>
-        <item m="1" x="906"/>
-        <item m="1" x="667"/>
-        <item m="1" x="783"/>
-        <item m="1" x="846"/>
-        <item m="1" x="993"/>
-        <item m="1" x="1076"/>
-        <item m="1" x="638"/>
-        <item m="1" x="359"/>
-        <item m="1" x="202"/>
-        <item m="1" x="345"/>
-        <item m="1" x="1220"/>
-        <item m="1" x="377"/>
-        <item m="1" x="1058"/>
-        <item m="1" x="987"/>
-        <item m="1" x="605"/>
-        <item m="1" x="677"/>
-        <item m="1" x="543"/>
-        <item m="1" x="800"/>
-        <item m="1" x="1175"/>
-        <item m="1" x="351"/>
-        <item m="1" x="299"/>
-        <item m="1" x="234"/>
-        <item m="1" x="900"/>
-        <item m="1" x="1160"/>
-        <item m="1" x="1088"/>
-        <item m="1" x="745"/>
-        <item m="1" x="269"/>
-        <item m="1" x="994"/>
-        <item m="1" x="446"/>
-        <item m="1" x="700"/>
-        <item m="1" x="875"/>
-        <item m="1" x="983"/>
-        <item m="1" x="103"/>
-        <item m="1" x="932"/>
-        <item m="1" x="895"/>
-        <item m="1" x="336"/>
-        <item m="1" x="784"/>
-        <item m="1" x="672"/>
-        <item m="1" x="625"/>
-        <item m="1" x="358"/>
-        <item m="1" x="294"/>
-        <item m="1" x="534"/>
-        <item m="1" x="721"/>
-        <item m="1" x="128"/>
-        <item m="1" x="467"/>
-        <item m="1" x="326"/>
-        <item m="1" x="68"/>
-        <item m="1" x="578"/>
-        <item m="1" x="779"/>
-        <item m="1" x="661"/>
-        <item m="1" x="707"/>
-        <item m="1" x="1026"/>
-        <item m="1" x="608"/>
-        <item m="1" x="1134"/>
-        <item m="1" x="858"/>
-        <item m="1" x="797"/>
-        <item m="1" x="311"/>
-        <item m="1" x="944"/>
-        <item m="1" x="1222"/>
-        <item m="1" x="910"/>
-        <item m="1" x="894"/>
-        <item m="1" x="181"/>
-        <item m="1" x="229"/>
-        <item m="1" x="764"/>
-        <item m="1" x="270"/>
-        <item m="1" x="1207"/>
-        <item m="1" x="873"/>
-        <item m="1" x="798"/>
-        <item m="1" x="750"/>
-        <item m="1" x="551"/>
-        <item m="1" x="179"/>
-        <item m="1" x="279"/>
-        <item m="1" x="385"/>
-        <item m="1" x="1118"/>
-        <item m="1" x="1150"/>
-        <item m="1" x="849"/>
-        <item m="1" x="576"/>
-        <item m="1" x="664"/>
-        <item m="1" x="174"/>
-        <item m="1" x="214"/>
-        <item m="1" x="553"/>
-        <item m="1" x="778"/>
-        <item m="1" x="691"/>
-        <item m="1" x="349"/>
-        <item m="1" x="582"/>
-        <item m="1" x="296"/>
-        <item m="1" x="491"/>
-        <item m="1" x="413"/>
-        <item m="1" x="248"/>
-        <item m="1" x="384"/>
-        <item m="1" x="754"/>
-        <item m="1" x="164"/>
-        <item m="1" x="403"/>
-        <item m="1" x="195"/>
-        <item m="1" x="888"/>
-        <item m="1" x="1077"/>
-        <item m="1" x="687"/>
-        <item m="1" x="331"/>
-        <item m="1" x="981"/>
-        <item m="1" x="826"/>
-        <item m="1" x="343"/>
-        <item m="1" x="344"/>
-        <item m="1" x="529"/>
-        <item m="1" x="219"/>
-        <item m="1" x="408"/>
-        <item m="1" x="203"/>
-        <item m="1" x="389"/>
-        <item m="1" x="957"/>
-        <item m="1" x="468"/>
-        <item m="1" x="835"/>
-        <item m="1" x="885"/>
-        <item m="1" x="1019"/>
-        <item m="1" x="1023"/>
-        <item m="1" x="740"/>
-        <item m="1" x="581"/>
-        <item m="1" x="620"/>
-        <item m="1" x="1187"/>
-        <item m="1" x="480"/>
-        <item m="1" x="292"/>
+        <item m="1" x="242"/>
+        <item m="1" x="1242"/>
+        <item m="1" x="171"/>
+        <item m="1" x="538"/>
+        <item m="1" x="761"/>
+        <item m="1" x="217"/>
         <item m="1" x="670"/>
-        <item m="1" x="127"/>
-        <item m="1" x="1191"/>
-        <item m="1" x="654"/>
-        <item m="1" x="88"/>
-        <item m="1" x="1109"/>
-        <item m="1" x="1152"/>
-        <item m="1" x="989"/>
-        <item m="1" x="366"/>
-        <item m="1" x="105"/>
-        <item m="1" x="1039"/>
-        <item m="1" x="430"/>
-        <item m="1" x="66"/>
-        <item m="1" x="1210"/>
-        <item m="1" x="454"/>
-        <item m="1" x="609"/>
-        <item m="1" x="1054"/>
-        <item m="1" x="141"/>
-        <item m="1" x="966"/>
-        <item m="1" x="774"/>
-        <item m="1" x="639"/>
-        <item m="1" x="509"/>
-        <item m="1" x="256"/>
-        <item m="1" x="757"/>
-        <item m="1" x="459"/>
-        <item m="1" x="997"/>
-        <item m="1" x="319"/>
-        <item m="1" x="1067"/>
-        <item m="1" x="1074"/>
-        <item m="1" x="758"/>
-        <item m="1" x="948"/>
-        <item m="1" x="365"/>
-        <item m="1" x="662"/>
-        <item m="1" x="951"/>
-        <item m="1" x="535"/>
-        <item m="1" x="825"/>
-        <item m="1" x="464"/>
-        <item m="1" x="249"/>
-        <item m="1" x="453"/>
-        <item m="1" x="1219"/>
-        <item m="1" x="1161"/>
-        <item m="1" x="306"/>
-        <item m="1" x="1107"/>
-        <item m="1" x="113"/>
-        <item m="1" x="1129"/>
-        <item m="1" x="148"/>
-        <item m="1" x="450"/>
-        <item m="1" x="548"/>
-        <item m="1" x="495"/>
-        <item m="1" x="1102"/>
-        <item m="1" x="1005"/>
-        <item m="1" x="246"/>
-        <item m="1" x="816"/>
-        <item m="1" x="1024"/>
-        <item m="1" x="1158"/>
-        <item m="1" x="1065"/>
-        <item m="1" x="151"/>
-        <item m="1" x="1231"/>
-        <item m="1" x="302"/>
-        <item m="1" x="583"/>
-        <item m="1" x="1027"/>
-        <item m="1" x="150"/>
-        <item m="1" x="1086"/>
-        <item m="1" x="315"/>
-        <item m="1" x="959"/>
-        <item m="1" x="823"/>
-        <item m="1" x="801"/>
-        <item m="1" x="380"/>
-        <item m="1" x="342"/>
-        <item m="1" x="1154"/>
-        <item m="1" x="95"/>
-        <item m="1" x="277"/>
-        <item m="1" x="936"/>
-        <item m="1" x="1047"/>
-        <item m="1" x="974"/>
-        <item m="1" x="1178"/>
-        <item m="1" x="682"/>
-        <item m="1" x="309"/>
-        <item m="1" x="429"/>
-        <item m="1" x="748"/>
-        <item m="1" x="490"/>
-        <item m="1" x="818"/>
-        <item m="1" x="431"/>
-        <item m="1" x="233"/>
-        <item m="1" x="886"/>
-        <item m="1" x="288"/>
-        <item m="1" x="168"/>
-        <item m="1" x="1020"/>
-        <item m="1" x="1167"/>
-        <item m="1" x="868"/>
-        <item m="1" x="133"/>
-        <item m="1" x="1059"/>
-        <item m="1" x="857"/>
-        <item m="1" x="967"/>
-        <item m="1" x="1106"/>
-        <item m="1" x="334"/>
-        <item m="1" x="526"/>
-        <item m="1" x="364"/>
-        <item m="1" x="632"/>
-        <item m="1" x="556"/>
-        <item m="1" x="586"/>
-        <item m="1" x="1122"/>
-        <item m="1" x="568"/>
-        <item m="1" x="771"/>
-        <item m="1" x="303"/>
-        <item m="1" x="502"/>
-        <item m="1" x="476"/>
-        <item m="1" x="819"/>
-        <item m="1" x="722"/>
-        <item m="1" x="950"/>
-        <item m="1" x="472"/>
-        <item m="1" x="1108"/>
-        <item m="1" x="310"/>
-        <item m="1" x="236"/>
-        <item m="1" x="492"/>
-        <item m="1" x="1033"/>
-        <item m="1" x="143"/>
-        <item m="1" x="144"/>
-        <item m="1" x="440"/>
-        <item m="1" x="1113"/>
-        <item m="1" x="507"/>
-        <item m="1" x="152"/>
-        <item m="1" x="312"/>
-        <item m="1" x="554"/>
-        <item m="1" x="865"/>
-        <item m="1" x="837"/>
-        <item m="1" x="508"/>
-        <item m="1" x="89"/>
-        <item m="1" x="227"/>
-        <item m="1" x="439"/>
-        <item m="1" x="327"/>
-        <item m="1" x="84"/>
-        <item m="1" x="1037"/>
-        <item m="1" x="1166"/>
-        <item m="1" x="636"/>
-        <item m="1" x="1066"/>
-        <item m="1" x="1126"/>
-        <item m="1" x="149"/>
-        <item m="1" x="1164"/>
-        <item m="1" x="902"/>
-        <item m="1" x="325"/>
-        <item m="1" x="511"/>
-        <item m="1" x="415"/>
-        <item m="1" x="777"/>
-        <item m="1" x="348"/>
-        <item m="1" x="564"/>
-        <item m="1" x="859"/>
-        <item m="1" x="984"/>
-        <item m="1" x="487"/>
-        <item m="1" x="615"/>
-        <item m="1" x="427"/>
-        <item m="1" x="353"/>
-        <item m="1" x="864"/>
-        <item m="1" x="979"/>
-        <item m="1" x="1141"/>
-        <item m="1" x="183"/>
-        <item m="1" x="387"/>
-        <item m="1" x="827"/>
-        <item m="1" x="228"/>
-        <item m="1" x="515"/>
-        <item m="1" x="896"/>
-        <item m="1" x="161"/>
-        <item m="1" x="371"/>
-        <item m="1" x="481"/>
-        <item m="1" x="1087"/>
-        <item m="1" x="320"/>
-        <item m="1" x="590"/>
-        <item m="1" x="1143"/>
-        <item m="1" x="271"/>
-        <item m="1" x="460"/>
-        <item m="1" x="648"/>
-        <item m="1" x="985"/>
-        <item m="1" x="283"/>
-        <item m="1" x="539"/>
-        <item m="1" x="381"/>
-        <item m="1" x="877"/>
-        <item m="1" x="1063"/>
-        <item m="1" x="189"/>
-        <item m="1" x="409"/>
-        <item m="1" x="1145"/>
-        <item m="1" x="1110"/>
-        <item m="1" x="210"/>
-        <item m="1" x="527"/>
-        <item m="1" x="1051"/>
-        <item m="1" x="1182"/>
-        <item m="1" x="1053"/>
-        <item m="1" x="1028"/>
-        <item m="1" x="159"/>
-        <item m="1" x="335"/>
-        <item m="1" x="417"/>
-        <item m="1" x="406"/>
-        <item m="1" x="633"/>
-        <item m="1" x="121"/>
-        <item m="1" x="820"/>
-        <item m="1" x="891"/>
-        <item m="1" x="73"/>
-        <item m="1" x="1151"/>
-        <item m="1" x="1013"/>
-        <item m="1" x="1142"/>
-        <item m="1" x="1172"/>
-        <item m="1" x="1208"/>
-        <item m="1" x="1146"/>
-        <item m="1" x="510"/>
-        <item m="1" x="870"/>
-        <item m="1" x="477"/>
-        <item m="1" x="883"/>
-        <item m="1" x="848"/>
-        <item m="1" x="286"/>
-        <item m="1" x="324"/>
-        <item m="1" x="462"/>
-        <item m="1" x="927"/>
-        <item m="1" x="447"/>
-        <item m="1" x="193"/>
-        <item m="1" x="1192"/>
-        <item m="1" x="942"/>
-        <item m="1" x="775"/>
-        <item m="1" x="807"/>
-        <item m="1" x="856"/>
-        <item m="1" x="281"/>
-        <item m="1" x="623"/>
-        <item m="1" x="968"/>
-        <item m="1" x="119"/>
-        <item m="1" x="362"/>
-        <item m="1" x="262"/>
-        <item m="1" x="259"/>
-        <item m="1" x="263"/>
-        <item m="1" x="64"/>
-        <item m="1" x="285"/>
-        <item m="1" x="1082"/>
-        <item m="1" x="86"/>
-        <item m="1" x="732"/>
-        <item m="1" x="1169"/>
-        <item m="1" x="980"/>
-        <item m="1" x="240"/>
-        <item m="1" x="1240"/>
-        <item m="1" x="169"/>
-        <item m="1" x="536"/>
-        <item m="1" x="759"/>
-        <item m="1" x="215"/>
-        <item m="1" x="668"/>
-        <item m="1" x="828"/>
-        <item m="1" x="1096"/>
-        <item m="1" x="998"/>
-        <item m="1" x="77"/>
-        <item m="1" x="760"/>
-        <item m="1" x="160"/>
-        <item m="1" x="396"/>
-        <item m="1" x="368"/>
-        <item m="1" x="130"/>
-        <item m="1" x="723"/>
-        <item m="1" x="730"/>
         <item m="1" x="830"/>
-        <item m="1" x="579"/>
-        <item m="1" x="1079"/>
-        <item m="1" x="488"/>
-        <item m="1" x="1198"/>
-        <item m="1" x="833"/>
-        <item m="1" x="724"/>
-        <item m="1" x="388"/>
-        <item m="1" x="796"/>
-        <item m="1" x="1094"/>
-        <item m="1" x="1159"/>
-        <item m="1" x="1138"/>
-        <item m="1" x="1068"/>
-        <item m="1" x="817"/>
-        <item m="1" x="930"/>
-        <item m="1" x="443"/>
-        <item m="1" x="892"/>
-        <item m="1" x="717"/>
-        <item m="1" x="676"/>
-        <item m="1" x="674"/>
-        <item m="1" x="675"/>
-        <item m="1" x="372"/>
-        <item m="1" x="416"/>
-        <item m="1" x="1029"/>
-        <item m="1" x="594"/>
-        <item m="1" x="436"/>
-        <item m="1" x="478"/>
-        <item m="1" x="524"/>
-        <item m="1" x="776"/>
-        <item m="1" x="1114"/>
-        <item m="1" x="1203"/>
-        <item m="1" x="321"/>
-        <item m="1" x="272"/>
-        <item m="1" x="109"/>
-        <item m="1" x="131"/>
-        <item m="1" x="428"/>
-        <item m="1" x="216"/>
-        <item m="1" x="544"/>
-        <item m="1" x="1080"/>
-        <item m="1" x="421"/>
-        <item m="1" x="213"/>
-        <item m="1" x="972"/>
-        <item m="1" x="90"/>
         <item m="1" x="1098"/>
-        <item m="1" x="1173"/>
-        <item m="1" x="1237"/>
-        <item m="1" x="1112"/>
-        <item m="1" x="355"/>
-        <item m="1" x="132"/>
-        <item m="1" x="596"/>
-        <item m="1" x="680"/>
-        <item m="1" x="876"/>
-        <item m="1" x="844"/>
-        <item m="1" x="880"/>
-        <item m="1" x="657"/>
-        <item m="1" x="695"/>
-        <item m="1" x="1136"/>
-        <item m="1" x="899"/>
-        <item m="1" x="869"/>
-        <item m="1" x="808"/>
-        <item m="1" x="881"/>
-        <item m="1" x="82"/>
-        <item m="1" x="87"/>
-        <item m="1" x="690"/>
-        <item m="1" x="1075"/>
-        <item m="1" x="645"/>
-        <item m="1" x="1215"/>
-        <item m="1" x="614"/>
-        <item m="1" x="790"/>
-        <item m="1" x="861"/>
-        <item m="1" x="475"/>
-        <item m="1" x="307"/>
-        <item m="1" x="683"/>
-        <item m="1" x="369"/>
-        <item m="1" x="1224"/>
-        <item m="1" x="1139"/>
-        <item m="1" x="952"/>
-        <item m="1" x="209"/>
-        <item m="1" x="136"/>
-        <item m="1" x="709"/>
-        <item m="1" x="953"/>
-        <item m="1" x="1242"/>
-        <item m="1" x="588"/>
-        <item m="1" x="1189"/>
-        <item m="1" x="123"/>
-        <item m="1" x="237"/>
-        <item m="1" x="549"/>
-        <item m="1" x="640"/>
-        <item m="1" x="1069"/>
-        <item m="1" x="393"/>
-        <item m="1" x="1072"/>
-        <item m="1" x="489"/>
-        <item m="1" x="1061"/>
-        <item m="1" x="1225"/>
-        <item m="1" x="153"/>
-        <item m="1" x="1209"/>
-        <item m="1" x="100"/>
-        <item m="1" x="962"/>
-        <item m="1" x="580"/>
-        <item m="1" x="411"/>
-        <item m="1" x="374"/>
-        <item m="1" x="518"/>
-        <item m="1" x="117"/>
-        <item m="1" x="1202"/>
-        <item m="1" x="201"/>
-        <item m="1" x="222"/>
-        <item m="1" x="1095"/>
-        <item m="1" x="1174"/>
-        <item m="1" x="688"/>
-        <item m="1" x="829"/>
-        <item m="1" x="530"/>
-        <item m="1" x="643"/>
-        <item m="1" x="792"/>
-        <item m="1" x="909"/>
-        <item m="1" x="496"/>
-        <item m="1" x="772"/>
-        <item m="1" x="591"/>
-        <item m="1" x="1228"/>
-        <item m="1" x="81"/>
-        <item m="1" x="520"/>
-        <item m="1" x="461"/>
-        <item m="1" x="422"/>
-        <item m="1" x="1216"/>
-        <item m="1" x="1034"/>
-        <item m="1" x="1165"/>
-        <item m="1" x="178"/>
-        <item m="1" x="1176"/>
-        <item m="1" x="1163"/>
-        <item m="1" x="1040"/>
-        <item m="1" x="275"/>
-        <item m="1" x="644"/>
-        <item m="1" x="737"/>
-        <item m="1" x="483"/>
-        <item m="1" x="1081"/>
-        <item m="1" x="867"/>
-        <item m="1" x="887"/>
-        <item m="1" x="781"/>
-        <item m="1" x="124"/>
-        <item m="1" x="954"/>
-        <item m="1" x="1116"/>
-        <item m="1" x="521"/>
-        <item m="1" x="1235"/>
-        <item m="1" x="729"/>
-        <item m="1" x="316"/>
-        <item m="1" x="449"/>
-        <item m="1" x="485"/>
-        <item m="1" x="1144"/>
-        <item m="1" x="1128"/>
-        <item m="1" x="188"/>
-        <item m="1" x="190"/>
-        <item m="1" x="104"/>
-        <item m="1" x="1064"/>
-        <item m="1" x="106"/>
-        <item m="1" x="523"/>
-        <item m="1" x="423"/>
-        <item m="1" x="879"/>
-        <item m="1" x="822"/>
-        <item m="1" x="1171"/>
-        <item m="1" x="1103"/>
-        <item m="1" x="595"/>
-        <item m="1" x="809"/>
-        <item m="1" x="1044"/>
-        <item m="1" x="157"/>
-        <item m="1" x="589"/>
-        <item m="1" x="519"/>
-        <item m="1" x="1213"/>
-        <item m="1" x="1180"/>
-        <item m="1" x="611"/>
-        <item m="1" x="217"/>
-        <item m="1" x="512"/>
-        <item m="1" x="685"/>
-        <item m="1" x="139"/>
-        <item m="1" x="975"/>
-        <item m="1" x="569"/>
-        <item m="1" x="379"/>
-        <item m="1" x="473"/>
-        <item m="1" x="919"/>
-        <item m="1" x="1218"/>
-        <item m="1" x="297"/>
-        <item m="1" x="1070"/>
-        <item m="1" x="291"/>
-        <item m="1" x="855"/>
-        <item m="1" x="627"/>
-        <item m="1" x="558"/>
-        <item m="1" x="280"/>
-        <item m="1" x="347"/>
-        <item m="1" x="135"/>
-        <item m="1" x="935"/>
-        <item m="1" x="448"/>
-        <item m="1" x="172"/>
-        <item m="1" x="786"/>
-        <item m="1" x="1101"/>
-        <item m="1" x="641"/>
-        <item m="1" x="599"/>
-        <item m="1" x="70"/>
-        <item m="1" x="1206"/>
-        <item m="1" x="456"/>
-        <item m="1" x="516"/>
-        <item m="1" x="923"/>
-        <item m="1" x="1200"/>
-        <item m="1" x="1125"/>
-        <item m="1" x="976"/>
-        <item m="1" x="1091"/>
-        <item m="1" x="252"/>
-        <item m="1" x="451"/>
-        <item m="1" x="284"/>
-        <item m="1" x="76"/>
-        <item m="1" x="689"/>
-        <item m="1" x="138"/>
-        <item m="1" x="360"/>
-        <item m="1" x="304"/>
-        <item m="1" x="250"/>
-        <item m="1" x="1205"/>
-        <item m="1" x="301"/>
-        <item m="1" x="903"/>
-        <item m="1" x="1115"/>
-        <item m="1" x="241"/>
-        <item m="1" x="145"/>
-        <item m="1" x="938"/>
-        <item m="1" x="914"/>
-        <item m="1" x="955"/>
-        <item m="1" x="874"/>
-        <item m="1" x="218"/>
-        <item m="1" x="574"/>
-        <item m="1" x="842"/>
-        <item m="1" x="1092"/>
-        <item m="1" x="686"/>
-        <item m="1" x="804"/>
-        <item m="1" x="1148"/>
-        <item m="1" x="560"/>
-        <item m="1" x="404"/>
-        <item m="1" x="637"/>
-        <item m="1" x="584"/>
-        <item m="1" x="514"/>
-        <item m="1" x="1031"/>
-        <item m="1" x="718"/>
-        <item m="1" x="814"/>
-        <item m="1" x="65"/>
-        <item m="1" x="610"/>
-        <item m="1" x="212"/>
-        <item m="1" x="479"/>
-        <item m="1" x="617"/>
-        <item m="1" x="147"/>
-        <item m="1" x="264"/>
-        <item m="1" x="719"/>
-        <item m="1" x="916"/>
-        <item m="1" x="1186"/>
-        <item m="1" x="1229"/>
-        <item m="1" x="839"/>
-        <item m="1" x="187"/>
-        <item m="1" x="115"/>
-        <item m="1" x="701"/>
-        <item m="1" x="323"/>
-        <item m="1" x="597"/>
-        <item m="1" x="225"/>
-        <item m="1" x="328"/>
-        <item m="1" x="755"/>
-        <item m="1" x="1111"/>
-        <item m="1" x="1042"/>
-        <item m="1" x="458"/>
-        <item m="1" x="493"/>
-        <item m="1" x="769"/>
-        <item m="1" x="1199"/>
-        <item m="1" x="925"/>
-        <item m="1" x="91"/>
-        <item m="1" x="1153"/>
-        <item m="1" x="199"/>
-        <item m="1" x="845"/>
-        <item m="1" x="890"/>
-        <item m="1" x="893"/>
-        <item m="1" x="1233"/>
-        <item m="1" x="126"/>
-        <item m="1" x="904"/>
-        <item m="1" x="1001"/>
-        <item m="1" x="773"/>
-        <item m="1" x="943"/>
-        <item m="1" x="185"/>
-        <item m="1" x="577"/>
-        <item m="1" x="424"/>
-        <item m="1" x="1036"/>
-        <item m="1" x="1131"/>
-        <item m="1" x="660"/>
-        <item m="1" x="1099"/>
-        <item m="1" x="1147"/>
-        <item m="1" x="500"/>
-        <item m="1" x="1003"/>
-        <item m="1" x="866"/>
-        <item m="1" x="1149"/>
-        <item m="1" x="1193"/>
-        <item m="1" x="931"/>
-        <item m="1" x="541"/>
-        <item m="1" x="346"/>
-        <item m="1" x="1181"/>
-        <item m="1" x="728"/>
-        <item m="1" x="702"/>
-        <item m="1" x="711"/>
-        <item m="1" x="1232"/>
-        <item m="1" x="956"/>
-        <item m="1" x="651"/>
-        <item m="1" x="920"/>
-        <item m="1" x="897"/>
-        <item m="1" x="513"/>
-        <item m="1" x="414"/>
-        <item m="1" x="913"/>
-        <item m="1" x="308"/>
-        <item m="1" x="265"/>
-        <item m="1" x="207"/>
-        <item m="1" x="1194"/>
-        <item m="1" x="810"/>
-        <item m="1" x="545"/>
-        <item m="1" x="626"/>
-        <item m="1" x="107"/>
-        <item m="1" x="1183"/>
-        <item m="1" x="734"/>
-        <item m="1" x="882"/>
-        <item m="1" x="330"/>
-        <item m="1" x="1014"/>
-        <item m="1" x="517"/>
-        <item m="1" x="410"/>
-        <item m="1" x="1238"/>
-        <item m="1" x="540"/>
-        <item m="1" x="1179"/>
-        <item m="1" x="765"/>
-        <item m="1" x="441"/>
-        <item m="1" x="232"/>
-        <item m="1" x="175"/>
-        <item m="1" x="469"/>
-        <item m="1" x="166"/>
-        <item m="1" x="137"/>
-        <item m="1" x="154"/>
-        <item m="1" x="433"/>
-        <item m="1" x="278"/>
-        <item m="1" x="585"/>
-        <item m="1" x="642"/>
-        <item m="1" x="741"/>
-        <item m="1" x="612"/>
-        <item m="1" x="945"/>
-        <item m="1" x="1009"/>
-        <item m="1" x="221"/>
-        <item m="1" x="231"/>
-        <item m="1" x="420"/>
-        <item m="1" x="562"/>
-        <item m="1" x="352"/>
-        <item m="1" x="905"/>
-        <item m="1" x="655"/>
-        <item m="1" x="572"/>
-        <item m="1" x="705"/>
-        <item m="1" x="1011"/>
-        <item m="1" x="949"/>
-        <item m="1" x="1035"/>
-        <item m="1" x="791"/>
-        <item m="1" x="211"/>
-        <item m="1" x="1217"/>
-        <item m="1" x="630"/>
-        <item m="1" x="245"/>
-        <item m="1" x="69"/>
-        <item m="1" x="1214"/>
-        <item m="1" x="698"/>
-        <item m="1" x="665"/>
-        <item m="1" x="437"/>
-        <item m="1" x="317"/>
-        <item m="1" x="401"/>
-        <item m="1" x="555"/>
-        <item m="1" x="1130"/>
-        <item m="1" x="1049"/>
-        <item m="1" x="425"/>
-        <item m="1" x="498"/>
-        <item m="1" x="505"/>
-        <item m="1" x="1043"/>
-        <item m="1" x="646"/>
-        <item m="1" x="118"/>
-        <item m="1" x="679"/>
-        <item m="1" x="958"/>
-        <item m="1" x="1084"/>
-        <item m="1" x="977"/>
-        <item m="1" x="785"/>
-        <item m="1" x="1083"/>
-        <item m="1" x="97"/>
         <item m="1" x="1000"/>
         <item m="1" x="79"/>
-        <item m="1" x="419"/>
+        <item m="1" x="762"/>
+        <item m="1" x="162"/>
+        <item m="1" x="398"/>
+        <item m="1" x="370"/>
+        <item m="1" x="132"/>
+        <item m="1" x="725"/>
+        <item m="1" x="732"/>
+        <item m="1" x="832"/>
+        <item m="1" x="581"/>
+        <item m="1" x="1081"/>
+        <item m="1" x="490"/>
+        <item m="1" x="1200"/>
+        <item m="1" x="835"/>
+        <item m="1" x="726"/>
+        <item m="1" x="390"/>
+        <item m="1" x="798"/>
+        <item m="1" x="1096"/>
+        <item m="1" x="1161"/>
+        <item m="1" x="1140"/>
+        <item m="1" x="1070"/>
+        <item m="1" x="819"/>
+        <item m="1" x="932"/>
+        <item m="1" x="445"/>
+        <item m="1" x="894"/>
+        <item m="1" x="719"/>
+        <item m="1" x="678"/>
+        <item m="1" x="676"/>
+        <item m="1" x="677"/>
+        <item m="1" x="374"/>
+        <item m="1" x="418"/>
+        <item m="1" x="1031"/>
+        <item m="1" x="596"/>
+        <item m="1" x="438"/>
+        <item m="1" x="480"/>
+        <item m="1" x="526"/>
+        <item m="1" x="778"/>
+        <item m="1" x="1116"/>
+        <item m="1" x="1205"/>
+        <item m="1" x="323"/>
+        <item m="1" x="274"/>
+        <item m="1" x="111"/>
+        <item m="1" x="133"/>
+        <item m="1" x="430"/>
+        <item m="1" x="218"/>
+        <item m="1" x="546"/>
+        <item m="1" x="1082"/>
+        <item m="1" x="423"/>
+        <item m="1" x="215"/>
+        <item m="1" x="974"/>
+        <item m="1" x="92"/>
+        <item m="1" x="1100"/>
+        <item m="1" x="1175"/>
+        <item m="1" x="1239"/>
+        <item m="1" x="1114"/>
+        <item m="1" x="357"/>
+        <item m="1" x="134"/>
+        <item m="1" x="598"/>
+        <item m="1" x="682"/>
+        <item m="1" x="878"/>
+        <item m="1" x="846"/>
+        <item m="1" x="882"/>
+        <item m="1" x="659"/>
+        <item m="1" x="697"/>
+        <item m="1" x="1138"/>
+        <item m="1" x="901"/>
+        <item m="1" x="871"/>
+        <item m="1" x="810"/>
+        <item m="1" x="883"/>
+        <item m="1" x="84"/>
+        <item m="1" x="89"/>
+        <item m="1" x="692"/>
+        <item m="1" x="1077"/>
+        <item m="1" x="647"/>
+        <item m="1" x="1217"/>
+        <item m="1" x="616"/>
+        <item m="1" x="792"/>
+        <item m="1" x="863"/>
+        <item m="1" x="477"/>
+        <item m="1" x="309"/>
+        <item m="1" x="685"/>
+        <item m="1" x="371"/>
+        <item m="1" x="1226"/>
+        <item m="1" x="1141"/>
+        <item m="1" x="954"/>
+        <item m="1" x="211"/>
+        <item m="1" x="138"/>
+        <item m="1" x="711"/>
+        <item m="1" x="955"/>
+        <item m="1" x="1244"/>
+        <item m="1" x="590"/>
+        <item m="1" x="1191"/>
+        <item m="1" x="125"/>
+        <item m="1" x="239"/>
+        <item m="1" x="551"/>
+        <item m="1" x="642"/>
+        <item m="1" x="1071"/>
+        <item m="1" x="395"/>
+        <item m="1" x="1074"/>
+        <item m="1" x="491"/>
+        <item m="1" x="1063"/>
+        <item m="1" x="1227"/>
+        <item m="1" x="155"/>
+        <item m="1" x="1211"/>
+        <item m="1" x="102"/>
+        <item m="1" x="964"/>
+        <item m="1" x="582"/>
+        <item m="1" x="413"/>
+        <item m="1" x="376"/>
+        <item m="1" x="520"/>
+        <item m="1" x="119"/>
+        <item m="1" x="1204"/>
+        <item m="1" x="203"/>
+        <item m="1" x="224"/>
+        <item m="1" x="1097"/>
+        <item m="1" x="1176"/>
+        <item m="1" x="690"/>
+        <item m="1" x="831"/>
+        <item m="1" x="532"/>
+        <item m="1" x="645"/>
+        <item m="1" x="794"/>
+        <item m="1" x="911"/>
+        <item m="1" x="498"/>
+        <item m="1" x="774"/>
+        <item m="1" x="593"/>
+        <item m="1" x="1230"/>
         <item m="1" x="83"/>
-        <item m="1" x="242"/>
+        <item m="1" x="522"/>
+        <item m="1" x="463"/>
+        <item m="1" x="424"/>
+        <item m="1" x="1218"/>
+        <item m="1" x="1036"/>
+        <item m="1" x="1167"/>
+        <item m="1" x="180"/>
+        <item m="1" x="1178"/>
+        <item m="1" x="1165"/>
+        <item m="1" x="1042"/>
+        <item m="1" x="277"/>
+        <item m="1" x="646"/>
+        <item m="1" x="739"/>
+        <item m="1" x="485"/>
+        <item m="1" x="1083"/>
+        <item m="1" x="869"/>
+        <item m="1" x="889"/>
+        <item m="1" x="783"/>
+        <item m="1" x="126"/>
+        <item m="1" x="956"/>
+        <item m="1" x="1118"/>
+        <item m="1" x="523"/>
+        <item m="1" x="1237"/>
+        <item m="1" x="731"/>
+        <item m="1" x="318"/>
+        <item m="1" x="451"/>
+        <item m="1" x="487"/>
+        <item m="1" x="1146"/>
+        <item m="1" x="1130"/>
+        <item m="1" x="190"/>
+        <item m="1" x="192"/>
+        <item m="1" x="106"/>
+        <item m="1" x="1066"/>
+        <item m="1" x="108"/>
+        <item m="1" x="525"/>
+        <item m="1" x="425"/>
+        <item m="1" x="881"/>
+        <item m="1" x="824"/>
+        <item m="1" x="1173"/>
+        <item m="1" x="1105"/>
+        <item m="1" x="597"/>
+        <item m="1" x="811"/>
+        <item m="1" x="1046"/>
+        <item m="1" x="159"/>
+        <item m="1" x="591"/>
+        <item m="1" x="521"/>
+        <item m="1" x="1215"/>
+        <item m="1" x="1182"/>
+        <item m="1" x="613"/>
+        <item m="1" x="219"/>
+        <item m="1" x="514"/>
+        <item m="1" x="687"/>
+        <item m="1" x="141"/>
+        <item m="1" x="977"/>
+        <item m="1" x="571"/>
+        <item m="1" x="381"/>
+        <item m="1" x="475"/>
+        <item m="1" x="921"/>
+        <item m="1" x="1220"/>
+        <item m="1" x="299"/>
+        <item m="1" x="1072"/>
+        <item m="1" x="293"/>
+        <item m="1" x="857"/>
+        <item m="1" x="629"/>
+        <item m="1" x="560"/>
+        <item m="1" x="282"/>
+        <item m="1" x="349"/>
+        <item m="1" x="137"/>
+        <item m="1" x="937"/>
+        <item m="1" x="450"/>
+        <item m="1" x="174"/>
+        <item m="1" x="788"/>
+        <item m="1" x="1103"/>
+        <item m="1" x="643"/>
+        <item m="1" x="601"/>
+        <item m="1" x="72"/>
+        <item m="1" x="1208"/>
+        <item m="1" x="458"/>
+        <item m="1" x="518"/>
+        <item m="1" x="925"/>
+        <item m="1" x="1202"/>
+        <item m="1" x="1127"/>
+        <item m="1" x="978"/>
+        <item m="1" x="1093"/>
+        <item m="1" x="254"/>
+        <item m="1" x="453"/>
+        <item m="1" x="286"/>
+        <item m="1" x="78"/>
+        <item m="1" x="691"/>
+        <item m="1" x="140"/>
+        <item m="1" x="362"/>
+        <item m="1" x="306"/>
+        <item m="1" x="252"/>
+        <item m="1" x="1207"/>
+        <item m="1" x="303"/>
+        <item m="1" x="905"/>
+        <item m="1" x="1117"/>
+        <item m="1" x="243"/>
+        <item m="1" x="147"/>
+        <item m="1" x="940"/>
+        <item m="1" x="916"/>
+        <item m="1" x="957"/>
+        <item m="1" x="876"/>
+        <item m="1" x="220"/>
+        <item m="1" x="576"/>
+        <item m="1" x="844"/>
+        <item m="1" x="1094"/>
+        <item m="1" x="688"/>
+        <item m="1" x="806"/>
+        <item m="1" x="1150"/>
+        <item m="1" x="562"/>
+        <item m="1" x="406"/>
+        <item m="1" x="639"/>
+        <item m="1" x="586"/>
+        <item m="1" x="516"/>
+        <item m="1" x="1033"/>
+        <item m="1" x="720"/>
+        <item m="1" x="816"/>
+        <item m="1" x="67"/>
+        <item m="1" x="612"/>
+        <item m="1" x="214"/>
+        <item m="1" x="481"/>
+        <item m="1" x="619"/>
+        <item m="1" x="149"/>
+        <item m="1" x="266"/>
+        <item m="1" x="721"/>
+        <item m="1" x="918"/>
+        <item m="1" x="1188"/>
+        <item m="1" x="1231"/>
+        <item m="1" x="841"/>
+        <item m="1" x="189"/>
+        <item m="1" x="117"/>
+        <item m="1" x="703"/>
+        <item m="1" x="325"/>
+        <item m="1" x="599"/>
+        <item m="1" x="227"/>
+        <item m="1" x="330"/>
+        <item m="1" x="757"/>
+        <item m="1" x="1113"/>
+        <item m="1" x="1044"/>
+        <item m="1" x="460"/>
+        <item m="1" x="495"/>
+        <item m="1" x="771"/>
+        <item m="1" x="1201"/>
+        <item m="1" x="927"/>
+        <item m="1" x="93"/>
+        <item m="1" x="1155"/>
+        <item m="1" x="201"/>
+        <item m="1" x="847"/>
+        <item m="1" x="892"/>
+        <item m="1" x="895"/>
+        <item m="1" x="1235"/>
+        <item m="1" x="128"/>
+        <item m="1" x="906"/>
+        <item m="1" x="1003"/>
+        <item m="1" x="775"/>
+        <item m="1" x="945"/>
+        <item m="1" x="187"/>
+        <item m="1" x="579"/>
+        <item m="1" x="426"/>
+        <item m="1" x="1038"/>
+        <item m="1" x="1133"/>
+        <item m="1" x="662"/>
+        <item m="1" x="1101"/>
+        <item m="1" x="1149"/>
+        <item m="1" x="502"/>
+        <item m="1" x="1005"/>
+        <item m="1" x="868"/>
+        <item m="1" x="1151"/>
+        <item m="1" x="1195"/>
+        <item m="1" x="933"/>
+        <item m="1" x="543"/>
+        <item m="1" x="348"/>
+        <item m="1" x="1183"/>
+        <item m="1" x="730"/>
+        <item m="1" x="704"/>
+        <item m="1" x="713"/>
+        <item m="1" x="1234"/>
+        <item m="1" x="958"/>
+        <item m="1" x="653"/>
+        <item m="1" x="922"/>
+        <item m="1" x="899"/>
+        <item m="1" x="515"/>
+        <item m="1" x="416"/>
+        <item m="1" x="915"/>
+        <item m="1" x="310"/>
+        <item m="1" x="267"/>
+        <item m="1" x="209"/>
+        <item m="1" x="1196"/>
+        <item m="1" x="812"/>
+        <item m="1" x="547"/>
+        <item m="1" x="628"/>
+        <item m="1" x="109"/>
+        <item m="1" x="1185"/>
+        <item m="1" x="736"/>
+        <item m="1" x="884"/>
         <item m="1" x="332"/>
-        <item m="1" x="338"/>
-        <item m="1" x="756"/>
+        <item m="1" x="1016"/>
+        <item m="1" x="519"/>
+        <item m="1" x="412"/>
+        <item m="1" x="1240"/>
+        <item m="1" x="542"/>
+        <item m="1" x="1181"/>
+        <item m="1" x="767"/>
+        <item m="1" x="443"/>
+        <item m="1" x="234"/>
+        <item m="1" x="177"/>
+        <item m="1" x="471"/>
+        <item m="1" x="168"/>
+        <item m="1" x="139"/>
+        <item m="1" x="156"/>
+        <item m="1" x="435"/>
+        <item m="1" x="280"/>
+        <item m="1" x="587"/>
+        <item m="1" x="644"/>
+        <item m="1" x="743"/>
+        <item m="1" x="614"/>
+        <item m="1" x="947"/>
+        <item m="1" x="1011"/>
+        <item m="1" x="223"/>
+        <item m="1" x="233"/>
+        <item m="1" x="422"/>
+        <item m="1" x="564"/>
+        <item m="1" x="354"/>
+        <item m="1" x="907"/>
+        <item m="1" x="657"/>
+        <item m="1" x="574"/>
+        <item m="1" x="707"/>
+        <item m="1" x="1013"/>
+        <item m="1" x="951"/>
+        <item m="1" x="1037"/>
+        <item m="1" x="793"/>
+        <item m="1" x="213"/>
+        <item m="1" x="1219"/>
+        <item m="1" x="632"/>
+        <item m="1" x="247"/>
+        <item m="1" x="71"/>
+        <item m="1" x="1216"/>
+        <item m="1" x="700"/>
+        <item m="1" x="667"/>
+        <item m="1" x="439"/>
+        <item m="1" x="319"/>
+        <item m="1" x="403"/>
+        <item m="1" x="557"/>
+        <item m="1" x="1132"/>
+        <item m="1" x="1051"/>
+        <item m="1" x="427"/>
+        <item m="1" x="500"/>
+        <item m="1" x="507"/>
+        <item m="1" x="1045"/>
+        <item m="1" x="648"/>
+        <item m="1" x="120"/>
+        <item m="1" x="681"/>
+        <item m="1" x="960"/>
+        <item m="1" x="1086"/>
+        <item m="1" x="979"/>
+        <item m="1" x="787"/>
+        <item m="1" x="1085"/>
+        <item m="1" x="99"/>
+        <item m="1" x="1002"/>
+        <item m="1" x="81"/>
+        <item m="1" x="421"/>
+        <item m="1" x="85"/>
+        <item m="1" x="244"/>
+        <item m="1" x="334"/>
+        <item m="1" x="340"/>
+        <item m="1" x="758"/>
+        <item m="1" x="1012"/>
+        <item m="1" x="539"/>
+        <item m="1" x="110"/>
+        <item m="1" x="316"/>
+        <item m="1" x="104"/>
+        <item m="1" x="1099"/>
+        <item m="1" x="324"/>
+        <item m="1" x="660"/>
+        <item m="1" x="1119"/>
+        <item m="1" x="446"/>
+        <item m="1" x="388"/>
+        <item m="1" x="784"/>
+        <item m="1" x="341"/>
+        <item m="1" x="649"/>
+        <item m="1" x="943"/>
+        <item m="1" x="82"/>
+        <item m="1" x="595"/>
+        <item m="1" x="714"/>
+        <item m="1" x="206"/>
+        <item m="1" x="548"/>
+        <item m="1" x="683"/>
+        <item m="1" x="434"/>
+        <item m="1" x="472"/>
+        <item m="1" x="199"/>
+        <item m="1" x="605"/>
+        <item m="1" x="69"/>
+        <item m="1" x="741"/>
+        <item m="1" x="1134"/>
+        <item m="1" x="855"/>
+        <item m="1" x="849"/>
+        <item m="1" x="748"/>
+        <item m="1" x="74"/>
+        <item m="1" x="880"/>
+        <item m="1" x="923"/>
+        <item m="1" x="729"/>
+        <item m="1" x="73"/>
+        <item m="1" x="1080"/>
+        <item m="1" x="1047"/>
+        <item m="1" x="77"/>
+        <item m="1" x="356"/>
+        <item m="1" x="746"/>
+        <item m="1" x="1001"/>
+        <item m="1" x="198"/>
+        <item m="1" x="94"/>
+        <item m="1" x="253"/>
+        <item m="1" x="144"/>
+        <item m="1" x="552"/>
+        <item m="1" x="365"/>
+        <item m="1" x="363"/>
+        <item m="1" x="534"/>
+        <item m="1" x="636"/>
+        <item m="1" x="540"/>
+        <item m="1" x="737"/>
+        <item m="1" x="589"/>
+        <item m="1" x="454"/>
+        <item m="1" x="569"/>
+        <item m="1" x="1062"/>
+        <item m="1" x="1157"/>
+        <item m="1" x="414"/>
+        <item m="1" x="1137"/>
+        <item m="1" x="179"/>
+        <item m="1" x="1126"/>
+        <item m="1" x="823"/>
+        <item m="1" x="994"/>
+        <item m="1" x="1073"/>
+        <item m="1" x="753"/>
+        <item m="1" x="965"/>
+        <item m="1" x="257"/>
+        <item m="1" x="240"/>
+        <item m="1" x="862"/>
+        <item m="1" x="834"/>
+        <item m="1" x="396"/>
+        <item m="1" x="1232"/>
+        <item m="1" x="804"/>
+        <item m="1" x="544"/>
+        <item m="1" x="618"/>
+        <item m="1" x="577"/>
+        <item m="1" x="1087"/>
+        <item m="1" x="1091"/>
+        <item m="1" x="87"/>
+        <item m="1" x="971"/>
+        <item m="1" x="1017"/>
+        <item m="1" x="136"/>
+        <item m="1" x="508"/>
+        <item m="1" x="499"/>
+        <item m="1" x="1006"/>
+        <item m="1" x="705"/>
+        <item m="1" x="909"/>
+        <item m="1" x="575"/>
+        <item m="1" x="926"/>
+        <item m="1" x="114"/>
+        <item m="1" x="237"/>
+        <item m="1" x="1206"/>
+        <item m="1" x="826"/>
+        <item m="1" x="1198"/>
+        <item m="1" x="118"/>
+        <item m="1" x="378"/>
+        <item m="1" x="194"/>
+        <item m="1" x="127"/>
+        <item m="1" x="142"/>
+        <item m="1" x="694"/>
+        <item m="1" x="727"/>
+        <item m="1" x="399"/>
+        <item m="1" x="817"/>
+        <item m="1" x="1135"/>
+        <item m="1" x="486"/>
+        <item m="1" x="565"/>
+        <item m="1" x="715"/>
+        <item m="1" x="1203"/>
+        <item m="1" x="380"/>
+        <item m="1" x="392"/>
+        <item m="1" x="402"/>
+        <item m="1" x="1023"/>
+        <item m="1" x="1159"/>
+        <item m="1" x="76"/>
+        <item m="1" x="903"/>
+        <item m="1" x="1199"/>
+        <item m="1" x="300"/>
+        <item m="1" x="615"/>
+        <item m="1" x="1236"/>
+        <item m="1" x="1142"/>
+        <item m="1" x="289"/>
+        <item m="1" x="401"/>
+        <item m="1" x="488"/>
+        <item m="1" x="813"/>
         <item m="1" x="1010"/>
-        <item m="1" x="537"/>
-        <item m="1" x="108"/>
-        <item m="1" x="314"/>
-        <item m="1" x="102"/>
-        <item m="1" x="1097"/>
-        <item m="1" x="322"/>
+        <item m="1" x="245"/>
+        <item m="1" x="716"/>
+        <item m="1" x="241"/>
+        <item m="1" x="210"/>
+        <item m="1" x="158"/>
+        <item m="1" x="1129"/>
+        <item m="1" x="722"/>
+        <item m="1" x="1170"/>
+        <item m="1" x="563"/>
+        <item m="1" x="1187"/>
+        <item m="1" x="939"/>
+        <item m="1" x="228"/>
+        <item m="1" x="1043"/>
+        <item m="1" x="1057"/>
+        <item m="1" x="717"/>
+        <item m="1" x="1092"/>
+        <item m="1" x="930"/>
+        <item m="1" x="795"/>
+        <item m="1" x="112"/>
+        <item m="1" x="941"/>
+        <item m="1" x="673"/>
+        <item m="1" x="606"/>
+        <item m="1" x="949"/>
+        <item m="1" x="533"/>
+        <item m="1" x="167"/>
+        <item m="1" x="339"/>
+        <item m="1" x="116"/>
+        <item m="1" x="465"/>
+        <item m="1" x="843"/>
+        <item m="1" x="428"/>
+        <item m="1" x="291"/>
+        <item m="1" x="506"/>
+        <item m="1" x="184"/>
+        <item m="1" x="436"/>
+        <item m="1" x="307"/>
         <item m="1" x="658"/>
-        <item m="1" x="1117"/>
+        <item m="1" x="1245"/>
+        <item m="1" x="699"/>
+        <item m="1" x="295"/>
+        <item m="1" x="572"/>
+        <item m="1" x="278"/>
+        <item m="1" x="331"/>
+        <item m="1" x="623"/>
+        <item m="1" x="891"/>
+        <item m="1" x="608"/>
+        <item m="1" x="1058"/>
+        <item m="1" x="620"/>
+        <item m="1" x="854"/>
+        <item m="1" x="169"/>
+        <item m="1" x="652"/>
+        <item m="1" x="292"/>
+        <item m="1" x="222"/>
+        <item m="1" x="948"/>
+        <item m="1" x="263"/>
+        <item m="1" x="972"/>
+        <item m="1" x="164"/>
+        <item m="1" x="789"/>
+        <item m="1" x="796"/>
+        <item m="1" x="200"/>
+        <item m="1" x="718"/>
+        <item m="1" x="96"/>
+        <item m="1" x="919"/>
+        <item m="1" x="624"/>
+        <item m="1" x="845"/>
+        <item m="1" x="814"/>
+        <item m="1" x="1034"/>
+        <item m="1" x="807"/>
+        <item m="1" x="385"/>
+        <item m="1" x="886"/>
+        <item m="1" x="1020"/>
+        <item m="1" x="710"/>
+        <item m="1" x="842"/>
+        <item m="1" x="175"/>
+        <item m="1" x="1008"/>
+        <item m="1" x="665"/>
+        <item m="1" x="530"/>
+        <item m="1" x="914"/>
+        <item m="1" x="440"/>
+        <item m="1" x="763"/>
+        <item m="1" x="297"/>
+        <item m="1" x="393"/>
+        <item m="1" x="790"/>
+        <item m="1" x="559"/>
+        <item m="1" x="103"/>
+        <item m="1" x="437"/>
+        <item m="1" x="917"/>
+        <item m="1" x="1019"/>
+        <item m="1" x="122"/>
+        <item m="1" x="407"/>
+        <item m="1" x="342"/>
+        <item m="1" x="675"/>
+        <item m="1" x="768"/>
+        <item m="1" x="208"/>
+        <item m="1" x="1190"/>
+        <item m="1" x="173"/>
+        <item m="1" x="246"/>
+        <item m="1" x="1027"/>
+        <item m="1" x="535"/>
+        <item m="1" x="549"/>
+        <item m="1" x="603"/>
+        <item m="1" x="178"/>
+        <item m="1" x="457"/>
+        <item m="1" x="852"/>
+        <item m="1" x="764"/>
+        <item m="1" x="554"/>
+        <item m="1" x="501"/>
+        <item m="1" x="131"/>
+        <item m="1" x="369"/>
+        <item m="1" x="833"/>
+        <item m="1" x="467"/>
+        <item m="1" x="630"/>
+        <item m="1" x="567"/>
+        <item m="1" x="749"/>
+        <item m="1" x="113"/>
+        <item m="1" x="594"/>
+        <item m="1" x="268"/>
+        <item m="1" x="671"/>
+        <item m="1" x="797"/>
+        <item m="1" x="873"/>
+        <item m="1" x="808"/>
+        <item m="1" x="769"/>
+        <item m="1" x="695"/>
+        <item m="1" x="1106"/>
+        <item m="1" x="998"/>
+        <item m="1" x="249"/>
+        <item m="1" x="990"/>
         <item m="1" x="444"/>
-        <item m="1" x="386"/>
+        <item m="1" x="754"/>
+        <item m="1" x="160"/>
+        <item m="1" x="733"/>
+        <item m="1" x="600"/>
+        <item m="1" x="1032"/>
+        <item m="1" x="186"/>
+        <item m="1" x="1243"/>
+        <item m="1" x="225"/>
+        <item m="1" x="165"/>
+        <item m="1" x="735"/>
+        <item m="1" x="935"/>
+        <item m="1" x="838"/>
+        <item m="1" x="124"/>
+        <item m="1" x="276"/>
+        <item m="1" x="1064"/>
+        <item m="1" x="1004"/>
+        <item m="1" x="259"/>
+        <item m="1" x="232"/>
+        <item m="1" x="527"/>
+        <item m="1" x="148"/>
+        <item m="1" x="755"/>
+        <item m="1" x="188"/>
+        <item m="1" x="358"/>
+        <item m="1" x="655"/>
+        <item m="1" x="1186"/>
+        <item m="1" x="226"/>
+        <item m="1" x="496"/>
+        <item m="1" x="343"/>
+        <item m="1" x="505"/>
+        <item m="1" x="1059"/>
+        <item m="1" x="942"/>
+        <item m="1" x="404"/>
+        <item m="1" x="157"/>
+        <item m="1" x="1107"/>
+        <item m="1" x="270"/>
+        <item m="1" x="1052"/>
+        <item m="1" x="609"/>
+        <item m="1" x="993"/>
+        <item m="1" x="352"/>
+        <item m="1" x="524"/>
+        <item m="1" x="1009"/>
+        <item m="1" x="1197"/>
+        <item m="1" x="973"/>
+        <item m="1" x="372"/>
+        <item m="1" x="315"/>
+        <item m="1" x="1018"/>
         <item m="1" x="782"/>
-        <item m="1" x="339"/>
-        <item m="1" x="647"/>
-        <item m="1" x="941"/>
+        <item m="1" x="626"/>
+        <item m="1" x="1050"/>
+        <item m="1" x="98"/>
+        <item m="1" x="95"/>
+        <item m="1" x="770"/>
+        <item m="1" x="910"/>
+        <item m="1" x="865"/>
+        <item m="1" x="1048"/>
+        <item m="1" x="573"/>
+        <item m="1" x="320"/>
+        <item m="1" x="394"/>
+        <item m="1" x="924"/>
+        <item m="1" x="476"/>
+        <item m="1" x="706"/>
+        <item m="1" x="1121"/>
+        <item m="1" x="359"/>
+        <item m="1" x="696"/>
         <item m="1" x="80"/>
-        <item m="1" x="593"/>
-        <item m="1" x="712"/>
-        <item m="1" x="204"/>
-        <item m="1" x="546"/>
-        <item m="1" x="681"/>
-        <item m="1" x="432"/>
-        <item m="1" x="470"/>
-        <item m="1" x="197"/>
-        <item m="1" x="603"/>
-        <item m="1" x="67"/>
-        <item m="1" x="739"/>
-        <item m="1" x="1132"/>
-        <item m="1" x="853"/>
-        <item m="1" x="847"/>
-        <item m="1" x="746"/>
-        <item m="1" x="72"/>
-        <item m="1" x="878"/>
-        <item m="1" x="921"/>
-        <item m="1" x="727"/>
-        <item m="1" x="71"/>
-        <item m="1" x="1078"/>
-        <item m="1" x="1045"/>
-        <item m="1" x="75"/>
-        <item m="1" x="354"/>
-        <item m="1" x="744"/>
-        <item m="1" x="999"/>
-        <item m="1" x="196"/>
-        <item m="1" x="92"/>
-        <item m="1" x="251"/>
-        <item m="1" x="142"/>
-        <item m="1" x="550"/>
-        <item m="1" x="363"/>
-        <item m="1" x="361"/>
-        <item m="1" x="532"/>
-        <item m="1" x="634"/>
-        <item m="1" x="538"/>
-        <item m="1" x="735"/>
-        <item m="1" x="587"/>
-        <item m="1" x="452"/>
-        <item m="1" x="567"/>
-        <item m="1" x="1060"/>
-        <item m="1" x="1155"/>
-        <item m="1" x="412"/>
-        <item m="1" x="1135"/>
-        <item m="1" x="177"/>
-        <item m="1" x="1124"/>
-        <item m="1" x="821"/>
-        <item m="1" x="992"/>
-        <item m="1" x="1071"/>
-        <item m="1" x="751"/>
-        <item m="1" x="963"/>
-        <item m="1" x="255"/>
-        <item m="1" x="238"/>
-        <item m="1" x="860"/>
-        <item m="1" x="832"/>
-        <item m="1" x="394"/>
-        <item m="1" x="1230"/>
-        <item m="1" x="802"/>
-        <item m="1" x="542"/>
-        <item m="1" x="616"/>
-        <item m="1" x="575"/>
-        <item m="1" x="1085"/>
-        <item m="1" x="1089"/>
-        <item m="1" x="85"/>
-        <item m="1" x="969"/>
-        <item m="1" x="1015"/>
-        <item m="1" x="134"/>
-        <item m="1" x="506"/>
-        <item m="1" x="497"/>
-        <item m="1" x="1004"/>
-        <item m="1" x="703"/>
-        <item m="1" x="907"/>
-        <item m="1" x="573"/>
-        <item m="1" x="924"/>
-        <item m="1" x="112"/>
-        <item m="1" x="235"/>
-        <item m="1" x="1204"/>
-        <item m="1" x="824"/>
-        <item m="1" x="1196"/>
-        <item m="1" x="116"/>
-        <item m="1" x="376"/>
-        <item m="1" x="192"/>
-        <item m="1" x="125"/>
-        <item m="1" x="140"/>
-        <item m="1" x="692"/>
-        <item m="1" x="725"/>
-        <item m="1" x="397"/>
-        <item m="1" x="815"/>
-        <item m="1" x="1133"/>
-        <item m="1" x="484"/>
-        <item m="1" x="563"/>
-        <item m="1" x="713"/>
-        <item m="1" x="1201"/>
-        <item m="1" x="378"/>
-        <item m="1" x="390"/>
-        <item m="1" x="400"/>
-        <item m="1" x="1021"/>
-        <item m="1" x="1157"/>
-        <item m="1" x="74"/>
-        <item m="1" x="901"/>
-        <item m="1" x="1197"/>
-        <item m="1" x="298"/>
-        <item m="1" x="613"/>
-        <item m="1" x="1234"/>
-        <item m="1" x="1140"/>
-        <item m="1" x="287"/>
-        <item m="1" x="399"/>
-        <item m="1" x="486"/>
-        <item m="1" x="811"/>
-        <item m="1" x="1008"/>
-        <item m="1" x="243"/>
-        <item m="1" x="714"/>
-        <item m="1" x="239"/>
-        <item m="1" x="208"/>
-        <item m="1" x="156"/>
-        <item m="1" x="1127"/>
-        <item m="1" x="720"/>
-        <item m="1" x="1168"/>
-        <item m="1" x="561"/>
-        <item m="1" x="1185"/>
-        <item m="1" x="937"/>
-        <item m="1" x="226"/>
-        <item m="1" x="1041"/>
-        <item m="1" x="1055"/>
-        <item m="1" x="715"/>
-        <item m="1" x="1090"/>
-        <item m="1" x="928"/>
-        <item m="1" x="793"/>
-        <item m="1" x="110"/>
-        <item m="1" x="939"/>
-        <item m="1" x="671"/>
-        <item m="1" x="604"/>
-        <item m="1" x="947"/>
-        <item m="1" x="531"/>
-        <item m="1" x="165"/>
-        <item m="1" x="337"/>
-        <item m="1" x="114"/>
-        <item m="1" x="463"/>
-        <item m="1" x="841"/>
-        <item m="1" x="426"/>
-        <item m="1" x="289"/>
-        <item m="1" x="504"/>
-        <item m="1" x="182"/>
-        <item m="1" x="434"/>
-        <item m="1" x="305"/>
-        <item m="1" x="656"/>
-        <item m="1" x="1243"/>
-        <item m="1" x="697"/>
-        <item m="1" x="293"/>
-        <item m="1" x="570"/>
-        <item m="1" x="276"/>
-        <item m="1" x="329"/>
-        <item m="1" x="621"/>
-        <item m="1" x="889"/>
-        <item m="1" x="606"/>
-        <item m="1" x="1056"/>
-        <item m="1" x="618"/>
-        <item m="1" x="852"/>
-        <item m="1" x="167"/>
-        <item m="1" x="650"/>
-        <item m="1" x="290"/>
-        <item m="1" x="220"/>
-        <item m="1" x="946"/>
-        <item m="1" x="261"/>
-        <item m="1" x="970"/>
-        <item m="1" x="162"/>
-        <item m="1" x="787"/>
-        <item m="1" x="794"/>
-        <item m="1" x="198"/>
-        <item m="1" x="716"/>
-        <item m="1" x="94"/>
-        <item m="1" x="917"/>
-        <item m="1" x="622"/>
-        <item m="1" x="843"/>
-        <item m="1" x="812"/>
-        <item m="1" x="1032"/>
-        <item m="1" x="805"/>
-        <item m="1" x="383"/>
-        <item m="1" x="884"/>
-        <item m="1" x="1018"/>
-        <item m="1" x="708"/>
-        <item m="1" x="840"/>
-        <item m="1" x="173"/>
-        <item m="1" x="1006"/>
-        <item m="1" x="663"/>
-        <item m="1" x="528"/>
-        <item m="1" x="912"/>
-        <item m="1" x="438"/>
-        <item m="1" x="761"/>
-        <item m="1" x="295"/>
-        <item m="1" x="391"/>
-        <item m="1" x="788"/>
-        <item m="1" x="557"/>
-        <item m="1" x="101"/>
-        <item m="1" x="435"/>
-        <item m="1" x="915"/>
-        <item m="1" x="1017"/>
-        <item m="1" x="120"/>
-        <item m="1" x="405"/>
-        <item m="1" x="340"/>
-        <item m="1" x="673"/>
-        <item m="1" x="766"/>
-        <item m="1" x="206"/>
-        <item m="1" x="1188"/>
-        <item m="1" x="171"/>
-        <item m="1" x="244"/>
-        <item m="1" x="1025"/>
-        <item m="1" x="533"/>
-        <item m="1" x="547"/>
-        <item m="1" x="601"/>
-        <item m="1" x="176"/>
-        <item m="1" x="455"/>
-        <item m="1" x="850"/>
-        <item m="1" x="762"/>
-        <item m="1" x="552"/>
-        <item m="1" x="499"/>
-        <item m="1" x="129"/>
-        <item m="1" x="367"/>
-        <item m="1" x="831"/>
-        <item m="1" x="465"/>
-        <item m="1" x="628"/>
-        <item m="1" x="565"/>
-        <item m="1" x="747"/>
-        <item m="1" x="111"/>
-        <item m="1" x="592"/>
-        <item m="1" x="266"/>
-        <item m="1" x="669"/>
-        <item m="1" x="795"/>
-        <item m="1" x="871"/>
-        <item m="1" x="806"/>
-        <item m="1" x="767"/>
-        <item m="1" x="693"/>
-        <item m="1" x="1104"/>
-        <item m="1" x="996"/>
-        <item m="1" x="247"/>
-        <item m="1" x="988"/>
-        <item m="1" x="442"/>
-        <item m="1" x="752"/>
-        <item m="1" x="158"/>
-        <item m="1" x="731"/>
-        <item m="1" x="598"/>
-        <item m="1" x="1030"/>
-        <item m="1" x="184"/>
-        <item m="1" x="1241"/>
-        <item m="1" x="223"/>
-        <item m="1" x="163"/>
-        <item m="1" x="733"/>
-        <item m="1" x="933"/>
-        <item m="1" x="836"/>
-        <item m="1" x="122"/>
-        <item m="1" x="274"/>
-        <item m="1" x="1062"/>
-        <item m="1" x="1002"/>
-        <item m="1" x="257"/>
-        <item m="1" x="230"/>
-        <item m="1" x="525"/>
-        <item m="1" x="146"/>
-        <item m="1" x="753"/>
-        <item m="1" x="186"/>
-        <item m="1" x="356"/>
-        <item m="1" x="653"/>
-        <item m="1" x="1184"/>
-        <item m="1" x="224"/>
-        <item m="1" x="494"/>
-        <item m="1" x="341"/>
-        <item m="1" x="503"/>
-        <item m="1" x="1057"/>
-        <item m="1" x="940"/>
-        <item m="1" x="402"/>
-        <item m="1" x="155"/>
-        <item m="1" x="1105"/>
-        <item m="1" x="268"/>
-        <item m="1" x="1050"/>
-        <item m="1" x="607"/>
-        <item m="1" x="991"/>
-        <item m="1" x="350"/>
-        <item m="1" x="522"/>
-        <item m="1" x="1007"/>
-        <item m="1" x="1195"/>
-        <item m="1" x="971"/>
-        <item m="1" x="370"/>
-        <item m="1" x="313"/>
-        <item m="1" x="1016"/>
-        <item m="1" x="780"/>
-        <item m="1" x="624"/>
-        <item m="1" x="1048"/>
-        <item m="1" x="96"/>
-        <item m="1" x="93"/>
-        <item m="1" x="768"/>
-        <item m="1" x="908"/>
-        <item m="1" x="863"/>
-        <item m="1" x="1046"/>
-        <item m="1" x="571"/>
-        <item m="1" x="318"/>
-        <item m="1" x="392"/>
-        <item m="1" x="922"/>
-        <item m="1" x="474"/>
-        <item m="1" x="704"/>
-        <item m="1" x="1119"/>
-        <item m="1" x="357"/>
-        <item m="1" x="694"/>
-        <item m="1" x="78"/>
-        <item m="1" x="407"/>
+        <item m="1" x="409"/>
         <item x="2"/>
         <item x="1"/>
         <item x="4"/>
@@ -20091,10 +20303,12 @@
         <item x="60"/>
         <item x="61"/>
         <item x="62"/>
-        <item m="1" x="395"/>
-        <item m="1" x="1156"/>
-        <item m="1" x="98"/>
-        <item m="1" x="63"/>
+        <item x="63"/>
+        <item x="64"/>
+        <item m="1" x="397"/>
+        <item m="1" x="1158"/>
+        <item m="1" x="100"/>
+        <item m="1" x="65"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20157,30 +20371,21 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="15">
+  <rowItems count="12">
     <i>
       <x/>
     </i>
     <i r="1">
-      <x v="1236"/>
+      <x v="1240"/>
     </i>
     <i r="2">
       <x v="8"/>
     </i>
     <i r="1">
-      <x v="1238"/>
+      <x v="1241"/>
     </i>
     <i r="2">
-      <x v="3"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1239"/>
-    </i>
-    <i r="2">
-      <x v="11"/>
+      <x v="10"/>
     </i>
     <i>
       <x v="1"/>
@@ -20189,7 +20394,7 @@
       <x v="1220"/>
     </i>
     <i r="2">
-      <x v="8"/>
+      <x v="3"/>
     </i>
     <i r="1">
       <x v="1229"/>
@@ -20276,8 +20481,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C982" totalsRowShown="0" totalsRowDxfId="22">
-  <autoFilter ref="A1:C982" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C985" totalsRowShown="0" totalsRowDxfId="22">
+  <autoFilter ref="A1:C985" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{96F9219D-1D74-4611-A7AA-8AB4E044352A}" name="Ticket" totalsRowDxfId="21"/>
     <tableColumn id="2" xr3:uid="{D6F02EDE-42BA-4EF9-A278-EA070340E315}" name="Number" totalsRowDxfId="20"/>
@@ -20950,7 +21155,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -21005,7 +21210,7 @@
         <v>897</v>
       </c>
       <c r="B5" s="73">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -21013,10 +21218,10 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="67" t="s">
-        <v>1937</v>
+        <v>1964</v>
       </c>
       <c r="B6" s="73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C6"/>
       <c r="D6"/>
@@ -21027,7 +21232,7 @@
         <v>370</v>
       </c>
       <c r="B7" s="73">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7"/>
       <c r="D7"/>
@@ -21035,10 +21240,10 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="67" t="s">
-        <v>1944</v>
+        <v>1965</v>
       </c>
       <c r="B8" s="73">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="C8" s="56"/>
       <c r="D8"/>
@@ -21046,27 +21251,27 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="68" t="s">
-        <v>369</v>
+        <v>377</v>
       </c>
       <c r="B9" s="73">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="C9"/>
       <c r="D9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="68" t="s">
-        <v>370</v>
+      <c r="A10" s="17" t="s">
+        <v>1793</v>
       </c>
       <c r="B10" s="73">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="67" t="s">
-        <v>1958</v>
+        <v>1766</v>
       </c>
       <c r="B11" s="73">
         <v>1</v>
@@ -21076,7 +21281,7 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="68" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B12" s="73">
         <v>1</v>
@@ -21085,21 +21290,21 @@
       <c r="D12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="17" t="s">
-        <v>1793</v>
+      <c r="A13" s="67" t="s">
+        <v>1825</v>
       </c>
       <c r="B13" s="73">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="67" t="s">
-        <v>1766</v>
+      <c r="A14" s="68" t="s">
+        <v>369</v>
       </c>
       <c r="B14" s="73">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14"/>
@@ -21109,52 +21314,34 @@
         <v>370</v>
       </c>
       <c r="B15" s="73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="67" t="s">
-        <v>1825</v>
+      <c r="A16" s="17" t="s">
+        <v>381</v>
       </c>
       <c r="B16" s="73">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="B17" s="73">
-        <v>15</v>
-      </c>
+    <row r="17" spans="3:4">
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="B18" s="73">
-        <v>2</v>
-      </c>
+    <row r="18" spans="3:4">
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B19" s="73">
-        <v>23</v>
-      </c>
+    <row r="19" spans="3:4">
       <c r="C19" s="47"/>
       <c r="D19"/>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1"/>
+    <row r="21" spans="3:4" ht="17.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A2:F1358" xr:uid="{B27B7123-EEA1-4BA6-8CFC-B80BB9988DCB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21168,10 +21355,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6F094-6CC7-43A2-BBFE-8797416561A7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D982"/>
+  <dimension ref="A1:D985"/>
   <sheetViews>
     <sheetView topLeftCell="A949" workbookViewId="0">
-      <selection activeCell="G970" sqref="G970"/>
+      <selection activeCell="C985" sqref="C985"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -31993,6 +32180,39 @@
         <v>1</v>
       </c>
       <c r="C982" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="983" spans="1:3">
+      <c r="A983" t="s">
+        <v>1937</v>
+      </c>
+      <c r="B983">
+        <v>2</v>
+      </c>
+      <c r="C983" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="984" spans="1:3">
+      <c r="A984" t="s">
+        <v>1944</v>
+      </c>
+      <c r="B984">
+        <v>2</v>
+      </c>
+      <c r="C984" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="985" spans="1:3">
+      <c r="A985" t="s">
+        <v>1958</v>
+      </c>
+      <c r="B985">
+        <v>1</v>
+      </c>
+      <c r="C985" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -32033,9 +32253,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S508"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C494" sqref="C494"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
@@ -51238,7 +51456,7 @@
       </c>
       <c r="S321" s="60"/>
     </row>
-    <row r="322" spans="1:19">
+    <row r="322" spans="1:19" hidden="1">
       <c r="A322" t="s">
         <v>1766</v>
       </c>
@@ -51247,7 +51465,7 @@
         <v>open</v>
       </c>
       <c r="C322" s="63" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D322" t="s">
         <v>1764</v>
@@ -60747,16 +60965,16 @@
       </c>
       <c r="S492" s="60"/>
     </row>
-    <row r="493" spans="1:19">
+    <row r="493" spans="1:19" hidden="1">
       <c r="A493" t="s">
         <v>1937</v>
       </c>
       <c r="B493" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C493" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D493" t="s">
         <v>1175</v>
@@ -60803,13 +61021,13 @@
       </c>
       <c r="S493" s="60"/>
     </row>
-    <row r="494" spans="1:19">
+    <row r="494" spans="1:19" hidden="1">
       <c r="A494" s="62" t="s">
         <v>1937</v>
       </c>
       <c r="B494" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C494" s="72" t="s">
         <v>377</v>
@@ -60925,7 +61143,7 @@
       </c>
       <c r="B496" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C496" s="62" t="s">
         <v>369</v>
@@ -60978,16 +61196,16 @@
       </c>
       <c r="S496" s="60"/>
     </row>
-    <row r="497" spans="1:19">
+    <row r="497" spans="1:19" hidden="1">
       <c r="A497" s="62" t="s">
         <v>1944</v>
       </c>
       <c r="B497" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C497" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D497" t="s">
         <v>552</v>
@@ -61035,16 +61253,16 @@
       </c>
       <c r="S497" s="60"/>
     </row>
-    <row r="498" spans="1:19">
+    <row r="498" spans="1:19" hidden="1">
       <c r="A498" t="s">
         <v>1958</v>
       </c>
       <c r="B498" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C498" s="72" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="D498" t="s">
         <v>1959</v>
@@ -61682,10 +61900,9 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DC6C486D-03F8-4FBE-B42F-8C210536373A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7142417-84C0-4248-8EAE-3760CFC46D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="4" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="34" r:id="rId12"/>
+    <pivotCache cacheId="134" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6533" uniqueCount="1982">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6577" uniqueCount="1995">
   <si>
     <t>Ticket</t>
   </si>
@@ -6027,6 +6027,45 @@
   </si>
   <si>
     <t>Requested node is non-existent. Reached out with the requester.</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000051707 LS-IT-N BUSINESS PARTNER GLOBAL</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000023582 LS ERP-IT ONE ERP</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000057565 LS ERP-IT ONE ERP</t>
+  </si>
+  <si>
+    <t>CNOW_7210$$$0000265235 LS ERP-IT ONE ERP</t>
+  </si>
+  <si>
+    <t>DFLTPGCOH_BF-C4_002014</t>
+  </si>
+  <si>
+    <t>DFLTPGCOH_BF-Y6_002106</t>
+  </si>
+  <si>
+    <t>DFLTPGCOH_BF-Y6_002047</t>
+  </si>
+  <si>
+    <t>DFLTPGCOH_BF-Y6_002072</t>
+  </si>
+  <si>
+    <t>FR7083726</t>
+  </si>
+  <si>
+    <t>CITR_1000$$$1721IT041</t>
+  </si>
+  <si>
+    <t>FR7084082</t>
+  </si>
+  <si>
+    <t>G000000244</t>
+  </si>
+  <si>
+    <t>G000000243</t>
   </si>
 </sst>
 </file>
@@ -6949,13 +6988,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45702.681953703701" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="507" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45702.870934143517" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="512" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
   <cacheSource type="worksheet">
     <worksheetSource name="Proc"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="App" numFmtId="0">
-      <sharedItems containsBlank="1" count="1246">
+      <sharedItems containsBlank="1" count="1248">
         <s v="FR0000000"/>
         <s v="FR6943059"/>
         <s v="FR6940622"/>
@@ -7021,6 +7060,8 @@
         <s v="FR7076100"/>
         <s v="FR7079666"/>
         <s v="FR7081100"/>
+        <s v="FR7083726"/>
+        <s v="FR7084082"/>
         <m u="1"/>
         <s v="FR5900147" u="1"/>
         <s v="FR6280266" u="1"/>
@@ -8275,7 +8316,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DateOpened" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-13T14:41:14"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-14T13:42:48"/>
     </cacheField>
     <cacheField name="DateMapped" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-01T00:00:00" maxDate="2025-02-14T00:00:00"/>
@@ -8292,7 +8333,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DaysAgeing" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="40"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="40"/>
     </cacheField>
     <cacheField name="Author" numFmtId="0">
       <sharedItems/>
@@ -8310,7 +8351,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="507">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="512">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -15033,7 +15074,7 @@
   </r>
   <r>
     <x v="45"/>
-    <x v="1"/>
+    <x v="0"/>
     <x v="2"/>
     <s v="CLFF_1000$$$DE50TODA13"/>
     <s v="H000004262"/>
@@ -18778,7 +18819,7 @@
     <s v="L000013595"/>
     <s v="Non-LFF"/>
     <s v=""/>
-    <s v="Requested node is non-existent"/>
+    <s v="Requested node is non-existent. Reached out with the requester."/>
     <b v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -18799,7 +18840,7 @@
     <s v="L000013330"/>
     <s v="Non-LFF"/>
     <s v=""/>
-    <s v="Requested node is non-existent"/>
+    <s v="Requested node is non-existent. Reached out with the requester."/>
     <b v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -18820,7 +18861,7 @@
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
-    <s v="Requested node is non-existent"/>
+    <s v="Requested node is non-existent. Reached out with the requester."/>
     <b v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -18841,7 +18882,7 @@
     <s v="L000013595"/>
     <s v="Non-LFF"/>
     <s v=""/>
-    <s v="Requested node is non-existent"/>
+    <s v="Requested node is non-existent. Reached out with the requester."/>
     <b v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -18862,7 +18903,7 @@
     <s v="L000013595"/>
     <s v="Non-LFF"/>
     <s v=""/>
-    <s v="Requested node is non-existent"/>
+    <s v="Requested node is non-existent. Reached out with the requester."/>
     <b v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -18883,7 +18924,7 @@
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
-    <s v="Requested node is non-existent"/>
+    <s v="Requested node is non-existent. Reached out with the requester."/>
     <b v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -18904,7 +18945,7 @@
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
-    <s v="Requested node is non-existent"/>
+    <s v="Requested node is non-existent. Reached out with the requester."/>
     <b v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -18925,7 +18966,7 @@
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
-    <s v="Requested node is non-existent"/>
+    <s v="Requested node is non-existent. Reached out with the requester."/>
     <b v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -18946,7 +18987,7 @@
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
-    <s v="Requested node is non-existent"/>
+    <s v="Requested node is non-existent. Reached out with the requester."/>
     <b v="0"/>
     <x v="2"/>
     <x v="1"/>
@@ -18956,13 +18997,118 @@
     <x v="0"/>
     <n v="1"/>
     <s v="Marvin Graef"/>
+    <m/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="CNOW_7210$$$0000051707 LS-IT-N BUSINESS PARTNER GLOBAL"/>
+    <s v="L000013391"/>
+    <s v="DFLTPGCOH_BF-C4_002014"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <m/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2025-02-14T12:08:32"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Jay-R Lizardo"/>
+    <m/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="CNOW_7210$$$0000023582 LS ERP-IT ONE ERP"/>
+    <s v="L000013808"/>
+    <s v="DFLTPGCOH_BF-Y6_002106"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <m/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2025-02-14T12:08:32"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Jay-R Lizardo"/>
+    <m/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="CNOW_7210$$$0000057565 LS ERP-IT ONE ERP"/>
+    <s v="L000013808"/>
+    <s v="DFLTPGCOH_BF-Y6_002047"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <m/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2025-02-14T12:08:32"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Jay-R Lizardo"/>
+    <m/>
+  </r>
+  <r>
+    <x v="65"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="CNOW_7210$$$0000265235 LS ERP-IT ONE ERP"/>
+    <s v="L000013808"/>
+    <s v="DFLTPGCOH_BF-Y6_002072"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <m/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2025-02-14T12:08:32"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Jay-R Lizardo"/>
+    <m/>
+  </r>
+  <r>
+    <x v="66"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="CITR_1000$$$1721IT041"/>
+    <s v="G000000244"/>
+    <s v="G000000243"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <m/>
+    <b v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <d v="2025-02-14T13:42:48"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Jay-R Lizardo"/>
     <m/>
   </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="134" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -19058,1189 +19204,1189 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="34" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B16" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="134" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="1247">
-        <item m="1" x="631"/>
+      <items count="1249">
+        <item m="1" x="633"/>
         <item x="0"/>
-        <item m="1" x="701"/>
+        <item m="1" x="703"/>
+        <item m="1" x="1124"/>
+        <item m="1" x="286"/>
+        <item m="1" x="1141"/>
+        <item m="1" x="663"/>
+        <item m="1" x="753"/>
+        <item m="1" x="1174"/>
+        <item m="1" x="968"/>
+        <item m="1" x="656"/>
+        <item m="1" x="1240"/>
+        <item m="1" x="986"/>
+        <item m="1" x="1230"/>
+        <item m="1" x="604"/>
+        <item m="1" x="505"/>
+        <item m="1" x="209"/>
+        <item m="1" x="470"/>
+        <item m="1" x="1194"/>
+        <item m="1" x="262"/>
+        <item m="1" x="570"/>
+        <item m="1" x="938"/>
+        <item m="1" x="653"/>
+        <item m="1" x="746"/>
+        <item m="1" x="1042"/>
+        <item m="1" x="1227"/>
+        <item m="1" x="688"/>
+        <item m="1" x="710"/>
+        <item m="1" x="475"/>
+        <item m="1" x="876"/>
+        <item m="1" x="635"/>
+        <item m="1" x="1181"/>
+        <item m="1" x="838"/>
+        <item m="1" x="271"/>
+        <item m="1" x="379"/>
+        <item m="1" x="1166"/>
+        <item m="1" x="930"/>
+        <item m="1" x="184"/>
+        <item m="1" x="1016"/>
+        <item m="1" x="682"/>
+        <item m="1" x="977"/>
+        <item m="1" x="563"/>
+        <item m="1" x="915"/>
+        <item m="1" x="174"/>
+        <item m="1" x="204"/>
+        <item m="1" x="1243"/>
+        <item m="1" x="922"/>
+        <item m="1" x="990"/>
+        <item m="1" x="1097"/>
+        <item m="1" x="866"/>
+        <item m="1" x="964"/>
+        <item m="1" x="803"/>
+        <item m="1" x="258"/>
+        <item m="1" x="449"/>
+        <item m="1" x="1225"/>
+        <item m="1" x="793"/>
+        <item m="1" x="933"/>
+        <item m="1" x="461"/>
+        <item m="1" x="422"/>
+        <item m="1" x="714"/>
+        <item m="1" x="606"/>
+        <item m="1" x="639"/>
+        <item m="1" x="198"/>
+        <item m="1" x="337"/>
+        <item m="1" x="999"/>
+        <item m="1" x="1216"/>
+        <item m="1" x="402"/>
+        <item m="1" x="807"/>
+        <item m="1" x="817"/>
+        <item m="1" x="994"/>
+        <item m="1" x="1104"/>
+        <item m="1" x="982"/>
+        <item m="1" x="277"/>
+        <item m="1" x="1125"/>
+        <item m="1" x="855"/>
+        <item m="1" x="842"/>
+        <item m="1" x="377"/>
+        <item m="1" x="730"/>
+        <item m="1" x="1077"/>
+        <item m="1" x="195"/>
+        <item m="1" x="774"/>
+        <item m="1" x="1127"/>
+        <item m="1" x="965"/>
+        <item m="1" x="700"/>
+        <item m="1" x="742"/>
+        <item m="1" x="623"/>
+        <item m="1" x="858"/>
+        <item m="1" x="670"/>
+        <item m="1" x="902"/>
+        <item m="1" x="386"/>
+        <item m="1" x="1215"/>
+        <item m="1" x="740"/>
+        <item m="1" x="1026"/>
+        <item m="1" x="103"/>
+        <item m="1" x="1231"/>
+        <item m="1" x="767"/>
+        <item m="1" x="1056"/>
+        <item m="1" x="969"/>
+        <item m="1" x="747"/>
+        <item m="1" x="257"/>
+        <item m="1" x="264"/>
+        <item m="1" x="304"/>
+        <item m="1" x="486"/>
+        <item m="1" x="910"/>
+        <item m="1" x="671"/>
+        <item m="1" x="787"/>
+        <item m="1" x="850"/>
+        <item m="1" x="997"/>
+        <item m="1" x="1080"/>
+        <item m="1" x="642"/>
+        <item m="1" x="363"/>
+        <item m="1" x="206"/>
+        <item m="1" x="349"/>
+        <item m="1" x="1224"/>
+        <item m="1" x="381"/>
+        <item m="1" x="1062"/>
+        <item m="1" x="991"/>
+        <item m="1" x="609"/>
+        <item m="1" x="681"/>
+        <item m="1" x="547"/>
+        <item m="1" x="804"/>
+        <item m="1" x="1179"/>
+        <item m="1" x="355"/>
+        <item m="1" x="303"/>
+        <item m="1" x="238"/>
+        <item m="1" x="904"/>
+        <item m="1" x="1164"/>
+        <item m="1" x="1092"/>
+        <item m="1" x="749"/>
+        <item m="1" x="273"/>
+        <item m="1" x="998"/>
+        <item m="1" x="450"/>
+        <item m="1" x="704"/>
+        <item m="1" x="879"/>
+        <item m="1" x="987"/>
+        <item m="1" x="107"/>
+        <item m="1" x="936"/>
+        <item m="1" x="899"/>
+        <item m="1" x="340"/>
+        <item m="1" x="788"/>
+        <item m="1" x="676"/>
+        <item m="1" x="629"/>
+        <item m="1" x="362"/>
+        <item m="1" x="298"/>
+        <item m="1" x="538"/>
+        <item m="1" x="725"/>
+        <item m="1" x="132"/>
+        <item m="1" x="471"/>
+        <item m="1" x="330"/>
+        <item m="1" x="72"/>
+        <item m="1" x="582"/>
+        <item m="1" x="783"/>
+        <item m="1" x="665"/>
+        <item m="1" x="711"/>
+        <item m="1" x="1030"/>
+        <item m="1" x="612"/>
+        <item m="1" x="1138"/>
+        <item m="1" x="862"/>
+        <item m="1" x="801"/>
+        <item m="1" x="315"/>
+        <item m="1" x="948"/>
+        <item m="1" x="1226"/>
+        <item m="1" x="914"/>
+        <item m="1" x="898"/>
+        <item m="1" x="185"/>
+        <item m="1" x="233"/>
+        <item m="1" x="768"/>
+        <item m="1" x="274"/>
+        <item m="1" x="1211"/>
+        <item m="1" x="877"/>
+        <item m="1" x="802"/>
+        <item m="1" x="754"/>
+        <item m="1" x="555"/>
+        <item m="1" x="183"/>
+        <item m="1" x="283"/>
+        <item m="1" x="389"/>
         <item m="1" x="1122"/>
-        <item m="1" x="284"/>
-        <item m="1" x="1139"/>
-        <item m="1" x="661"/>
-        <item m="1" x="751"/>
-        <item m="1" x="1172"/>
-        <item m="1" x="966"/>
-        <item m="1" x="654"/>
-        <item m="1" x="1238"/>
+        <item m="1" x="1154"/>
+        <item m="1" x="853"/>
+        <item m="1" x="580"/>
+        <item m="1" x="668"/>
+        <item m="1" x="178"/>
+        <item m="1" x="218"/>
+        <item m="1" x="557"/>
+        <item m="1" x="782"/>
+        <item m="1" x="695"/>
+        <item m="1" x="353"/>
+        <item m="1" x="586"/>
+        <item m="1" x="300"/>
+        <item m="1" x="495"/>
+        <item m="1" x="417"/>
+        <item m="1" x="252"/>
+        <item m="1" x="388"/>
+        <item m="1" x="758"/>
+        <item m="1" x="168"/>
+        <item m="1" x="407"/>
+        <item m="1" x="199"/>
+        <item m="1" x="892"/>
+        <item m="1" x="1081"/>
+        <item m="1" x="691"/>
+        <item m="1" x="335"/>
+        <item m="1" x="985"/>
+        <item m="1" x="830"/>
+        <item m="1" x="347"/>
+        <item m="1" x="348"/>
+        <item m="1" x="533"/>
+        <item m="1" x="223"/>
+        <item m="1" x="412"/>
+        <item m="1" x="207"/>
+        <item m="1" x="393"/>
+        <item m="1" x="961"/>
+        <item m="1" x="472"/>
+        <item m="1" x="839"/>
+        <item m="1" x="889"/>
+        <item m="1" x="1023"/>
+        <item m="1" x="1027"/>
+        <item m="1" x="744"/>
+        <item m="1" x="585"/>
+        <item m="1" x="624"/>
+        <item m="1" x="1191"/>
+        <item m="1" x="484"/>
+        <item m="1" x="296"/>
+        <item m="1" x="674"/>
+        <item m="1" x="131"/>
+        <item m="1" x="1195"/>
+        <item m="1" x="658"/>
+        <item m="1" x="92"/>
+        <item m="1" x="1113"/>
+        <item m="1" x="1156"/>
+        <item m="1" x="993"/>
+        <item m="1" x="370"/>
+        <item m="1" x="109"/>
+        <item m="1" x="1043"/>
+        <item m="1" x="434"/>
+        <item m="1" x="70"/>
+        <item m="1" x="1214"/>
+        <item m="1" x="458"/>
+        <item m="1" x="613"/>
+        <item m="1" x="1058"/>
+        <item m="1" x="145"/>
+        <item m="1" x="970"/>
+        <item m="1" x="778"/>
+        <item m="1" x="643"/>
+        <item m="1" x="513"/>
+        <item m="1" x="260"/>
+        <item m="1" x="761"/>
+        <item m="1" x="463"/>
+        <item m="1" x="1001"/>
+        <item m="1" x="323"/>
+        <item m="1" x="1071"/>
+        <item m="1" x="1078"/>
+        <item m="1" x="762"/>
+        <item m="1" x="952"/>
+        <item m="1" x="369"/>
+        <item m="1" x="666"/>
+        <item m="1" x="955"/>
+        <item m="1" x="539"/>
+        <item m="1" x="829"/>
+        <item m="1" x="468"/>
+        <item m="1" x="253"/>
+        <item m="1" x="457"/>
+        <item m="1" x="1223"/>
+        <item m="1" x="1165"/>
+        <item m="1" x="310"/>
+        <item m="1" x="1111"/>
+        <item m="1" x="117"/>
+        <item m="1" x="1133"/>
+        <item m="1" x="152"/>
+        <item m="1" x="454"/>
+        <item m="1" x="552"/>
+        <item m="1" x="499"/>
+        <item m="1" x="1106"/>
+        <item m="1" x="1009"/>
+        <item m="1" x="250"/>
+        <item m="1" x="820"/>
+        <item m="1" x="1028"/>
+        <item m="1" x="1162"/>
+        <item m="1" x="1069"/>
+        <item m="1" x="155"/>
+        <item m="1" x="1235"/>
+        <item m="1" x="306"/>
+        <item m="1" x="587"/>
+        <item m="1" x="1031"/>
+        <item m="1" x="154"/>
+        <item m="1" x="1090"/>
+        <item m="1" x="319"/>
+        <item m="1" x="963"/>
+        <item m="1" x="827"/>
+        <item m="1" x="805"/>
+        <item m="1" x="384"/>
+        <item m="1" x="346"/>
+        <item m="1" x="1158"/>
+        <item m="1" x="99"/>
+        <item m="1" x="281"/>
+        <item m="1" x="940"/>
+        <item m="1" x="1051"/>
+        <item m="1" x="978"/>
+        <item m="1" x="1182"/>
+        <item m="1" x="686"/>
+        <item m="1" x="313"/>
+        <item m="1" x="433"/>
+        <item m="1" x="752"/>
+        <item m="1" x="494"/>
+        <item m="1" x="822"/>
+        <item m="1" x="435"/>
+        <item m="1" x="237"/>
+        <item m="1" x="890"/>
+        <item m="1" x="292"/>
+        <item m="1" x="172"/>
+        <item m="1" x="1024"/>
+        <item m="1" x="1171"/>
+        <item m="1" x="872"/>
+        <item m="1" x="137"/>
+        <item m="1" x="1063"/>
+        <item m="1" x="861"/>
+        <item m="1" x="971"/>
+        <item m="1" x="1110"/>
+        <item m="1" x="338"/>
+        <item m="1" x="530"/>
+        <item m="1" x="368"/>
+        <item m="1" x="636"/>
+        <item m="1" x="560"/>
+        <item m="1" x="590"/>
+        <item m="1" x="1126"/>
+        <item m="1" x="572"/>
+        <item m="1" x="775"/>
+        <item m="1" x="307"/>
+        <item m="1" x="506"/>
+        <item m="1" x="480"/>
+        <item m="1" x="823"/>
+        <item m="1" x="726"/>
+        <item m="1" x="954"/>
+        <item m="1" x="476"/>
+        <item m="1" x="1112"/>
+        <item m="1" x="314"/>
+        <item m="1" x="240"/>
+        <item m="1" x="496"/>
+        <item m="1" x="1037"/>
+        <item m="1" x="147"/>
+        <item m="1" x="148"/>
+        <item m="1" x="444"/>
+        <item m="1" x="1117"/>
+        <item m="1" x="511"/>
+        <item m="1" x="156"/>
+        <item m="1" x="316"/>
+        <item m="1" x="558"/>
+        <item m="1" x="869"/>
+        <item m="1" x="841"/>
+        <item m="1" x="512"/>
+        <item m="1" x="93"/>
+        <item m="1" x="231"/>
+        <item m="1" x="443"/>
+        <item m="1" x="331"/>
+        <item m="1" x="88"/>
+        <item m="1" x="1041"/>
+        <item m="1" x="1170"/>
+        <item m="1" x="640"/>
+        <item m="1" x="1070"/>
+        <item m="1" x="1130"/>
+        <item m="1" x="153"/>
+        <item m="1" x="1168"/>
+        <item m="1" x="906"/>
+        <item m="1" x="329"/>
+        <item m="1" x="515"/>
+        <item m="1" x="419"/>
+        <item m="1" x="781"/>
+        <item m="1" x="352"/>
+        <item m="1" x="568"/>
+        <item m="1" x="863"/>
+        <item m="1" x="988"/>
+        <item m="1" x="491"/>
+        <item m="1" x="619"/>
+        <item m="1" x="431"/>
+        <item m="1" x="357"/>
+        <item m="1" x="868"/>
+        <item m="1" x="983"/>
+        <item m="1" x="1145"/>
+        <item m="1" x="187"/>
+        <item m="1" x="391"/>
+        <item m="1" x="831"/>
+        <item m="1" x="232"/>
+        <item m="1" x="519"/>
+        <item m="1" x="900"/>
+        <item m="1" x="165"/>
+        <item m="1" x="375"/>
+        <item m="1" x="485"/>
+        <item m="1" x="1091"/>
+        <item m="1" x="324"/>
+        <item m="1" x="594"/>
+        <item m="1" x="1147"/>
+        <item m="1" x="275"/>
+        <item m="1" x="464"/>
+        <item m="1" x="652"/>
+        <item m="1" x="989"/>
+        <item m="1" x="287"/>
+        <item m="1" x="543"/>
+        <item m="1" x="385"/>
+        <item m="1" x="881"/>
+        <item m="1" x="1067"/>
+        <item m="1" x="193"/>
+        <item m="1" x="413"/>
+        <item m="1" x="1149"/>
+        <item m="1" x="1114"/>
+        <item m="1" x="214"/>
+        <item m="1" x="531"/>
+        <item m="1" x="1055"/>
+        <item m="1" x="1186"/>
+        <item m="1" x="1057"/>
+        <item m="1" x="1032"/>
+        <item m="1" x="163"/>
+        <item m="1" x="339"/>
+        <item m="1" x="421"/>
+        <item m="1" x="410"/>
+        <item m="1" x="637"/>
+        <item m="1" x="125"/>
+        <item m="1" x="824"/>
+        <item m="1" x="895"/>
+        <item m="1" x="77"/>
+        <item m="1" x="1155"/>
+        <item m="1" x="1017"/>
+        <item m="1" x="1146"/>
+        <item m="1" x="1176"/>
+        <item m="1" x="1212"/>
+        <item m="1" x="1150"/>
+        <item m="1" x="514"/>
+        <item m="1" x="874"/>
+        <item m="1" x="481"/>
+        <item m="1" x="887"/>
+        <item m="1" x="852"/>
+        <item m="1" x="290"/>
+        <item m="1" x="328"/>
+        <item m="1" x="466"/>
+        <item m="1" x="931"/>
+        <item m="1" x="451"/>
+        <item m="1" x="197"/>
+        <item m="1" x="1196"/>
+        <item m="1" x="946"/>
+        <item m="1" x="779"/>
+        <item m="1" x="811"/>
+        <item m="1" x="860"/>
+        <item m="1" x="285"/>
+        <item m="1" x="627"/>
+        <item m="1" x="972"/>
+        <item m="1" x="123"/>
+        <item m="1" x="366"/>
+        <item m="1" x="266"/>
+        <item m="1" x="263"/>
+        <item m="1" x="267"/>
+        <item m="1" x="68"/>
+        <item m="1" x="289"/>
+        <item m="1" x="1086"/>
+        <item m="1" x="90"/>
+        <item m="1" x="736"/>
+        <item m="1" x="1173"/>
         <item m="1" x="984"/>
-        <item m="1" x="1228"/>
-        <item m="1" x="602"/>
-        <item m="1" x="503"/>
-        <item m="1" x="207"/>
-        <item m="1" x="468"/>
-        <item m="1" x="1192"/>
-        <item m="1" x="260"/>
-        <item m="1" x="568"/>
-        <item m="1" x="936"/>
-        <item m="1" x="651"/>
-        <item m="1" x="744"/>
-        <item m="1" x="1040"/>
-        <item m="1" x="1225"/>
-        <item m="1" x="686"/>
-        <item m="1" x="708"/>
-        <item m="1" x="473"/>
-        <item m="1" x="874"/>
-        <item m="1" x="633"/>
-        <item m="1" x="1179"/>
-        <item m="1" x="836"/>
-        <item m="1" x="269"/>
-        <item m="1" x="377"/>
-        <item m="1" x="1164"/>
-        <item m="1" x="928"/>
-        <item m="1" x="182"/>
-        <item m="1" x="1014"/>
-        <item m="1" x="680"/>
-        <item m="1" x="975"/>
-        <item m="1" x="561"/>
-        <item m="1" x="913"/>
-        <item m="1" x="172"/>
-        <item m="1" x="202"/>
-        <item m="1" x="1241"/>
-        <item m="1" x="920"/>
-        <item m="1" x="988"/>
-        <item m="1" x="1095"/>
-        <item m="1" x="864"/>
-        <item m="1" x="962"/>
-        <item m="1" x="801"/>
-        <item m="1" x="256"/>
-        <item m="1" x="447"/>
-        <item m="1" x="1223"/>
-        <item m="1" x="791"/>
-        <item m="1" x="931"/>
-        <item m="1" x="459"/>
-        <item m="1" x="420"/>
-        <item m="1" x="712"/>
-        <item m="1" x="604"/>
-        <item m="1" x="637"/>
-        <item m="1" x="196"/>
-        <item m="1" x="335"/>
-        <item m="1" x="997"/>
-        <item m="1" x="1214"/>
-        <item m="1" x="400"/>
-        <item m="1" x="805"/>
-        <item m="1" x="815"/>
-        <item m="1" x="992"/>
-        <item m="1" x="1102"/>
-        <item m="1" x="980"/>
-        <item m="1" x="275"/>
-        <item m="1" x="1123"/>
-        <item m="1" x="853"/>
-        <item m="1" x="840"/>
-        <item m="1" x="375"/>
-        <item m="1" x="728"/>
-        <item m="1" x="1075"/>
-        <item m="1" x="193"/>
-        <item m="1" x="772"/>
-        <item m="1" x="1125"/>
-        <item m="1" x="963"/>
-        <item m="1" x="698"/>
-        <item m="1" x="740"/>
-        <item m="1" x="621"/>
-        <item m="1" x="856"/>
-        <item m="1" x="668"/>
-        <item m="1" x="900"/>
-        <item m="1" x="384"/>
-        <item m="1" x="1213"/>
-        <item m="1" x="738"/>
-        <item m="1" x="1024"/>
-        <item m="1" x="101"/>
-        <item m="1" x="1229"/>
-        <item m="1" x="765"/>
-        <item m="1" x="1054"/>
-        <item m="1" x="967"/>
-        <item m="1" x="745"/>
-        <item m="1" x="255"/>
-        <item m="1" x="262"/>
-        <item m="1" x="302"/>
-        <item m="1" x="484"/>
-        <item m="1" x="908"/>
-        <item m="1" x="669"/>
-        <item m="1" x="785"/>
-        <item m="1" x="848"/>
-        <item m="1" x="995"/>
-        <item m="1" x="1078"/>
-        <item m="1" x="640"/>
-        <item m="1" x="361"/>
-        <item m="1" x="204"/>
-        <item m="1" x="347"/>
-        <item m="1" x="1222"/>
-        <item m="1" x="379"/>
-        <item m="1" x="1060"/>
-        <item m="1" x="989"/>
-        <item m="1" x="607"/>
-        <item m="1" x="679"/>
-        <item m="1" x="545"/>
-        <item m="1" x="802"/>
-        <item m="1" x="1177"/>
-        <item m="1" x="353"/>
-        <item m="1" x="301"/>
-        <item m="1" x="236"/>
-        <item m="1" x="902"/>
-        <item m="1" x="1162"/>
-        <item m="1" x="1090"/>
-        <item m="1" x="747"/>
-        <item m="1" x="271"/>
-        <item m="1" x="996"/>
-        <item m="1" x="448"/>
-        <item m="1" x="702"/>
-        <item m="1" x="877"/>
-        <item m="1" x="985"/>
-        <item m="1" x="105"/>
-        <item m="1" x="934"/>
-        <item m="1" x="897"/>
-        <item m="1" x="338"/>
-        <item m="1" x="786"/>
-        <item m="1" x="674"/>
-        <item m="1" x="627"/>
-        <item m="1" x="360"/>
-        <item m="1" x="296"/>
-        <item m="1" x="536"/>
-        <item m="1" x="723"/>
-        <item m="1" x="130"/>
-        <item m="1" x="469"/>
-        <item m="1" x="328"/>
-        <item m="1" x="70"/>
-        <item m="1" x="580"/>
-        <item m="1" x="781"/>
-        <item m="1" x="663"/>
-        <item m="1" x="709"/>
-        <item m="1" x="1028"/>
-        <item m="1" x="610"/>
-        <item m="1" x="1136"/>
-        <item m="1" x="860"/>
-        <item m="1" x="799"/>
-        <item m="1" x="313"/>
-        <item m="1" x="946"/>
-        <item m="1" x="1224"/>
-        <item m="1" x="912"/>
-        <item m="1" x="896"/>
-        <item m="1" x="183"/>
-        <item m="1" x="231"/>
-        <item m="1" x="766"/>
-        <item m="1" x="272"/>
-        <item m="1" x="1209"/>
-        <item m="1" x="875"/>
-        <item m="1" x="800"/>
-        <item m="1" x="752"/>
-        <item m="1" x="553"/>
-        <item m="1" x="181"/>
-        <item m="1" x="281"/>
-        <item m="1" x="387"/>
-        <item m="1" x="1120"/>
-        <item m="1" x="1152"/>
-        <item m="1" x="851"/>
-        <item m="1" x="578"/>
-        <item m="1" x="666"/>
-        <item m="1" x="176"/>
-        <item m="1" x="216"/>
-        <item m="1" x="555"/>
-        <item m="1" x="780"/>
-        <item m="1" x="693"/>
-        <item m="1" x="351"/>
-        <item m="1" x="584"/>
-        <item m="1" x="298"/>
-        <item m="1" x="493"/>
-        <item m="1" x="415"/>
-        <item m="1" x="250"/>
-        <item m="1" x="386"/>
-        <item m="1" x="756"/>
-        <item m="1" x="166"/>
-        <item m="1" x="405"/>
-        <item m="1" x="197"/>
-        <item m="1" x="890"/>
-        <item m="1" x="1079"/>
-        <item m="1" x="689"/>
-        <item m="1" x="333"/>
-        <item m="1" x="983"/>
-        <item m="1" x="828"/>
-        <item m="1" x="345"/>
-        <item m="1" x="346"/>
-        <item m="1" x="531"/>
-        <item m="1" x="221"/>
-        <item m="1" x="410"/>
-        <item m="1" x="205"/>
-        <item m="1" x="391"/>
-        <item m="1" x="959"/>
-        <item m="1" x="470"/>
-        <item m="1" x="837"/>
-        <item m="1" x="887"/>
-        <item m="1" x="1021"/>
-        <item m="1" x="1025"/>
-        <item m="1" x="742"/>
-        <item m="1" x="583"/>
-        <item m="1" x="622"/>
-        <item m="1" x="1189"/>
-        <item m="1" x="482"/>
-        <item m="1" x="294"/>
+        <item m="1" x="244"/>
+        <item m="1" x="1244"/>
+        <item m="1" x="173"/>
+        <item m="1" x="540"/>
+        <item m="1" x="763"/>
+        <item m="1" x="219"/>
         <item m="1" x="672"/>
-        <item m="1" x="129"/>
-        <item m="1" x="1193"/>
-        <item m="1" x="656"/>
-        <item m="1" x="90"/>
-        <item m="1" x="1111"/>
-        <item m="1" x="1154"/>
-        <item m="1" x="991"/>
-        <item m="1" x="368"/>
-        <item m="1" x="107"/>
-        <item m="1" x="1041"/>
-        <item m="1" x="432"/>
-        <item m="1" x="68"/>
-        <item m="1" x="1212"/>
-        <item m="1" x="456"/>
-        <item m="1" x="611"/>
-        <item m="1" x="1056"/>
-        <item m="1" x="143"/>
-        <item m="1" x="968"/>
-        <item m="1" x="776"/>
-        <item m="1" x="641"/>
-        <item m="1" x="511"/>
-        <item m="1" x="258"/>
-        <item m="1" x="759"/>
-        <item m="1" x="461"/>
-        <item m="1" x="999"/>
-        <item m="1" x="321"/>
-        <item m="1" x="1069"/>
-        <item m="1" x="1076"/>
-        <item m="1" x="760"/>
-        <item m="1" x="950"/>
-        <item m="1" x="367"/>
-        <item m="1" x="664"/>
-        <item m="1" x="953"/>
-        <item m="1" x="537"/>
-        <item m="1" x="827"/>
-        <item m="1" x="466"/>
-        <item m="1" x="251"/>
-        <item m="1" x="455"/>
-        <item m="1" x="1221"/>
-        <item m="1" x="1163"/>
-        <item m="1" x="308"/>
-        <item m="1" x="1109"/>
-        <item m="1" x="115"/>
-        <item m="1" x="1131"/>
-        <item m="1" x="150"/>
-        <item m="1" x="452"/>
-        <item m="1" x="550"/>
-        <item m="1" x="497"/>
-        <item m="1" x="1104"/>
-        <item m="1" x="1007"/>
-        <item m="1" x="248"/>
-        <item m="1" x="818"/>
-        <item m="1" x="1026"/>
-        <item m="1" x="1160"/>
-        <item m="1" x="1067"/>
-        <item m="1" x="153"/>
-        <item m="1" x="1233"/>
-        <item m="1" x="304"/>
-        <item m="1" x="585"/>
-        <item m="1" x="1029"/>
-        <item m="1" x="152"/>
-        <item m="1" x="1088"/>
-        <item m="1" x="317"/>
-        <item m="1" x="961"/>
-        <item m="1" x="825"/>
-        <item m="1" x="803"/>
-        <item m="1" x="382"/>
-        <item m="1" x="344"/>
-        <item m="1" x="1156"/>
-        <item m="1" x="97"/>
-        <item m="1" x="279"/>
-        <item m="1" x="938"/>
-        <item m="1" x="1049"/>
-        <item m="1" x="976"/>
-        <item m="1" x="1180"/>
-        <item m="1" x="684"/>
-        <item m="1" x="311"/>
-        <item m="1" x="431"/>
-        <item m="1" x="750"/>
-        <item m="1" x="492"/>
-        <item m="1" x="820"/>
-        <item m="1" x="433"/>
-        <item m="1" x="235"/>
-        <item m="1" x="888"/>
-        <item m="1" x="290"/>
-        <item m="1" x="170"/>
-        <item m="1" x="1022"/>
-        <item m="1" x="1169"/>
-        <item m="1" x="870"/>
-        <item m="1" x="135"/>
-        <item m="1" x="1061"/>
-        <item m="1" x="859"/>
-        <item m="1" x="969"/>
-        <item m="1" x="1108"/>
-        <item m="1" x="336"/>
-        <item m="1" x="528"/>
-        <item m="1" x="366"/>
-        <item m="1" x="634"/>
-        <item m="1" x="558"/>
-        <item m="1" x="588"/>
-        <item m="1" x="1124"/>
-        <item m="1" x="570"/>
-        <item m="1" x="773"/>
-        <item m="1" x="305"/>
-        <item m="1" x="504"/>
-        <item m="1" x="478"/>
-        <item m="1" x="821"/>
-        <item m="1" x="724"/>
-        <item m="1" x="952"/>
-        <item m="1" x="474"/>
-        <item m="1" x="1110"/>
-        <item m="1" x="312"/>
-        <item m="1" x="238"/>
-        <item m="1" x="494"/>
-        <item m="1" x="1035"/>
-        <item m="1" x="145"/>
-        <item m="1" x="146"/>
-        <item m="1" x="442"/>
-        <item m="1" x="1115"/>
-        <item m="1" x="509"/>
-        <item m="1" x="154"/>
-        <item m="1" x="314"/>
-        <item m="1" x="556"/>
-        <item m="1" x="867"/>
-        <item m="1" x="839"/>
-        <item m="1" x="510"/>
-        <item m="1" x="91"/>
-        <item m="1" x="229"/>
-        <item m="1" x="441"/>
-        <item m="1" x="329"/>
-        <item m="1" x="86"/>
-        <item m="1" x="1039"/>
-        <item m="1" x="1168"/>
-        <item m="1" x="638"/>
-        <item m="1" x="1068"/>
-        <item m="1" x="1128"/>
-        <item m="1" x="151"/>
-        <item m="1" x="1166"/>
-        <item m="1" x="904"/>
-        <item m="1" x="327"/>
-        <item m="1" x="513"/>
-        <item m="1" x="417"/>
-        <item m="1" x="779"/>
-        <item m="1" x="350"/>
-        <item m="1" x="566"/>
-        <item m="1" x="861"/>
-        <item m="1" x="986"/>
-        <item m="1" x="489"/>
-        <item m="1" x="617"/>
-        <item m="1" x="429"/>
-        <item m="1" x="355"/>
-        <item m="1" x="866"/>
-        <item m="1" x="981"/>
-        <item m="1" x="1143"/>
-        <item m="1" x="185"/>
-        <item m="1" x="389"/>
-        <item m="1" x="829"/>
-        <item m="1" x="230"/>
-        <item m="1" x="517"/>
-        <item m="1" x="898"/>
-        <item m="1" x="163"/>
-        <item m="1" x="373"/>
-        <item m="1" x="483"/>
-        <item m="1" x="1089"/>
-        <item m="1" x="322"/>
-        <item m="1" x="592"/>
-        <item m="1" x="1145"/>
-        <item m="1" x="273"/>
-        <item m="1" x="462"/>
-        <item m="1" x="650"/>
-        <item m="1" x="987"/>
-        <item m="1" x="285"/>
-        <item m="1" x="541"/>
-        <item m="1" x="383"/>
-        <item m="1" x="879"/>
-        <item m="1" x="1065"/>
-        <item m="1" x="191"/>
-        <item m="1" x="411"/>
-        <item m="1" x="1147"/>
-        <item m="1" x="1112"/>
-        <item m="1" x="212"/>
-        <item m="1" x="529"/>
-        <item m="1" x="1053"/>
-        <item m="1" x="1184"/>
-        <item m="1" x="1055"/>
-        <item m="1" x="1030"/>
-        <item m="1" x="161"/>
-        <item m="1" x="337"/>
-        <item m="1" x="419"/>
-        <item m="1" x="408"/>
-        <item m="1" x="635"/>
-        <item m="1" x="123"/>
-        <item m="1" x="822"/>
-        <item m="1" x="893"/>
-        <item m="1" x="75"/>
-        <item m="1" x="1153"/>
-        <item m="1" x="1015"/>
-        <item m="1" x="1144"/>
-        <item m="1" x="1174"/>
-        <item m="1" x="1210"/>
-        <item m="1" x="1148"/>
-        <item m="1" x="512"/>
-        <item m="1" x="872"/>
-        <item m="1" x="479"/>
-        <item m="1" x="885"/>
-        <item m="1" x="850"/>
-        <item m="1" x="288"/>
-        <item m="1" x="326"/>
-        <item m="1" x="464"/>
-        <item m="1" x="929"/>
-        <item m="1" x="449"/>
-        <item m="1" x="195"/>
-        <item m="1" x="1194"/>
-        <item m="1" x="944"/>
-        <item m="1" x="777"/>
-        <item m="1" x="809"/>
-        <item m="1" x="858"/>
-        <item m="1" x="283"/>
-        <item m="1" x="625"/>
-        <item m="1" x="970"/>
-        <item m="1" x="121"/>
-        <item m="1" x="364"/>
-        <item m="1" x="264"/>
-        <item m="1" x="261"/>
-        <item m="1" x="265"/>
-        <item m="1" x="66"/>
-        <item m="1" x="287"/>
-        <item m="1" x="1084"/>
-        <item m="1" x="88"/>
-        <item m="1" x="734"/>
-        <item m="1" x="1171"/>
-        <item m="1" x="982"/>
-        <item m="1" x="242"/>
-        <item m="1" x="1242"/>
-        <item m="1" x="171"/>
-        <item m="1" x="538"/>
-        <item m="1" x="761"/>
-        <item m="1" x="217"/>
-        <item m="1" x="670"/>
-        <item m="1" x="830"/>
-        <item m="1" x="1098"/>
-        <item m="1" x="1000"/>
-        <item m="1" x="79"/>
-        <item m="1" x="762"/>
-        <item m="1" x="162"/>
-        <item m="1" x="398"/>
-        <item m="1" x="370"/>
-        <item m="1" x="132"/>
-        <item m="1" x="725"/>
-        <item m="1" x="732"/>
         <item m="1" x="832"/>
-        <item m="1" x="581"/>
-        <item m="1" x="1081"/>
-        <item m="1" x="490"/>
-        <item m="1" x="1200"/>
-        <item m="1" x="835"/>
-        <item m="1" x="726"/>
-        <item m="1" x="390"/>
-        <item m="1" x="798"/>
-        <item m="1" x="1096"/>
-        <item m="1" x="1161"/>
-        <item m="1" x="1140"/>
-        <item m="1" x="1070"/>
-        <item m="1" x="819"/>
-        <item m="1" x="932"/>
-        <item m="1" x="445"/>
-        <item m="1" x="894"/>
-        <item m="1" x="719"/>
-        <item m="1" x="678"/>
-        <item m="1" x="676"/>
-        <item m="1" x="677"/>
-        <item m="1" x="374"/>
-        <item m="1" x="418"/>
-        <item m="1" x="1031"/>
-        <item m="1" x="596"/>
-        <item m="1" x="438"/>
-        <item m="1" x="480"/>
-        <item m="1" x="526"/>
-        <item m="1" x="778"/>
-        <item m="1" x="1116"/>
-        <item m="1" x="1205"/>
-        <item m="1" x="323"/>
-        <item m="1" x="274"/>
-        <item m="1" x="111"/>
-        <item m="1" x="133"/>
-        <item m="1" x="430"/>
-        <item m="1" x="218"/>
-        <item m="1" x="546"/>
-        <item m="1" x="1082"/>
-        <item m="1" x="423"/>
-        <item m="1" x="215"/>
-        <item m="1" x="974"/>
-        <item m="1" x="92"/>
         <item m="1" x="1100"/>
-        <item m="1" x="1175"/>
-        <item m="1" x="1239"/>
-        <item m="1" x="1114"/>
-        <item m="1" x="357"/>
-        <item m="1" x="134"/>
-        <item m="1" x="598"/>
-        <item m="1" x="682"/>
-        <item m="1" x="878"/>
-        <item m="1" x="846"/>
-        <item m="1" x="882"/>
-        <item m="1" x="659"/>
-        <item m="1" x="697"/>
-        <item m="1" x="1138"/>
-        <item m="1" x="901"/>
-        <item m="1" x="871"/>
-        <item m="1" x="810"/>
-        <item m="1" x="883"/>
-        <item m="1" x="84"/>
-        <item m="1" x="89"/>
-        <item m="1" x="692"/>
-        <item m="1" x="1077"/>
-        <item m="1" x="647"/>
-        <item m="1" x="1217"/>
-        <item m="1" x="616"/>
-        <item m="1" x="792"/>
-        <item m="1" x="863"/>
-        <item m="1" x="477"/>
-        <item m="1" x="309"/>
-        <item m="1" x="685"/>
-        <item m="1" x="371"/>
-        <item m="1" x="1226"/>
-        <item m="1" x="1141"/>
-        <item m="1" x="954"/>
-        <item m="1" x="211"/>
-        <item m="1" x="138"/>
-        <item m="1" x="711"/>
-        <item m="1" x="955"/>
-        <item m="1" x="1244"/>
-        <item m="1" x="590"/>
-        <item m="1" x="1191"/>
-        <item m="1" x="125"/>
-        <item m="1" x="239"/>
-        <item m="1" x="551"/>
-        <item m="1" x="642"/>
-        <item m="1" x="1071"/>
-        <item m="1" x="395"/>
-        <item m="1" x="1074"/>
-        <item m="1" x="491"/>
-        <item m="1" x="1063"/>
-        <item m="1" x="1227"/>
-        <item m="1" x="155"/>
-        <item m="1" x="1211"/>
-        <item m="1" x="102"/>
-        <item m="1" x="964"/>
-        <item m="1" x="582"/>
-        <item m="1" x="413"/>
-        <item m="1" x="376"/>
-        <item m="1" x="520"/>
-        <item m="1" x="119"/>
-        <item m="1" x="1204"/>
-        <item m="1" x="203"/>
-        <item m="1" x="224"/>
-        <item m="1" x="1097"/>
-        <item m="1" x="1176"/>
-        <item m="1" x="690"/>
-        <item m="1" x="831"/>
-        <item m="1" x="532"/>
-        <item m="1" x="645"/>
-        <item m="1" x="794"/>
-        <item m="1" x="911"/>
-        <item m="1" x="498"/>
-        <item m="1" x="774"/>
-        <item m="1" x="593"/>
-        <item m="1" x="1230"/>
-        <item m="1" x="83"/>
-        <item m="1" x="522"/>
-        <item m="1" x="463"/>
-        <item m="1" x="424"/>
-        <item m="1" x="1218"/>
-        <item m="1" x="1036"/>
-        <item m="1" x="1167"/>
-        <item m="1" x="180"/>
-        <item m="1" x="1178"/>
-        <item m="1" x="1165"/>
-        <item m="1" x="1042"/>
-        <item m="1" x="277"/>
-        <item m="1" x="646"/>
-        <item m="1" x="739"/>
-        <item m="1" x="485"/>
-        <item m="1" x="1083"/>
-        <item m="1" x="869"/>
-        <item m="1" x="889"/>
-        <item m="1" x="783"/>
-        <item m="1" x="126"/>
-        <item m="1" x="956"/>
-        <item m="1" x="1118"/>
-        <item m="1" x="523"/>
-        <item m="1" x="1237"/>
-        <item m="1" x="731"/>
-        <item m="1" x="318"/>
-        <item m="1" x="451"/>
-        <item m="1" x="487"/>
-        <item m="1" x="1146"/>
-        <item m="1" x="1130"/>
-        <item m="1" x="190"/>
-        <item m="1" x="192"/>
-        <item m="1" x="106"/>
-        <item m="1" x="1066"/>
-        <item m="1" x="108"/>
-        <item m="1" x="525"/>
-        <item m="1" x="425"/>
-        <item m="1" x="881"/>
-        <item m="1" x="824"/>
-        <item m="1" x="1173"/>
-        <item m="1" x="1105"/>
-        <item m="1" x="597"/>
-        <item m="1" x="811"/>
-        <item m="1" x="1046"/>
-        <item m="1" x="159"/>
-        <item m="1" x="591"/>
-        <item m="1" x="521"/>
-        <item m="1" x="1215"/>
-        <item m="1" x="1182"/>
-        <item m="1" x="613"/>
-        <item m="1" x="219"/>
-        <item m="1" x="514"/>
-        <item m="1" x="687"/>
-        <item m="1" x="141"/>
-        <item m="1" x="977"/>
-        <item m="1" x="571"/>
-        <item m="1" x="381"/>
-        <item m="1" x="475"/>
-        <item m="1" x="921"/>
-        <item m="1" x="1220"/>
-        <item m="1" x="299"/>
-        <item m="1" x="1072"/>
-        <item m="1" x="293"/>
-        <item m="1" x="857"/>
-        <item m="1" x="629"/>
-        <item m="1" x="560"/>
-        <item m="1" x="282"/>
-        <item m="1" x="349"/>
-        <item m="1" x="137"/>
-        <item m="1" x="937"/>
-        <item m="1" x="450"/>
-        <item m="1" x="174"/>
-        <item m="1" x="788"/>
-        <item m="1" x="1103"/>
-        <item m="1" x="643"/>
-        <item m="1" x="601"/>
-        <item m="1" x="72"/>
-        <item m="1" x="1208"/>
-        <item m="1" x="458"/>
-        <item m="1" x="518"/>
-        <item m="1" x="925"/>
-        <item m="1" x="1202"/>
-        <item m="1" x="1127"/>
-        <item m="1" x="978"/>
-        <item m="1" x="1093"/>
-        <item m="1" x="254"/>
-        <item m="1" x="453"/>
-        <item m="1" x="286"/>
-        <item m="1" x="78"/>
-        <item m="1" x="691"/>
-        <item m="1" x="140"/>
-        <item m="1" x="362"/>
-        <item m="1" x="306"/>
-        <item m="1" x="252"/>
-        <item m="1" x="1207"/>
-        <item m="1" x="303"/>
-        <item m="1" x="905"/>
-        <item m="1" x="1117"/>
-        <item m="1" x="243"/>
-        <item m="1" x="147"/>
-        <item m="1" x="940"/>
-        <item m="1" x="916"/>
-        <item m="1" x="957"/>
-        <item m="1" x="876"/>
-        <item m="1" x="220"/>
-        <item m="1" x="576"/>
-        <item m="1" x="844"/>
-        <item m="1" x="1094"/>
-        <item m="1" x="688"/>
-        <item m="1" x="806"/>
-        <item m="1" x="1150"/>
-        <item m="1" x="562"/>
-        <item m="1" x="406"/>
-        <item m="1" x="639"/>
-        <item m="1" x="586"/>
-        <item m="1" x="516"/>
-        <item m="1" x="1033"/>
-        <item m="1" x="720"/>
-        <item m="1" x="816"/>
-        <item m="1" x="67"/>
-        <item m="1" x="612"/>
-        <item m="1" x="214"/>
-        <item m="1" x="481"/>
-        <item m="1" x="619"/>
-        <item m="1" x="149"/>
-        <item m="1" x="266"/>
-        <item m="1" x="721"/>
-        <item m="1" x="918"/>
-        <item m="1" x="1188"/>
-        <item m="1" x="1231"/>
-        <item m="1" x="841"/>
-        <item m="1" x="189"/>
-        <item m="1" x="117"/>
-        <item m="1" x="703"/>
-        <item m="1" x="325"/>
-        <item m="1" x="599"/>
-        <item m="1" x="227"/>
-        <item m="1" x="330"/>
-        <item m="1" x="757"/>
-        <item m="1" x="1113"/>
-        <item m="1" x="1044"/>
-        <item m="1" x="460"/>
-        <item m="1" x="495"/>
-        <item m="1" x="771"/>
-        <item m="1" x="1201"/>
-        <item m="1" x="927"/>
-        <item m="1" x="93"/>
-        <item m="1" x="1155"/>
-        <item m="1" x="201"/>
-        <item m="1" x="847"/>
-        <item m="1" x="892"/>
-        <item m="1" x="895"/>
-        <item m="1" x="1235"/>
-        <item m="1" x="128"/>
-        <item m="1" x="906"/>
-        <item m="1" x="1003"/>
-        <item m="1" x="775"/>
-        <item m="1" x="945"/>
-        <item m="1" x="187"/>
-        <item m="1" x="579"/>
-        <item m="1" x="426"/>
-        <item m="1" x="1038"/>
-        <item m="1" x="1133"/>
-        <item m="1" x="662"/>
-        <item m="1" x="1101"/>
-        <item m="1" x="1149"/>
-        <item m="1" x="502"/>
-        <item m="1" x="1005"/>
-        <item m="1" x="868"/>
-        <item m="1" x="1151"/>
-        <item m="1" x="1195"/>
-        <item m="1" x="933"/>
-        <item m="1" x="543"/>
-        <item m="1" x="348"/>
-        <item m="1" x="1183"/>
-        <item m="1" x="730"/>
-        <item m="1" x="704"/>
-        <item m="1" x="713"/>
-        <item m="1" x="1234"/>
-        <item m="1" x="958"/>
-        <item m="1" x="653"/>
-        <item m="1" x="922"/>
-        <item m="1" x="899"/>
-        <item m="1" x="515"/>
-        <item m="1" x="416"/>
-        <item m="1" x="915"/>
-        <item m="1" x="310"/>
-        <item m="1" x="267"/>
-        <item m="1" x="209"/>
-        <item m="1" x="1196"/>
-        <item m="1" x="812"/>
-        <item m="1" x="547"/>
-        <item m="1" x="628"/>
-        <item m="1" x="109"/>
-        <item m="1" x="1185"/>
-        <item m="1" x="736"/>
-        <item m="1" x="884"/>
-        <item m="1" x="332"/>
-        <item m="1" x="1016"/>
-        <item m="1" x="519"/>
-        <item m="1" x="412"/>
-        <item m="1" x="1240"/>
-        <item m="1" x="542"/>
-        <item m="1" x="1181"/>
-        <item m="1" x="767"/>
-        <item m="1" x="443"/>
-        <item m="1" x="234"/>
-        <item m="1" x="177"/>
-        <item m="1" x="471"/>
-        <item m="1" x="168"/>
-        <item m="1" x="139"/>
-        <item m="1" x="156"/>
-        <item m="1" x="435"/>
-        <item m="1" x="280"/>
-        <item m="1" x="587"/>
-        <item m="1" x="644"/>
-        <item m="1" x="743"/>
-        <item m="1" x="614"/>
-        <item m="1" x="947"/>
-        <item m="1" x="1011"/>
-        <item m="1" x="223"/>
-        <item m="1" x="233"/>
-        <item m="1" x="422"/>
-        <item m="1" x="564"/>
-        <item m="1" x="354"/>
-        <item m="1" x="907"/>
-        <item m="1" x="657"/>
-        <item m="1" x="574"/>
-        <item m="1" x="707"/>
-        <item m="1" x="1013"/>
-        <item m="1" x="951"/>
-        <item m="1" x="1037"/>
-        <item m="1" x="793"/>
-        <item m="1" x="213"/>
-        <item m="1" x="1219"/>
-        <item m="1" x="632"/>
-        <item m="1" x="247"/>
-        <item m="1" x="71"/>
-        <item m="1" x="1216"/>
-        <item m="1" x="700"/>
-        <item m="1" x="667"/>
-        <item m="1" x="439"/>
-        <item m="1" x="319"/>
-        <item m="1" x="403"/>
-        <item m="1" x="557"/>
-        <item m="1" x="1132"/>
-        <item m="1" x="1051"/>
-        <item m="1" x="427"/>
-        <item m="1" x="500"/>
-        <item m="1" x="507"/>
-        <item m="1" x="1045"/>
-        <item m="1" x="648"/>
-        <item m="1" x="120"/>
-        <item m="1" x="681"/>
-        <item m="1" x="960"/>
-        <item m="1" x="1086"/>
-        <item m="1" x="979"/>
-        <item m="1" x="787"/>
-        <item m="1" x="1085"/>
-        <item m="1" x="99"/>
         <item m="1" x="1002"/>
         <item m="1" x="81"/>
-        <item m="1" x="421"/>
+        <item m="1" x="764"/>
+        <item m="1" x="164"/>
+        <item m="1" x="400"/>
+        <item m="1" x="372"/>
+        <item m="1" x="134"/>
+        <item m="1" x="727"/>
+        <item m="1" x="734"/>
+        <item m="1" x="834"/>
+        <item m="1" x="583"/>
+        <item m="1" x="1083"/>
+        <item m="1" x="492"/>
+        <item m="1" x="1202"/>
+        <item m="1" x="837"/>
+        <item m="1" x="728"/>
+        <item m="1" x="392"/>
+        <item m="1" x="800"/>
+        <item m="1" x="1098"/>
+        <item m="1" x="1163"/>
+        <item m="1" x="1142"/>
+        <item m="1" x="1072"/>
+        <item m="1" x="821"/>
+        <item m="1" x="934"/>
+        <item m="1" x="447"/>
+        <item m="1" x="896"/>
+        <item m="1" x="721"/>
+        <item m="1" x="680"/>
+        <item m="1" x="678"/>
+        <item m="1" x="679"/>
+        <item m="1" x="376"/>
+        <item m="1" x="420"/>
+        <item m="1" x="1033"/>
+        <item m="1" x="598"/>
+        <item m="1" x="440"/>
+        <item m="1" x="482"/>
+        <item m="1" x="528"/>
+        <item m="1" x="780"/>
+        <item m="1" x="1118"/>
+        <item m="1" x="1207"/>
+        <item m="1" x="325"/>
+        <item m="1" x="276"/>
+        <item m="1" x="113"/>
+        <item m="1" x="135"/>
+        <item m="1" x="432"/>
+        <item m="1" x="220"/>
+        <item m="1" x="548"/>
+        <item m="1" x="1084"/>
+        <item m="1" x="425"/>
+        <item m="1" x="217"/>
+        <item m="1" x="976"/>
+        <item m="1" x="94"/>
+        <item m="1" x="1102"/>
+        <item m="1" x="1177"/>
+        <item m="1" x="1241"/>
+        <item m="1" x="1116"/>
+        <item m="1" x="359"/>
+        <item m="1" x="136"/>
+        <item m="1" x="600"/>
+        <item m="1" x="684"/>
+        <item m="1" x="880"/>
+        <item m="1" x="848"/>
+        <item m="1" x="884"/>
+        <item m="1" x="661"/>
+        <item m="1" x="699"/>
+        <item m="1" x="1140"/>
+        <item m="1" x="903"/>
+        <item m="1" x="873"/>
+        <item m="1" x="812"/>
+        <item m="1" x="885"/>
+        <item m="1" x="86"/>
+        <item m="1" x="91"/>
+        <item m="1" x="694"/>
+        <item m="1" x="1079"/>
+        <item m="1" x="649"/>
+        <item m="1" x="1219"/>
+        <item m="1" x="618"/>
+        <item m="1" x="794"/>
+        <item m="1" x="865"/>
+        <item m="1" x="479"/>
+        <item m="1" x="311"/>
+        <item m="1" x="687"/>
+        <item m="1" x="373"/>
+        <item m="1" x="1228"/>
+        <item m="1" x="1143"/>
+        <item m="1" x="956"/>
+        <item m="1" x="213"/>
+        <item m="1" x="140"/>
+        <item m="1" x="713"/>
+        <item m="1" x="957"/>
+        <item m="1" x="1246"/>
+        <item m="1" x="592"/>
+        <item m="1" x="1193"/>
+        <item m="1" x="127"/>
+        <item m="1" x="241"/>
+        <item m="1" x="553"/>
+        <item m="1" x="644"/>
+        <item m="1" x="1073"/>
+        <item m="1" x="397"/>
+        <item m="1" x="1076"/>
+        <item m="1" x="493"/>
+        <item m="1" x="1065"/>
+        <item m="1" x="1229"/>
+        <item m="1" x="157"/>
+        <item m="1" x="1213"/>
+        <item m="1" x="104"/>
+        <item m="1" x="966"/>
+        <item m="1" x="584"/>
+        <item m="1" x="415"/>
+        <item m="1" x="378"/>
+        <item m="1" x="522"/>
+        <item m="1" x="121"/>
+        <item m="1" x="1206"/>
+        <item m="1" x="205"/>
+        <item m="1" x="226"/>
+        <item m="1" x="1099"/>
+        <item m="1" x="1178"/>
+        <item m="1" x="692"/>
+        <item m="1" x="833"/>
+        <item m="1" x="534"/>
+        <item m="1" x="647"/>
+        <item m="1" x="796"/>
+        <item m="1" x="913"/>
+        <item m="1" x="500"/>
+        <item m="1" x="776"/>
+        <item m="1" x="595"/>
+        <item m="1" x="1232"/>
         <item m="1" x="85"/>
-        <item m="1" x="244"/>
+        <item m="1" x="524"/>
+        <item m="1" x="465"/>
+        <item m="1" x="426"/>
+        <item m="1" x="1220"/>
+        <item m="1" x="1038"/>
+        <item m="1" x="1169"/>
+        <item m="1" x="182"/>
+        <item m="1" x="1180"/>
+        <item m="1" x="1167"/>
+        <item m="1" x="1044"/>
+        <item m="1" x="279"/>
+        <item m="1" x="648"/>
+        <item m="1" x="741"/>
+        <item m="1" x="487"/>
+        <item m="1" x="1085"/>
+        <item m="1" x="871"/>
+        <item m="1" x="891"/>
+        <item m="1" x="785"/>
+        <item m="1" x="128"/>
+        <item m="1" x="958"/>
+        <item m="1" x="1120"/>
+        <item m="1" x="525"/>
+        <item m="1" x="1239"/>
+        <item m="1" x="733"/>
+        <item m="1" x="320"/>
+        <item m="1" x="453"/>
+        <item m="1" x="489"/>
+        <item m="1" x="1148"/>
+        <item m="1" x="1132"/>
+        <item m="1" x="192"/>
+        <item m="1" x="194"/>
+        <item m="1" x="108"/>
+        <item m="1" x="1068"/>
+        <item m="1" x="110"/>
+        <item m="1" x="527"/>
+        <item m="1" x="427"/>
+        <item m="1" x="883"/>
+        <item m="1" x="826"/>
+        <item m="1" x="1175"/>
+        <item m="1" x="1107"/>
+        <item m="1" x="599"/>
+        <item m="1" x="813"/>
+        <item m="1" x="1048"/>
+        <item m="1" x="161"/>
+        <item m="1" x="593"/>
+        <item m="1" x="523"/>
+        <item m="1" x="1217"/>
+        <item m="1" x="1184"/>
+        <item m="1" x="615"/>
+        <item m="1" x="221"/>
+        <item m="1" x="516"/>
+        <item m="1" x="689"/>
+        <item m="1" x="143"/>
+        <item m="1" x="979"/>
+        <item m="1" x="573"/>
+        <item m="1" x="383"/>
+        <item m="1" x="477"/>
+        <item m="1" x="923"/>
+        <item m="1" x="1222"/>
+        <item m="1" x="301"/>
+        <item m="1" x="1074"/>
+        <item m="1" x="295"/>
+        <item m="1" x="859"/>
+        <item m="1" x="631"/>
+        <item m="1" x="562"/>
+        <item m="1" x="284"/>
+        <item m="1" x="351"/>
+        <item m="1" x="139"/>
+        <item m="1" x="939"/>
+        <item m="1" x="452"/>
+        <item m="1" x="176"/>
+        <item m="1" x="790"/>
+        <item m="1" x="1105"/>
+        <item m="1" x="645"/>
+        <item m="1" x="603"/>
+        <item m="1" x="74"/>
+        <item m="1" x="1210"/>
+        <item m="1" x="460"/>
+        <item m="1" x="520"/>
+        <item m="1" x="927"/>
+        <item m="1" x="1204"/>
+        <item m="1" x="1129"/>
+        <item m="1" x="980"/>
+        <item m="1" x="1095"/>
+        <item m="1" x="256"/>
+        <item m="1" x="455"/>
+        <item m="1" x="288"/>
+        <item m="1" x="80"/>
+        <item m="1" x="693"/>
+        <item m="1" x="142"/>
+        <item m="1" x="364"/>
+        <item m="1" x="308"/>
+        <item m="1" x="254"/>
+        <item m="1" x="1209"/>
+        <item m="1" x="305"/>
+        <item m="1" x="907"/>
+        <item m="1" x="1119"/>
+        <item m="1" x="245"/>
+        <item m="1" x="149"/>
+        <item m="1" x="942"/>
+        <item m="1" x="918"/>
+        <item m="1" x="959"/>
+        <item m="1" x="878"/>
+        <item m="1" x="222"/>
+        <item m="1" x="578"/>
+        <item m="1" x="846"/>
+        <item m="1" x="1096"/>
+        <item m="1" x="690"/>
+        <item m="1" x="808"/>
+        <item m="1" x="1152"/>
+        <item m="1" x="564"/>
+        <item m="1" x="408"/>
+        <item m="1" x="641"/>
+        <item m="1" x="588"/>
+        <item m="1" x="518"/>
+        <item m="1" x="1035"/>
+        <item m="1" x="722"/>
+        <item m="1" x="818"/>
+        <item m="1" x="69"/>
+        <item m="1" x="614"/>
+        <item m="1" x="216"/>
+        <item m="1" x="483"/>
+        <item m="1" x="621"/>
+        <item m="1" x="151"/>
+        <item m="1" x="268"/>
+        <item m="1" x="723"/>
+        <item m="1" x="920"/>
+        <item m="1" x="1190"/>
+        <item m="1" x="1233"/>
+        <item m="1" x="843"/>
+        <item m="1" x="191"/>
+        <item m="1" x="119"/>
+        <item m="1" x="705"/>
+        <item m="1" x="327"/>
+        <item m="1" x="601"/>
+        <item m="1" x="229"/>
+        <item m="1" x="332"/>
+        <item m="1" x="759"/>
+        <item m="1" x="1115"/>
+        <item m="1" x="1046"/>
+        <item m="1" x="462"/>
+        <item m="1" x="497"/>
+        <item m="1" x="773"/>
+        <item m="1" x="1203"/>
+        <item m="1" x="929"/>
+        <item m="1" x="95"/>
+        <item m="1" x="1157"/>
+        <item m="1" x="203"/>
+        <item m="1" x="849"/>
+        <item m="1" x="894"/>
+        <item m="1" x="897"/>
+        <item m="1" x="1237"/>
+        <item m="1" x="130"/>
+        <item m="1" x="908"/>
+        <item m="1" x="1005"/>
+        <item m="1" x="777"/>
+        <item m="1" x="947"/>
+        <item m="1" x="189"/>
+        <item m="1" x="581"/>
+        <item m="1" x="428"/>
+        <item m="1" x="1040"/>
+        <item m="1" x="1135"/>
+        <item m="1" x="664"/>
+        <item m="1" x="1103"/>
+        <item m="1" x="1151"/>
+        <item m="1" x="504"/>
+        <item m="1" x="1007"/>
+        <item m="1" x="870"/>
+        <item m="1" x="1153"/>
+        <item m="1" x="1197"/>
+        <item m="1" x="935"/>
+        <item m="1" x="545"/>
+        <item m="1" x="350"/>
+        <item m="1" x="1185"/>
+        <item m="1" x="732"/>
+        <item m="1" x="706"/>
+        <item m="1" x="715"/>
+        <item m="1" x="1236"/>
+        <item m="1" x="960"/>
+        <item m="1" x="655"/>
+        <item m="1" x="924"/>
+        <item m="1" x="901"/>
+        <item m="1" x="517"/>
+        <item m="1" x="418"/>
+        <item m="1" x="917"/>
+        <item m="1" x="312"/>
+        <item m="1" x="269"/>
+        <item m="1" x="211"/>
+        <item m="1" x="1198"/>
+        <item m="1" x="814"/>
+        <item m="1" x="549"/>
+        <item m="1" x="630"/>
+        <item m="1" x="111"/>
+        <item m="1" x="1187"/>
+        <item m="1" x="738"/>
+        <item m="1" x="886"/>
         <item m="1" x="334"/>
-        <item m="1" x="340"/>
-        <item m="1" x="758"/>
+        <item m="1" x="1018"/>
+        <item m="1" x="521"/>
+        <item m="1" x="414"/>
+        <item m="1" x="1242"/>
+        <item m="1" x="544"/>
+        <item m="1" x="1183"/>
+        <item m="1" x="769"/>
+        <item m="1" x="445"/>
+        <item m="1" x="236"/>
+        <item m="1" x="179"/>
+        <item m="1" x="473"/>
+        <item m="1" x="170"/>
+        <item m="1" x="141"/>
+        <item m="1" x="158"/>
+        <item m="1" x="437"/>
+        <item m="1" x="282"/>
+        <item m="1" x="589"/>
+        <item m="1" x="646"/>
+        <item m="1" x="745"/>
+        <item m="1" x="616"/>
+        <item m="1" x="949"/>
+        <item m="1" x="1013"/>
+        <item m="1" x="225"/>
+        <item m="1" x="235"/>
+        <item m="1" x="424"/>
+        <item m="1" x="566"/>
+        <item m="1" x="356"/>
+        <item m="1" x="909"/>
+        <item m="1" x="659"/>
+        <item m="1" x="576"/>
+        <item m="1" x="709"/>
+        <item m="1" x="1015"/>
+        <item m="1" x="953"/>
+        <item m="1" x="1039"/>
+        <item m="1" x="795"/>
+        <item m="1" x="215"/>
+        <item m="1" x="1221"/>
+        <item m="1" x="634"/>
+        <item m="1" x="249"/>
+        <item m="1" x="73"/>
+        <item m="1" x="1218"/>
+        <item m="1" x="702"/>
+        <item m="1" x="669"/>
+        <item m="1" x="441"/>
+        <item m="1" x="321"/>
+        <item m="1" x="405"/>
+        <item m="1" x="559"/>
+        <item m="1" x="1134"/>
+        <item m="1" x="1053"/>
+        <item m="1" x="429"/>
+        <item m="1" x="502"/>
+        <item m="1" x="509"/>
+        <item m="1" x="1047"/>
+        <item m="1" x="650"/>
+        <item m="1" x="122"/>
+        <item m="1" x="683"/>
+        <item m="1" x="962"/>
+        <item m="1" x="1088"/>
+        <item m="1" x="981"/>
+        <item m="1" x="789"/>
+        <item m="1" x="1087"/>
+        <item m="1" x="101"/>
+        <item m="1" x="1004"/>
+        <item m="1" x="83"/>
+        <item m="1" x="423"/>
+        <item m="1" x="87"/>
+        <item m="1" x="246"/>
+        <item m="1" x="336"/>
+        <item m="1" x="342"/>
+        <item m="1" x="760"/>
+        <item m="1" x="1014"/>
+        <item m="1" x="541"/>
+        <item m="1" x="112"/>
+        <item m="1" x="318"/>
+        <item m="1" x="106"/>
+        <item m="1" x="1101"/>
+        <item m="1" x="326"/>
+        <item m="1" x="662"/>
+        <item m="1" x="1121"/>
+        <item m="1" x="448"/>
+        <item m="1" x="390"/>
+        <item m="1" x="786"/>
+        <item m="1" x="343"/>
+        <item m="1" x="651"/>
+        <item m="1" x="945"/>
+        <item m="1" x="84"/>
+        <item m="1" x="597"/>
+        <item m="1" x="716"/>
+        <item m="1" x="208"/>
+        <item m="1" x="550"/>
+        <item m="1" x="685"/>
+        <item m="1" x="436"/>
+        <item m="1" x="474"/>
+        <item m="1" x="201"/>
+        <item m="1" x="607"/>
+        <item m="1" x="71"/>
+        <item m="1" x="743"/>
+        <item m="1" x="1136"/>
+        <item m="1" x="857"/>
+        <item m="1" x="851"/>
+        <item m="1" x="750"/>
+        <item m="1" x="76"/>
+        <item m="1" x="882"/>
+        <item m="1" x="925"/>
+        <item m="1" x="731"/>
+        <item m="1" x="75"/>
+        <item m="1" x="1082"/>
+        <item m="1" x="1049"/>
+        <item m="1" x="79"/>
+        <item m="1" x="358"/>
+        <item m="1" x="748"/>
+        <item m="1" x="1003"/>
+        <item m="1" x="200"/>
+        <item m="1" x="96"/>
+        <item m="1" x="255"/>
+        <item m="1" x="146"/>
+        <item m="1" x="554"/>
+        <item m="1" x="367"/>
+        <item m="1" x="365"/>
+        <item m="1" x="536"/>
+        <item m="1" x="638"/>
+        <item m="1" x="542"/>
+        <item m="1" x="739"/>
+        <item m="1" x="591"/>
+        <item m="1" x="456"/>
+        <item m="1" x="571"/>
+        <item m="1" x="1064"/>
+        <item m="1" x="1159"/>
+        <item m="1" x="416"/>
+        <item m="1" x="1139"/>
+        <item m="1" x="181"/>
+        <item m="1" x="1128"/>
+        <item m="1" x="825"/>
+        <item m="1" x="996"/>
+        <item m="1" x="1075"/>
+        <item m="1" x="755"/>
+        <item m="1" x="967"/>
+        <item m="1" x="259"/>
+        <item m="1" x="242"/>
+        <item m="1" x="864"/>
+        <item m="1" x="836"/>
+        <item m="1" x="398"/>
+        <item m="1" x="1234"/>
+        <item m="1" x="806"/>
+        <item m="1" x="546"/>
+        <item m="1" x="620"/>
+        <item m="1" x="579"/>
+        <item m="1" x="1089"/>
+        <item m="1" x="1093"/>
+        <item m="1" x="89"/>
+        <item m="1" x="973"/>
+        <item m="1" x="1019"/>
+        <item m="1" x="138"/>
+        <item m="1" x="510"/>
+        <item m="1" x="501"/>
+        <item m="1" x="1008"/>
+        <item m="1" x="707"/>
+        <item m="1" x="911"/>
+        <item m="1" x="577"/>
+        <item m="1" x="928"/>
+        <item m="1" x="116"/>
+        <item m="1" x="239"/>
+        <item m="1" x="1208"/>
+        <item m="1" x="828"/>
+        <item m="1" x="1200"/>
+        <item m="1" x="120"/>
+        <item m="1" x="380"/>
+        <item m="1" x="196"/>
+        <item m="1" x="129"/>
+        <item m="1" x="144"/>
+        <item m="1" x="696"/>
+        <item m="1" x="729"/>
+        <item m="1" x="401"/>
+        <item m="1" x="819"/>
+        <item m="1" x="1137"/>
+        <item m="1" x="488"/>
+        <item m="1" x="567"/>
+        <item m="1" x="717"/>
+        <item m="1" x="1205"/>
+        <item m="1" x="382"/>
+        <item m="1" x="394"/>
+        <item m="1" x="404"/>
+        <item m="1" x="1025"/>
+        <item m="1" x="1161"/>
+        <item m="1" x="78"/>
+        <item m="1" x="905"/>
+        <item m="1" x="1201"/>
+        <item m="1" x="302"/>
+        <item m="1" x="617"/>
+        <item m="1" x="1238"/>
+        <item m="1" x="1144"/>
+        <item m="1" x="291"/>
+        <item m="1" x="403"/>
+        <item m="1" x="490"/>
+        <item m="1" x="815"/>
         <item m="1" x="1012"/>
-        <item m="1" x="539"/>
-        <item m="1" x="110"/>
-        <item m="1" x="316"/>
-        <item m="1" x="104"/>
-        <item m="1" x="1099"/>
-        <item m="1" x="324"/>
+        <item m="1" x="247"/>
+        <item m="1" x="718"/>
+        <item m="1" x="243"/>
+        <item m="1" x="212"/>
+        <item m="1" x="160"/>
+        <item m="1" x="1131"/>
+        <item m="1" x="724"/>
+        <item m="1" x="1172"/>
+        <item m="1" x="565"/>
+        <item m="1" x="1189"/>
+        <item m="1" x="941"/>
+        <item m="1" x="230"/>
+        <item m="1" x="1045"/>
+        <item m="1" x="1059"/>
+        <item m="1" x="719"/>
+        <item m="1" x="1094"/>
+        <item m="1" x="932"/>
+        <item m="1" x="797"/>
+        <item m="1" x="114"/>
+        <item m="1" x="943"/>
+        <item m="1" x="675"/>
+        <item m="1" x="608"/>
+        <item m="1" x="951"/>
+        <item m="1" x="535"/>
+        <item m="1" x="169"/>
+        <item m="1" x="341"/>
+        <item m="1" x="118"/>
+        <item m="1" x="467"/>
+        <item m="1" x="845"/>
+        <item m="1" x="430"/>
+        <item m="1" x="293"/>
+        <item m="1" x="508"/>
+        <item m="1" x="186"/>
+        <item m="1" x="438"/>
+        <item m="1" x="309"/>
         <item m="1" x="660"/>
-        <item m="1" x="1119"/>
+        <item m="1" x="1247"/>
+        <item m="1" x="701"/>
+        <item m="1" x="297"/>
+        <item m="1" x="574"/>
+        <item m="1" x="280"/>
+        <item m="1" x="333"/>
+        <item m="1" x="625"/>
+        <item m="1" x="893"/>
+        <item m="1" x="610"/>
+        <item m="1" x="1060"/>
+        <item m="1" x="622"/>
+        <item m="1" x="856"/>
+        <item m="1" x="171"/>
+        <item m="1" x="654"/>
+        <item m="1" x="294"/>
+        <item m="1" x="224"/>
+        <item m="1" x="950"/>
+        <item m="1" x="265"/>
+        <item m="1" x="974"/>
+        <item m="1" x="166"/>
+        <item m="1" x="791"/>
+        <item m="1" x="798"/>
+        <item m="1" x="202"/>
+        <item m="1" x="720"/>
+        <item m="1" x="98"/>
+        <item m="1" x="921"/>
+        <item m="1" x="626"/>
+        <item m="1" x="847"/>
+        <item m="1" x="816"/>
+        <item m="1" x="1036"/>
+        <item m="1" x="809"/>
+        <item m="1" x="387"/>
+        <item m="1" x="888"/>
+        <item m="1" x="1022"/>
+        <item m="1" x="712"/>
+        <item m="1" x="844"/>
+        <item m="1" x="177"/>
+        <item m="1" x="1010"/>
+        <item m="1" x="667"/>
+        <item m="1" x="532"/>
+        <item m="1" x="916"/>
+        <item m="1" x="442"/>
+        <item m="1" x="765"/>
+        <item m="1" x="299"/>
+        <item m="1" x="395"/>
+        <item m="1" x="792"/>
+        <item m="1" x="561"/>
+        <item m="1" x="105"/>
+        <item m="1" x="439"/>
+        <item m="1" x="919"/>
+        <item m="1" x="1021"/>
+        <item m="1" x="124"/>
+        <item m="1" x="409"/>
+        <item m="1" x="344"/>
+        <item m="1" x="677"/>
+        <item m="1" x="770"/>
+        <item m="1" x="210"/>
+        <item m="1" x="1192"/>
+        <item m="1" x="175"/>
+        <item m="1" x="248"/>
+        <item m="1" x="1029"/>
+        <item m="1" x="537"/>
+        <item m="1" x="551"/>
+        <item m="1" x="605"/>
+        <item m="1" x="180"/>
+        <item m="1" x="459"/>
+        <item m="1" x="854"/>
+        <item m="1" x="766"/>
+        <item m="1" x="556"/>
+        <item m="1" x="503"/>
+        <item m="1" x="133"/>
+        <item m="1" x="371"/>
+        <item m="1" x="835"/>
+        <item m="1" x="469"/>
+        <item m="1" x="632"/>
+        <item m="1" x="569"/>
+        <item m="1" x="751"/>
+        <item m="1" x="115"/>
+        <item m="1" x="596"/>
+        <item m="1" x="270"/>
+        <item m="1" x="673"/>
+        <item m="1" x="799"/>
+        <item m="1" x="875"/>
+        <item m="1" x="810"/>
+        <item m="1" x="771"/>
+        <item m="1" x="697"/>
+        <item m="1" x="1108"/>
+        <item m="1" x="1000"/>
+        <item m="1" x="251"/>
+        <item m="1" x="992"/>
         <item m="1" x="446"/>
-        <item m="1" x="388"/>
+        <item m="1" x="756"/>
+        <item m="1" x="162"/>
+        <item m="1" x="735"/>
+        <item m="1" x="602"/>
+        <item m="1" x="1034"/>
+        <item m="1" x="188"/>
+        <item m="1" x="1245"/>
+        <item m="1" x="227"/>
+        <item m="1" x="167"/>
+        <item m="1" x="737"/>
+        <item m="1" x="937"/>
+        <item m="1" x="840"/>
+        <item m="1" x="126"/>
+        <item m="1" x="278"/>
+        <item m="1" x="1066"/>
+        <item m="1" x="1006"/>
+        <item m="1" x="261"/>
+        <item m="1" x="234"/>
+        <item m="1" x="529"/>
+        <item m="1" x="150"/>
+        <item m="1" x="757"/>
+        <item m="1" x="190"/>
+        <item m="1" x="360"/>
+        <item m="1" x="657"/>
+        <item m="1" x="1188"/>
+        <item m="1" x="228"/>
+        <item m="1" x="498"/>
+        <item m="1" x="345"/>
+        <item m="1" x="507"/>
+        <item m="1" x="1061"/>
+        <item m="1" x="944"/>
+        <item m="1" x="406"/>
+        <item m="1" x="159"/>
+        <item m="1" x="1109"/>
+        <item m="1" x="272"/>
+        <item m="1" x="1054"/>
+        <item m="1" x="611"/>
+        <item m="1" x="995"/>
+        <item m="1" x="354"/>
+        <item m="1" x="526"/>
+        <item m="1" x="1011"/>
+        <item m="1" x="1199"/>
+        <item m="1" x="975"/>
+        <item m="1" x="374"/>
+        <item m="1" x="317"/>
+        <item m="1" x="1020"/>
         <item m="1" x="784"/>
-        <item m="1" x="341"/>
-        <item m="1" x="649"/>
-        <item m="1" x="943"/>
+        <item m="1" x="628"/>
+        <item m="1" x="1052"/>
+        <item m="1" x="100"/>
+        <item m="1" x="97"/>
+        <item m="1" x="772"/>
+        <item m="1" x="912"/>
+        <item m="1" x="867"/>
+        <item m="1" x="1050"/>
+        <item m="1" x="575"/>
+        <item m="1" x="322"/>
+        <item m="1" x="396"/>
+        <item m="1" x="926"/>
+        <item m="1" x="478"/>
+        <item m="1" x="708"/>
+        <item m="1" x="1123"/>
+        <item m="1" x="361"/>
+        <item m="1" x="698"/>
         <item m="1" x="82"/>
-        <item m="1" x="595"/>
-        <item m="1" x="714"/>
-        <item m="1" x="206"/>
-        <item m="1" x="548"/>
-        <item m="1" x="683"/>
-        <item m="1" x="434"/>
-        <item m="1" x="472"/>
-        <item m="1" x="199"/>
-        <item m="1" x="605"/>
-        <item m="1" x="69"/>
-        <item m="1" x="741"/>
-        <item m="1" x="1134"/>
-        <item m="1" x="855"/>
-        <item m="1" x="849"/>
-        <item m="1" x="748"/>
-        <item m="1" x="74"/>
-        <item m="1" x="880"/>
-        <item m="1" x="923"/>
-        <item m="1" x="729"/>
-        <item m="1" x="73"/>
-        <item m="1" x="1080"/>
-        <item m="1" x="1047"/>
-        <item m="1" x="77"/>
-        <item m="1" x="356"/>
-        <item m="1" x="746"/>
-        <item m="1" x="1001"/>
-        <item m="1" x="198"/>
-        <item m="1" x="94"/>
-        <item m="1" x="253"/>
-        <item m="1" x="144"/>
-        <item m="1" x="552"/>
-        <item m="1" x="365"/>
-        <item m="1" x="363"/>
-        <item m="1" x="534"/>
-        <item m="1" x="636"/>
-        <item m="1" x="540"/>
-        <item m="1" x="737"/>
-        <item m="1" x="589"/>
-        <item m="1" x="454"/>
-        <item m="1" x="569"/>
-        <item m="1" x="1062"/>
-        <item m="1" x="1157"/>
-        <item m="1" x="414"/>
-        <item m="1" x="1137"/>
-        <item m="1" x="179"/>
-        <item m="1" x="1126"/>
-        <item m="1" x="823"/>
-        <item m="1" x="994"/>
-        <item m="1" x="1073"/>
-        <item m="1" x="753"/>
-        <item m="1" x="965"/>
-        <item m="1" x="257"/>
-        <item m="1" x="240"/>
-        <item m="1" x="862"/>
-        <item m="1" x="834"/>
-        <item m="1" x="396"/>
-        <item m="1" x="1232"/>
-        <item m="1" x="804"/>
-        <item m="1" x="544"/>
-        <item m="1" x="618"/>
-        <item m="1" x="577"/>
-        <item m="1" x="1087"/>
-        <item m="1" x="1091"/>
-        <item m="1" x="87"/>
-        <item m="1" x="971"/>
-        <item m="1" x="1017"/>
-        <item m="1" x="136"/>
-        <item m="1" x="508"/>
-        <item m="1" x="499"/>
-        <item m="1" x="1006"/>
-        <item m="1" x="705"/>
-        <item m="1" x="909"/>
-        <item m="1" x="575"/>
-        <item m="1" x="926"/>
-        <item m="1" x="114"/>
-        <item m="1" x="237"/>
-        <item m="1" x="1206"/>
-        <item m="1" x="826"/>
-        <item m="1" x="1198"/>
-        <item m="1" x="118"/>
-        <item m="1" x="378"/>
-        <item m="1" x="194"/>
-        <item m="1" x="127"/>
-        <item m="1" x="142"/>
-        <item m="1" x="694"/>
-        <item m="1" x="727"/>
-        <item m="1" x="399"/>
-        <item m="1" x="817"/>
-        <item m="1" x="1135"/>
-        <item m="1" x="486"/>
-        <item m="1" x="565"/>
-        <item m="1" x="715"/>
-        <item m="1" x="1203"/>
-        <item m="1" x="380"/>
-        <item m="1" x="392"/>
-        <item m="1" x="402"/>
-        <item m="1" x="1023"/>
-        <item m="1" x="1159"/>
-        <item m="1" x="76"/>
-        <item m="1" x="903"/>
-        <item m="1" x="1199"/>
-        <item m="1" x="300"/>
-        <item m="1" x="615"/>
-        <item m="1" x="1236"/>
-        <item m="1" x="1142"/>
-        <item m="1" x="289"/>
-        <item m="1" x="401"/>
-        <item m="1" x="488"/>
-        <item m="1" x="813"/>
-        <item m="1" x="1010"/>
-        <item m="1" x="245"/>
-        <item m="1" x="716"/>
-        <item m="1" x="241"/>
-        <item m="1" x="210"/>
-        <item m="1" x="158"/>
-        <item m="1" x="1129"/>
-        <item m="1" x="722"/>
-        <item m="1" x="1170"/>
-        <item m="1" x="563"/>
-        <item m="1" x="1187"/>
-        <item m="1" x="939"/>
-        <item m="1" x="228"/>
-        <item m="1" x="1043"/>
-        <item m="1" x="1057"/>
-        <item m="1" x="717"/>
-        <item m="1" x="1092"/>
-        <item m="1" x="930"/>
-        <item m="1" x="795"/>
-        <item m="1" x="112"/>
-        <item m="1" x="941"/>
-        <item m="1" x="673"/>
-        <item m="1" x="606"/>
-        <item m="1" x="949"/>
-        <item m="1" x="533"/>
-        <item m="1" x="167"/>
-        <item m="1" x="339"/>
-        <item m="1" x="116"/>
-        <item m="1" x="465"/>
-        <item m="1" x="843"/>
-        <item m="1" x="428"/>
-        <item m="1" x="291"/>
-        <item m="1" x="506"/>
-        <item m="1" x="184"/>
-        <item m="1" x="436"/>
-        <item m="1" x="307"/>
-        <item m="1" x="658"/>
-        <item m="1" x="1245"/>
-        <item m="1" x="699"/>
-        <item m="1" x="295"/>
-        <item m="1" x="572"/>
-        <item m="1" x="278"/>
-        <item m="1" x="331"/>
-        <item m="1" x="623"/>
-        <item m="1" x="891"/>
-        <item m="1" x="608"/>
-        <item m="1" x="1058"/>
-        <item m="1" x="620"/>
-        <item m="1" x="854"/>
-        <item m="1" x="169"/>
-        <item m="1" x="652"/>
-        <item m="1" x="292"/>
-        <item m="1" x="222"/>
-        <item m="1" x="948"/>
-        <item m="1" x="263"/>
-        <item m="1" x="972"/>
-        <item m="1" x="164"/>
-        <item m="1" x="789"/>
-        <item m="1" x="796"/>
-        <item m="1" x="200"/>
-        <item m="1" x="718"/>
-        <item m="1" x="96"/>
-        <item m="1" x="919"/>
-        <item m="1" x="624"/>
-        <item m="1" x="845"/>
-        <item m="1" x="814"/>
-        <item m="1" x="1034"/>
-        <item m="1" x="807"/>
-        <item m="1" x="385"/>
-        <item m="1" x="886"/>
-        <item m="1" x="1020"/>
-        <item m="1" x="710"/>
-        <item m="1" x="842"/>
-        <item m="1" x="175"/>
-        <item m="1" x="1008"/>
-        <item m="1" x="665"/>
-        <item m="1" x="530"/>
-        <item m="1" x="914"/>
-        <item m="1" x="440"/>
-        <item m="1" x="763"/>
-        <item m="1" x="297"/>
-        <item m="1" x="393"/>
-        <item m="1" x="790"/>
-        <item m="1" x="559"/>
-        <item m="1" x="103"/>
-        <item m="1" x="437"/>
-        <item m="1" x="917"/>
-        <item m="1" x="1019"/>
-        <item m="1" x="122"/>
-        <item m="1" x="407"/>
-        <item m="1" x="342"/>
-        <item m="1" x="675"/>
-        <item m="1" x="768"/>
-        <item m="1" x="208"/>
-        <item m="1" x="1190"/>
-        <item m="1" x="173"/>
-        <item m="1" x="246"/>
-        <item m="1" x="1027"/>
-        <item m="1" x="535"/>
-        <item m="1" x="549"/>
-        <item m="1" x="603"/>
-        <item m="1" x="178"/>
-        <item m="1" x="457"/>
-        <item m="1" x="852"/>
-        <item m="1" x="764"/>
-        <item m="1" x="554"/>
-        <item m="1" x="501"/>
-        <item m="1" x="131"/>
-        <item m="1" x="369"/>
-        <item m="1" x="833"/>
-        <item m="1" x="467"/>
-        <item m="1" x="630"/>
-        <item m="1" x="567"/>
-        <item m="1" x="749"/>
-        <item m="1" x="113"/>
-        <item m="1" x="594"/>
-        <item m="1" x="268"/>
-        <item m="1" x="671"/>
-        <item m="1" x="797"/>
-        <item m="1" x="873"/>
-        <item m="1" x="808"/>
-        <item m="1" x="769"/>
-        <item m="1" x="695"/>
-        <item m="1" x="1106"/>
-        <item m="1" x="998"/>
-        <item m="1" x="249"/>
-        <item m="1" x="990"/>
-        <item m="1" x="444"/>
-        <item m="1" x="754"/>
-        <item m="1" x="160"/>
-        <item m="1" x="733"/>
-        <item m="1" x="600"/>
-        <item m="1" x="1032"/>
-        <item m="1" x="186"/>
-        <item m="1" x="1243"/>
-        <item m="1" x="225"/>
-        <item m="1" x="165"/>
-        <item m="1" x="735"/>
-        <item m="1" x="935"/>
-        <item m="1" x="838"/>
-        <item m="1" x="124"/>
-        <item m="1" x="276"/>
-        <item m="1" x="1064"/>
-        <item m="1" x="1004"/>
-        <item m="1" x="259"/>
-        <item m="1" x="232"/>
-        <item m="1" x="527"/>
-        <item m="1" x="148"/>
-        <item m="1" x="755"/>
-        <item m="1" x="188"/>
-        <item m="1" x="358"/>
-        <item m="1" x="655"/>
-        <item m="1" x="1186"/>
-        <item m="1" x="226"/>
-        <item m="1" x="496"/>
-        <item m="1" x="343"/>
-        <item m="1" x="505"/>
-        <item m="1" x="1059"/>
-        <item m="1" x="942"/>
-        <item m="1" x="404"/>
-        <item m="1" x="157"/>
-        <item m="1" x="1107"/>
-        <item m="1" x="270"/>
-        <item m="1" x="1052"/>
-        <item m="1" x="609"/>
-        <item m="1" x="993"/>
-        <item m="1" x="352"/>
-        <item m="1" x="524"/>
-        <item m="1" x="1009"/>
-        <item m="1" x="1197"/>
-        <item m="1" x="973"/>
-        <item m="1" x="372"/>
-        <item m="1" x="315"/>
-        <item m="1" x="1018"/>
-        <item m="1" x="782"/>
-        <item m="1" x="626"/>
-        <item m="1" x="1050"/>
-        <item m="1" x="98"/>
-        <item m="1" x="95"/>
-        <item m="1" x="770"/>
-        <item m="1" x="910"/>
-        <item m="1" x="865"/>
-        <item m="1" x="1048"/>
-        <item m="1" x="573"/>
-        <item m="1" x="320"/>
-        <item m="1" x="394"/>
-        <item m="1" x="924"/>
-        <item m="1" x="476"/>
-        <item m="1" x="706"/>
-        <item m="1" x="1121"/>
-        <item m="1" x="359"/>
-        <item m="1" x="696"/>
-        <item m="1" x="80"/>
-        <item m="1" x="409"/>
+        <item m="1" x="411"/>
         <item x="2"/>
         <item x="1"/>
         <item x="4"/>
@@ -20305,10 +20451,12 @@
         <item x="62"/>
         <item x="63"/>
         <item x="64"/>
-        <item m="1" x="397"/>
-        <item m="1" x="1158"/>
-        <item m="1" x="100"/>
-        <item m="1" x="65"/>
+        <item x="65"/>
+        <item x="66"/>
+        <item m="1" x="399"/>
+        <item m="1" x="1160"/>
+        <item m="1" x="102"/>
+        <item m="1" x="67"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -20371,7 +20519,7 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="12">
+  <rowItems count="14">
     <i>
       <x/>
     </i>
@@ -20387,14 +20535,20 @@
     <i r="2">
       <x v="10"/>
     </i>
+    <i r="1">
+      <x v="1242"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="1">
+      <x v="1243"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
     <i>
       <x v="1"/>
-    </i>
-    <i r="1">
-      <x v="1220"/>
-    </i>
-    <i r="2">
-      <x v="3"/>
     </i>
     <i r="1">
       <x v="1229"/>
@@ -20481,8 +20635,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C985" totalsRowShown="0" totalsRowDxfId="22">
-  <autoFilter ref="A1:C985" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C986" totalsRowShown="0" totalsRowDxfId="22">
+  <autoFilter ref="A1:C986" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{96F9219D-1D74-4611-A7AA-8AB4E044352A}" name="Ticket" totalsRowDxfId="21"/>
     <tableColumn id="2" xr3:uid="{D6F02EDE-42BA-4EF9-A278-EA070340E315}" name="Number" totalsRowDxfId="20"/>
@@ -20493,8 +20647,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S508" totalsRowShown="0">
-  <autoFilter ref="A1:S508" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S513" totalsRowShown="0">
+  <autoFilter ref="A1:S513" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
     <filterColumn colId="1">
       <filters>
         <filter val="open"/>
@@ -21154,7 +21308,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -21210,7 +21364,7 @@
         <v>897</v>
       </c>
       <c r="B5" s="73">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -21260,28 +21414,28 @@
       <c r="D9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="17" t="s">
-        <v>1793</v>
+      <c r="A10" s="67" t="s">
+        <v>1990</v>
       </c>
       <c r="B10" s="73">
-        <v>18</v>
+        <v>4</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="67" t="s">
-        <v>1766</v>
+      <c r="A11" s="68" t="s">
+        <v>370</v>
       </c>
       <c r="B11" s="73">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="68" t="s">
-        <v>369</v>
+      <c r="A12" s="67" t="s">
+        <v>1992</v>
       </c>
       <c r="B12" s="73">
         <v>1</v>
@@ -21290,58 +21444,70 @@
       <c r="D12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="67" t="s">
-        <v>1825</v>
+      <c r="A13" s="68" t="s">
+        <v>370</v>
       </c>
       <c r="B13" s="73">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="68" t="s">
-        <v>369</v>
+      <c r="A14" s="17" t="s">
+        <v>1793</v>
       </c>
       <c r="B14" s="73">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="68" t="s">
-        <v>370</v>
+      <c r="A15" s="67" t="s">
+        <v>1825</v>
       </c>
       <c r="B15" s="73">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="17" t="s">
-        <v>381</v>
+      <c r="A16" s="68" t="s">
+        <v>369</v>
       </c>
       <c r="B16" s="73">
-        <v>28</v>
+        <v>15</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="3:4">
+    <row r="17" spans="1:4">
+      <c r="A17" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B17" s="73">
+        <v>2</v>
+      </c>
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="3:4">
+    <row r="18" spans="1:4">
+      <c r="A18" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B18" s="73">
+        <v>32</v>
+      </c>
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="3:4">
+    <row r="19" spans="1:4">
       <c r="C19" s="47"/>
       <c r="D19"/>
     </row>
-    <row r="21" spans="3:4" ht="17.25" customHeight="1"/>
+    <row r="21" spans="1:4" ht="17.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A2:F1358" xr:uid="{B27B7123-EEA1-4BA6-8CFC-B80BB9988DCB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21355,10 +21521,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6F094-6CC7-43A2-BBFE-8797416561A7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D985"/>
+  <dimension ref="A1:D986"/>
   <sheetViews>
     <sheetView topLeftCell="A949" workbookViewId="0">
-      <selection activeCell="C985" sqref="C985"/>
+      <selection activeCell="C986" sqref="C986"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32213,6 +32379,17 @@
         <v>1</v>
       </c>
       <c r="C985" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="986" spans="1:3">
+      <c r="A986" t="s">
+        <v>1766</v>
+      </c>
+      <c r="B986">
+        <v>1</v>
+      </c>
+      <c r="C986" s="72" t="s">
         <v>4</v>
       </c>
     </row>
@@ -32251,9 +32428,11 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36F6EB-8AC5-4AC7-9C5A-FF7A5ACB8647}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S508"/>
+  <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C513" sqref="C513"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
   <cols>
@@ -51462,7 +51641,7 @@
       </c>
       <c r="B322" s="60" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C322" s="63" t="s">
         <v>369</v>
@@ -61893,6 +62072,286 @@
         <v>1980</v>
       </c>
       <c r="S508" s="73"/>
+    </row>
+    <row r="509" spans="1:19">
+      <c r="A509" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B509" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C509" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D509" t="s">
+        <v>1982</v>
+      </c>
+      <c r="E509" t="s">
+        <v>431</v>
+      </c>
+      <c r="F509" s="73" t="s">
+        <v>1986</v>
+      </c>
+      <c r="G509" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H509" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="J509" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K509" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>MGF</v>
+      </c>
+      <c r="L509" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M509" s="69">
+        <v>45702.505925925929</v>
+      </c>
+      <c r="N509" s="74"/>
+      <c r="O509" s="74"/>
+      <c r="P509" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q509" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R509" s="69" t="s">
+        <v>1532</v>
+      </c>
+      <c r="S509" s="73"/>
+    </row>
+    <row r="510" spans="1:19">
+      <c r="A510" s="72" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B510" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C510" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D510" t="s">
+        <v>1983</v>
+      </c>
+      <c r="E510" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F510" s="73" t="s">
+        <v>1987</v>
+      </c>
+      <c r="G510" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H510" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="J510" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K510" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>MGF</v>
+      </c>
+      <c r="L510" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M510" s="69">
+        <v>45702.505925925929</v>
+      </c>
+      <c r="N510" s="74"/>
+      <c r="O510" s="74"/>
+      <c r="P510" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q510" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R510" s="69" t="s">
+        <v>1532</v>
+      </c>
+      <c r="S510" s="73"/>
+    </row>
+    <row r="511" spans="1:19">
+      <c r="A511" s="72" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B511" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C511" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D511" t="s">
+        <v>1984</v>
+      </c>
+      <c r="E511" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F511" s="73" t="s">
+        <v>1988</v>
+      </c>
+      <c r="G511" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H511" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="J511" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K511" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>MGF</v>
+      </c>
+      <c r="L511" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M511" s="69">
+        <v>45702.505925925929</v>
+      </c>
+      <c r="N511" s="74"/>
+      <c r="O511" s="74"/>
+      <c r="P511" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q511" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R511" s="69" t="s">
+        <v>1532</v>
+      </c>
+      <c r="S511" s="73"/>
+    </row>
+    <row r="512" spans="1:19">
+      <c r="A512" s="72" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B512" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C512" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D512" t="s">
+        <v>1985</v>
+      </c>
+      <c r="E512" t="s">
+        <v>1287</v>
+      </c>
+      <c r="F512" s="73" t="s">
+        <v>1989</v>
+      </c>
+      <c r="G512" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H512" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="J512" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K512" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>MGF</v>
+      </c>
+      <c r="L512" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M512" s="69">
+        <v>45702.505925925929</v>
+      </c>
+      <c r="N512" s="74"/>
+      <c r="O512" s="74"/>
+      <c r="P512" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q512" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R512" s="69" t="s">
+        <v>1532</v>
+      </c>
+      <c r="S512" s="73"/>
+    </row>
+    <row r="513" spans="1:19">
+      <c r="A513" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B513" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C513" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D513" t="s">
+        <v>1991</v>
+      </c>
+      <c r="E513" t="s">
+        <v>1993</v>
+      </c>
+      <c r="F513" s="73" t="s">
+        <v>1994</v>
+      </c>
+      <c r="G513" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H513" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="J513" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K513" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>MGF</v>
+      </c>
+      <c r="L513" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M513" s="69">
+        <v>45702.571388888886</v>
+      </c>
+      <c r="N513" s="74"/>
+      <c r="O513" s="74"/>
+      <c r="P513" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q513" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R513" s="69" t="s">
+        <v>1532</v>
+      </c>
+      <c r="S513" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -61906,7 +62365,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA904D87-F005-470F-89A3-B2D56E752386}">
           <x14:formula1>
             <xm:f>STAT!$A$1:$A$11</xm:f>
@@ -61917,7 +62376,7 @@
           <x14:formula1>
             <xm:f>STAT!$A$15:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G508</xm:sqref>
+          <xm:sqref>G2:G513</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7142417-84C0-4248-8EAE-3760CFC46D45}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{136ED460-13B5-4F48-ABBD-7435751F346A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="2430" yWindow="2520" windowWidth="20910" windowHeight="11835" activeTab="4" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="134" r:id="rId12"/>
+    <pivotCache cacheId="33" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -6904,7 +6904,7 @@
       <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -6988,7 +6988,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45702.870934143517" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="512" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45705.584309259262" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="512" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
   <cacheSource type="worksheet">
     <worksheetSource name="Proc"/>
   </cacheSource>
@@ -8319,10 +8319,10 @@
       <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-14T13:42:48"/>
     </cacheField>
     <cacheField name="DateMapped" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-01T00:00:00" maxDate="2025-02-14T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-01T00:00:00" maxDate="2025-02-18T00:00:00"/>
     </cacheField>
     <cacheField name="DateClosed" numFmtId="0">
-      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-06T00:00:00" maxDate="2025-02-14T00:00:00"/>
+      <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-06T00:00:00" maxDate="2025-02-18T00:00:00"/>
     </cacheField>
     <cacheField name="Delayed?" numFmtId="0">
       <sharedItems containsBlank="1" count="4">
@@ -8333,7 +8333,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DaysAgeing" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="40"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="41"/>
     </cacheField>
     <cacheField name="Author" numFmtId="0">
       <sharedItems/>
@@ -10574,7 +10574,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="40"/>
+    <n v="41"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14543,7 +14543,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14564,7 +14564,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14585,7 +14585,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14606,7 +14606,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14627,7 +14627,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14648,7 +14648,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14669,7 +14669,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14690,7 +14690,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14711,7 +14711,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14732,7 +14732,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -14753,7 +14753,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="15"/>
+    <n v="16"/>
     <s v="Eivy Denine Cruz"/>
     <m/>
   </r>
@@ -15089,7 +15089,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="11"/>
+    <n v="12"/>
     <s v="Volker Ogan"/>
     <m/>
   </r>
@@ -15992,7 +15992,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16013,7 +16013,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16034,7 +16034,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16055,7 +16055,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16076,7 +16076,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16097,7 +16097,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16118,7 +16118,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16139,7 +16139,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16160,7 +16160,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16181,7 +16181,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16202,7 +16202,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16223,7 +16223,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16244,7 +16244,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16265,7 +16265,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16286,7 +16286,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16307,7 +16307,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16328,7 +16328,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="9"/>
+    <n v="10"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -16370,7 +16370,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16391,7 +16391,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16412,7 +16412,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16433,7 +16433,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16454,7 +16454,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16475,7 +16475,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16496,7 +16496,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16517,7 +16517,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16538,7 +16538,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16559,7 +16559,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16580,7 +16580,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16601,7 +16601,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16622,7 +16622,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16643,7 +16643,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16664,7 +16664,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16685,7 +16685,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16706,7 +16706,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16727,7 +16727,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16748,7 +16748,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16769,7 +16769,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16790,7 +16790,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16811,7 +16811,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16832,7 +16832,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16853,7 +16853,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16874,7 +16874,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16895,7 +16895,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16916,7 +16916,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16937,7 +16937,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16958,7 +16958,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -16979,7 +16979,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17000,7 +17000,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17021,7 +17021,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17042,7 +17042,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17063,7 +17063,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17084,7 +17084,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17105,7 +17105,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17126,7 +17126,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17147,7 +17147,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17168,7 +17168,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17189,7 +17189,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17210,7 +17210,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="8"/>
+    <n v="9"/>
     <s v="Francesco Ricioppo"/>
     <m/>
   </r>
@@ -17336,7 +17336,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17357,7 +17357,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17378,7 +17378,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17399,7 +17399,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17420,7 +17420,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17441,7 +17441,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17462,7 +17462,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17483,7 +17483,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17504,7 +17504,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17525,7 +17525,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17546,7 +17546,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17567,7 +17567,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17588,7 +17588,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17609,7 +17609,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17630,7 +17630,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17651,7 +17651,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17672,7 +17672,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17693,7 +17693,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17714,7 +17714,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17735,7 +17735,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17756,7 +17756,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17777,7 +17777,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17798,7 +17798,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17819,7 +17819,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17840,7 +17840,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17861,7 +17861,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17882,7 +17882,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17903,7 +17903,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17924,7 +17924,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17945,7 +17945,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17966,7 +17966,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -17987,7 +17987,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18008,7 +18008,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18029,7 +18029,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18050,7 +18050,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18071,7 +18071,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18092,7 +18092,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18113,7 +18113,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18134,7 +18134,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18155,7 +18155,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18176,7 +18176,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18197,7 +18197,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18218,7 +18218,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18239,7 +18239,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18260,7 +18260,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18281,7 +18281,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18302,7 +18302,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18323,7 +18323,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18344,7 +18344,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18365,7 +18365,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18386,7 +18386,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18407,7 +18407,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18428,7 +18428,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18449,7 +18449,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18470,7 +18470,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18491,7 +18491,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18512,7 +18512,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18533,7 +18533,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18554,7 +18554,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="7"/>
+    <n v="8"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18575,7 +18575,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18596,7 +18596,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18617,7 +18617,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18638,7 +18638,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18659,7 +18659,7 @@
     <m/>
     <m/>
     <x v="1"/>
-    <n v="6"/>
+    <n v="7"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18679,8 +18679,8 @@
     <d v="2025-02-07T13:27:47"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
+    <n v="6"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18700,8 +18700,8 @@
     <d v="2025-02-07T13:27:47"/>
     <m/>
     <m/>
-    <x v="0"/>
-    <n v="5"/>
+    <x v="1"/>
+    <n v="6"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18743,7 +18743,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="3"/>
+    <n v="4"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18764,7 +18764,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="3"/>
+    <n v="4"/>
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
@@ -18785,7 +18785,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="2"/>
+    <n v="3"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -18806,7 +18806,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Jayson Martinez"/>
     <m/>
   </r>
@@ -18827,7 +18827,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Marvin Graef"/>
     <m/>
   </r>
@@ -18848,7 +18848,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Marvin Graef"/>
     <m/>
   </r>
@@ -18869,7 +18869,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Marvin Graef"/>
     <m/>
   </r>
@@ -18890,7 +18890,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Marvin Graef"/>
     <m/>
   </r>
@@ -18911,7 +18911,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Marvin Graef"/>
     <m/>
   </r>
@@ -18932,7 +18932,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Marvin Graef"/>
     <m/>
   </r>
@@ -18953,7 +18953,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Marvin Graef"/>
     <m/>
   </r>
@@ -18974,7 +18974,7 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Marvin Graef"/>
     <m/>
   </r>
@@ -18995,14 +18995,14 @@
     <m/>
     <m/>
     <x v="0"/>
-    <n v="1"/>
+    <n v="2"/>
     <s v="Marvin Graef"/>
     <m/>
   </r>
   <r>
     <x v="65"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CNOW_7210$$$0000051707 LS-IT-N BUSINESS PARTNER GLOBAL"/>
     <s v="L000013391"/>
     <s v="DFLTPGCOH_BF-C4_002014"/>
@@ -19013,17 +19013,17 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2025-02-14T12:08:32"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
+    <d v="2025-02-17T00:00:00"/>
+    <d v="2025-02-17T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
   <r>
     <x v="65"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CNOW_7210$$$0000023582 LS ERP-IT ONE ERP"/>
     <s v="L000013808"/>
     <s v="DFLTPGCOH_BF-Y6_002106"/>
@@ -19034,17 +19034,17 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2025-02-14T12:08:32"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
+    <d v="2025-02-17T00:00:00"/>
+    <d v="2025-02-17T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
   <r>
     <x v="65"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CNOW_7210$$$0000057565 LS ERP-IT ONE ERP"/>
     <s v="L000013808"/>
     <s v="DFLTPGCOH_BF-Y6_002047"/>
@@ -19055,17 +19055,17 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2025-02-14T12:08:32"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
+    <d v="2025-02-17T00:00:00"/>
+    <d v="2025-02-17T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
   <r>
     <x v="65"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CNOW_7210$$$0000265235 LS ERP-IT ONE ERP"/>
     <s v="L000013808"/>
     <s v="DFLTPGCOH_BF-Y6_002072"/>
@@ -19076,17 +19076,17 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2025-02-14T12:08:32"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
+    <d v="2025-02-17T00:00:00"/>
+    <d v="2025-02-17T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
   <r>
     <x v="66"/>
-    <x v="1"/>
-    <x v="5"/>
+    <x v="0"/>
+    <x v="2"/>
     <s v="CITR_1000$$$1721IT041"/>
     <s v="G000000244"/>
     <s v="G000000243"/>
@@ -19097,10 +19097,10 @@
     <x v="0"/>
     <x v="1"/>
     <d v="2025-02-14T13:42:48"/>
-    <m/>
-    <m/>
-    <x v="0"/>
-    <n v="0"/>
+    <d v="2025-02-17T00:00:00"/>
+    <d v="2025-02-17T00:00:00"/>
+    <x v="0"/>
+    <n v="1"/>
     <s v="Jay-R Lizardo"/>
     <m/>
   </r>
@@ -19108,7 +19108,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="134" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -19204,8 +19204,8 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="134" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="33" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B14" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
       <items count="1249">
@@ -20519,7 +20519,7 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="10">
     <i>
       <x/>
     </i>
@@ -20534,18 +20534,6 @@
     </i>
     <i r="2">
       <x v="10"/>
-    </i>
-    <i r="1">
-      <x v="1242"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
-    </i>
-    <i r="1">
-      <x v="1243"/>
-    </i>
-    <i r="2">
-      <x v="8"/>
     </i>
     <i>
       <x v="1"/>
@@ -20635,8 +20623,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C986" totalsRowShown="0" totalsRowDxfId="22">
-  <autoFilter ref="A1:C986" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C988" totalsRowShown="0" totalsRowDxfId="22">
+  <autoFilter ref="A1:C988" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{96F9219D-1D74-4611-A7AA-8AB4E044352A}" name="Ticket" totalsRowDxfId="21"/>
     <tableColumn id="2" xr3:uid="{D6F02EDE-42BA-4EF9-A278-EA070340E315}" name="Number" totalsRowDxfId="20"/>
@@ -21095,6 +21083,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
 </worksheet>
 </file>
@@ -21308,8 +21297,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:K21"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -21364,7 +21353,7 @@
         <v>897</v>
       </c>
       <c r="B5" s="73">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -21414,31 +21403,31 @@
       <c r="D9"/>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="67" t="s">
-        <v>1990</v>
+      <c r="A10" s="17" t="s">
+        <v>1793</v>
       </c>
       <c r="B10" s="73">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C10" s="53"/>
       <c r="D10"/>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="68" t="s">
-        <v>370</v>
+      <c r="A11" s="67" t="s">
+        <v>1825</v>
       </c>
       <c r="B11" s="73">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="67" t="s">
-        <v>1992</v>
+      <c r="A12" s="68" t="s">
+        <v>369</v>
       </c>
       <c r="B12" s="73">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="C12"/>
       <c r="D12"/>
@@ -21448,72 +21437,49 @@
         <v>370</v>
       </c>
       <c r="B13" s="73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="17" t="s">
-        <v>1793</v>
+        <v>381</v>
       </c>
       <c r="B14" s="73">
-        <v>17</v>
+        <v>27</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="67" t="s">
-        <v>1825</v>
-      </c>
-      <c r="B15" s="73">
-        <v>17</v>
-      </c>
       <c r="C15"/>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:6">
-      <c r="A16" s="68" t="s">
-        <v>369</v>
-      </c>
-      <c r="B16" s="73">
-        <v>15</v>
-      </c>
       <c r="C16"/>
       <c r="D16"/>
     </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="B17" s="73">
-        <v>2</v>
-      </c>
+    <row r="17" spans="3:4">
       <c r="C17"/>
       <c r="D17"/>
     </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="17" t="s">
-        <v>381</v>
-      </c>
-      <c r="B18" s="73">
-        <v>32</v>
-      </c>
+    <row r="18" spans="3:4">
       <c r="C18"/>
       <c r="D18"/>
     </row>
-    <row r="19" spans="1:4">
+    <row r="19" spans="3:4">
       <c r="C19" s="47"/>
       <c r="D19"/>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1"/>
+    <row r="21" spans="3:4" ht="17.25" customHeight="1"/>
   </sheetData>
   <autoFilter ref="A2:F1358" xr:uid="{B27B7123-EEA1-4BA6-8CFC-B80BB9988DCB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId2"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId3"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
 </worksheet>
 </file>
@@ -21521,10 +21487,10 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEF6F094-6CC7-43A2-BBFE-8797416561A7}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:D986"/>
+  <dimension ref="A1:D988"/>
   <sheetViews>
-    <sheetView topLeftCell="A949" workbookViewId="0">
-      <selection activeCell="C986" sqref="C986"/>
+    <sheetView topLeftCell="A970" workbookViewId="0">
+      <selection activeCell="C987" sqref="C987:C988"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -32393,6 +32359,28 @@
         <v>4</v>
       </c>
     </row>
+    <row r="987" spans="1:3">
+      <c r="A987" t="s">
+        <v>1990</v>
+      </c>
+      <c r="B987">
+        <v>4</v>
+      </c>
+      <c r="C987" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="988" spans="1:3">
+      <c r="A988" t="s">
+        <v>1992</v>
+      </c>
+      <c r="B988">
+        <v>1</v>
+      </c>
+      <c r="C988" s="72" t="s">
+        <v>4</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A545 A548:A568 A570:A1048576">
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
@@ -32401,9 +32389,10 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -32430,8 +32419,8 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:S513"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C513" sqref="C513"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D516" sqref="D516"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -38761,7 +38750,7 @@
       </c>
       <c r="Q107" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="R107" s="64" t="s">
         <v>1113</v>
@@ -50174,7 +50163,7 @@
       </c>
       <c r="Q296" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R296" s="64" t="s">
         <v>1113</v>
@@ -50231,7 +50220,7 @@
       </c>
       <c r="Q297" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R297" s="64" t="s">
         <v>1113</v>
@@ -50288,7 +50277,7 @@
       </c>
       <c r="Q298" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R298" s="64" t="s">
         <v>1113</v>
@@ -50345,7 +50334,7 @@
       </c>
       <c r="Q299" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R299" s="64" t="s">
         <v>1113</v>
@@ -50402,7 +50391,7 @@
       </c>
       <c r="Q300" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R300" s="64" t="s">
         <v>1113</v>
@@ -50459,7 +50448,7 @@
       </c>
       <c r="Q301" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R301" s="64" t="s">
         <v>1113</v>
@@ -50516,7 +50505,7 @@
       </c>
       <c r="Q302" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R302" s="64" t="s">
         <v>1113</v>
@@ -50573,7 +50562,7 @@
       </c>
       <c r="Q303" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R303" s="64" t="s">
         <v>1113</v>
@@ -50630,7 +50619,7 @@
       </c>
       <c r="Q304" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R304" s="64" t="s">
         <v>1113</v>
@@ -50687,7 +50676,7 @@
       </c>
       <c r="Q305" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R305" s="64" t="s">
         <v>1113</v>
@@ -50744,7 +50733,7 @@
       </c>
       <c r="Q306" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="R306" s="64" t="s">
         <v>1113</v>
@@ -51682,7 +51671,7 @@
       </c>
       <c r="Q322" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="R322" s="69" t="s">
         <v>1767</v>
@@ -54230,7 +54219,7 @@
       </c>
       <c r="Q365" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R365" s="69" t="s">
         <v>1532</v>
@@ -54284,7 +54273,7 @@
       </c>
       <c r="Q366" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R366" s="69" t="s">
         <v>1532</v>
@@ -54338,7 +54327,7 @@
       </c>
       <c r="Q367" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R367" s="69" t="s">
         <v>1532</v>
@@ -54392,7 +54381,7 @@
       </c>
       <c r="Q368" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R368" s="69" t="s">
         <v>1532</v>
@@ -54446,7 +54435,7 @@
       </c>
       <c r="Q369" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R369" s="69" t="s">
         <v>1532</v>
@@ -54500,7 +54489,7 @@
       </c>
       <c r="Q370" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R370" s="69" t="s">
         <v>1532</v>
@@ -54554,7 +54543,7 @@
       </c>
       <c r="Q371" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R371" s="69" t="s">
         <v>1532</v>
@@ -54608,7 +54597,7 @@
       </c>
       <c r="Q372" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R372" s="69" t="s">
         <v>1532</v>
@@ -54662,7 +54651,7 @@
       </c>
       <c r="Q373" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R373" s="69" t="s">
         <v>1532</v>
@@ -54716,7 +54705,7 @@
       </c>
       <c r="Q374" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R374" s="69" t="s">
         <v>1532</v>
@@ -54770,7 +54759,7 @@
       </c>
       <c r="Q375" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R375" s="69" t="s">
         <v>1532</v>
@@ -54824,7 +54813,7 @@
       </c>
       <c r="Q376" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R376" s="69" t="s">
         <v>1532</v>
@@ -54878,7 +54867,7 @@
       </c>
       <c r="Q377" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R377" s="69" t="s">
         <v>1532</v>
@@ -54932,7 +54921,7 @@
       </c>
       <c r="Q378" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R378" s="69" t="s">
         <v>1532</v>
@@ -54986,7 +54975,7 @@
       </c>
       <c r="Q379" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R379" s="69" t="s">
         <v>1532</v>
@@ -55040,7 +55029,7 @@
       </c>
       <c r="Q380" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R380" s="69" t="s">
         <v>1532</v>
@@ -55094,7 +55083,7 @@
       </c>
       <c r="Q381" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="R381" s="69" t="s">
         <v>1532</v>
@@ -55211,7 +55200,7 @@
       </c>
       <c r="Q383" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R383" s="69" t="s">
         <v>575</v>
@@ -55265,7 +55254,7 @@
       </c>
       <c r="Q384" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R384" s="69" t="s">
         <v>575</v>
@@ -55319,7 +55308,7 @@
       </c>
       <c r="Q385" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R385" s="69" t="s">
         <v>575</v>
@@ -55373,7 +55362,7 @@
       </c>
       <c r="Q386" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R386" s="69" t="s">
         <v>575</v>
@@ -55427,7 +55416,7 @@
       </c>
       <c r="Q387" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R387" s="69" t="s">
         <v>575</v>
@@ -55481,7 +55470,7 @@
       </c>
       <c r="Q388" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R388" s="69" t="s">
         <v>575</v>
@@ -55535,7 +55524,7 @@
       </c>
       <c r="Q389" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R389" s="69" t="s">
         <v>575</v>
@@ -55589,7 +55578,7 @@
       </c>
       <c r="Q390" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R390" s="69" t="s">
         <v>575</v>
@@ -55643,7 +55632,7 @@
       </c>
       <c r="Q391" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R391" s="69" t="s">
         <v>575</v>
@@ -55697,7 +55686,7 @@
       </c>
       <c r="Q392" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R392" s="69" t="s">
         <v>575</v>
@@ -55751,7 +55740,7 @@
       </c>
       <c r="Q393" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R393" s="69" t="s">
         <v>575</v>
@@ -55805,7 +55794,7 @@
       </c>
       <c r="Q394" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R394" s="69" t="s">
         <v>575</v>
@@ -55859,7 +55848,7 @@
       </c>
       <c r="Q395" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R395" s="69" t="s">
         <v>575</v>
@@ -55913,7 +55902,7 @@
       </c>
       <c r="Q396" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R396" s="69" t="s">
         <v>575</v>
@@ -55967,7 +55956,7 @@
       </c>
       <c r="Q397" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R397" s="69" t="s">
         <v>575</v>
@@ -56021,7 +56010,7 @@
       </c>
       <c r="Q398" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R398" s="69" t="s">
         <v>575</v>
@@ -56075,7 +56064,7 @@
       </c>
       <c r="Q399" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R399" s="69" t="s">
         <v>575</v>
@@ -56129,7 +56118,7 @@
       </c>
       <c r="Q400" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R400" s="69" t="s">
         <v>575</v>
@@ -56183,7 +56172,7 @@
       </c>
       <c r="Q401" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R401" s="69" t="s">
         <v>575</v>
@@ -56237,7 +56226,7 @@
       </c>
       <c r="Q402" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R402" s="69" t="s">
         <v>575</v>
@@ -56291,7 +56280,7 @@
       </c>
       <c r="Q403" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R403" s="69" t="s">
         <v>575</v>
@@ -56345,7 +56334,7 @@
       </c>
       <c r="Q404" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R404" s="69" t="s">
         <v>575</v>
@@ -56399,7 +56388,7 @@
       </c>
       <c r="Q405" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R405" s="69" t="s">
         <v>575</v>
@@ -56453,7 +56442,7 @@
       </c>
       <c r="Q406" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R406" s="69" t="s">
         <v>575</v>
@@ -56507,7 +56496,7 @@
       </c>
       <c r="Q407" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R407" s="69" t="s">
         <v>575</v>
@@ -56561,7 +56550,7 @@
       </c>
       <c r="Q408" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R408" s="69" t="s">
         <v>575</v>
@@ -56615,7 +56604,7 @@
       </c>
       <c r="Q409" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R409" s="69" t="s">
         <v>575</v>
@@ -56669,7 +56658,7 @@
       </c>
       <c r="Q410" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R410" s="69" t="s">
         <v>575</v>
@@ -56723,7 +56712,7 @@
       </c>
       <c r="Q411" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R411" s="69" t="s">
         <v>575</v>
@@ -56777,7 +56766,7 @@
       </c>
       <c r="Q412" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R412" s="69" t="s">
         <v>575</v>
@@ -56831,7 +56820,7 @@
       </c>
       <c r="Q413" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R413" s="69" t="s">
         <v>575</v>
@@ -56885,7 +56874,7 @@
       </c>
       <c r="Q414" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R414" s="69" t="s">
         <v>575</v>
@@ -56939,7 +56928,7 @@
       </c>
       <c r="Q415" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R415" s="69" t="s">
         <v>575</v>
@@ -56993,7 +56982,7 @@
       </c>
       <c r="Q416" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R416" s="69" t="s">
         <v>575</v>
@@ -57047,7 +57036,7 @@
       </c>
       <c r="Q417" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R417" s="69" t="s">
         <v>575</v>
@@ -57101,7 +57090,7 @@
       </c>
       <c r="Q418" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R418" s="69" t="s">
         <v>575</v>
@@ -57155,7 +57144,7 @@
       </c>
       <c r="Q419" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R419" s="69" t="s">
         <v>575</v>
@@ -57209,7 +57198,7 @@
       </c>
       <c r="Q420" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R420" s="69" t="s">
         <v>575</v>
@@ -57263,7 +57252,7 @@
       </c>
       <c r="Q421" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R421" s="69" t="s">
         <v>575</v>
@@ -57317,7 +57306,7 @@
       </c>
       <c r="Q422" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R422" s="69" t="s">
         <v>575</v>
@@ -57371,7 +57360,7 @@
       </c>
       <c r="Q423" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="R423" s="69" t="s">
         <v>575</v>
@@ -57725,7 +57714,7 @@
       </c>
       <c r="Q429" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R429" s="69" t="s">
         <v>858</v>
@@ -57779,7 +57768,7 @@
       </c>
       <c r="Q430" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R430" s="69" t="s">
         <v>858</v>
@@ -57833,7 +57822,7 @@
       </c>
       <c r="Q431" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R431" s="69" t="s">
         <v>858</v>
@@ -57887,7 +57876,7 @@
       </c>
       <c r="Q432" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R432" s="69" t="s">
         <v>858</v>
@@ -57941,7 +57930,7 @@
       </c>
       <c r="Q433" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R433" s="69" t="s">
         <v>858</v>
@@ -57995,7 +57984,7 @@
       </c>
       <c r="Q434" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R434" s="69" t="s">
         <v>858</v>
@@ -58049,7 +58038,7 @@
       </c>
       <c r="Q435" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R435" s="69" t="s">
         <v>858</v>
@@ -58103,7 +58092,7 @@
       </c>
       <c r="Q436" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R436" s="69" t="s">
         <v>858</v>
@@ -58157,7 +58146,7 @@
       </c>
       <c r="Q437" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R437" s="69" t="s">
         <v>858</v>
@@ -58211,7 +58200,7 @@
       </c>
       <c r="Q438" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R438" s="69" t="s">
         <v>858</v>
@@ -58265,7 +58254,7 @@
       </c>
       <c r="Q439" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R439" s="69" t="s">
         <v>858</v>
@@ -58319,7 +58308,7 @@
       </c>
       <c r="Q440" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R440" s="69" t="s">
         <v>858</v>
@@ -58373,7 +58362,7 @@
       </c>
       <c r="Q441" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R441" s="69" t="s">
         <v>858</v>
@@ -58427,7 +58416,7 @@
       </c>
       <c r="Q442" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R442" s="69" t="s">
         <v>858</v>
@@ -58481,7 +58470,7 @@
       </c>
       <c r="Q443" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R443" s="69" t="s">
         <v>858</v>
@@ -58535,7 +58524,7 @@
       </c>
       <c r="Q444" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R444" s="69" t="s">
         <v>858</v>
@@ -58589,7 +58578,7 @@
       </c>
       <c r="Q445" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R445" s="69" t="s">
         <v>858</v>
@@ -58643,7 +58632,7 @@
       </c>
       <c r="Q446" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R446" s="69" t="s">
         <v>858</v>
@@ -58697,7 +58686,7 @@
       </c>
       <c r="Q447" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R447" s="69" t="s">
         <v>858</v>
@@ -58751,7 +58740,7 @@
       </c>
       <c r="Q448" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R448" s="69" t="s">
         <v>858</v>
@@ -58805,7 +58794,7 @@
       </c>
       <c r="Q449" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R449" s="69" t="s">
         <v>858</v>
@@ -58859,7 +58848,7 @@
       </c>
       <c r="Q450" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R450" s="69" t="s">
         <v>858</v>
@@ -58913,7 +58902,7 @@
       </c>
       <c r="Q451" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R451" s="69" t="s">
         <v>858</v>
@@ -58967,7 +58956,7 @@
       </c>
       <c r="Q452" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R452" s="69" t="s">
         <v>858</v>
@@ -59021,7 +59010,7 @@
       </c>
       <c r="Q453" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R453" s="69" t="s">
         <v>858</v>
@@ -59075,7 +59064,7 @@
       </c>
       <c r="Q454" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R454" s="69" t="s">
         <v>858</v>
@@ -59129,7 +59118,7 @@
       </c>
       <c r="Q455" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R455" s="69" t="s">
         <v>858</v>
@@ -59183,7 +59172,7 @@
       </c>
       <c r="Q456" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R456" s="69" t="s">
         <v>858</v>
@@ -59237,7 +59226,7 @@
       </c>
       <c r="Q457" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R457" s="69" t="s">
         <v>858</v>
@@ -59291,7 +59280,7 @@
       </c>
       <c r="Q458" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R458" s="69" t="s">
         <v>858</v>
@@ -59345,7 +59334,7 @@
       </c>
       <c r="Q459" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R459" s="69" t="s">
         <v>858</v>
@@ -59399,7 +59388,7 @@
       </c>
       <c r="Q460" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R460" s="69" t="s">
         <v>858</v>
@@ -59453,7 +59442,7 @@
       </c>
       <c r="Q461" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R461" s="69" t="s">
         <v>858</v>
@@ -59507,7 +59496,7 @@
       </c>
       <c r="Q462" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R462" s="69" t="s">
         <v>858</v>
@@ -59561,7 +59550,7 @@
       </c>
       <c r="Q463" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R463" s="69" t="s">
         <v>858</v>
@@ -59615,7 +59604,7 @@
       </c>
       <c r="Q464" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R464" s="69" t="s">
         <v>858</v>
@@ -59669,7 +59658,7 @@
       </c>
       <c r="Q465" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R465" s="69" t="s">
         <v>858</v>
@@ -59723,7 +59712,7 @@
       </c>
       <c r="Q466" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R466" s="69" t="s">
         <v>858</v>
@@ -59777,7 +59766,7 @@
       </c>
       <c r="Q467" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R467" s="69" t="s">
         <v>858</v>
@@ -59831,7 +59820,7 @@
       </c>
       <c r="Q468" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R468" s="69" t="s">
         <v>858</v>
@@ -59885,7 +59874,7 @@
       </c>
       <c r="Q469" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R469" s="69" t="s">
         <v>858</v>
@@ -59939,7 +59928,7 @@
       </c>
       <c r="Q470" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R470" s="69" t="s">
         <v>858</v>
@@ -59993,7 +59982,7 @@
       </c>
       <c r="Q471" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R471" s="69" t="s">
         <v>858</v>
@@ -60047,7 +60036,7 @@
       </c>
       <c r="Q472" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R472" s="69" t="s">
         <v>858</v>
@@ -60101,7 +60090,7 @@
       </c>
       <c r="Q473" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R473" s="69" t="s">
         <v>858</v>
@@ -60155,7 +60144,7 @@
       </c>
       <c r="Q474" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R474" s="69" t="s">
         <v>858</v>
@@ -60209,7 +60198,7 @@
       </c>
       <c r="Q475" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R475" s="69" t="s">
         <v>858</v>
@@ -60263,7 +60252,7 @@
       </c>
       <c r="Q476" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R476" s="69" t="s">
         <v>858</v>
@@ -60317,7 +60306,7 @@
       </c>
       <c r="Q477" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R477" s="69" t="s">
         <v>858</v>
@@ -60371,7 +60360,7 @@
       </c>
       <c r="Q478" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R478" s="69" t="s">
         <v>858</v>
@@ -60425,7 +60414,7 @@
       </c>
       <c r="Q479" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R479" s="69" t="s">
         <v>858</v>
@@ -60479,7 +60468,7 @@
       </c>
       <c r="Q480" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R480" s="69" t="s">
         <v>858</v>
@@ -60533,7 +60522,7 @@
       </c>
       <c r="Q481" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R481" s="69" t="s">
         <v>858</v>
@@ -60587,7 +60576,7 @@
       </c>
       <c r="Q482" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R482" s="69" t="s">
         <v>858</v>
@@ -60641,7 +60630,7 @@
       </c>
       <c r="Q483" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R483" s="69" t="s">
         <v>858</v>
@@ -60695,7 +60684,7 @@
       </c>
       <c r="Q484" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R484" s="69" t="s">
         <v>858</v>
@@ -60749,7 +60738,7 @@
       </c>
       <c r="Q485" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R485" s="69" t="s">
         <v>538</v>
@@ -60803,7 +60792,7 @@
       </c>
       <c r="Q486" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R486" s="69" t="s">
         <v>538</v>
@@ -60857,7 +60846,7 @@
       </c>
       <c r="Q487" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R487" s="69" t="s">
         <v>538</v>
@@ -60913,7 +60902,7 @@
       </c>
       <c r="Q488" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R488" s="69" t="s">
         <v>1532</v>
@@ -60969,7 +60958,7 @@
       </c>
       <c r="Q489" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R489" s="69" t="s">
         <v>1532</v>
@@ -61025,7 +61014,7 @@
       </c>
       <c r="Q490" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R490" s="69" t="s">
         <v>1532</v>
@@ -61081,7 +61070,7 @@
       </c>
       <c r="Q491" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R491" s="69" t="s">
         <v>1532</v>
@@ -61137,7 +61126,7 @@
       </c>
       <c r="Q492" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="R492" s="69" t="s">
         <v>1532</v>
@@ -61189,11 +61178,11 @@
       <c r="O493" s="69"/>
       <c r="P493" s="69" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
-        <v>on track</v>
+        <v>yep</v>
       </c>
       <c r="Q493" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R493" s="69" t="s">
         <v>538</v>
@@ -61245,11 +61234,11 @@
       <c r="O494" s="69"/>
       <c r="P494" s="69" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
-        <v>on track</v>
+        <v>yep</v>
       </c>
       <c r="Q494" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="R494" s="69" t="s">
         <v>538</v>
@@ -61368,7 +61357,7 @@
       </c>
       <c r="Q496" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R496" s="69" t="s">
         <v>538</v>
@@ -61425,7 +61414,7 @@
       </c>
       <c r="Q497" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R497" s="69" t="s">
         <v>538</v>
@@ -61479,7 +61468,7 @@
       </c>
       <c r="Q498" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R498" s="69" t="s">
         <v>1532</v>
@@ -61535,7 +61524,7 @@
       </c>
       <c r="Q499" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R499" s="74" t="s">
         <v>858</v>
@@ -61594,7 +61583,7 @@
       </c>
       <c r="Q500" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R500" s="74" t="s">
         <v>1980</v>
@@ -61653,7 +61642,7 @@
       </c>
       <c r="Q501" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R501" s="74" t="s">
         <v>1980</v>
@@ -61712,7 +61701,7 @@
       </c>
       <c r="Q502" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R502" s="74" t="s">
         <v>1980</v>
@@ -61771,7 +61760,7 @@
       </c>
       <c r="Q503" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R503" s="74" t="s">
         <v>1980</v>
@@ -61830,7 +61819,7 @@
       </c>
       <c r="Q504" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R504" s="74" t="s">
         <v>1980</v>
@@ -61889,7 +61878,7 @@
       </c>
       <c r="Q505" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R505" s="74" t="s">
         <v>1980</v>
@@ -61948,7 +61937,7 @@
       </c>
       <c r="Q506" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R506" s="74" t="s">
         <v>1980</v>
@@ -62007,7 +61996,7 @@
       </c>
       <c r="Q507" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R507" s="74" t="s">
         <v>1980</v>
@@ -62066,23 +62055,23 @@
       </c>
       <c r="Q508" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="R508" s="74" t="s">
         <v>1980</v>
       </c>
       <c r="S508" s="73"/>
     </row>
-    <row r="509" spans="1:19">
+    <row r="509" spans="1:19" hidden="1">
       <c r="A509" t="s">
         <v>1990</v>
       </c>
       <c r="B509" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C509" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D509" t="s">
         <v>1982</v>
@@ -62114,31 +62103,35 @@
       <c r="M509" s="69">
         <v>45702.505925925929</v>
       </c>
-      <c r="N509" s="74"/>
-      <c r="O509" s="74"/>
+      <c r="N509" s="69">
+        <v>45705</v>
+      </c>
+      <c r="O509" s="69">
+        <v>45705</v>
+      </c>
       <c r="P509" s="74" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
         <v>on track</v>
       </c>
       <c r="Q509" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R509" s="69" t="s">
         <v>1532</v>
       </c>
       <c r="S509" s="73"/>
     </row>
-    <row r="510" spans="1:19">
+    <row r="510" spans="1:19" hidden="1">
       <c r="A510" s="72" t="s">
         <v>1990</v>
       </c>
       <c r="B510" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C510" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D510" t="s">
         <v>1983</v>
@@ -62170,31 +62163,35 @@
       <c r="M510" s="69">
         <v>45702.505925925929</v>
       </c>
-      <c r="N510" s="74"/>
-      <c r="O510" s="74"/>
+      <c r="N510" s="69">
+        <v>45705</v>
+      </c>
+      <c r="O510" s="69">
+        <v>45705</v>
+      </c>
       <c r="P510" s="74" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
         <v>on track</v>
       </c>
       <c r="Q510" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R510" s="69" t="s">
         <v>1532</v>
       </c>
       <c r="S510" s="73"/>
     </row>
-    <row r="511" spans="1:19">
+    <row r="511" spans="1:19" hidden="1">
       <c r="A511" s="72" t="s">
         <v>1990</v>
       </c>
       <c r="B511" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C511" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D511" t="s">
         <v>1984</v>
@@ -62226,31 +62223,35 @@
       <c r="M511" s="69">
         <v>45702.505925925929</v>
       </c>
-      <c r="N511" s="74"/>
-      <c r="O511" s="74"/>
+      <c r="N511" s="69">
+        <v>45705</v>
+      </c>
+      <c r="O511" s="69">
+        <v>45705</v>
+      </c>
       <c r="P511" s="74" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
         <v>on track</v>
       </c>
       <c r="Q511" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R511" s="69" t="s">
         <v>1532</v>
       </c>
       <c r="S511" s="73"/>
     </row>
-    <row r="512" spans="1:19">
+    <row r="512" spans="1:19" hidden="1">
       <c r="A512" s="72" t="s">
         <v>1990</v>
       </c>
       <c r="B512" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C512" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D512" t="s">
         <v>1985</v>
@@ -62282,31 +62283,35 @@
       <c r="M512" s="69">
         <v>45702.505925925929</v>
       </c>
-      <c r="N512" s="74"/>
-      <c r="O512" s="74"/>
+      <c r="N512" s="69">
+        <v>45705</v>
+      </c>
+      <c r="O512" s="69">
+        <v>45705</v>
+      </c>
       <c r="P512" s="74" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
         <v>on track</v>
       </c>
       <c r="Q512" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R512" s="69" t="s">
         <v>1532</v>
       </c>
       <c r="S512" s="73"/>
     </row>
-    <row r="513" spans="1:19">
+    <row r="513" spans="1:19" hidden="1">
       <c r="A513" t="s">
         <v>1992</v>
       </c>
       <c r="B513" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
-        <v>open</v>
+        <v>ok</v>
       </c>
       <c r="C513" s="72" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D513" t="s">
         <v>1991</v>
@@ -62338,15 +62343,19 @@
       <c r="M513" s="69">
         <v>45702.571388888886</v>
       </c>
-      <c r="N513" s="74"/>
-      <c r="O513" s="74"/>
+      <c r="N513" s="69">
+        <v>45705</v>
+      </c>
+      <c r="O513" s="69">
+        <v>45705</v>
+      </c>
       <c r="P513" s="74" t="str">
         <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
         <v>on track</v>
       </c>
       <c r="Q513" s="3">
         <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R513" s="69" t="s">
         <v>1532</v>
@@ -62359,9 +62368,10 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E163413-8DF9-48E4-BCC2-B7906346D4DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C16C316-967C-49C9-8DA5-B5044CE255CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="57" r:id="rId12"/>
+    <pivotCache cacheId="81" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -7360,35 +7360,7 @@
     <cellStyle name="Summary Row Name TM1 - IBM Cognos" xfId="60" xr:uid="{D1A5E0FD-B729-4808-9590-433008E10ACE}"/>
     <cellStyle name="Unsaved Change - IBM Cognos" xfId="61" xr:uid="{F9FC678A-A77B-4A12-8D40-17609F28802A}"/>
   </cellStyles>
-  <dxfs count="31">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <bgColor rgb="FFFF0000"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="27">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -7433,7 +7405,7 @@
       <numFmt numFmtId="170" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <numFmt numFmtId="19" formatCode="m/d/yyyy"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -7517,7 +7489,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45705.652520949072" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="610" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45705.657662500002" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="610" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
   <cacheSource type="worksheet">
     <worksheetSource name="Proc"/>
   </cacheSource>
@@ -19343,7 +19315,7 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="7"/>
     <s v="PHOENX_0101/648610"/>
     <s v="L000013890"/>
     <s v="L000013595"/>
@@ -19364,7 +19336,7 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="7"/>
     <s v="PHOENX_0101/604750"/>
     <s v="L000013890"/>
     <s v="L000013330"/>
@@ -19385,7 +19357,7 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="7"/>
     <s v="PHOENX_0101/648912"/>
     <s v="L000013890"/>
     <s v="L000012371"/>
@@ -19406,7 +19378,7 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="7"/>
     <s v="PHOENX_0101/648916"/>
     <s v="L000013891"/>
     <s v="L000013595"/>
@@ -19427,7 +19399,7 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="7"/>
     <s v="PHOENX_0101/648921"/>
     <s v="L000013891"/>
     <s v="L000013595"/>
@@ -19448,7 +19420,7 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="7"/>
     <s v="PHOENX_0101/648913"/>
     <s v="L000013891"/>
     <s v="L000012371"/>
@@ -19469,7 +19441,7 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="7"/>
     <s v="PHOENX_0101/648914"/>
     <s v="L000013891"/>
     <s v="L000012371"/>
@@ -19490,7 +19462,7 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="7"/>
     <s v="PHOENX_0101/648915"/>
     <s v="L000013891"/>
     <s v="L000012371"/>
@@ -19511,7 +19483,7 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="4"/>
+    <x v="7"/>
     <s v="PHOENX_0101/648917"/>
     <s v="L000013891"/>
     <s v="L000012371"/>
@@ -21696,7 +21668,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -21792,7 +21764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="57" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -23122,7 +23094,7 @@
       <x v="1241"/>
     </i>
     <i r="2">
-      <x v="10"/>
+      <x v="12"/>
     </i>
     <i r="1">
       <x v="1244"/>
@@ -23162,7 +23134,7 @@
     <dataField name="Count of Obj" fld="3" subtotal="count" baseField="0" baseItem="0"/>
   </dataFields>
   <formats count="4">
-    <format dxfId="30">
+    <format dxfId="26">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -23174,7 +23146,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="29">
+    <format dxfId="25">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -23186,7 +23158,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="28">
+    <format dxfId="24">
       <pivotArea collapsedLevelsAreSubtotals="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -23198,7 +23170,7 @@
         </references>
       </pivotArea>
     </format>
-    <format dxfId="27">
+    <format dxfId="23">
       <pivotArea dataOnly="0" labelOnly="1" fieldPosition="0">
         <references count="2">
           <reference field="0" count="1">
@@ -23224,12 +23196,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C988" totalsRowShown="0" totalsRowDxfId="26">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}" name="Table2" displayName="Table2" ref="A1:C988" totalsRowShown="0" totalsRowDxfId="22">
   <autoFilter ref="A1:C988" xr:uid="{43456A03-EFD4-416A-B021-C441A7C21E4E}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{96F9219D-1D74-4611-A7AA-8AB4E044352A}" name="Ticket" totalsRowDxfId="25"/>
-    <tableColumn id="2" xr3:uid="{D6F02EDE-42BA-4EF9-A278-EA070340E315}" name="Number" totalsRowDxfId="24"/>
-    <tableColumn id="3" xr3:uid="{F6A90E5F-0E5C-41D7-A40C-1CC9A86DC194}" name="Status" totalsRowDxfId="23"/>
+    <tableColumn id="1" xr3:uid="{96F9219D-1D74-4611-A7AA-8AB4E044352A}" name="Ticket" totalsRowDxfId="21"/>
+    <tableColumn id="2" xr3:uid="{D6F02EDE-42BA-4EF9-A278-EA070340E315}" name="Number" totalsRowDxfId="20"/>
+    <tableColumn id="3" xr3:uid="{F6A90E5F-0E5C-41D7-A40C-1CC9A86DC194}" name="Status" totalsRowDxfId="19"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23253,36 +23225,36 @@
   </autoFilter>
   <tableColumns count="19">
     <tableColumn id="1" xr3:uid="{5BF112CC-BAD1-48FD-B930-E0EF8CA67570}" name="App"/>
-    <tableColumn id="2" xr3:uid="{F44F7455-95E4-448C-84F7-0BD5E8515FF2}" name="Filter" dataDxfId="22">
+    <tableColumn id="2" xr3:uid="{F44F7455-95E4-448C-84F7-0BD5E8515FF2}" name="Filter" dataDxfId="18">
       <calculatedColumnFormula>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="3" xr3:uid="{5F4F076A-2403-4720-A29D-FC0FB8EA120F}" name="Status"/>
     <tableColumn id="4" xr3:uid="{394D0319-2A38-45A3-AB7A-456D5C3C825D}" name="Obj"/>
     <tableColumn id="5" xr3:uid="{85258F80-F70E-46C9-B73A-0E7A23F5BAA8}" name="Requested"/>
-    <tableColumn id="6" xr3:uid="{136D6DA2-77DB-4BF7-9073-FBF6D323E39D}" name="CurrentParent" dataDxfId="21"/>
+    <tableColumn id="6" xr3:uid="{136D6DA2-77DB-4BF7-9073-FBF6D323E39D}" name="CurrentParent" dataDxfId="17"/>
     <tableColumn id="7" xr3:uid="{D69C8A00-2CB4-4F31-920A-C1D332375D40}" name="type"/>
-    <tableColumn id="9" xr3:uid="{3D246B09-CC89-411A-9E7E-B79496797F29}" name="LFF_ID" dataDxfId="20">
+    <tableColumn id="9" xr3:uid="{3D246B09-CC89-411A-9E7E-B79496797F29}" name="LFF_ID" dataDxfId="16">
       <calculatedColumnFormula>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="10" xr3:uid="{0F3D2251-8320-43C5-9772-41A1D1B49BAD}" name="Analysis"/>
-    <tableColumn id="11" xr3:uid="{D9BF87CD-B2A1-4ABE-AAB8-595DDF492F11}" name="Check" dataDxfId="19">
+    <tableColumn id="11" xr3:uid="{D9BF87CD-B2A1-4ABE-AAB8-595DDF492F11}" name="Check" dataDxfId="15">
       <calculatedColumnFormula>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="24" xr3:uid="{9DAA192A-7AAB-4460-A9EA-787D5AF7E069}" name="Sector" dataDxfId="18">
+    <tableColumn id="24" xr3:uid="{9DAA192A-7AAB-4460-A9EA-787D5AF7E069}" name="Sector" dataDxfId="14">
       <calculatedColumnFormula>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="13" xr3:uid="{EFBC6B71-E109-48FC-AE50-5015496DB0CA}" name="Forecast" dataDxfId="17"/>
-    <tableColumn id="15" xr3:uid="{F0BFEDC5-AB85-4752-8DBE-1E2D2A86C38C}" name="DateOpened" dataDxfId="16"/>
-    <tableColumn id="17" xr3:uid="{78B7D816-31FE-4F8F-8018-91CE8D5DE9A2}" name="DateMapped" dataDxfId="15"/>
-    <tableColumn id="16" xr3:uid="{37F76675-DAA7-497A-B0C3-D5ADC87396FC}" name="DateClosed" dataDxfId="14"/>
-    <tableColumn id="23" xr3:uid="{77371810-6F86-4EEF-85D0-5FCFC20B88DC}" name="Delayed?" dataDxfId="13">
+    <tableColumn id="13" xr3:uid="{EFBC6B71-E109-48FC-AE50-5015496DB0CA}" name="Forecast" dataDxfId="13"/>
+    <tableColumn id="15" xr3:uid="{F0BFEDC5-AB85-4752-8DBE-1E2D2A86C38C}" name="DateOpened" dataDxfId="12"/>
+    <tableColumn id="17" xr3:uid="{78B7D816-31FE-4F8F-8018-91CE8D5DE9A2}" name="DateMapped" dataDxfId="11"/>
+    <tableColumn id="16" xr3:uid="{37F76675-DAA7-497A-B0C3-D5ADC87396FC}" name="DateClosed" dataDxfId="10"/>
+    <tableColumn id="23" xr3:uid="{77371810-6F86-4EEF-85D0-5FCFC20B88DC}" name="Delayed?" dataDxfId="9">
       <calculatedColumnFormula>IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="18" xr3:uid="{6AC4A96E-CE6C-49CA-A4F1-794160BB5940}" name="DaysAgeing" dataDxfId="12">
+    <tableColumn id="18" xr3:uid="{6AC4A96E-CE6C-49CA-A4F1-794160BB5940}" name="DaysAgeing" dataDxfId="8">
       <calculatedColumnFormula>IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="19" xr3:uid="{7CC86552-2F6D-4DFA-8F17-7AFF536FE9EE}" name="Author" dataDxfId="11"/>
-    <tableColumn id="22" xr3:uid="{87389AE1-9ECE-4C7F-80F9-48A35BE78A62}" name="Prognosis" dataDxfId="10"/>
+    <tableColumn id="19" xr3:uid="{7CC86552-2F6D-4DFA-8F17-7AFF536FE9EE}" name="Author" dataDxfId="7"/>
+    <tableColumn id="22" xr3:uid="{87389AE1-9ECE-4C7F-80F9-48A35BE78A62}" name="Prognosis" dataDxfId="6"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23334,12 +23306,12 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{3F8396D3-971A-405D-9996-529D23A1D423}" name="YelTable" displayName="YelTable" ref="A1:F5" totalsRowShown="0">
   <autoFilter ref="A1:F5" xr:uid="{3F8396D3-971A-405D-9996-529D23A1D423}"/>
   <tableColumns count="6">
-    <tableColumn id="3" xr3:uid="{1E05904C-33DE-48E5-8213-D72B8227C597}" name="Sector" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{73647D57-303F-4AF5-983C-1CCB32EBD08D}" name="Forecast Period" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{FA11B267-B5E3-452C-A4E3-1668B4A12A28}" name="Number of Tickets Raised" dataDxfId="7"/>
+    <tableColumn id="3" xr3:uid="{1E05904C-33DE-48E5-8213-D72B8227C597}" name="Sector" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{73647D57-303F-4AF5-983C-1CCB32EBD08D}" name="Forecast Period" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{FA11B267-B5E3-452C-A4E3-1668B4A12A28}" name="Number of Tickets Raised" dataDxfId="3"/>
     <tableColumn id="1" xr3:uid="{441BC59C-A1EA-4CA8-B944-D602CD57D89D}" name="Delayed Tickets"/>
-    <tableColumn id="5" xr3:uid="{29680677-3B0F-4EC4-81FF-46A6FDD4C5F7}" name="Number of Total Objects" dataDxfId="6"/>
-    <tableColumn id="2" xr3:uid="{3D96D299-AEA2-4D9C-9BE6-F98ADF0CDB84}" name="Commentary for delayed tickets" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{29680677-3B0F-4EC4-81FF-46A6FDD4C5F7}" name="Number of Total Objects" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{3D96D299-AEA2-4D9C-9BE6-F98ADF0CDB84}" name="Commentary for delayed tickets" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium7" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -23897,7 +23869,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -23993,7 +23965,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="68" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="B9" s="73">
         <v>9</v>
@@ -24102,6 +24074,7 @@
   <pageSetup orientation="portrait" r:id="rId2"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId3"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId4"/>
   </customProperties>
 </worksheet>
 </file>
@@ -35005,7 +34978,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A2:A545 A548:A568 A570:A1048576">
-    <cfRule type="duplicateValues" dxfId="4" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -35041,7 +35014,7 @@
   <dimension ref="A1:S611"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A381" sqref="A381"/>
+      <selection activeCell="C501" sqref="C501:C508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -64161,7 +64134,7 @@
         <v>open</v>
       </c>
       <c r="C500" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D500" t="s">
         <v>1966</v>
@@ -64220,7 +64193,7 @@
         <v>open</v>
       </c>
       <c r="C501" s="72" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D501" t="s">
         <v>1967</v>
@@ -64279,7 +64252,7 @@
         <v>open</v>
       </c>
       <c r="C502" s="72" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D502" t="s">
         <v>1968</v>
@@ -64338,7 +64311,7 @@
         <v>open</v>
       </c>
       <c r="C503" s="72" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D503" t="s">
         <v>1969</v>
@@ -64397,7 +64370,7 @@
         <v>open</v>
       </c>
       <c r="C504" s="72" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D504" t="s">
         <v>1970</v>
@@ -64456,7 +64429,7 @@
         <v>open</v>
       </c>
       <c r="C505" s="72" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D505" t="s">
         <v>1971</v>
@@ -64515,7 +64488,7 @@
         <v>open</v>
       </c>
       <c r="C506" s="72" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D506" t="s">
         <v>1972</v>
@@ -64574,7 +64547,7 @@
         <v>open</v>
       </c>
       <c r="C507" s="72" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D507" t="s">
         <v>1973</v>
@@ -64633,7 +64606,7 @@
         <v>open</v>
       </c>
       <c r="C508" s="72" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="D508" t="s">
         <v>1974</v>
@@ -70483,9 +70456,10 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
@@ -70624,6 +70598,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId1"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C16C316-967C-49C9-8DA5-B5044CE255CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4471162E-87F9-41CA-ACCB-42A1C7E6DE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="4680" yWindow="1095" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="81" r:id="rId12"/>
+    <pivotCache cacheId="0" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5981,33 +5981,6 @@
     <t>FR7081100</t>
   </si>
   <si>
-    <t>PHOENX_0101/648610</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/604750</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648912</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648916</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648921</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648913</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648914</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648915</t>
-  </si>
-  <si>
-    <t>PHOENX_0101/648917</t>
-  </si>
-  <si>
     <t>L000013890</t>
   </si>
   <si>
@@ -6567,6 +6540,33 @@
   </si>
   <si>
     <t>2123C00061</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000648610 CDMO mRNA Quality</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000604750 mRNA QC Quality</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000648912 CDMO mRNA QC Hamburg</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000648916 CDMO mRNA Management Darmstadt/Hamburg</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000648913 CDMO mRNA Engineering</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000648921 Alloc. PPA Amptec to RPP Amort Intang</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000648914 CDMO mRNA Supply Chain</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000648915 Site HH General &amp; EHS</t>
+  </si>
+  <si>
+    <t>CPHOENX_01010000648917 CDMO mRNA IT/OT</t>
   </si>
 </sst>
 </file>
@@ -21668,7 +21668,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -21764,7 +21764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="81" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -23869,7 +23869,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -23975,7 +23975,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="67" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B10" s="73">
         <v>98</v>
@@ -34956,7 +34956,7 @@
     </row>
     <row r="987" spans="1:3">
       <c r="A987" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="B987">
         <v>4</v>
@@ -34967,7 +34967,7 @@
     </row>
     <row r="988" spans="1:3">
       <c r="A988" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="B988">
         <v>1</v>
@@ -35014,7 +35014,7 @@
   <dimension ref="A1:S611"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C501" sqref="C501:C508"/>
+      <selection activeCell="C502" sqref="C502"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -64137,13 +64137,13 @@
         <v>405</v>
       </c>
       <c r="D500" t="s">
+        <v>2153</v>
+      </c>
+      <c r="E500" t="s">
         <v>1966</v>
       </c>
-      <c r="E500" t="s">
-        <v>1975</v>
-      </c>
       <c r="F500" s="73" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="G500" t="s">
         <v>400</v>
@@ -64153,7 +64153,7 @@
         <v/>
       </c>
       <c r="I500" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="J500" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64180,7 +64180,7 @@
         <v>2</v>
       </c>
       <c r="R500" s="74" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="S500" s="73"/>
     </row>
@@ -64196,13 +64196,13 @@
         <v>405</v>
       </c>
       <c r="D501" t="s">
-        <v>1967</v>
+        <v>2154</v>
       </c>
       <c r="E501" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="F501" s="73" t="s">
-        <v>1978</v>
+        <v>1969</v>
       </c>
       <c r="G501" s="72" t="s">
         <v>400</v>
@@ -64212,7 +64212,7 @@
         <v/>
       </c>
       <c r="I501" s="72" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="J501" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64239,7 +64239,7 @@
         <v>2</v>
       </c>
       <c r="R501" s="74" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="S501" s="73"/>
     </row>
@@ -64255,13 +64255,13 @@
         <v>405</v>
       </c>
       <c r="D502" t="s">
-        <v>1968</v>
+        <v>2155</v>
       </c>
       <c r="E502" t="s">
-        <v>1975</v>
+        <v>1966</v>
       </c>
       <c r="F502" s="73" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="G502" s="72" t="s">
         <v>400</v>
@@ -64271,7 +64271,7 @@
         <v/>
       </c>
       <c r="I502" s="72" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="J502" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64298,7 +64298,7 @@
         <v>2</v>
       </c>
       <c r="R502" s="74" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="S502" s="73"/>
     </row>
@@ -64314,13 +64314,13 @@
         <v>405</v>
       </c>
       <c r="D503" t="s">
-        <v>1969</v>
+        <v>2156</v>
       </c>
       <c r="E503" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="F503" s="73" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="G503" s="72" t="s">
         <v>400</v>
@@ -64330,7 +64330,7 @@
         <v/>
       </c>
       <c r="I503" s="72" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="J503" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64357,7 +64357,7 @@
         <v>2</v>
       </c>
       <c r="R503" s="74" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="S503" s="73"/>
     </row>
@@ -64373,13 +64373,13 @@
         <v>405</v>
       </c>
       <c r="D504" t="s">
-        <v>1970</v>
+        <v>2158</v>
       </c>
       <c r="E504" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="F504" s="73" t="s">
-        <v>1977</v>
+        <v>1968</v>
       </c>
       <c r="G504" s="72" t="s">
         <v>400</v>
@@ -64389,7 +64389,7 @@
         <v/>
       </c>
       <c r="I504" s="72" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="J504" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64416,7 +64416,7 @@
         <v>2</v>
       </c>
       <c r="R504" s="74" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="S504" s="73"/>
     </row>
@@ -64432,13 +64432,13 @@
         <v>405</v>
       </c>
       <c r="D505" t="s">
-        <v>1971</v>
+        <v>2157</v>
       </c>
       <c r="E505" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="F505" s="73" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="G505" s="72" t="s">
         <v>400</v>
@@ -64448,7 +64448,7 @@
         <v/>
       </c>
       <c r="I505" s="72" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="J505" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64475,7 +64475,7 @@
         <v>2</v>
       </c>
       <c r="R505" s="74" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="S505" s="73"/>
     </row>
@@ -64491,13 +64491,13 @@
         <v>405</v>
       </c>
       <c r="D506" t="s">
-        <v>1972</v>
+        <v>2159</v>
       </c>
       <c r="E506" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="F506" s="73" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="G506" s="72" t="s">
         <v>400</v>
@@ -64507,7 +64507,7 @@
         <v/>
       </c>
       <c r="I506" s="72" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="J506" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64534,7 +64534,7 @@
         <v>2</v>
       </c>
       <c r="R506" s="74" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="S506" s="73"/>
     </row>
@@ -64550,13 +64550,13 @@
         <v>405</v>
       </c>
       <c r="D507" t="s">
-        <v>1973</v>
+        <v>2160</v>
       </c>
       <c r="E507" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="F507" s="73" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="G507" s="72" t="s">
         <v>400</v>
@@ -64566,7 +64566,7 @@
         <v/>
       </c>
       <c r="I507" s="72" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="J507" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64593,7 +64593,7 @@
         <v>2</v>
       </c>
       <c r="R507" s="74" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="S507" s="73"/>
     </row>
@@ -64609,13 +64609,13 @@
         <v>405</v>
       </c>
       <c r="D508" t="s">
-        <v>1974</v>
+        <v>2161</v>
       </c>
       <c r="E508" t="s">
-        <v>1976</v>
+        <v>1967</v>
       </c>
       <c r="F508" s="73" t="s">
-        <v>1979</v>
+        <v>1970</v>
       </c>
       <c r="G508" s="72" t="s">
         <v>400</v>
@@ -64625,7 +64625,7 @@
         <v/>
       </c>
       <c r="I508" s="72" t="s">
-        <v>1981</v>
+        <v>1972</v>
       </c>
       <c r="J508" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64652,13 +64652,13 @@
         <v>2</v>
       </c>
       <c r="R508" s="74" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="S508" s="73"/>
     </row>
     <row r="509" spans="1:19" hidden="1">
       <c r="A509" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="B509" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64668,13 +64668,13 @@
         <v>369</v>
       </c>
       <c r="D509" t="s">
-        <v>1982</v>
+        <v>1973</v>
       </c>
       <c r="E509" t="s">
         <v>431</v>
       </c>
       <c r="F509" s="73" t="s">
-        <v>1986</v>
+        <v>1977</v>
       </c>
       <c r="G509" s="72" t="s">
         <v>400</v>
@@ -64718,7 +64718,7 @@
     </row>
     <row r="510" spans="1:19" hidden="1">
       <c r="A510" s="72" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="B510" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64728,13 +64728,13 @@
         <v>369</v>
       </c>
       <c r="D510" t="s">
-        <v>1983</v>
+        <v>1974</v>
       </c>
       <c r="E510" t="s">
         <v>1287</v>
       </c>
       <c r="F510" s="73" t="s">
-        <v>1987</v>
+        <v>1978</v>
       </c>
       <c r="G510" s="72" t="s">
         <v>400</v>
@@ -64778,7 +64778,7 @@
     </row>
     <row r="511" spans="1:19" hidden="1">
       <c r="A511" s="72" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="B511" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64788,13 +64788,13 @@
         <v>369</v>
       </c>
       <c r="D511" t="s">
-        <v>1984</v>
+        <v>1975</v>
       </c>
       <c r="E511" t="s">
         <v>1287</v>
       </c>
       <c r="F511" s="73" t="s">
-        <v>1988</v>
+        <v>1979</v>
       </c>
       <c r="G511" s="72" t="s">
         <v>400</v>
@@ -64838,7 +64838,7 @@
     </row>
     <row r="512" spans="1:19" hidden="1">
       <c r="A512" s="72" t="s">
-        <v>1990</v>
+        <v>1981</v>
       </c>
       <c r="B512" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64848,13 +64848,13 @@
         <v>369</v>
       </c>
       <c r="D512" t="s">
-        <v>1985</v>
+        <v>1976</v>
       </c>
       <c r="E512" t="s">
         <v>1287</v>
       </c>
       <c r="F512" s="73" t="s">
-        <v>1989</v>
+        <v>1980</v>
       </c>
       <c r="G512" s="72" t="s">
         <v>400</v>
@@ -64898,7 +64898,7 @@
     </row>
     <row r="513" spans="1:19" hidden="1">
       <c r="A513" t="s">
-        <v>1992</v>
+        <v>1983</v>
       </c>
       <c r="B513" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64908,13 +64908,13 @@
         <v>369</v>
       </c>
       <c r="D513" t="s">
-        <v>1991</v>
+        <v>1982</v>
       </c>
       <c r="E513" t="s">
-        <v>1993</v>
+        <v>1984</v>
       </c>
       <c r="F513" s="73" t="s">
-        <v>1994</v>
+        <v>1985</v>
       </c>
       <c r="G513" s="72" t="s">
         <v>400</v>
@@ -64958,7 +64958,7 @@
     </row>
     <row r="514" spans="1:19">
       <c r="A514" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B514" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64968,13 +64968,13 @@
         <v>375</v>
       </c>
       <c r="D514" t="s">
-        <v>1996</v>
+        <v>1987</v>
       </c>
       <c r="E514" t="s">
-        <v>2094</v>
+        <v>2085</v>
       </c>
       <c r="F514" s="73" t="s">
-        <v>2126</v>
+        <v>2117</v>
       </c>
       <c r="G514" t="s">
         <v>406</v>
@@ -65014,7 +65014,7 @@
     </row>
     <row r="515" spans="1:19">
       <c r="A515" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B515" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65024,13 +65024,13 @@
         <v>375</v>
       </c>
       <c r="D515" t="s">
-        <v>1997</v>
+        <v>1988</v>
       </c>
       <c r="E515" t="s">
-        <v>2095</v>
+        <v>2086</v>
       </c>
       <c r="F515" s="73" t="s">
-        <v>2127</v>
+        <v>2118</v>
       </c>
       <c r="G515" s="72" t="s">
         <v>406</v>
@@ -65070,7 +65070,7 @@
     </row>
     <row r="516" spans="1:19">
       <c r="A516" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B516" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65080,13 +65080,13 @@
         <v>375</v>
       </c>
       <c r="D516" t="s">
-        <v>1998</v>
+        <v>1989</v>
       </c>
       <c r="E516" t="s">
-        <v>2095</v>
+        <v>2086</v>
       </c>
       <c r="F516" s="73" t="s">
-        <v>2127</v>
+        <v>2118</v>
       </c>
       <c r="G516" s="72" t="s">
         <v>406</v>
@@ -65126,7 +65126,7 @@
     </row>
     <row r="517" spans="1:19">
       <c r="A517" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B517" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65136,13 +65136,13 @@
         <v>370</v>
       </c>
       <c r="D517" t="s">
-        <v>1999</v>
+        <v>1990</v>
       </c>
       <c r="E517" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
       <c r="F517" s="73" t="s">
-        <v>2128</v>
+        <v>2119</v>
       </c>
       <c r="G517" t="s">
         <v>400</v>
@@ -65182,7 +65182,7 @@
     </row>
     <row r="518" spans="1:19">
       <c r="A518" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B518" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65192,13 +65192,13 @@
         <v>375</v>
       </c>
       <c r="D518" t="s">
-        <v>2000</v>
+        <v>1991</v>
       </c>
       <c r="E518" t="s">
-        <v>2096</v>
+        <v>2087</v>
       </c>
       <c r="F518" s="73" t="s">
-        <v>2128</v>
+        <v>2119</v>
       </c>
       <c r="G518" s="72" t="s">
         <v>406</v>
@@ -65238,7 +65238,7 @@
     </row>
     <row r="519" spans="1:19">
       <c r="A519" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B519" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65248,13 +65248,13 @@
         <v>375</v>
       </c>
       <c r="D519" t="s">
-        <v>2001</v>
+        <v>1992</v>
       </c>
       <c r="E519" t="s">
-        <v>2161</v>
+        <v>2152</v>
       </c>
       <c r="F519" s="73" t="s">
-        <v>2129</v>
+        <v>2120</v>
       </c>
       <c r="G519" s="72" t="s">
         <v>406</v>
@@ -65294,7 +65294,7 @@
     </row>
     <row r="520" spans="1:19">
       <c r="A520" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B520" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65304,13 +65304,13 @@
         <v>375</v>
       </c>
       <c r="D520" t="s">
-        <v>2002</v>
+        <v>1993</v>
       </c>
       <c r="E520" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="F520" s="73" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="G520" s="72" t="s">
         <v>406</v>
@@ -65350,7 +65350,7 @@
     </row>
     <row r="521" spans="1:19">
       <c r="A521" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B521" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65360,13 +65360,13 @@
         <v>375</v>
       </c>
       <c r="D521" t="s">
-        <v>2003</v>
+        <v>1994</v>
       </c>
       <c r="E521" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="F521" s="73" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="G521" s="72" t="s">
         <v>406</v>
@@ -65406,7 +65406,7 @@
     </row>
     <row r="522" spans="1:19">
       <c r="A522" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B522" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65416,13 +65416,13 @@
         <v>375</v>
       </c>
       <c r="D522" t="s">
-        <v>2004</v>
+        <v>1995</v>
       </c>
       <c r="E522" t="s">
-        <v>2099</v>
+        <v>2090</v>
       </c>
       <c r="F522" s="73" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="G522" s="72" t="s">
         <v>406</v>
@@ -65462,7 +65462,7 @@
     </row>
     <row r="523" spans="1:19">
       <c r="A523" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B523" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65472,13 +65472,13 @@
         <v>375</v>
       </c>
       <c r="D523" t="s">
-        <v>2005</v>
+        <v>1996</v>
       </c>
       <c r="E523" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="F523" s="73" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="G523" s="72" t="s">
         <v>406</v>
@@ -65518,7 +65518,7 @@
     </row>
     <row r="524" spans="1:19">
       <c r="A524" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B524" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65528,13 +65528,13 @@
         <v>375</v>
       </c>
       <c r="D524" t="s">
-        <v>2006</v>
+        <v>1997</v>
       </c>
       <c r="E524" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="F524" s="73" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="G524" s="72" t="s">
         <v>406</v>
@@ -65574,7 +65574,7 @@
     </row>
     <row r="525" spans="1:19">
       <c r="A525" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B525" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65584,13 +65584,13 @@
         <v>375</v>
       </c>
       <c r="D525" t="s">
-        <v>2007</v>
+        <v>1998</v>
       </c>
       <c r="E525" t="s">
-        <v>2098</v>
+        <v>2089</v>
       </c>
       <c r="F525" s="73" t="s">
-        <v>2130</v>
+        <v>2121</v>
       </c>
       <c r="G525" s="72" t="s">
         <v>406</v>
@@ -65630,7 +65630,7 @@
     </row>
     <row r="526" spans="1:19">
       <c r="A526" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B526" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65640,13 +65640,13 @@
         <v>375</v>
       </c>
       <c r="D526" t="s">
-        <v>2008</v>
+        <v>1999</v>
       </c>
       <c r="E526" t="s">
-        <v>2100</v>
+        <v>2091</v>
       </c>
       <c r="F526" s="73" t="s">
-        <v>2131</v>
+        <v>2122</v>
       </c>
       <c r="G526" s="72" t="s">
         <v>406</v>
@@ -65686,7 +65686,7 @@
     </row>
     <row r="527" spans="1:19">
       <c r="A527" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B527" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65696,13 +65696,13 @@
         <v>375</v>
       </c>
       <c r="D527" t="s">
-        <v>2009</v>
+        <v>2000</v>
       </c>
       <c r="E527" t="s">
-        <v>2100</v>
+        <v>2091</v>
       </c>
       <c r="F527" s="73" t="s">
-        <v>2131</v>
+        <v>2122</v>
       </c>
       <c r="G527" s="72" t="s">
         <v>406</v>
@@ -65742,7 +65742,7 @@
     </row>
     <row r="528" spans="1:19">
       <c r="A528" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B528" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65752,13 +65752,13 @@
         <v>375</v>
       </c>
       <c r="D528" t="s">
-        <v>2010</v>
+        <v>2001</v>
       </c>
       <c r="E528" t="s">
-        <v>2101</v>
+        <v>2092</v>
       </c>
       <c r="F528" s="73" t="s">
-        <v>2131</v>
+        <v>2122</v>
       </c>
       <c r="G528" s="72" t="s">
         <v>406</v>
@@ -65798,7 +65798,7 @@
     </row>
     <row r="529" spans="1:19">
       <c r="A529" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B529" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65808,13 +65808,13 @@
         <v>375</v>
       </c>
       <c r="D529" t="s">
-        <v>2011</v>
+        <v>2002</v>
       </c>
       <c r="E529" t="s">
-        <v>2100</v>
+        <v>2091</v>
       </c>
       <c r="F529" s="73" t="s">
-        <v>2131</v>
+        <v>2122</v>
       </c>
       <c r="G529" s="72" t="s">
         <v>406</v>
@@ -65854,7 +65854,7 @@
     </row>
     <row r="530" spans="1:19">
       <c r="A530" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B530" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65864,13 +65864,13 @@
         <v>375</v>
       </c>
       <c r="D530" t="s">
-        <v>2012</v>
+        <v>2003</v>
       </c>
       <c r="E530" t="s">
-        <v>2102</v>
+        <v>2093</v>
       </c>
       <c r="F530" s="73" t="s">
-        <v>2132</v>
+        <v>2123</v>
       </c>
       <c r="G530" s="72" t="s">
         <v>406</v>
@@ -65910,7 +65910,7 @@
     </row>
     <row r="531" spans="1:19">
       <c r="A531" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B531" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65920,13 +65920,13 @@
         <v>375</v>
       </c>
       <c r="D531" t="s">
-        <v>2013</v>
+        <v>2004</v>
       </c>
       <c r="E531" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="F531" s="73" t="s">
-        <v>2133</v>
+        <v>2124</v>
       </c>
       <c r="G531" s="72" t="s">
         <v>406</v>
@@ -65966,7 +65966,7 @@
     </row>
     <row r="532" spans="1:19">
       <c r="A532" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B532" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65976,13 +65976,13 @@
         <v>375</v>
       </c>
       <c r="D532" t="s">
-        <v>2014</v>
+        <v>2005</v>
       </c>
       <c r="E532" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="F532" s="73" t="s">
-        <v>2133</v>
+        <v>2124</v>
       </c>
       <c r="G532" s="72" t="s">
         <v>406</v>
@@ -66022,7 +66022,7 @@
     </row>
     <row r="533" spans="1:19">
       <c r="A533" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B533" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66032,13 +66032,13 @@
         <v>375</v>
       </c>
       <c r="D533" t="s">
-        <v>2015</v>
+        <v>2006</v>
       </c>
       <c r="E533" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="F533" s="73" t="s">
-        <v>2133</v>
+        <v>2124</v>
       </c>
       <c r="G533" s="72" t="s">
         <v>406</v>
@@ -66078,7 +66078,7 @@
     </row>
     <row r="534" spans="1:19">
       <c r="A534" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B534" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66088,13 +66088,13 @@
         <v>375</v>
       </c>
       <c r="D534" t="s">
-        <v>2016</v>
+        <v>2007</v>
       </c>
       <c r="E534" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="F534" s="73" t="s">
-        <v>2133</v>
+        <v>2124</v>
       </c>
       <c r="G534" s="72" t="s">
         <v>406</v>
@@ -66134,7 +66134,7 @@
     </row>
     <row r="535" spans="1:19">
       <c r="A535" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B535" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66144,13 +66144,13 @@
         <v>375</v>
       </c>
       <c r="D535" t="s">
-        <v>2017</v>
+        <v>2008</v>
       </c>
       <c r="E535" t="s">
-        <v>2103</v>
+        <v>2094</v>
       </c>
       <c r="F535" s="73" t="s">
-        <v>2133</v>
+        <v>2124</v>
       </c>
       <c r="G535" s="72" t="s">
         <v>406</v>
@@ -66190,7 +66190,7 @@
     </row>
     <row r="536" spans="1:19">
       <c r="A536" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B536" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66200,13 +66200,13 @@
         <v>375</v>
       </c>
       <c r="D536" t="s">
-        <v>2018</v>
+        <v>2009</v>
       </c>
       <c r="E536" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
       <c r="F536" s="73" t="s">
-        <v>2134</v>
+        <v>2125</v>
       </c>
       <c r="G536" s="72" t="s">
         <v>406</v>
@@ -66246,7 +66246,7 @@
     </row>
     <row r="537" spans="1:19">
       <c r="A537" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B537" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66256,13 +66256,13 @@
         <v>375</v>
       </c>
       <c r="D537" t="s">
-        <v>2019</v>
+        <v>2010</v>
       </c>
       <c r="E537" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
       <c r="F537" s="73" t="s">
-        <v>2134</v>
+        <v>2125</v>
       </c>
       <c r="G537" s="72" t="s">
         <v>406</v>
@@ -66302,7 +66302,7 @@
     </row>
     <row r="538" spans="1:19">
       <c r="A538" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B538" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66312,13 +66312,13 @@
         <v>375</v>
       </c>
       <c r="D538" t="s">
-        <v>2020</v>
+        <v>2011</v>
       </c>
       <c r="E538" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
       <c r="F538" s="73" t="s">
-        <v>2134</v>
+        <v>2125</v>
       </c>
       <c r="G538" s="72" t="s">
         <v>406</v>
@@ -66358,7 +66358,7 @@
     </row>
     <row r="539" spans="1:19">
       <c r="A539" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B539" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66368,13 +66368,13 @@
         <v>375</v>
       </c>
       <c r="D539" t="s">
-        <v>2021</v>
+        <v>2012</v>
       </c>
       <c r="E539" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
       <c r="F539" s="73" t="s">
-        <v>2134</v>
+        <v>2125</v>
       </c>
       <c r="G539" s="72" t="s">
         <v>406</v>
@@ -66414,7 +66414,7 @@
     </row>
     <row r="540" spans="1:19">
       <c r="A540" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B540" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66424,10 +66424,10 @@
         <v>377</v>
       </c>
       <c r="D540" t="s">
-        <v>2022</v>
+        <v>2013</v>
       </c>
       <c r="E540" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
       <c r="F540" s="73" t="s">
         <v>449</v>
@@ -66440,7 +66440,7 @@
         <v/>
       </c>
       <c r="I540" t="s">
-        <v>2160</v>
+        <v>2151</v>
       </c>
       <c r="J540" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -66473,7 +66473,7 @@
     </row>
     <row r="541" spans="1:19">
       <c r="A541" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B541" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66483,13 +66483,13 @@
         <v>370</v>
       </c>
       <c r="D541" t="s">
-        <v>2023</v>
+        <v>2014</v>
       </c>
       <c r="E541" t="s">
-        <v>2104</v>
+        <v>2095</v>
       </c>
       <c r="F541" s="73" t="s">
-        <v>2134</v>
+        <v>2125</v>
       </c>
       <c r="G541" s="72" t="s">
         <v>400</v>
@@ -66529,7 +66529,7 @@
     </row>
     <row r="542" spans="1:19">
       <c r="A542" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B542" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66539,13 +66539,13 @@
         <v>375</v>
       </c>
       <c r="D542" t="s">
-        <v>2024</v>
+        <v>2015</v>
       </c>
       <c r="E542" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="F542" s="73" t="s">
-        <v>2135</v>
+        <v>2126</v>
       </c>
       <c r="G542" s="72" t="s">
         <v>406</v>
@@ -66585,7 +66585,7 @@
     </row>
     <row r="543" spans="1:19">
       <c r="A543" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B543" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66595,13 +66595,13 @@
         <v>375</v>
       </c>
       <c r="D543" t="s">
-        <v>2025</v>
+        <v>2016</v>
       </c>
       <c r="E543" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="F543" s="73" t="s">
-        <v>2135</v>
+        <v>2126</v>
       </c>
       <c r="G543" s="72" t="s">
         <v>406</v>
@@ -66641,7 +66641,7 @@
     </row>
     <row r="544" spans="1:19">
       <c r="A544" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B544" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66651,13 +66651,13 @@
         <v>375</v>
       </c>
       <c r="D544" t="s">
-        <v>2026</v>
+        <v>2017</v>
       </c>
       <c r="E544" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="F544" s="73" t="s">
-        <v>2135</v>
+        <v>2126</v>
       </c>
       <c r="G544" s="72" t="s">
         <v>406</v>
@@ -66697,7 +66697,7 @@
     </row>
     <row r="545" spans="1:19">
       <c r="A545" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B545" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66707,13 +66707,13 @@
         <v>375</v>
       </c>
       <c r="D545" t="s">
-        <v>2027</v>
+        <v>2018</v>
       </c>
       <c r="E545" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="F545" s="73" t="s">
-        <v>2135</v>
+        <v>2126</v>
       </c>
       <c r="G545" s="72" t="s">
         <v>406</v>
@@ -66753,7 +66753,7 @@
     </row>
     <row r="546" spans="1:19">
       <c r="A546" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B546" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66763,13 +66763,13 @@
         <v>375</v>
       </c>
       <c r="D546" t="s">
-        <v>2028</v>
+        <v>2019</v>
       </c>
       <c r="E546" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="F546" s="73" t="s">
-        <v>2135</v>
+        <v>2126</v>
       </c>
       <c r="G546" s="72" t="s">
         <v>406</v>
@@ -66809,7 +66809,7 @@
     </row>
     <row r="547" spans="1:19">
       <c r="A547" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B547" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66819,13 +66819,13 @@
         <v>375</v>
       </c>
       <c r="D547" t="s">
-        <v>2029</v>
+        <v>2020</v>
       </c>
       <c r="E547" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="F547" s="73" t="s">
-        <v>2135</v>
+        <v>2126</v>
       </c>
       <c r="G547" s="72" t="s">
         <v>406</v>
@@ -66865,7 +66865,7 @@
     </row>
     <row r="548" spans="1:19">
       <c r="A548" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B548" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66875,13 +66875,13 @@
         <v>375</v>
       </c>
       <c r="D548" t="s">
-        <v>2030</v>
+        <v>2021</v>
       </c>
       <c r="E548" t="s">
-        <v>2105</v>
+        <v>2096</v>
       </c>
       <c r="F548" s="73" t="s">
-        <v>2135</v>
+        <v>2126</v>
       </c>
       <c r="G548" s="72" t="s">
         <v>406</v>
@@ -66921,7 +66921,7 @@
     </row>
     <row r="549" spans="1:19">
       <c r="A549" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B549" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66931,13 +66931,13 @@
         <v>375</v>
       </c>
       <c r="D549" t="s">
-        <v>2031</v>
+        <v>2022</v>
       </c>
       <c r="E549" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F549" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G549" s="72" t="s">
         <v>406</v>
@@ -66977,7 +66977,7 @@
     </row>
     <row r="550" spans="1:19">
       <c r="A550" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B550" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66987,13 +66987,13 @@
         <v>375</v>
       </c>
       <c r="D550" t="s">
-        <v>2032</v>
+        <v>2023</v>
       </c>
       <c r="E550" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F550" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G550" s="72" t="s">
         <v>406</v>
@@ -67033,7 +67033,7 @@
     </row>
     <row r="551" spans="1:19">
       <c r="A551" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B551" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67043,13 +67043,13 @@
         <v>375</v>
       </c>
       <c r="D551" t="s">
-        <v>2033</v>
+        <v>2024</v>
       </c>
       <c r="E551" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F551" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G551" s="72" t="s">
         <v>406</v>
@@ -67089,7 +67089,7 @@
     </row>
     <row r="552" spans="1:19">
       <c r="A552" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B552" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67099,13 +67099,13 @@
         <v>375</v>
       </c>
       <c r="D552" t="s">
-        <v>2034</v>
+        <v>2025</v>
       </c>
       <c r="E552" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F552" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G552" s="72" t="s">
         <v>406</v>
@@ -67145,7 +67145,7 @@
     </row>
     <row r="553" spans="1:19">
       <c r="A553" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B553" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67155,13 +67155,13 @@
         <v>375</v>
       </c>
       <c r="D553" t="s">
-        <v>2035</v>
+        <v>2026</v>
       </c>
       <c r="E553" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F553" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G553" s="72" t="s">
         <v>406</v>
@@ -67201,7 +67201,7 @@
     </row>
     <row r="554" spans="1:19">
       <c r="A554" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B554" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67211,13 +67211,13 @@
         <v>375</v>
       </c>
       <c r="D554" t="s">
-        <v>2036</v>
+        <v>2027</v>
       </c>
       <c r="E554" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F554" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G554" s="72" t="s">
         <v>406</v>
@@ -67257,7 +67257,7 @@
     </row>
     <row r="555" spans="1:19">
       <c r="A555" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B555" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67267,13 +67267,13 @@
         <v>375</v>
       </c>
       <c r="D555" t="s">
-        <v>2037</v>
+        <v>2028</v>
       </c>
       <c r="E555" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F555" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G555" s="72" t="s">
         <v>406</v>
@@ -67313,7 +67313,7 @@
     </row>
     <row r="556" spans="1:19">
       <c r="A556" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B556" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67323,13 +67323,13 @@
         <v>375</v>
       </c>
       <c r="D556" t="s">
-        <v>2038</v>
+        <v>2029</v>
       </c>
       <c r="E556" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F556" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G556" s="72" t="s">
         <v>406</v>
@@ -67369,7 +67369,7 @@
     </row>
     <row r="557" spans="1:19">
       <c r="A557" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B557" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67379,13 +67379,13 @@
         <v>375</v>
       </c>
       <c r="D557" t="s">
-        <v>2039</v>
+        <v>2030</v>
       </c>
       <c r="E557" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F557" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G557" s="72" t="s">
         <v>406</v>
@@ -67425,7 +67425,7 @@
     </row>
     <row r="558" spans="1:19">
       <c r="A558" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B558" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67435,13 +67435,13 @@
         <v>375</v>
       </c>
       <c r="D558" t="s">
-        <v>2040</v>
+        <v>2031</v>
       </c>
       <c r="E558" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F558" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G558" s="72" t="s">
         <v>406</v>
@@ -67481,7 +67481,7 @@
     </row>
     <row r="559" spans="1:19">
       <c r="A559" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B559" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67491,13 +67491,13 @@
         <v>375</v>
       </c>
       <c r="D559" t="s">
-        <v>2041</v>
+        <v>2032</v>
       </c>
       <c r="E559" t="s">
-        <v>2106</v>
+        <v>2097</v>
       </c>
       <c r="F559" s="73" t="s">
-        <v>2136</v>
+        <v>2127</v>
       </c>
       <c r="G559" s="72" t="s">
         <v>406</v>
@@ -67537,7 +67537,7 @@
     </row>
     <row r="560" spans="1:19">
       <c r="A560" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B560" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67547,13 +67547,13 @@
         <v>375</v>
       </c>
       <c r="D560" t="s">
-        <v>2042</v>
+        <v>2033</v>
       </c>
       <c r="E560" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="F560" s="73" t="s">
-        <v>2137</v>
+        <v>2128</v>
       </c>
       <c r="G560" s="72" t="s">
         <v>406</v>
@@ -67593,7 +67593,7 @@
     </row>
     <row r="561" spans="1:19">
       <c r="A561" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B561" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67603,13 +67603,13 @@
         <v>375</v>
       </c>
       <c r="D561" t="s">
-        <v>2043</v>
+        <v>2034</v>
       </c>
       <c r="E561" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="F561" s="73" t="s">
-        <v>2137</v>
+        <v>2128</v>
       </c>
       <c r="G561" s="72" t="s">
         <v>406</v>
@@ -67649,7 +67649,7 @@
     </row>
     <row r="562" spans="1:19">
       <c r="A562" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B562" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67659,13 +67659,13 @@
         <v>375</v>
       </c>
       <c r="D562" t="s">
-        <v>2044</v>
+        <v>2035</v>
       </c>
       <c r="E562" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="F562" s="73" t="s">
-        <v>2137</v>
+        <v>2128</v>
       </c>
       <c r="G562" s="72" t="s">
         <v>406</v>
@@ -67705,7 +67705,7 @@
     </row>
     <row r="563" spans="1:19">
       <c r="A563" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B563" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67715,13 +67715,13 @@
         <v>375</v>
       </c>
       <c r="D563" t="s">
-        <v>2045</v>
+        <v>2036</v>
       </c>
       <c r="E563" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="F563" s="73" t="s">
-        <v>2137</v>
+        <v>2128</v>
       </c>
       <c r="G563" s="72" t="s">
         <v>406</v>
@@ -67761,7 +67761,7 @@
     </row>
     <row r="564" spans="1:19">
       <c r="A564" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B564" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67771,13 +67771,13 @@
         <v>375</v>
       </c>
       <c r="D564" t="s">
-        <v>2046</v>
+        <v>2037</v>
       </c>
       <c r="E564" t="s">
-        <v>2107</v>
+        <v>2098</v>
       </c>
       <c r="F564" s="73" t="s">
-        <v>2137</v>
+        <v>2128</v>
       </c>
       <c r="G564" s="72" t="s">
         <v>406</v>
@@ -67817,7 +67817,7 @@
     </row>
     <row r="565" spans="1:19">
       <c r="A565" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B565" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67827,13 +67827,13 @@
         <v>375</v>
       </c>
       <c r="D565" t="s">
-        <v>2047</v>
+        <v>2038</v>
       </c>
       <c r="E565" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F565" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G565" s="72" t="s">
         <v>406</v>
@@ -67873,7 +67873,7 @@
     </row>
     <row r="566" spans="1:19">
       <c r="A566" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B566" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67883,13 +67883,13 @@
         <v>375</v>
       </c>
       <c r="D566" t="s">
-        <v>2048</v>
+        <v>2039</v>
       </c>
       <c r="E566" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F566" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G566" s="72" t="s">
         <v>406</v>
@@ -67929,7 +67929,7 @@
     </row>
     <row r="567" spans="1:19">
       <c r="A567" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B567" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67939,13 +67939,13 @@
         <v>375</v>
       </c>
       <c r="D567" t="s">
-        <v>2049</v>
+        <v>2040</v>
       </c>
       <c r="E567" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F567" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G567" s="72" t="s">
         <v>406</v>
@@ -67985,7 +67985,7 @@
     </row>
     <row r="568" spans="1:19">
       <c r="A568" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B568" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67995,13 +67995,13 @@
         <v>375</v>
       </c>
       <c r="D568" t="s">
-        <v>2050</v>
+        <v>2041</v>
       </c>
       <c r="E568" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F568" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G568" s="72" t="s">
         <v>406</v>
@@ -68041,7 +68041,7 @@
     </row>
     <row r="569" spans="1:19">
       <c r="A569" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B569" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68051,13 +68051,13 @@
         <v>375</v>
       </c>
       <c r="D569" t="s">
-        <v>2051</v>
+        <v>2042</v>
       </c>
       <c r="E569" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F569" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G569" s="72" t="s">
         <v>406</v>
@@ -68097,7 +68097,7 @@
     </row>
     <row r="570" spans="1:19">
       <c r="A570" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B570" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68107,13 +68107,13 @@
         <v>375</v>
       </c>
       <c r="D570" t="s">
-        <v>2052</v>
+        <v>2043</v>
       </c>
       <c r="E570" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F570" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G570" s="72" t="s">
         <v>406</v>
@@ -68153,7 +68153,7 @@
     </row>
     <row r="571" spans="1:19">
       <c r="A571" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B571" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68163,13 +68163,13 @@
         <v>375</v>
       </c>
       <c r="D571" t="s">
-        <v>2053</v>
+        <v>2044</v>
       </c>
       <c r="E571" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F571" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G571" s="72" t="s">
         <v>406</v>
@@ -68209,7 +68209,7 @@
     </row>
     <row r="572" spans="1:19">
       <c r="A572" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B572" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68219,13 +68219,13 @@
         <v>375</v>
       </c>
       <c r="D572" t="s">
-        <v>2054</v>
+        <v>2045</v>
       </c>
       <c r="E572" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F572" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G572" s="72" t="s">
         <v>406</v>
@@ -68265,7 +68265,7 @@
     </row>
     <row r="573" spans="1:19">
       <c r="A573" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B573" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68275,13 +68275,13 @@
         <v>375</v>
       </c>
       <c r="D573" t="s">
-        <v>2055</v>
+        <v>2046</v>
       </c>
       <c r="E573" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F573" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G573" s="72" t="s">
         <v>406</v>
@@ -68321,7 +68321,7 @@
     </row>
     <row r="574" spans="1:19">
       <c r="A574" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B574" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68331,13 +68331,13 @@
         <v>375</v>
       </c>
       <c r="D574" t="s">
-        <v>2056</v>
+        <v>2047</v>
       </c>
       <c r="E574" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F574" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G574" s="72" t="s">
         <v>406</v>
@@ -68377,7 +68377,7 @@
     </row>
     <row r="575" spans="1:19">
       <c r="A575" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B575" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68387,13 +68387,13 @@
         <v>375</v>
       </c>
       <c r="D575" t="s">
-        <v>2057</v>
+        <v>2048</v>
       </c>
       <c r="E575" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F575" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G575" s="72" t="s">
         <v>406</v>
@@ -68433,7 +68433,7 @@
     </row>
     <row r="576" spans="1:19">
       <c r="A576" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B576" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68443,13 +68443,13 @@
         <v>375</v>
       </c>
       <c r="D576" t="s">
-        <v>2058</v>
+        <v>2049</v>
       </c>
       <c r="E576" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F576" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G576" s="72" t="s">
         <v>406</v>
@@ -68489,7 +68489,7 @@
     </row>
     <row r="577" spans="1:19">
       <c r="A577" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B577" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68499,13 +68499,13 @@
         <v>375</v>
       </c>
       <c r="D577" t="s">
-        <v>2059</v>
+        <v>2050</v>
       </c>
       <c r="E577" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F577" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G577" s="72" t="s">
         <v>406</v>
@@ -68545,7 +68545,7 @@
     </row>
     <row r="578" spans="1:19">
       <c r="A578" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B578" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68555,10 +68555,10 @@
         <v>377</v>
       </c>
       <c r="D578" t="s">
-        <v>2060</v>
+        <v>2051</v>
       </c>
       <c r="E578" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F578" s="73" t="s">
         <v>449</v>
@@ -68571,7 +68571,7 @@
         <v/>
       </c>
       <c r="I578" s="72" t="s">
-        <v>2160</v>
+        <v>2151</v>
       </c>
       <c r="J578" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -68604,7 +68604,7 @@
     </row>
     <row r="579" spans="1:19">
       <c r="A579" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B579" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68614,13 +68614,13 @@
         <v>370</v>
       </c>
       <c r="D579" t="s">
-        <v>2061</v>
+        <v>2052</v>
       </c>
       <c r="E579" t="s">
-        <v>2108</v>
+        <v>2099</v>
       </c>
       <c r="F579" s="73" t="s">
-        <v>2138</v>
+        <v>2129</v>
       </c>
       <c r="G579" s="72" t="s">
         <v>400</v>
@@ -68660,7 +68660,7 @@
     </row>
     <row r="580" spans="1:19">
       <c r="A580" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B580" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68670,13 +68670,13 @@
         <v>375</v>
       </c>
       <c r="D580" t="s">
-        <v>2062</v>
+        <v>2053</v>
       </c>
       <c r="E580" t="s">
-        <v>2109</v>
+        <v>2100</v>
       </c>
       <c r="F580" s="73" t="s">
-        <v>2139</v>
+        <v>2130</v>
       </c>
       <c r="G580" s="72" t="s">
         <v>406</v>
@@ -68716,7 +68716,7 @@
     </row>
     <row r="581" spans="1:19">
       <c r="A581" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B581" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68726,13 +68726,13 @@
         <v>375</v>
       </c>
       <c r="D581" t="s">
-        <v>2063</v>
+        <v>2054</v>
       </c>
       <c r="E581" t="s">
-        <v>2109</v>
+        <v>2100</v>
       </c>
       <c r="F581" s="73" t="s">
-        <v>2139</v>
+        <v>2130</v>
       </c>
       <c r="G581" s="72" t="s">
         <v>406</v>
@@ -68772,7 +68772,7 @@
     </row>
     <row r="582" spans="1:19">
       <c r="A582" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B582" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68782,13 +68782,13 @@
         <v>375</v>
       </c>
       <c r="D582" t="s">
-        <v>2064</v>
+        <v>2055</v>
       </c>
       <c r="E582" t="s">
-        <v>2109</v>
+        <v>2100</v>
       </c>
       <c r="F582" s="73" t="s">
-        <v>2139</v>
+        <v>2130</v>
       </c>
       <c r="G582" s="72" t="s">
         <v>406</v>
@@ -68828,7 +68828,7 @@
     </row>
     <row r="583" spans="1:19">
       <c r="A583" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B583" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68838,13 +68838,13 @@
         <v>375</v>
       </c>
       <c r="D583" t="s">
-        <v>2065</v>
+        <v>2056</v>
       </c>
       <c r="E583" t="s">
-        <v>2110</v>
+        <v>2101</v>
       </c>
       <c r="F583" s="73" t="s">
-        <v>2140</v>
+        <v>2131</v>
       </c>
       <c r="G583" s="72" t="s">
         <v>406</v>
@@ -68884,7 +68884,7 @@
     </row>
     <row r="584" spans="1:19">
       <c r="A584" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B584" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68894,13 +68894,13 @@
         <v>375</v>
       </c>
       <c r="D584" t="s">
-        <v>2066</v>
+        <v>2057</v>
       </c>
       <c r="E584" t="s">
-        <v>2111</v>
+        <v>2102</v>
       </c>
       <c r="F584" s="73" t="s">
-        <v>2140</v>
+        <v>2131</v>
       </c>
       <c r="G584" s="72" t="s">
         <v>406</v>
@@ -68940,7 +68940,7 @@
     </row>
     <row r="585" spans="1:19">
       <c r="A585" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B585" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68950,13 +68950,13 @@
         <v>375</v>
       </c>
       <c r="D585" t="s">
-        <v>2067</v>
+        <v>2058</v>
       </c>
       <c r="E585" t="s">
-        <v>2112</v>
+        <v>2103</v>
       </c>
       <c r="F585" s="73" t="s">
-        <v>2141</v>
+        <v>2132</v>
       </c>
       <c r="G585" s="72" t="s">
         <v>406</v>
@@ -68996,7 +68996,7 @@
     </row>
     <row r="586" spans="1:19">
       <c r="A586" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B586" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69006,13 +69006,13 @@
         <v>375</v>
       </c>
       <c r="D586" t="s">
-        <v>2068</v>
+        <v>2059</v>
       </c>
       <c r="E586" t="s">
-        <v>2113</v>
+        <v>2104</v>
       </c>
       <c r="F586" s="73" t="s">
-        <v>2141</v>
+        <v>2132</v>
       </c>
       <c r="G586" s="72" t="s">
         <v>406</v>
@@ -69052,7 +69052,7 @@
     </row>
     <row r="587" spans="1:19">
       <c r="A587" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B587" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69062,13 +69062,13 @@
         <v>375</v>
       </c>
       <c r="D587" t="s">
-        <v>2069</v>
+        <v>2060</v>
       </c>
       <c r="E587" t="s">
-        <v>2113</v>
+        <v>2104</v>
       </c>
       <c r="F587" s="73" t="s">
-        <v>2141</v>
+        <v>2132</v>
       </c>
       <c r="G587" s="72" t="s">
         <v>406</v>
@@ -69108,7 +69108,7 @@
     </row>
     <row r="588" spans="1:19">
       <c r="A588" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B588" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69118,13 +69118,13 @@
         <v>375</v>
       </c>
       <c r="D588" t="s">
-        <v>2070</v>
+        <v>2061</v>
       </c>
       <c r="E588" t="s">
-        <v>2112</v>
+        <v>2103</v>
       </c>
       <c r="F588" s="73" t="s">
-        <v>2141</v>
+        <v>2132</v>
       </c>
       <c r="G588" s="72" t="s">
         <v>406</v>
@@ -69164,7 +69164,7 @@
     </row>
     <row r="589" spans="1:19">
       <c r="A589" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B589" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69174,13 +69174,13 @@
         <v>375</v>
       </c>
       <c r="D589" t="s">
-        <v>2071</v>
+        <v>2062</v>
       </c>
       <c r="E589" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
       <c r="F589" s="73" t="s">
-        <v>2142</v>
+        <v>2133</v>
       </c>
       <c r="G589" s="72" t="s">
         <v>406</v>
@@ -69220,7 +69220,7 @@
     </row>
     <row r="590" spans="1:19">
       <c r="A590" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B590" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69230,13 +69230,13 @@
         <v>375</v>
       </c>
       <c r="D590" t="s">
-        <v>2072</v>
+        <v>2063</v>
       </c>
       <c r="E590" t="s">
-        <v>2097</v>
+        <v>2088</v>
       </c>
       <c r="F590" s="73" t="s">
-        <v>2142</v>
+        <v>2133</v>
       </c>
       <c r="G590" s="72" t="s">
         <v>406</v>
@@ -69276,7 +69276,7 @@
     </row>
     <row r="591" spans="1:19">
       <c r="A591" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B591" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69286,13 +69286,13 @@
         <v>375</v>
       </c>
       <c r="D591" t="s">
-        <v>2073</v>
+        <v>2064</v>
       </c>
       <c r="E591" t="s">
-        <v>2114</v>
+        <v>2105</v>
       </c>
       <c r="F591" s="73" t="s">
-        <v>2143</v>
+        <v>2134</v>
       </c>
       <c r="G591" s="72" t="s">
         <v>406</v>
@@ -69332,7 +69332,7 @@
     </row>
     <row r="592" spans="1:19">
       <c r="A592" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B592" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69342,13 +69342,13 @@
         <v>375</v>
       </c>
       <c r="D592" t="s">
-        <v>2074</v>
+        <v>2065</v>
       </c>
       <c r="E592" t="s">
-        <v>2115</v>
+        <v>2106</v>
       </c>
       <c r="F592" s="73" t="s">
-        <v>2143</v>
+        <v>2134</v>
       </c>
       <c r="G592" s="72" t="s">
         <v>406</v>
@@ -69388,7 +69388,7 @@
     </row>
     <row r="593" spans="1:19">
       <c r="A593" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B593" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69398,13 +69398,13 @@
         <v>375</v>
       </c>
       <c r="D593" t="s">
-        <v>2075</v>
+        <v>2066</v>
       </c>
       <c r="E593" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
       <c r="F593" s="73" t="s">
-        <v>2144</v>
+        <v>2135</v>
       </c>
       <c r="G593" s="72" t="s">
         <v>406</v>
@@ -69444,7 +69444,7 @@
     </row>
     <row r="594" spans="1:19">
       <c r="A594" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B594" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69454,13 +69454,13 @@
         <v>375</v>
       </c>
       <c r="D594" t="s">
-        <v>2076</v>
+        <v>2067</v>
       </c>
       <c r="E594" t="s">
-        <v>2116</v>
+        <v>2107</v>
       </c>
       <c r="F594" s="73" t="s">
-        <v>2144</v>
+        <v>2135</v>
       </c>
       <c r="G594" s="72" t="s">
         <v>406</v>
@@ -69500,7 +69500,7 @@
     </row>
     <row r="595" spans="1:19">
       <c r="A595" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B595" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69510,13 +69510,13 @@
         <v>375</v>
       </c>
       <c r="D595" t="s">
-        <v>2077</v>
+        <v>2068</v>
       </c>
       <c r="E595" t="s">
-        <v>2117</v>
+        <v>2108</v>
       </c>
       <c r="F595" s="73" t="s">
-        <v>2145</v>
+        <v>2136</v>
       </c>
       <c r="G595" s="72" t="s">
         <v>406</v>
@@ -69556,7 +69556,7 @@
     </row>
     <row r="596" spans="1:19">
       <c r="A596" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B596" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69566,13 +69566,13 @@
         <v>375</v>
       </c>
       <c r="D596" t="s">
-        <v>2078</v>
+        <v>2069</v>
       </c>
       <c r="E596" t="s">
-        <v>2118</v>
+        <v>2109</v>
       </c>
       <c r="F596" s="73" t="s">
-        <v>2146</v>
+        <v>2137</v>
       </c>
       <c r="G596" s="72" t="s">
         <v>406</v>
@@ -69612,7 +69612,7 @@
     </row>
     <row r="597" spans="1:19">
       <c r="A597" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B597" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69622,13 +69622,13 @@
         <v>375</v>
       </c>
       <c r="D597" t="s">
-        <v>2079</v>
+        <v>2070</v>
       </c>
       <c r="E597" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="F597" s="73" t="s">
-        <v>2147</v>
+        <v>2138</v>
       </c>
       <c r="G597" s="72" t="s">
         <v>406</v>
@@ -69668,7 +69668,7 @@
     </row>
     <row r="598" spans="1:19">
       <c r="A598" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B598" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69678,13 +69678,13 @@
         <v>375</v>
       </c>
       <c r="D598" t="s">
-        <v>2080</v>
+        <v>2071</v>
       </c>
       <c r="E598" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="F598" s="73" t="s">
-        <v>2148</v>
+        <v>2139</v>
       </c>
       <c r="G598" s="72" t="s">
         <v>406</v>
@@ -69724,7 +69724,7 @@
     </row>
     <row r="599" spans="1:19">
       <c r="A599" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B599" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69734,13 +69734,13 @@
         <v>375</v>
       </c>
       <c r="D599" t="s">
-        <v>2081</v>
+        <v>2072</v>
       </c>
       <c r="E599" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="F599" s="73" t="s">
-        <v>2148</v>
+        <v>2139</v>
       </c>
       <c r="G599" s="72" t="s">
         <v>406</v>
@@ -69780,7 +69780,7 @@
     </row>
     <row r="600" spans="1:19">
       <c r="A600" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B600" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69790,13 +69790,13 @@
         <v>375</v>
       </c>
       <c r="D600" t="s">
-        <v>2082</v>
+        <v>2073</v>
       </c>
       <c r="E600" t="s">
-        <v>2120</v>
+        <v>2111</v>
       </c>
       <c r="F600" s="73" t="s">
-        <v>2148</v>
+        <v>2139</v>
       </c>
       <c r="G600" s="72" t="s">
         <v>406</v>
@@ -69836,7 +69836,7 @@
     </row>
     <row r="601" spans="1:19">
       <c r="A601" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B601" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69846,13 +69846,13 @@
         <v>375</v>
       </c>
       <c r="D601" t="s">
-        <v>2083</v>
+        <v>2074</v>
       </c>
       <c r="E601" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="F601" s="73" t="s">
-        <v>2149</v>
+        <v>2140</v>
       </c>
       <c r="G601" s="72" t="s">
         <v>406</v>
@@ -69892,7 +69892,7 @@
     </row>
     <row r="602" spans="1:19">
       <c r="A602" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B602" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69902,13 +69902,13 @@
         <v>375</v>
       </c>
       <c r="D602" t="s">
-        <v>2084</v>
+        <v>2075</v>
       </c>
       <c r="E602" t="s">
-        <v>2119</v>
+        <v>2110</v>
       </c>
       <c r="F602" s="73" t="s">
-        <v>2150</v>
+        <v>2141</v>
       </c>
       <c r="G602" s="72" t="s">
         <v>406</v>
@@ -69948,7 +69948,7 @@
     </row>
     <row r="603" spans="1:19">
       <c r="A603" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B603" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69958,13 +69958,13 @@
         <v>375</v>
       </c>
       <c r="D603" t="s">
-        <v>2085</v>
+        <v>2076</v>
       </c>
       <c r="E603" t="s">
-        <v>2121</v>
+        <v>2112</v>
       </c>
       <c r="F603" s="73" t="s">
-        <v>2151</v>
+        <v>2142</v>
       </c>
       <c r="G603" s="72" t="s">
         <v>406</v>
@@ -70004,7 +70004,7 @@
     </row>
     <row r="604" spans="1:19">
       <c r="A604" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B604" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70014,13 +70014,13 @@
         <v>375</v>
       </c>
       <c r="D604" t="s">
-        <v>2086</v>
+        <v>2077</v>
       </c>
       <c r="E604" t="s">
-        <v>2122</v>
+        <v>2113</v>
       </c>
       <c r="F604" s="73" t="s">
-        <v>2152</v>
+        <v>2143</v>
       </c>
       <c r="G604" s="72" t="s">
         <v>406</v>
@@ -70060,7 +70060,7 @@
     </row>
     <row r="605" spans="1:19">
       <c r="A605" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B605" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70070,13 +70070,13 @@
         <v>375</v>
       </c>
       <c r="D605" t="s">
-        <v>2087</v>
+        <v>2078</v>
       </c>
       <c r="E605" t="s">
-        <v>2123</v>
+        <v>2114</v>
       </c>
       <c r="F605" s="73" t="s">
-        <v>2153</v>
+        <v>2144</v>
       </c>
       <c r="G605" s="72" t="s">
         <v>406</v>
@@ -70116,7 +70116,7 @@
     </row>
     <row r="606" spans="1:19">
       <c r="A606" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B606" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70126,13 +70126,13 @@
         <v>375</v>
       </c>
       <c r="D606" t="s">
-        <v>2088</v>
+        <v>2079</v>
       </c>
       <c r="E606" t="s">
-        <v>2124</v>
+        <v>2115</v>
       </c>
       <c r="F606" s="73" t="s">
-        <v>2154</v>
+        <v>2145</v>
       </c>
       <c r="G606" s="72" t="s">
         <v>406</v>
@@ -70172,7 +70172,7 @@
     </row>
     <row r="607" spans="1:19">
       <c r="A607" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B607" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70182,13 +70182,13 @@
         <v>370</v>
       </c>
       <c r="D607" t="s">
-        <v>2089</v>
+        <v>2080</v>
       </c>
       <c r="E607" t="s">
-        <v>2125</v>
+        <v>2116</v>
       </c>
       <c r="F607" s="73" t="s">
-        <v>2155</v>
+        <v>2146</v>
       </c>
       <c r="G607" s="72" t="s">
         <v>400</v>
@@ -70228,7 +70228,7 @@
     </row>
     <row r="608" spans="1:19">
       <c r="A608" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B608" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70238,13 +70238,13 @@
         <v>370</v>
       </c>
       <c r="D608" t="s">
-        <v>2090</v>
+        <v>2081</v>
       </c>
       <c r="E608" t="s">
-        <v>2125</v>
+        <v>2116</v>
       </c>
       <c r="F608" s="73" t="s">
-        <v>2156</v>
+        <v>2147</v>
       </c>
       <c r="G608" s="72" t="s">
         <v>400</v>
@@ -70284,7 +70284,7 @@
     </row>
     <row r="609" spans="1:19">
       <c r="A609" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B609" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70294,13 +70294,13 @@
         <v>370</v>
       </c>
       <c r="D609" t="s">
-        <v>2091</v>
+        <v>2082</v>
       </c>
       <c r="E609" t="s">
-        <v>2125</v>
+        <v>2116</v>
       </c>
       <c r="F609" s="73" t="s">
-        <v>2157</v>
+        <v>2148</v>
       </c>
       <c r="G609" s="72" t="s">
         <v>400</v>
@@ -70340,7 +70340,7 @@
     </row>
     <row r="610" spans="1:19">
       <c r="A610" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B610" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70350,13 +70350,13 @@
         <v>370</v>
       </c>
       <c r="D610" t="s">
-        <v>2092</v>
+        <v>2083</v>
       </c>
       <c r="E610" t="s">
-        <v>2125</v>
+        <v>2116</v>
       </c>
       <c r="F610" s="73" t="s">
-        <v>2158</v>
+        <v>2149</v>
       </c>
       <c r="G610" s="72" t="s">
         <v>400</v>
@@ -70396,7 +70396,7 @@
     </row>
     <row r="611" spans="1:19">
       <c r="A611" s="72" t="s">
-        <v>1995</v>
+        <v>1986</v>
       </c>
       <c r="B611" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70406,13 +70406,13 @@
         <v>370</v>
       </c>
       <c r="D611" t="s">
-        <v>2093</v>
+        <v>2084</v>
       </c>
       <c r="E611" t="s">
-        <v>2125</v>
+        <v>2116</v>
       </c>
       <c r="F611" s="73" t="s">
-        <v>2159</v>
+        <v>2150</v>
       </c>
       <c r="G611" s="72" t="s">
         <v>400</v>
@@ -70598,7 +70598,6 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId1"/>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId2"/>
   </customProperties>
 </worksheet>
 </file>
@@ -74292,7 +74291,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1980</v>
+        <v>1971</v>
       </c>
       <c r="B114" t="s">
         <v>595</v>

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4471162E-87F9-41CA-ACCB-42A1C7E6DE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25B614E-E433-4F2B-BEB2-9715147C0819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4680" yWindow="1095" windowWidth="20910" windowHeight="11835" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="5" r:id="rId1"/>
@@ -45,7 +45,7 @@
   </definedNames>
   <calcPr calcId="191029"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId12"/>
+    <pivotCache cacheId="75" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -5981,12 +5981,6 @@
     <t>FR7081100</t>
   </si>
   <si>
-    <t>L000013890</t>
-  </si>
-  <si>
-    <t>L000013891</t>
-  </si>
-  <si>
     <t>L000013595</t>
   </si>
   <si>
@@ -6567,6 +6561,12 @@
   </si>
   <si>
     <t>CPHOENX_01010000648917 CDMO mRNA IT/OT</t>
+  </si>
+  <si>
+    <t>L000013824</t>
+  </si>
+  <si>
+    <t>L000013825</t>
   </si>
 </sst>
 </file>
@@ -7489,7 +7489,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45705.657662500002" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="610" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45705.930133217589" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="610" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
   <cacheSource type="worksheet">
     <worksheetSource name="Proc"/>
   </cacheSource>
@@ -19315,9 +19315,9 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="7"/>
-    <s v="PHOENX_0101/648610"/>
-    <s v="L000013890"/>
+    <x v="5"/>
+    <s v="CPHOENX_01010000648610 CDMO mRNA Quality"/>
+    <s v="L000013824"/>
     <s v="L000013595"/>
     <s v="Non-LFF"/>
     <s v=""/>
@@ -19336,9 +19336,9 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="7"/>
-    <s v="PHOENX_0101/604750"/>
-    <s v="L000013890"/>
+    <x v="5"/>
+    <s v="CPHOENX_01010000604750 mRNA QC Quality"/>
+    <s v="L000013824"/>
     <s v="L000013330"/>
     <s v="Non-LFF"/>
     <s v=""/>
@@ -19357,9 +19357,9 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="7"/>
-    <s v="PHOENX_0101/648912"/>
-    <s v="L000013890"/>
+    <x v="5"/>
+    <s v="CPHOENX_01010000648912 CDMO mRNA QC Hamburg"/>
+    <s v="L000013824"/>
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
@@ -19378,9 +19378,9 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="7"/>
-    <s v="PHOENX_0101/648916"/>
-    <s v="L000013891"/>
+    <x v="5"/>
+    <s v="CPHOENX_01010000648916 CDMO mRNA Management Darmstadt/Hamburg"/>
+    <s v="L000013825"/>
     <s v="L000013595"/>
     <s v="Non-LFF"/>
     <s v=""/>
@@ -19399,9 +19399,9 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="7"/>
-    <s v="PHOENX_0101/648921"/>
-    <s v="L000013891"/>
+    <x v="5"/>
+    <s v="CPHOENX_01010000648921 Alloc. PPA Amptec to RPP Amort Intang"/>
+    <s v="L000013825"/>
     <s v="L000013595"/>
     <s v="Non-LFF"/>
     <s v=""/>
@@ -19420,9 +19420,9 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="7"/>
-    <s v="PHOENX_0101/648913"/>
-    <s v="L000013891"/>
+    <x v="5"/>
+    <s v="CPHOENX_01010000648913 CDMO mRNA Engineering"/>
+    <s v="L000013825"/>
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
@@ -19441,9 +19441,9 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="7"/>
-    <s v="PHOENX_0101/648914"/>
-    <s v="L000013891"/>
+    <x v="5"/>
+    <s v="CPHOENX_01010000648914 CDMO mRNA Supply Chain"/>
+    <s v="L000013825"/>
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
@@ -19462,9 +19462,9 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="7"/>
-    <s v="PHOENX_0101/648915"/>
-    <s v="L000013891"/>
+    <x v="5"/>
+    <s v="CPHOENX_01010000648915 Site HH General &amp; EHS"/>
+    <s v="L000013825"/>
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
@@ -19483,9 +19483,9 @@
   <r>
     <x v="64"/>
     <x v="1"/>
-    <x v="7"/>
-    <s v="PHOENX_0101/648917"/>
-    <s v="L000013891"/>
+    <x v="5"/>
+    <s v="CPHOENX_01010000648917 CDMO mRNA IT/OT"/>
+    <s v="L000013825"/>
     <s v="L000012371"/>
     <s v="Non-LFF"/>
     <s v=""/>
@@ -21668,7 +21668,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="75" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -21764,7 +21764,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="75" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
@@ -23094,7 +23094,7 @@
       <x v="1241"/>
     </i>
     <i r="2">
-      <x v="12"/>
+      <x v="8"/>
     </i>
     <i r="1">
       <x v="1244"/>
@@ -23869,7 +23869,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -23965,7 +23965,7 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" s="68" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="B9" s="73">
         <v>9</v>
@@ -23975,7 +23975,7 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="67" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B10" s="73">
         <v>98</v>
@@ -34956,7 +34956,7 @@
     </row>
     <row r="987" spans="1:3">
       <c r="A987" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B987">
         <v>4</v>
@@ -34967,7 +34967,7 @@
     </row>
     <row r="988" spans="1:3">
       <c r="A988" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B988">
         <v>1</v>
@@ -34984,9 +34984,10 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
+    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -35014,7 +35015,7 @@
   <dimension ref="A1:S611"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C502" sqref="C502"/>
+      <selection activeCell="C500" sqref="C500:C508"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -64133,17 +64134,17 @@
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
         <v>open</v>
       </c>
-      <c r="C500" t="s">
-        <v>405</v>
+      <c r="C500" s="72" t="s">
+        <v>370</v>
       </c>
       <c r="D500" t="s">
-        <v>2153</v>
+        <v>2151</v>
       </c>
       <c r="E500" t="s">
+        <v>2160</v>
+      </c>
+      <c r="F500" s="73" t="s">
         <v>1966</v>
-      </c>
-      <c r="F500" s="73" t="s">
-        <v>1968</v>
       </c>
       <c r="G500" t="s">
         <v>400</v>
@@ -64153,7 +64154,7 @@
         <v/>
       </c>
       <c r="I500" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J500" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64180,7 +64181,7 @@
         <v>2</v>
       </c>
       <c r="R500" s="74" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="S500" s="73"/>
     </row>
@@ -64193,16 +64194,16 @@
         <v>open</v>
       </c>
       <c r="C501" s="72" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D501" t="s">
-        <v>2154</v>
-      </c>
-      <c r="E501" t="s">
-        <v>1966</v>
+        <v>2152</v>
+      </c>
+      <c r="E501" s="72" t="s">
+        <v>2160</v>
       </c>
       <c r="F501" s="73" t="s">
-        <v>1969</v>
+        <v>1967</v>
       </c>
       <c r="G501" s="72" t="s">
         <v>400</v>
@@ -64212,7 +64213,7 @@
         <v/>
       </c>
       <c r="I501" s="72" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J501" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64239,7 +64240,7 @@
         <v>2</v>
       </c>
       <c r="R501" s="74" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="S501" s="73"/>
     </row>
@@ -64252,16 +64253,16 @@
         <v>open</v>
       </c>
       <c r="C502" s="72" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D502" t="s">
-        <v>2155</v>
-      </c>
-      <c r="E502" t="s">
-        <v>1966</v>
+        <v>2153</v>
+      </c>
+      <c r="E502" s="72" t="s">
+        <v>2160</v>
       </c>
       <c r="F502" s="73" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G502" s="72" t="s">
         <v>400</v>
@@ -64271,7 +64272,7 @@
         <v/>
       </c>
       <c r="I502" s="72" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J502" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64298,7 +64299,7 @@
         <v>2</v>
       </c>
       <c r="R502" s="74" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="S502" s="73"/>
     </row>
@@ -64311,16 +64312,16 @@
         <v>open</v>
       </c>
       <c r="C503" s="72" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D503" t="s">
-        <v>2156</v>
+        <v>2154</v>
       </c>
       <c r="E503" t="s">
-        <v>1967</v>
+        <v>2161</v>
       </c>
       <c r="F503" s="73" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="G503" s="72" t="s">
         <v>400</v>
@@ -64330,7 +64331,7 @@
         <v/>
       </c>
       <c r="I503" s="72" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J503" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64357,7 +64358,7 @@
         <v>2</v>
       </c>
       <c r="R503" s="74" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="S503" s="73"/>
     </row>
@@ -64370,16 +64371,16 @@
         <v>open</v>
       </c>
       <c r="C504" s="72" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D504" t="s">
-        <v>2158</v>
-      </c>
-      <c r="E504" t="s">
-        <v>1967</v>
+        <v>2156</v>
+      </c>
+      <c r="E504" s="72" t="s">
+        <v>2161</v>
       </c>
       <c r="F504" s="73" t="s">
-        <v>1968</v>
+        <v>1966</v>
       </c>
       <c r="G504" s="72" t="s">
         <v>400</v>
@@ -64389,7 +64390,7 @@
         <v/>
       </c>
       <c r="I504" s="72" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J504" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64416,7 +64417,7 @@
         <v>2</v>
       </c>
       <c r="R504" s="74" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="S504" s="73"/>
     </row>
@@ -64429,16 +64430,16 @@
         <v>open</v>
       </c>
       <c r="C505" s="72" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D505" t="s">
-        <v>2157</v>
-      </c>
-      <c r="E505" t="s">
-        <v>1967</v>
+        <v>2155</v>
+      </c>
+      <c r="E505" s="72" t="s">
+        <v>2161</v>
       </c>
       <c r="F505" s="73" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G505" s="72" t="s">
         <v>400</v>
@@ -64448,7 +64449,7 @@
         <v/>
       </c>
       <c r="I505" s="72" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J505" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64475,7 +64476,7 @@
         <v>2</v>
       </c>
       <c r="R505" s="74" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="S505" s="73"/>
     </row>
@@ -64488,16 +64489,16 @@
         <v>open</v>
       </c>
       <c r="C506" s="72" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D506" t="s">
-        <v>2159</v>
-      </c>
-      <c r="E506" t="s">
-        <v>1967</v>
+        <v>2157</v>
+      </c>
+      <c r="E506" s="72" t="s">
+        <v>2161</v>
       </c>
       <c r="F506" s="73" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G506" s="72" t="s">
         <v>400</v>
@@ -64507,7 +64508,7 @@
         <v/>
       </c>
       <c r="I506" s="72" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J506" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64534,7 +64535,7 @@
         <v>2</v>
       </c>
       <c r="R506" s="74" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="S506" s="73"/>
     </row>
@@ -64547,16 +64548,16 @@
         <v>open</v>
       </c>
       <c r="C507" s="72" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D507" t="s">
-        <v>2160</v>
-      </c>
-      <c r="E507" t="s">
-        <v>1967</v>
+        <v>2158</v>
+      </c>
+      <c r="E507" s="72" t="s">
+        <v>2161</v>
       </c>
       <c r="F507" s="73" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G507" s="72" t="s">
         <v>400</v>
@@ -64566,7 +64567,7 @@
         <v/>
       </c>
       <c r="I507" s="72" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J507" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64593,7 +64594,7 @@
         <v>2</v>
       </c>
       <c r="R507" s="74" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="S507" s="73"/>
     </row>
@@ -64606,16 +64607,16 @@
         <v>open</v>
       </c>
       <c r="C508" s="72" t="s">
-        <v>405</v>
+        <v>370</v>
       </c>
       <c r="D508" t="s">
+        <v>2159</v>
+      </c>
+      <c r="E508" s="72" t="s">
         <v>2161</v>
       </c>
-      <c r="E508" t="s">
-        <v>1967</v>
-      </c>
       <c r="F508" s="73" t="s">
-        <v>1970</v>
+        <v>1968</v>
       </c>
       <c r="G508" s="72" t="s">
         <v>400</v>
@@ -64625,7 +64626,7 @@
         <v/>
       </c>
       <c r="I508" s="72" t="s">
-        <v>1972</v>
+        <v>1970</v>
       </c>
       <c r="J508" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -64652,13 +64653,13 @@
         <v>2</v>
       </c>
       <c r="R508" s="74" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="S508" s="73"/>
     </row>
     <row r="509" spans="1:19" hidden="1">
       <c r="A509" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B509" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64668,13 +64669,13 @@
         <v>369</v>
       </c>
       <c r="D509" t="s">
-        <v>1973</v>
+        <v>1971</v>
       </c>
       <c r="E509" t="s">
         <v>431</v>
       </c>
       <c r="F509" s="73" t="s">
-        <v>1977</v>
+        <v>1975</v>
       </c>
       <c r="G509" s="72" t="s">
         <v>400</v>
@@ -64718,7 +64719,7 @@
     </row>
     <row r="510" spans="1:19" hidden="1">
       <c r="A510" s="72" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B510" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64728,13 +64729,13 @@
         <v>369</v>
       </c>
       <c r="D510" t="s">
-        <v>1974</v>
+        <v>1972</v>
       </c>
       <c r="E510" t="s">
         <v>1287</v>
       </c>
       <c r="F510" s="73" t="s">
-        <v>1978</v>
+        <v>1976</v>
       </c>
       <c r="G510" s="72" t="s">
         <v>400</v>
@@ -64778,7 +64779,7 @@
     </row>
     <row r="511" spans="1:19" hidden="1">
       <c r="A511" s="72" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B511" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64788,13 +64789,13 @@
         <v>369</v>
       </c>
       <c r="D511" t="s">
-        <v>1975</v>
+        <v>1973</v>
       </c>
       <c r="E511" t="s">
         <v>1287</v>
       </c>
       <c r="F511" s="73" t="s">
-        <v>1979</v>
+        <v>1977</v>
       </c>
       <c r="G511" s="72" t="s">
         <v>400</v>
@@ -64838,7 +64839,7 @@
     </row>
     <row r="512" spans="1:19" hidden="1">
       <c r="A512" s="72" t="s">
-        <v>1981</v>
+        <v>1979</v>
       </c>
       <c r="B512" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64848,13 +64849,13 @@
         <v>369</v>
       </c>
       <c r="D512" t="s">
-        <v>1976</v>
+        <v>1974</v>
       </c>
       <c r="E512" t="s">
         <v>1287</v>
       </c>
       <c r="F512" s="73" t="s">
-        <v>1980</v>
+        <v>1978</v>
       </c>
       <c r="G512" s="72" t="s">
         <v>400</v>
@@ -64898,7 +64899,7 @@
     </row>
     <row r="513" spans="1:19" hidden="1">
       <c r="A513" t="s">
-        <v>1983</v>
+        <v>1981</v>
       </c>
       <c r="B513" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64908,13 +64909,13 @@
         <v>369</v>
       </c>
       <c r="D513" t="s">
+        <v>1980</v>
+      </c>
+      <c r="E513" t="s">
         <v>1982</v>
       </c>
-      <c r="E513" t="s">
-        <v>1984</v>
-      </c>
       <c r="F513" s="73" t="s">
-        <v>1985</v>
+        <v>1983</v>
       </c>
       <c r="G513" s="72" t="s">
         <v>400</v>
@@ -64958,7 +64959,7 @@
     </row>
     <row r="514" spans="1:19">
       <c r="A514" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B514" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -64968,13 +64969,13 @@
         <v>375</v>
       </c>
       <c r="D514" t="s">
-        <v>1987</v>
+        <v>1985</v>
       </c>
       <c r="E514" t="s">
-        <v>2085</v>
+        <v>2083</v>
       </c>
       <c r="F514" s="73" t="s">
-        <v>2117</v>
+        <v>2115</v>
       </c>
       <c r="G514" t="s">
         <v>406</v>
@@ -65014,7 +65015,7 @@
     </row>
     <row r="515" spans="1:19">
       <c r="A515" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B515" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65024,13 +65025,13 @@
         <v>375</v>
       </c>
       <c r="D515" t="s">
-        <v>1988</v>
+        <v>1986</v>
       </c>
       <c r="E515" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="F515" s="73" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="G515" s="72" t="s">
         <v>406</v>
@@ -65070,7 +65071,7 @@
     </row>
     <row r="516" spans="1:19">
       <c r="A516" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B516" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65080,13 +65081,13 @@
         <v>375</v>
       </c>
       <c r="D516" t="s">
-        <v>1989</v>
+        <v>1987</v>
       </c>
       <c r="E516" t="s">
-        <v>2086</v>
+        <v>2084</v>
       </c>
       <c r="F516" s="73" t="s">
-        <v>2118</v>
+        <v>2116</v>
       </c>
       <c r="G516" s="72" t="s">
         <v>406</v>
@@ -65126,7 +65127,7 @@
     </row>
     <row r="517" spans="1:19">
       <c r="A517" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B517" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65136,13 +65137,13 @@
         <v>370</v>
       </c>
       <c r="D517" t="s">
-        <v>1990</v>
+        <v>1988</v>
       </c>
       <c r="E517" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="F517" s="73" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="G517" t="s">
         <v>400</v>
@@ -65182,7 +65183,7 @@
     </row>
     <row r="518" spans="1:19">
       <c r="A518" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B518" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65192,13 +65193,13 @@
         <v>375</v>
       </c>
       <c r="D518" t="s">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="E518" t="s">
-        <v>2087</v>
+        <v>2085</v>
       </c>
       <c r="F518" s="73" t="s">
-        <v>2119</v>
+        <v>2117</v>
       </c>
       <c r="G518" s="72" t="s">
         <v>406</v>
@@ -65238,7 +65239,7 @@
     </row>
     <row r="519" spans="1:19">
       <c r="A519" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B519" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65248,13 +65249,13 @@
         <v>375</v>
       </c>
       <c r="D519" t="s">
-        <v>1992</v>
+        <v>1990</v>
       </c>
       <c r="E519" t="s">
-        <v>2152</v>
+        <v>2150</v>
       </c>
       <c r="F519" s="73" t="s">
-        <v>2120</v>
+        <v>2118</v>
       </c>
       <c r="G519" s="72" t="s">
         <v>406</v>
@@ -65294,7 +65295,7 @@
     </row>
     <row r="520" spans="1:19">
       <c r="A520" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B520" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65304,13 +65305,13 @@
         <v>375</v>
       </c>
       <c r="D520" t="s">
-        <v>1993</v>
+        <v>1991</v>
       </c>
       <c r="E520" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="F520" s="73" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G520" s="72" t="s">
         <v>406</v>
@@ -65350,7 +65351,7 @@
     </row>
     <row r="521" spans="1:19">
       <c r="A521" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B521" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65360,13 +65361,13 @@
         <v>375</v>
       </c>
       <c r="D521" t="s">
-        <v>1994</v>
+        <v>1992</v>
       </c>
       <c r="E521" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="F521" s="73" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G521" s="72" t="s">
         <v>406</v>
@@ -65406,7 +65407,7 @@
     </row>
     <row r="522" spans="1:19">
       <c r="A522" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B522" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65416,13 +65417,13 @@
         <v>375</v>
       </c>
       <c r="D522" t="s">
-        <v>1995</v>
+        <v>1993</v>
       </c>
       <c r="E522" t="s">
-        <v>2090</v>
+        <v>2088</v>
       </c>
       <c r="F522" s="73" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G522" s="72" t="s">
         <v>406</v>
@@ -65462,7 +65463,7 @@
     </row>
     <row r="523" spans="1:19">
       <c r="A523" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B523" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65472,13 +65473,13 @@
         <v>375</v>
       </c>
       <c r="D523" t="s">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="E523" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="F523" s="73" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G523" s="72" t="s">
         <v>406</v>
@@ -65518,7 +65519,7 @@
     </row>
     <row r="524" spans="1:19">
       <c r="A524" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B524" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65528,13 +65529,13 @@
         <v>375</v>
       </c>
       <c r="D524" t="s">
-        <v>1997</v>
+        <v>1995</v>
       </c>
       <c r="E524" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="F524" s="73" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G524" s="72" t="s">
         <v>406</v>
@@ -65574,7 +65575,7 @@
     </row>
     <row r="525" spans="1:19">
       <c r="A525" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B525" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65584,13 +65585,13 @@
         <v>375</v>
       </c>
       <c r="D525" t="s">
-        <v>1998</v>
+        <v>1996</v>
       </c>
       <c r="E525" t="s">
-        <v>2089</v>
+        <v>2087</v>
       </c>
       <c r="F525" s="73" t="s">
-        <v>2121</v>
+        <v>2119</v>
       </c>
       <c r="G525" s="72" t="s">
         <v>406</v>
@@ -65630,7 +65631,7 @@
     </row>
     <row r="526" spans="1:19">
       <c r="A526" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B526" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65640,13 +65641,13 @@
         <v>375</v>
       </c>
       <c r="D526" t="s">
-        <v>1999</v>
+        <v>1997</v>
       </c>
       <c r="E526" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="F526" s="73" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="G526" s="72" t="s">
         <v>406</v>
@@ -65686,7 +65687,7 @@
     </row>
     <row r="527" spans="1:19">
       <c r="A527" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B527" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65696,13 +65697,13 @@
         <v>375</v>
       </c>
       <c r="D527" t="s">
-        <v>2000</v>
+        <v>1998</v>
       </c>
       <c r="E527" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="F527" s="73" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="G527" s="72" t="s">
         <v>406</v>
@@ -65742,7 +65743,7 @@
     </row>
     <row r="528" spans="1:19">
       <c r="A528" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B528" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65752,13 +65753,13 @@
         <v>375</v>
       </c>
       <c r="D528" t="s">
-        <v>2001</v>
+        <v>1999</v>
       </c>
       <c r="E528" t="s">
-        <v>2092</v>
+        <v>2090</v>
       </c>
       <c r="F528" s="73" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="G528" s="72" t="s">
         <v>406</v>
@@ -65798,7 +65799,7 @@
     </row>
     <row r="529" spans="1:19">
       <c r="A529" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B529" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65808,13 +65809,13 @@
         <v>375</v>
       </c>
       <c r="D529" t="s">
-        <v>2002</v>
+        <v>2000</v>
       </c>
       <c r="E529" t="s">
-        <v>2091</v>
+        <v>2089</v>
       </c>
       <c r="F529" s="73" t="s">
-        <v>2122</v>
+        <v>2120</v>
       </c>
       <c r="G529" s="72" t="s">
         <v>406</v>
@@ -65854,7 +65855,7 @@
     </row>
     <row r="530" spans="1:19">
       <c r="A530" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B530" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65864,13 +65865,13 @@
         <v>375</v>
       </c>
       <c r="D530" t="s">
-        <v>2003</v>
+        <v>2001</v>
       </c>
       <c r="E530" t="s">
-        <v>2093</v>
+        <v>2091</v>
       </c>
       <c r="F530" s="73" t="s">
-        <v>2123</v>
+        <v>2121</v>
       </c>
       <c r="G530" s="72" t="s">
         <v>406</v>
@@ -65910,7 +65911,7 @@
     </row>
     <row r="531" spans="1:19">
       <c r="A531" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B531" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65920,13 +65921,13 @@
         <v>375</v>
       </c>
       <c r="D531" t="s">
-        <v>2004</v>
+        <v>2002</v>
       </c>
       <c r="E531" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="F531" s="73" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="G531" s="72" t="s">
         <v>406</v>
@@ -65966,7 +65967,7 @@
     </row>
     <row r="532" spans="1:19">
       <c r="A532" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B532" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -65976,13 +65977,13 @@
         <v>375</v>
       </c>
       <c r="D532" t="s">
-        <v>2005</v>
+        <v>2003</v>
       </c>
       <c r="E532" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="F532" s="73" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="G532" s="72" t="s">
         <v>406</v>
@@ -66022,7 +66023,7 @@
     </row>
     <row r="533" spans="1:19">
       <c r="A533" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B533" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66032,13 +66033,13 @@
         <v>375</v>
       </c>
       <c r="D533" t="s">
-        <v>2006</v>
+        <v>2004</v>
       </c>
       <c r="E533" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="F533" s="73" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="G533" s="72" t="s">
         <v>406</v>
@@ -66078,7 +66079,7 @@
     </row>
     <row r="534" spans="1:19">
       <c r="A534" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B534" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66088,13 +66089,13 @@
         <v>375</v>
       </c>
       <c r="D534" t="s">
-        <v>2007</v>
+        <v>2005</v>
       </c>
       <c r="E534" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="F534" s="73" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="G534" s="72" t="s">
         <v>406</v>
@@ -66134,7 +66135,7 @@
     </row>
     <row r="535" spans="1:19">
       <c r="A535" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B535" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66144,13 +66145,13 @@
         <v>375</v>
       </c>
       <c r="D535" t="s">
-        <v>2008</v>
+        <v>2006</v>
       </c>
       <c r="E535" t="s">
-        <v>2094</v>
+        <v>2092</v>
       </c>
       <c r="F535" s="73" t="s">
-        <v>2124</v>
+        <v>2122</v>
       </c>
       <c r="G535" s="72" t="s">
         <v>406</v>
@@ -66190,7 +66191,7 @@
     </row>
     <row r="536" spans="1:19">
       <c r="A536" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B536" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66200,13 +66201,13 @@
         <v>375</v>
       </c>
       <c r="D536" t="s">
-        <v>2009</v>
+        <v>2007</v>
       </c>
       <c r="E536" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F536" s="73" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="G536" s="72" t="s">
         <v>406</v>
@@ -66246,7 +66247,7 @@
     </row>
     <row r="537" spans="1:19">
       <c r="A537" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B537" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66256,13 +66257,13 @@
         <v>375</v>
       </c>
       <c r="D537" t="s">
-        <v>2010</v>
+        <v>2008</v>
       </c>
       <c r="E537" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F537" s="73" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="G537" s="72" t="s">
         <v>406</v>
@@ -66302,7 +66303,7 @@
     </row>
     <row r="538" spans="1:19">
       <c r="A538" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B538" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66312,13 +66313,13 @@
         <v>375</v>
       </c>
       <c r="D538" t="s">
-        <v>2011</v>
+        <v>2009</v>
       </c>
       <c r="E538" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F538" s="73" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="G538" s="72" t="s">
         <v>406</v>
@@ -66358,7 +66359,7 @@
     </row>
     <row r="539" spans="1:19">
       <c r="A539" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B539" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66368,13 +66369,13 @@
         <v>375</v>
       </c>
       <c r="D539" t="s">
-        <v>2012</v>
+        <v>2010</v>
       </c>
       <c r="E539" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F539" s="73" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="G539" s="72" t="s">
         <v>406</v>
@@ -66414,7 +66415,7 @@
     </row>
     <row r="540" spans="1:19">
       <c r="A540" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B540" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66424,10 +66425,10 @@
         <v>377</v>
       </c>
       <c r="D540" t="s">
-        <v>2013</v>
+        <v>2011</v>
       </c>
       <c r="E540" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F540" s="73" t="s">
         <v>449</v>
@@ -66440,7 +66441,7 @@
         <v/>
       </c>
       <c r="I540" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="J540" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -66473,7 +66474,7 @@
     </row>
     <row r="541" spans="1:19">
       <c r="A541" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B541" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66483,13 +66484,13 @@
         <v>370</v>
       </c>
       <c r="D541" t="s">
-        <v>2014</v>
+        <v>2012</v>
       </c>
       <c r="E541" t="s">
-        <v>2095</v>
+        <v>2093</v>
       </c>
       <c r="F541" s="73" t="s">
-        <v>2125</v>
+        <v>2123</v>
       </c>
       <c r="G541" s="72" t="s">
         <v>400</v>
@@ -66529,7 +66530,7 @@
     </row>
     <row r="542" spans="1:19">
       <c r="A542" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B542" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66539,13 +66540,13 @@
         <v>375</v>
       </c>
       <c r="D542" t="s">
-        <v>2015</v>
+        <v>2013</v>
       </c>
       <c r="E542" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F542" s="73" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="G542" s="72" t="s">
         <v>406</v>
@@ -66585,7 +66586,7 @@
     </row>
     <row r="543" spans="1:19">
       <c r="A543" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B543" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66595,13 +66596,13 @@
         <v>375</v>
       </c>
       <c r="D543" t="s">
-        <v>2016</v>
+        <v>2014</v>
       </c>
       <c r="E543" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F543" s="73" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="G543" s="72" t="s">
         <v>406</v>
@@ -66641,7 +66642,7 @@
     </row>
     <row r="544" spans="1:19">
       <c r="A544" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B544" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66651,13 +66652,13 @@
         <v>375</v>
       </c>
       <c r="D544" t="s">
-        <v>2017</v>
+        <v>2015</v>
       </c>
       <c r="E544" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F544" s="73" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="G544" s="72" t="s">
         <v>406</v>
@@ -66697,7 +66698,7 @@
     </row>
     <row r="545" spans="1:19">
       <c r="A545" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B545" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66707,13 +66708,13 @@
         <v>375</v>
       </c>
       <c r="D545" t="s">
-        <v>2018</v>
+        <v>2016</v>
       </c>
       <c r="E545" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F545" s="73" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="G545" s="72" t="s">
         <v>406</v>
@@ -66753,7 +66754,7 @@
     </row>
     <row r="546" spans="1:19">
       <c r="A546" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B546" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66763,13 +66764,13 @@
         <v>375</v>
       </c>
       <c r="D546" t="s">
-        <v>2019</v>
+        <v>2017</v>
       </c>
       <c r="E546" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F546" s="73" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="G546" s="72" t="s">
         <v>406</v>
@@ -66809,7 +66810,7 @@
     </row>
     <row r="547" spans="1:19">
       <c r="A547" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B547" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66819,13 +66820,13 @@
         <v>375</v>
       </c>
       <c r="D547" t="s">
-        <v>2020</v>
+        <v>2018</v>
       </c>
       <c r="E547" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F547" s="73" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="G547" s="72" t="s">
         <v>406</v>
@@ -66865,7 +66866,7 @@
     </row>
     <row r="548" spans="1:19">
       <c r="A548" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B548" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66875,13 +66876,13 @@
         <v>375</v>
       </c>
       <c r="D548" t="s">
-        <v>2021</v>
+        <v>2019</v>
       </c>
       <c r="E548" t="s">
-        <v>2096</v>
+        <v>2094</v>
       </c>
       <c r="F548" s="73" t="s">
-        <v>2126</v>
+        <v>2124</v>
       </c>
       <c r="G548" s="72" t="s">
         <v>406</v>
@@ -66921,7 +66922,7 @@
     </row>
     <row r="549" spans="1:19">
       <c r="A549" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B549" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66931,13 +66932,13 @@
         <v>375</v>
       </c>
       <c r="D549" t="s">
-        <v>2022</v>
+        <v>2020</v>
       </c>
       <c r="E549" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F549" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G549" s="72" t="s">
         <v>406</v>
@@ -66977,7 +66978,7 @@
     </row>
     <row r="550" spans="1:19">
       <c r="A550" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B550" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -66987,13 +66988,13 @@
         <v>375</v>
       </c>
       <c r="D550" t="s">
-        <v>2023</v>
+        <v>2021</v>
       </c>
       <c r="E550" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F550" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G550" s="72" t="s">
         <v>406</v>
@@ -67033,7 +67034,7 @@
     </row>
     <row r="551" spans="1:19">
       <c r="A551" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B551" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67043,13 +67044,13 @@
         <v>375</v>
       </c>
       <c r="D551" t="s">
-        <v>2024</v>
+        <v>2022</v>
       </c>
       <c r="E551" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F551" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G551" s="72" t="s">
         <v>406</v>
@@ -67089,7 +67090,7 @@
     </row>
     <row r="552" spans="1:19">
       <c r="A552" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B552" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67099,13 +67100,13 @@
         <v>375</v>
       </c>
       <c r="D552" t="s">
-        <v>2025</v>
+        <v>2023</v>
       </c>
       <c r="E552" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F552" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G552" s="72" t="s">
         <v>406</v>
@@ -67145,7 +67146,7 @@
     </row>
     <row r="553" spans="1:19">
       <c r="A553" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B553" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67155,13 +67156,13 @@
         <v>375</v>
       </c>
       <c r="D553" t="s">
-        <v>2026</v>
+        <v>2024</v>
       </c>
       <c r="E553" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F553" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G553" s="72" t="s">
         <v>406</v>
@@ -67201,7 +67202,7 @@
     </row>
     <row r="554" spans="1:19">
       <c r="A554" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B554" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67211,13 +67212,13 @@
         <v>375</v>
       </c>
       <c r="D554" t="s">
-        <v>2027</v>
+        <v>2025</v>
       </c>
       <c r="E554" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F554" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G554" s="72" t="s">
         <v>406</v>
@@ -67257,7 +67258,7 @@
     </row>
     <row r="555" spans="1:19">
       <c r="A555" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B555" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67267,13 +67268,13 @@
         <v>375</v>
       </c>
       <c r="D555" t="s">
-        <v>2028</v>
+        <v>2026</v>
       </c>
       <c r="E555" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F555" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G555" s="72" t="s">
         <v>406</v>
@@ -67313,7 +67314,7 @@
     </row>
     <row r="556" spans="1:19">
       <c r="A556" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B556" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67323,13 +67324,13 @@
         <v>375</v>
       </c>
       <c r="D556" t="s">
-        <v>2029</v>
+        <v>2027</v>
       </c>
       <c r="E556" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F556" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G556" s="72" t="s">
         <v>406</v>
@@ -67369,7 +67370,7 @@
     </row>
     <row r="557" spans="1:19">
       <c r="A557" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B557" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67379,13 +67380,13 @@
         <v>375</v>
       </c>
       <c r="D557" t="s">
-        <v>2030</v>
+        <v>2028</v>
       </c>
       <c r="E557" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F557" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G557" s="72" t="s">
         <v>406</v>
@@ -67425,7 +67426,7 @@
     </row>
     <row r="558" spans="1:19">
       <c r="A558" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B558" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67435,13 +67436,13 @@
         <v>375</v>
       </c>
       <c r="D558" t="s">
-        <v>2031</v>
+        <v>2029</v>
       </c>
       <c r="E558" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F558" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G558" s="72" t="s">
         <v>406</v>
@@ -67481,7 +67482,7 @@
     </row>
     <row r="559" spans="1:19">
       <c r="A559" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B559" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67491,13 +67492,13 @@
         <v>375</v>
       </c>
       <c r="D559" t="s">
-        <v>2032</v>
+        <v>2030</v>
       </c>
       <c r="E559" t="s">
-        <v>2097</v>
+        <v>2095</v>
       </c>
       <c r="F559" s="73" t="s">
-        <v>2127</v>
+        <v>2125</v>
       </c>
       <c r="G559" s="72" t="s">
         <v>406</v>
@@ -67537,7 +67538,7 @@
     </row>
     <row r="560" spans="1:19">
       <c r="A560" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B560" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67547,13 +67548,13 @@
         <v>375</v>
       </c>
       <c r="D560" t="s">
-        <v>2033</v>
+        <v>2031</v>
       </c>
       <c r="E560" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F560" s="73" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="G560" s="72" t="s">
         <v>406</v>
@@ -67593,7 +67594,7 @@
     </row>
     <row r="561" spans="1:19">
       <c r="A561" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B561" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67603,13 +67604,13 @@
         <v>375</v>
       </c>
       <c r="D561" t="s">
-        <v>2034</v>
+        <v>2032</v>
       </c>
       <c r="E561" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F561" s="73" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="G561" s="72" t="s">
         <v>406</v>
@@ -67649,7 +67650,7 @@
     </row>
     <row r="562" spans="1:19">
       <c r="A562" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B562" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67659,13 +67660,13 @@
         <v>375</v>
       </c>
       <c r="D562" t="s">
-        <v>2035</v>
+        <v>2033</v>
       </c>
       <c r="E562" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F562" s="73" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="G562" s="72" t="s">
         <v>406</v>
@@ -67705,7 +67706,7 @@
     </row>
     <row r="563" spans="1:19">
       <c r="A563" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B563" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67715,13 +67716,13 @@
         <v>375</v>
       </c>
       <c r="D563" t="s">
-        <v>2036</v>
+        <v>2034</v>
       </c>
       <c r="E563" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F563" s="73" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="G563" s="72" t="s">
         <v>406</v>
@@ -67761,7 +67762,7 @@
     </row>
     <row r="564" spans="1:19">
       <c r="A564" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B564" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67771,13 +67772,13 @@
         <v>375</v>
       </c>
       <c r="D564" t="s">
-        <v>2037</v>
+        <v>2035</v>
       </c>
       <c r="E564" t="s">
-        <v>2098</v>
+        <v>2096</v>
       </c>
       <c r="F564" s="73" t="s">
-        <v>2128</v>
+        <v>2126</v>
       </c>
       <c r="G564" s="72" t="s">
         <v>406</v>
@@ -67817,7 +67818,7 @@
     </row>
     <row r="565" spans="1:19">
       <c r="A565" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B565" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67827,13 +67828,13 @@
         <v>375</v>
       </c>
       <c r="D565" t="s">
-        <v>2038</v>
+        <v>2036</v>
       </c>
       <c r="E565" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F565" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G565" s="72" t="s">
         <v>406</v>
@@ -67873,7 +67874,7 @@
     </row>
     <row r="566" spans="1:19">
       <c r="A566" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B566" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67883,13 +67884,13 @@
         <v>375</v>
       </c>
       <c r="D566" t="s">
-        <v>2039</v>
+        <v>2037</v>
       </c>
       <c r="E566" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F566" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G566" s="72" t="s">
         <v>406</v>
@@ -67929,7 +67930,7 @@
     </row>
     <row r="567" spans="1:19">
       <c r="A567" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B567" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67939,13 +67940,13 @@
         <v>375</v>
       </c>
       <c r="D567" t="s">
-        <v>2040</v>
+        <v>2038</v>
       </c>
       <c r="E567" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F567" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G567" s="72" t="s">
         <v>406</v>
@@ -67985,7 +67986,7 @@
     </row>
     <row r="568" spans="1:19">
       <c r="A568" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B568" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -67995,13 +67996,13 @@
         <v>375</v>
       </c>
       <c r="D568" t="s">
-        <v>2041</v>
+        <v>2039</v>
       </c>
       <c r="E568" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F568" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G568" s="72" t="s">
         <v>406</v>
@@ -68041,7 +68042,7 @@
     </row>
     <row r="569" spans="1:19">
       <c r="A569" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B569" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68051,13 +68052,13 @@
         <v>375</v>
       </c>
       <c r="D569" t="s">
-        <v>2042</v>
+        <v>2040</v>
       </c>
       <c r="E569" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F569" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G569" s="72" t="s">
         <v>406</v>
@@ -68097,7 +68098,7 @@
     </row>
     <row r="570" spans="1:19">
       <c r="A570" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B570" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68107,13 +68108,13 @@
         <v>375</v>
       </c>
       <c r="D570" t="s">
-        <v>2043</v>
+        <v>2041</v>
       </c>
       <c r="E570" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F570" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G570" s="72" t="s">
         <v>406</v>
@@ -68153,7 +68154,7 @@
     </row>
     <row r="571" spans="1:19">
       <c r="A571" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B571" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68163,13 +68164,13 @@
         <v>375</v>
       </c>
       <c r="D571" t="s">
-        <v>2044</v>
+        <v>2042</v>
       </c>
       <c r="E571" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F571" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G571" s="72" t="s">
         <v>406</v>
@@ -68209,7 +68210,7 @@
     </row>
     <row r="572" spans="1:19">
       <c r="A572" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B572" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68219,13 +68220,13 @@
         <v>375</v>
       </c>
       <c r="D572" t="s">
-        <v>2045</v>
+        <v>2043</v>
       </c>
       <c r="E572" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F572" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G572" s="72" t="s">
         <v>406</v>
@@ -68265,7 +68266,7 @@
     </row>
     <row r="573" spans="1:19">
       <c r="A573" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B573" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68275,13 +68276,13 @@
         <v>375</v>
       </c>
       <c r="D573" t="s">
-        <v>2046</v>
+        <v>2044</v>
       </c>
       <c r="E573" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F573" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G573" s="72" t="s">
         <v>406</v>
@@ -68321,7 +68322,7 @@
     </row>
     <row r="574" spans="1:19">
       <c r="A574" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B574" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68331,13 +68332,13 @@
         <v>375</v>
       </c>
       <c r="D574" t="s">
-        <v>2047</v>
+        <v>2045</v>
       </c>
       <c r="E574" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F574" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G574" s="72" t="s">
         <v>406</v>
@@ -68377,7 +68378,7 @@
     </row>
     <row r="575" spans="1:19">
       <c r="A575" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B575" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68387,13 +68388,13 @@
         <v>375</v>
       </c>
       <c r="D575" t="s">
-        <v>2048</v>
+        <v>2046</v>
       </c>
       <c r="E575" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F575" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G575" s="72" t="s">
         <v>406</v>
@@ -68433,7 +68434,7 @@
     </row>
     <row r="576" spans="1:19">
       <c r="A576" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B576" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68443,13 +68444,13 @@
         <v>375</v>
       </c>
       <c r="D576" t="s">
-        <v>2049</v>
+        <v>2047</v>
       </c>
       <c r="E576" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F576" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G576" s="72" t="s">
         <v>406</v>
@@ -68489,7 +68490,7 @@
     </row>
     <row r="577" spans="1:19">
       <c r="A577" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B577" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68499,13 +68500,13 @@
         <v>375</v>
       </c>
       <c r="D577" t="s">
-        <v>2050</v>
+        <v>2048</v>
       </c>
       <c r="E577" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F577" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G577" s="72" t="s">
         <v>406</v>
@@ -68545,7 +68546,7 @@
     </row>
     <row r="578" spans="1:19">
       <c r="A578" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B578" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68555,10 +68556,10 @@
         <v>377</v>
       </c>
       <c r="D578" t="s">
-        <v>2051</v>
+        <v>2049</v>
       </c>
       <c r="E578" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F578" s="73" t="s">
         <v>449</v>
@@ -68571,7 +68572,7 @@
         <v/>
       </c>
       <c r="I578" s="72" t="s">
-        <v>2151</v>
+        <v>2149</v>
       </c>
       <c r="J578" s="73" t="b">
         <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
@@ -68604,7 +68605,7 @@
     </row>
     <row r="579" spans="1:19">
       <c r="A579" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B579" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68614,13 +68615,13 @@
         <v>370</v>
       </c>
       <c r="D579" t="s">
-        <v>2052</v>
+        <v>2050</v>
       </c>
       <c r="E579" t="s">
-        <v>2099</v>
+        <v>2097</v>
       </c>
       <c r="F579" s="73" t="s">
-        <v>2129</v>
+        <v>2127</v>
       </c>
       <c r="G579" s="72" t="s">
         <v>400</v>
@@ -68660,7 +68661,7 @@
     </row>
     <row r="580" spans="1:19">
       <c r="A580" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B580" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68670,13 +68671,13 @@
         <v>375</v>
       </c>
       <c r="D580" t="s">
-        <v>2053</v>
+        <v>2051</v>
       </c>
       <c r="E580" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="F580" s="73" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="G580" s="72" t="s">
         <v>406</v>
@@ -68716,7 +68717,7 @@
     </row>
     <row r="581" spans="1:19">
       <c r="A581" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B581" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68726,13 +68727,13 @@
         <v>375</v>
       </c>
       <c r="D581" t="s">
-        <v>2054</v>
+        <v>2052</v>
       </c>
       <c r="E581" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="F581" s="73" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="G581" s="72" t="s">
         <v>406</v>
@@ -68772,7 +68773,7 @@
     </row>
     <row r="582" spans="1:19">
       <c r="A582" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B582" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68782,13 +68783,13 @@
         <v>375</v>
       </c>
       <c r="D582" t="s">
-        <v>2055</v>
+        <v>2053</v>
       </c>
       <c r="E582" t="s">
-        <v>2100</v>
+        <v>2098</v>
       </c>
       <c r="F582" s="73" t="s">
-        <v>2130</v>
+        <v>2128</v>
       </c>
       <c r="G582" s="72" t="s">
         <v>406</v>
@@ -68828,7 +68829,7 @@
     </row>
     <row r="583" spans="1:19">
       <c r="A583" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B583" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68838,13 +68839,13 @@
         <v>375</v>
       </c>
       <c r="D583" t="s">
-        <v>2056</v>
+        <v>2054</v>
       </c>
       <c r="E583" t="s">
-        <v>2101</v>
+        <v>2099</v>
       </c>
       <c r="F583" s="73" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="G583" s="72" t="s">
         <v>406</v>
@@ -68884,7 +68885,7 @@
     </row>
     <row r="584" spans="1:19">
       <c r="A584" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B584" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68894,13 +68895,13 @@
         <v>375</v>
       </c>
       <c r="D584" t="s">
-        <v>2057</v>
+        <v>2055</v>
       </c>
       <c r="E584" t="s">
-        <v>2102</v>
+        <v>2100</v>
       </c>
       <c r="F584" s="73" t="s">
-        <v>2131</v>
+        <v>2129</v>
       </c>
       <c r="G584" s="72" t="s">
         <v>406</v>
@@ -68940,7 +68941,7 @@
     </row>
     <row r="585" spans="1:19">
       <c r="A585" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B585" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -68950,13 +68951,13 @@
         <v>375</v>
       </c>
       <c r="D585" t="s">
-        <v>2058</v>
+        <v>2056</v>
       </c>
       <c r="E585" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F585" s="73" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="G585" s="72" t="s">
         <v>406</v>
@@ -68996,7 +68997,7 @@
     </row>
     <row r="586" spans="1:19">
       <c r="A586" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B586" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69006,13 +69007,13 @@
         <v>375</v>
       </c>
       <c r="D586" t="s">
-        <v>2059</v>
+        <v>2057</v>
       </c>
       <c r="E586" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="F586" s="73" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="G586" s="72" t="s">
         <v>406</v>
@@ -69052,7 +69053,7 @@
     </row>
     <row r="587" spans="1:19">
       <c r="A587" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B587" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69062,13 +69063,13 @@
         <v>375</v>
       </c>
       <c r="D587" t="s">
-        <v>2060</v>
+        <v>2058</v>
       </c>
       <c r="E587" t="s">
-        <v>2104</v>
+        <v>2102</v>
       </c>
       <c r="F587" s="73" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="G587" s="72" t="s">
         <v>406</v>
@@ -69108,7 +69109,7 @@
     </row>
     <row r="588" spans="1:19">
       <c r="A588" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B588" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69118,13 +69119,13 @@
         <v>375</v>
       </c>
       <c r="D588" t="s">
-        <v>2061</v>
+        <v>2059</v>
       </c>
       <c r="E588" t="s">
-        <v>2103</v>
+        <v>2101</v>
       </c>
       <c r="F588" s="73" t="s">
-        <v>2132</v>
+        <v>2130</v>
       </c>
       <c r="G588" s="72" t="s">
         <v>406</v>
@@ -69164,7 +69165,7 @@
     </row>
     <row r="589" spans="1:19">
       <c r="A589" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B589" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69174,13 +69175,13 @@
         <v>375</v>
       </c>
       <c r="D589" t="s">
-        <v>2062</v>
+        <v>2060</v>
       </c>
       <c r="E589" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="F589" s="73" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="G589" s="72" t="s">
         <v>406</v>
@@ -69220,7 +69221,7 @@
     </row>
     <row r="590" spans="1:19">
       <c r="A590" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B590" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69230,13 +69231,13 @@
         <v>375</v>
       </c>
       <c r="D590" t="s">
-        <v>2063</v>
+        <v>2061</v>
       </c>
       <c r="E590" t="s">
-        <v>2088</v>
+        <v>2086</v>
       </c>
       <c r="F590" s="73" t="s">
-        <v>2133</v>
+        <v>2131</v>
       </c>
       <c r="G590" s="72" t="s">
         <v>406</v>
@@ -69276,7 +69277,7 @@
     </row>
     <row r="591" spans="1:19">
       <c r="A591" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B591" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69286,13 +69287,13 @@
         <v>375</v>
       </c>
       <c r="D591" t="s">
-        <v>2064</v>
+        <v>2062</v>
       </c>
       <c r="E591" t="s">
-        <v>2105</v>
+        <v>2103</v>
       </c>
       <c r="F591" s="73" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="G591" s="72" t="s">
         <v>406</v>
@@ -69332,7 +69333,7 @@
     </row>
     <row r="592" spans="1:19">
       <c r="A592" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B592" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69342,13 +69343,13 @@
         <v>375</v>
       </c>
       <c r="D592" t="s">
-        <v>2065</v>
+        <v>2063</v>
       </c>
       <c r="E592" t="s">
-        <v>2106</v>
+        <v>2104</v>
       </c>
       <c r="F592" s="73" t="s">
-        <v>2134</v>
+        <v>2132</v>
       </c>
       <c r="G592" s="72" t="s">
         <v>406</v>
@@ -69388,7 +69389,7 @@
     </row>
     <row r="593" spans="1:19">
       <c r="A593" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B593" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69398,13 +69399,13 @@
         <v>375</v>
       </c>
       <c r="D593" t="s">
-        <v>2066</v>
+        <v>2064</v>
       </c>
       <c r="E593" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="F593" s="73" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="G593" s="72" t="s">
         <v>406</v>
@@ -69444,7 +69445,7 @@
     </row>
     <row r="594" spans="1:19">
       <c r="A594" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B594" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69454,13 +69455,13 @@
         <v>375</v>
       </c>
       <c r="D594" t="s">
-        <v>2067</v>
+        <v>2065</v>
       </c>
       <c r="E594" t="s">
-        <v>2107</v>
+        <v>2105</v>
       </c>
       <c r="F594" s="73" t="s">
-        <v>2135</v>
+        <v>2133</v>
       </c>
       <c r="G594" s="72" t="s">
         <v>406</v>
@@ -69500,7 +69501,7 @@
     </row>
     <row r="595" spans="1:19">
       <c r="A595" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B595" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69510,13 +69511,13 @@
         <v>375</v>
       </c>
       <c r="D595" t="s">
-        <v>2068</v>
+        <v>2066</v>
       </c>
       <c r="E595" t="s">
-        <v>2108</v>
+        <v>2106</v>
       </c>
       <c r="F595" s="73" t="s">
-        <v>2136</v>
+        <v>2134</v>
       </c>
       <c r="G595" s="72" t="s">
         <v>406</v>
@@ -69556,7 +69557,7 @@
     </row>
     <row r="596" spans="1:19">
       <c r="A596" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B596" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69566,13 +69567,13 @@
         <v>375</v>
       </c>
       <c r="D596" t="s">
-        <v>2069</v>
+        <v>2067</v>
       </c>
       <c r="E596" t="s">
-        <v>2109</v>
+        <v>2107</v>
       </c>
       <c r="F596" s="73" t="s">
-        <v>2137</v>
+        <v>2135</v>
       </c>
       <c r="G596" s="72" t="s">
         <v>406</v>
@@ -69612,7 +69613,7 @@
     </row>
     <row r="597" spans="1:19">
       <c r="A597" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B597" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69622,13 +69623,13 @@
         <v>375</v>
       </c>
       <c r="D597" t="s">
-        <v>2070</v>
+        <v>2068</v>
       </c>
       <c r="E597" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F597" s="73" t="s">
-        <v>2138</v>
+        <v>2136</v>
       </c>
       <c r="G597" s="72" t="s">
         <v>406</v>
@@ -69668,7 +69669,7 @@
     </row>
     <row r="598" spans="1:19">
       <c r="A598" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B598" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69678,13 +69679,13 @@
         <v>375</v>
       </c>
       <c r="D598" t="s">
-        <v>2071</v>
+        <v>2069</v>
       </c>
       <c r="E598" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F598" s="73" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="G598" s="72" t="s">
         <v>406</v>
@@ -69724,7 +69725,7 @@
     </row>
     <row r="599" spans="1:19">
       <c r="A599" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B599" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69734,13 +69735,13 @@
         <v>375</v>
       </c>
       <c r="D599" t="s">
-        <v>2072</v>
+        <v>2070</v>
       </c>
       <c r="E599" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F599" s="73" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="G599" s="72" t="s">
         <v>406</v>
@@ -69780,7 +69781,7 @@
     </row>
     <row r="600" spans="1:19">
       <c r="A600" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B600" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69790,13 +69791,13 @@
         <v>375</v>
       </c>
       <c r="D600" t="s">
-        <v>2073</v>
+        <v>2071</v>
       </c>
       <c r="E600" t="s">
-        <v>2111</v>
+        <v>2109</v>
       </c>
       <c r="F600" s="73" t="s">
-        <v>2139</v>
+        <v>2137</v>
       </c>
       <c r="G600" s="72" t="s">
         <v>406</v>
@@ -69836,7 +69837,7 @@
     </row>
     <row r="601" spans="1:19">
       <c r="A601" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B601" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69846,13 +69847,13 @@
         <v>375</v>
       </c>
       <c r="D601" t="s">
-        <v>2074</v>
+        <v>2072</v>
       </c>
       <c r="E601" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F601" s="73" t="s">
-        <v>2140</v>
+        <v>2138</v>
       </c>
       <c r="G601" s="72" t="s">
         <v>406</v>
@@ -69892,7 +69893,7 @@
     </row>
     <row r="602" spans="1:19">
       <c r="A602" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B602" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69902,13 +69903,13 @@
         <v>375</v>
       </c>
       <c r="D602" t="s">
-        <v>2075</v>
+        <v>2073</v>
       </c>
       <c r="E602" t="s">
-        <v>2110</v>
+        <v>2108</v>
       </c>
       <c r="F602" s="73" t="s">
-        <v>2141</v>
+        <v>2139</v>
       </c>
       <c r="G602" s="72" t="s">
         <v>406</v>
@@ -69948,7 +69949,7 @@
     </row>
     <row r="603" spans="1:19">
       <c r="A603" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B603" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -69958,13 +69959,13 @@
         <v>375</v>
       </c>
       <c r="D603" t="s">
-        <v>2076</v>
+        <v>2074</v>
       </c>
       <c r="E603" t="s">
-        <v>2112</v>
+        <v>2110</v>
       </c>
       <c r="F603" s="73" t="s">
-        <v>2142</v>
+        <v>2140</v>
       </c>
       <c r="G603" s="72" t="s">
         <v>406</v>
@@ -70004,7 +70005,7 @@
     </row>
     <row r="604" spans="1:19">
       <c r="A604" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B604" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70014,13 +70015,13 @@
         <v>375</v>
       </c>
       <c r="D604" t="s">
-        <v>2077</v>
+        <v>2075</v>
       </c>
       <c r="E604" t="s">
-        <v>2113</v>
+        <v>2111</v>
       </c>
       <c r="F604" s="73" t="s">
-        <v>2143</v>
+        <v>2141</v>
       </c>
       <c r="G604" s="72" t="s">
         <v>406</v>
@@ -70060,7 +70061,7 @@
     </row>
     <row r="605" spans="1:19">
       <c r="A605" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B605" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70070,13 +70071,13 @@
         <v>375</v>
       </c>
       <c r="D605" t="s">
-        <v>2078</v>
+        <v>2076</v>
       </c>
       <c r="E605" t="s">
-        <v>2114</v>
+        <v>2112</v>
       </c>
       <c r="F605" s="73" t="s">
-        <v>2144</v>
+        <v>2142</v>
       </c>
       <c r="G605" s="72" t="s">
         <v>406</v>
@@ -70116,7 +70117,7 @@
     </row>
     <row r="606" spans="1:19">
       <c r="A606" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B606" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70126,13 +70127,13 @@
         <v>375</v>
       </c>
       <c r="D606" t="s">
-        <v>2079</v>
+        <v>2077</v>
       </c>
       <c r="E606" t="s">
-        <v>2115</v>
+        <v>2113</v>
       </c>
       <c r="F606" s="73" t="s">
-        <v>2145</v>
+        <v>2143</v>
       </c>
       <c r="G606" s="72" t="s">
         <v>406</v>
@@ -70172,7 +70173,7 @@
     </row>
     <row r="607" spans="1:19">
       <c r="A607" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B607" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70182,13 +70183,13 @@
         <v>370</v>
       </c>
       <c r="D607" t="s">
-        <v>2080</v>
+        <v>2078</v>
       </c>
       <c r="E607" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F607" s="73" t="s">
-        <v>2146</v>
+        <v>2144</v>
       </c>
       <c r="G607" s="72" t="s">
         <v>400</v>
@@ -70228,7 +70229,7 @@
     </row>
     <row r="608" spans="1:19">
       <c r="A608" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B608" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70238,13 +70239,13 @@
         <v>370</v>
       </c>
       <c r="D608" t="s">
-        <v>2081</v>
+        <v>2079</v>
       </c>
       <c r="E608" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F608" s="73" t="s">
-        <v>2147</v>
+        <v>2145</v>
       </c>
       <c r="G608" s="72" t="s">
         <v>400</v>
@@ -70284,7 +70285,7 @@
     </row>
     <row r="609" spans="1:19">
       <c r="A609" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B609" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70294,13 +70295,13 @@
         <v>370</v>
       </c>
       <c r="D609" t="s">
-        <v>2082</v>
+        <v>2080</v>
       </c>
       <c r="E609" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F609" s="73" t="s">
-        <v>2148</v>
+        <v>2146</v>
       </c>
       <c r="G609" s="72" t="s">
         <v>400</v>
@@ -70340,7 +70341,7 @@
     </row>
     <row r="610" spans="1:19">
       <c r="A610" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B610" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70350,13 +70351,13 @@
         <v>370</v>
       </c>
       <c r="D610" t="s">
-        <v>2083</v>
+        <v>2081</v>
       </c>
       <c r="E610" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F610" s="73" t="s">
-        <v>2149</v>
+        <v>2147</v>
       </c>
       <c r="G610" s="72" t="s">
         <v>400</v>
@@ -70396,7 +70397,7 @@
     </row>
     <row r="611" spans="1:19">
       <c r="A611" s="72" t="s">
-        <v>1986</v>
+        <v>1984</v>
       </c>
       <c r="B611" s="73" t="str">
         <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
@@ -70406,13 +70407,13 @@
         <v>370</v>
       </c>
       <c r="D611" t="s">
-        <v>2084</v>
+        <v>2082</v>
       </c>
       <c r="E611" t="s">
-        <v>2116</v>
+        <v>2114</v>
       </c>
       <c r="F611" s="73" t="s">
-        <v>2150</v>
+        <v>2148</v>
       </c>
       <c r="G611" s="72" t="s">
         <v>400</v>
@@ -74291,7 +74292,7 @@
     </row>
     <row r="114" spans="1:2">
       <c r="A114" t="s">
-        <v>1971</v>
+        <v>1969</v>
       </c>
       <c r="B114" t="s">
         <v>595</v>

--- a/F3 2024 mappings.xlsx
+++ b/F3 2024 mappings.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\M327220\Documents\GitHub\GCOHFilesTicketsEtc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D25B614E-E433-4F2B-BEB2-9715147C0819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9280ACD9-97D4-4B1C-B7AD-C3256721004B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="28110" windowHeight="16440" activeTab="1" xr2:uid="{9EF57C3D-F6AB-450C-9EC3-AF89A75F272D}"/>
   </bookViews>
   <sheets>
     <sheet name="KPI" sheetId="5" r:id="rId1"/>
@@ -43,9 +43,9 @@
     <definedName name="ID_1" localSheetId="4" hidden="1">"950e9516-c611-49ca-a5ff-94a8943ffd05"</definedName>
     <definedName name="tm1\\_0_H">"{ ""server"" : ""http://pafe.merckgroup.com"", ""cube"" : ""{ \""server\"" : \""rc-2024\"", \""cube\"" : \""mPnL_2024\""}""}"</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <pivotCaches>
-    <pivotCache cacheId="75" r:id="rId12"/>
+    <pivotCache cacheId="19" r:id="rId12"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7367" uniqueCount="2162">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7465" uniqueCount="2180">
   <si>
     <t>Ticket</t>
   </si>
@@ -6533,9 +6533,6 @@
     <t>Mapped in Trash</t>
   </si>
   <si>
-    <t>2123C00061</t>
-  </si>
-  <si>
     <t>CPHOENX_01010000648610 CDMO mRNA Quality</t>
   </si>
   <si>
@@ -6567,6 +6564,63 @@
   </si>
   <si>
     <t>L000013825</t>
+  </si>
+  <si>
+    <t>CLFF_VMCA$$$US20Z01000 Automatic Account Assignment OKB9</t>
+  </si>
+  <si>
+    <t>CLFF_VMCA$$$US16Z01000 Automatic Account Assignment OKB9</t>
+  </si>
+  <si>
+    <t>CLFF_VMCA$$$US14Z01000 Automatic Account Assignment OKB9</t>
+  </si>
+  <si>
+    <t>CLFF_VMCA$$$US15Z01000 Automatic Account Assignment OKB9</t>
+  </si>
+  <si>
+    <t>CLFF_1000$$$US01TNHZ06 EL-SC-E Capital Efficiency &amp; Project Dev</t>
+  </si>
+  <si>
+    <t>CLFF_1000$$$TW03TOKA00 EL-SC-E Capital Efficiency &amp; Project Dev</t>
+  </si>
+  <si>
+    <t>CLFF_1000$$$US01TNHZ05 EL-SC-E Global Techn. &amp; Engineering SMEs</t>
+  </si>
+  <si>
+    <t>CLFF_1000$$$US01TN0001 US ELDP Central CC</t>
+  </si>
+  <si>
+    <t>CLFF_VMCA$$$US10TN2100 US ELDP Central CC</t>
+  </si>
+  <si>
+    <t>CLFF_VMCA$$$CN10C01004 RedOx Operations Technology</t>
+  </si>
+  <si>
+    <t>CFLTFLE_2152IMIPARVR02 AR VR Pilot Line</t>
+  </si>
+  <si>
+    <t>FR7088415</t>
+  </si>
+  <si>
+    <t>P000001191</t>
+  </si>
+  <si>
+    <t>P000001187</t>
+  </si>
+  <si>
+    <t>P000001193</t>
+  </si>
+  <si>
+    <t>P000000649</t>
+  </si>
+  <si>
+    <t>P000000635 EL-SC-E Engineering</t>
+  </si>
+  <si>
+    <t>P000001187 EL-SC-E Engineering Head</t>
+  </si>
+  <si>
+    <t>DFLTPGCOH_BF-CU_002152</t>
   </si>
 </sst>
 </file>
@@ -7163,7 +7217,7 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
     <xf numFmtId="165" fontId="22" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="76">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -7257,6 +7311,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="100">
     <cellStyle name="AF Column - IBM Cognos" xfId="7" xr:uid="{F7169E42-F219-404B-8E76-A130536EB5C5}"/>
@@ -7489,13 +7544,13 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45705.930133217589" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="610" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Roland Earvin Combalicer" refreshedDate="45705.946340277776" createdVersion="7" refreshedVersion="8" minRefreshableVersion="3" recordCount="621" xr:uid="{11839AE3-6158-4318-87AD-2C711D0BF451}">
   <cacheSource type="worksheet">
     <worksheetSource name="Proc"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="App" numFmtId="0">
-      <sharedItems containsBlank="1" count="1249">
+      <sharedItems containsBlank="1" count="1250">
         <s v="FR0000000"/>
         <s v="FR6943059"/>
         <s v="FR6940622"/>
@@ -7564,6 +7619,7 @@
         <s v="FR7083726"/>
         <s v="FR7084082"/>
         <s v="FR7084367"/>
+        <s v="FR7088415"/>
         <m u="1"/>
         <s v="FR5900147" u="1"/>
         <s v="FR6280266" u="1"/>
@@ -8818,7 +8874,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DateOpened" numFmtId="14">
-      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-14T15:12:14"/>
+      <sharedItems containsSemiMixedTypes="0" containsNonDate="0" containsDate="1" containsString="0" minDate="2023-09-01T00:00:00" maxDate="2025-02-17T15:23:20"/>
     </cacheField>
     <cacheField name="DateMapped" numFmtId="0">
       <sharedItems containsNonDate="0" containsDate="1" containsString="0" containsBlank="1" minDate="2023-09-01T00:00:00" maxDate="2025-02-18T00:00:00"/>
@@ -8835,7 +8891,7 @@
       </sharedItems>
     </cacheField>
     <cacheField name="DaysAgeing" numFmtId="2">
-      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="41"/>
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="0" maxValue="41"/>
     </cacheField>
     <cacheField name="Author" numFmtId="0">
       <sharedItems/>
@@ -8853,7 +8909,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="610">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="621">
   <r>
     <x v="0"/>
     <x v="0"/>
@@ -19609,7 +19665,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123L28514 SBS Creative Services"/>
     <s v="G000001314"/>
     <s v="L000011127"/>
@@ -19630,7 +19686,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0002 SBS Green Chem Support"/>
     <s v="G000001315"/>
     <s v="L000011352"/>
@@ -19651,7 +19707,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0004 Bus &amp; Comp Intel"/>
     <s v="G000001315"/>
     <s v="L000011352"/>
@@ -19693,7 +19749,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123L70001 SBS - Administration"/>
     <s v="G000001319"/>
     <s v="L000013769"/>
@@ -19714,9 +19770,9 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00113 LS PS Integrated Marketing Marcom"/>
-    <s v="2123C00061"/>
+    <s v="G000001303"/>
     <s v="L000013558"/>
     <s v="LFF (MDG-F)"/>
     <s v="2123C00113"/>
@@ -19735,7 +19791,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00108 Commercial Ed APAC"/>
     <s v="G000001287"/>
     <s v="L000013742"/>
@@ -19756,7 +19812,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00070 AS - MSX MarCom SBS"/>
     <s v="G000001287"/>
     <s v="L000013742"/>
@@ -19777,7 +19833,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00028 SBS Pricing Team AS"/>
     <s v="G000001322"/>
     <s v="L000013742"/>
@@ -19798,7 +19854,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00053 AS Analytics"/>
     <s v="G000001287"/>
     <s v="L000013742"/>
@@ -19819,7 +19875,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00056 RS Strategy Analytics &amp; Insights"/>
     <s v="G000001287"/>
     <s v="L000013742"/>
@@ -19840,7 +19896,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0011 SLS S&amp;S Global Projects"/>
     <s v="G000001287"/>
     <s v="L000013742"/>
@@ -19861,7 +19917,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00071 BM - SBS Marketing Operations"/>
     <s v="G000001288"/>
     <s v="L000013743"/>
@@ -19882,7 +19938,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00080 BM - SBS Copernic Marketing Service"/>
     <s v="G000001288"/>
     <s v="L000013743"/>
@@ -19903,7 +19959,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00079 BM -Â SBS Strategic Initiatives"/>
     <s v="G000001323"/>
     <s v="L000013743"/>
@@ -19924,7 +19980,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00075 SBS Digital Sales BM IN"/>
     <s v="G000001288"/>
     <s v="L000013743"/>
@@ -19945,7 +20001,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00094 DxRM SBS"/>
     <s v="G000001289"/>
     <s v="L000013744"/>
@@ -19966,7 +20022,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00067 SBS-Digital Specialist"/>
     <s v="G000001290"/>
     <s v="L000013745"/>
@@ -19987,7 +20043,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123CS0001 LW WE Service SBS support"/>
     <s v="G000001290"/>
     <s v="L000013745"/>
@@ -20008,7 +20064,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123CS0003 LW NA Service SBS Support"/>
     <s v="G000001290"/>
     <s v="L000013745"/>
@@ -20029,7 +20085,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123CS0057 LW Marketing OPS SBS"/>
     <s v="G000001290"/>
     <s v="L000013745"/>
@@ -20050,7 +20106,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123R00007 LW SBS Marketing Operations"/>
     <s v="G000001290"/>
     <s v="L000013745"/>
@@ -20071,7 +20127,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00023 Blue on Red"/>
     <s v="G000001291"/>
     <s v="L000013746"/>
@@ -20092,7 +20148,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00029 AS Digital Content"/>
     <s v="G000001291"/>
     <s v="L000013746"/>
@@ -20113,7 +20169,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C08497 XXXSBS Content Curation - LS"/>
     <s v="G000001291"/>
     <s v="L000013746"/>
@@ -20134,7 +20190,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C08528 SMI - SBS Product Ideation"/>
     <s v="G000001291"/>
     <s v="L000013746"/>
@@ -20197,7 +20253,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00031 SBS LSC DC&amp;S Support"/>
     <s v="G000001292"/>
     <s v="L000013747"/>
@@ -20218,7 +20274,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00033 SBS LSC CS K Support"/>
     <s v="G000001292"/>
     <s v="L000013747"/>
@@ -20239,7 +20295,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00034 SBS LSC PM Support"/>
     <s v="G000001292"/>
     <s v="L000013747"/>
@@ -20260,7 +20316,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00062 Marketing Expense: PM Ops"/>
     <s v="G000001292"/>
     <s v="L000013747"/>
@@ -20281,7 +20337,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00072 CL Operations India"/>
     <s v="G000001292"/>
     <s v="L000013747"/>
@@ -20302,7 +20358,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00142 Marketing Expense"/>
     <s v="G000001292"/>
     <s v="L000013747"/>
@@ -20323,7 +20379,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C08515 SBS - SMI NPI"/>
     <s v="G000001292"/>
     <s v="L000013747"/>
@@ -20344,7 +20400,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00002 R&amp;A Com - Technical Support"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20365,7 +20421,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00003 R&amp;A Com - Cash Collection"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20386,7 +20442,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00005 R&amp;A Com - Cash Collection NA"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20407,7 +20463,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00058 AS Sales Enablement CRM SBS"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20428,7 +20484,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00063 AS Sales Enablement TMIC SBS"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20449,7 +20505,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00066 SBS Sales Enablement NA"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20470,7 +20526,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C08471 R&amp;A Com - Customer Service"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20491,7 +20547,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C0BS03 SBS-R&amp;A SSO NA"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20512,7 +20568,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C0BS04 SBS-R&amp;A CEx Eff NA"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20533,7 +20589,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C0BS08 SBS-R&amp;A CEX Latam"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20554,7 +20610,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C0BS09 SBS-R&amp;A Cash Collection Latam"/>
     <s v="G000001293"/>
     <s v="L000013748"/>
@@ -20575,7 +20631,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00042 SBS Cust Serv APAC"/>
     <s v="G000001294"/>
     <s v="L000013749"/>
@@ -20596,7 +20652,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00050 Mktg Employee Exp"/>
     <s v="G000001294"/>
     <s v="L000013749"/>
@@ -20617,7 +20673,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00061 AAIT - SBS India (SIAL)"/>
     <s v="G000001294"/>
     <s v="L000013749"/>
@@ -20638,7 +20694,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00068 L &amp; P Management-APAC"/>
     <s v="G000001294"/>
     <s v="L000013749"/>
@@ -20659,7 +20715,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00082 APAC MSX SBS"/>
     <s v="G000001294"/>
     <s v="L000013749"/>
@@ -20680,7 +20736,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00004 Com - Cash Collection WE"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20701,7 +20757,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00007 R&amp;A Com - Customer Service WE"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20722,7 +20778,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00043 SBS Sales Enablement"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20743,7 +20799,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00044 SBS Tech Service-Field Marketing-SFDC"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20764,7 +20820,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00045 SBS TchSrv EMEA APAC"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20785,7 +20841,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00074 SBS Pharma WE"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20806,7 +20862,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00085 SBS Demand Planning - Order Management"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20827,7 +20883,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00091 DARwin Field Marketing support"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20848,7 +20904,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C08478 SMI - SBS Strategic Pricing"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20869,7 +20925,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C08504 R&amp;A Com - CRM support"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20890,7 +20946,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C0BS05 CEx BPEX WE"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20911,7 +20967,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C0BS06 CEx Customer Focus"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20932,7 +20988,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C0BS07 CEx Customer Focus"/>
     <s v="G000001295"/>
     <s v="L000013750"/>
@@ -20995,7 +21051,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00011 SMI - SBS Product Management"/>
     <s v="G000001296"/>
     <s v="L000013751"/>
@@ -21016,7 +21072,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00078 Cell Culture SBS 2"/>
     <s v="G000001296"/>
     <s v="L000013751"/>
@@ -21037,7 +21093,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C08519 SBS - SMI Product Support"/>
     <s v="G000001296"/>
     <s v="L000013751"/>
@@ -21058,7 +21114,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0010 SBS RPA Digitalization &amp; Automation"/>
     <s v="G000001334"/>
     <s v="L000013753"/>
@@ -21079,7 +21135,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0018 SBS CTS Order Entry"/>
     <s v="G000001299"/>
     <s v="L000013753"/>
@@ -21100,7 +21156,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00009 SBS - PS Com Analytics"/>
     <s v="G000001337"/>
     <s v="L000013755"/>
@@ -21121,7 +21177,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00022 SBS PS-Com analytics"/>
     <s v="G000001302"/>
     <s v="L000013755"/>
@@ -21142,7 +21198,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00098 SBS Commercial Excellence NA PS"/>
     <s v="G000001302"/>
     <s v="L000013755"/>
@@ -21163,7 +21219,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00103 SFDC Automation Project"/>
     <s v="G000001337"/>
     <s v="L000013755"/>
@@ -21184,7 +21240,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00102 SBS P&amp;FM business operations"/>
     <s v="G000001303"/>
     <s v="L000013756"/>
@@ -21205,7 +21261,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0009 Business Performance - Reporting &amp; Tools"/>
     <s v="G000001303"/>
     <s v="L000013756"/>
@@ -21226,7 +21282,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123TPSZ91 SBS Direct Purchasing Team"/>
     <s v="G000001306"/>
     <s v="L000013758"/>
@@ -21247,7 +21303,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123TPSZ93 SBS RPA ISCO support"/>
     <s v="G000001341"/>
     <s v="L000013758"/>
@@ -21268,7 +21324,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123L80001 SBS RPA Danvers ISCO"/>
     <s v="G000001307"/>
     <s v="L000013759"/>
@@ -21289,7 +21345,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123TPSZ90 SBS Supply Chain"/>
     <s v="G000001307"/>
     <s v="L000013759"/>
@@ -21310,7 +21366,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123TQJZ94 SBS RPA for APAC Warehouse"/>
     <s v="G000001343"/>
     <s v="L000013760"/>
@@ -21331,7 +21387,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0015 Digital COE Project Management"/>
     <s v="G000001316"/>
     <s v="L000013762"/>
@@ -21352,7 +21408,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123L50024 LS-QD MDM"/>
     <s v="G000001317"/>
     <s v="L000013764"/>
@@ -21373,7 +21429,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123L58472 LS-Q Regulatory - SBS IN"/>
     <s v="G000001317"/>
     <s v="L000013765"/>
@@ -21394,7 +21450,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123L50006 LS-QD SBS Support"/>
     <s v="G000001317"/>
     <s v="L000013765"/>
@@ -21415,7 +21471,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123L50005 LS-QH SBS Support"/>
     <s v="G000001352"/>
     <s v="L000013765"/>
@@ -21436,7 +21492,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123L50003 LS-QS SBS Support"/>
     <s v="G000001317"/>
     <s v="L000013766"/>
@@ -21457,7 +21513,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123L50004 LS-QR SBS Support"/>
     <s v="G000001317"/>
     <s v="L000013767"/>
@@ -21478,7 +21534,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123C00112 SBS Enabling Sourcing"/>
     <s v="G000001318"/>
     <s v="L000013768"/>
@@ -21499,7 +21555,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0025 SBS PS Value Stream"/>
     <s v="G000001309"/>
     <s v="L000013776"/>
@@ -21520,7 +21576,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0024 SBS WCOGS Support"/>
     <s v="G000001310"/>
     <s v="L000013777"/>
@@ -21541,7 +21597,7 @@
   <r>
     <x v="67"/>
     <x v="1"/>
-    <x v="6"/>
+    <x v="5"/>
     <s v="CLFF_7210$$$2123OF0021 SBS ISCO AEM Support"/>
     <s v="G000001311"/>
     <s v="L000013778"/>
@@ -21664,11 +21720,242 @@
     <s v="Jojeff Tagnong"/>
     <m/>
   </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="CLFF_VMCA$$$US20Z01000 Automatic Account Assignment OKB9"/>
+    <s v="P000001045"/>
+    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="US20Z01000"/>
+    <s v="Not found in MDGF"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="CLFF_VMCA$$$US16Z01000 Automatic Account Assignment OKB9"/>
+    <s v="P000001045"/>
+    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="US16Z01000"/>
+    <s v="Not found in MDGF"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="CLFF_VMCA$$$US14Z01000 Automatic Account Assignment OKB9"/>
+    <s v="P000001045"/>
+    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="US14Z01000"/>
+    <s v="Not found in MDGF"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="CLFF_VMCA$$$US15Z01000 Automatic Account Assignment OKB9"/>
+    <s v="P000001045"/>
+    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="US15Z01000"/>
+    <s v="Not found in MDGF"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="CLFF_1000$$$US01TNHZ06 EL-SC-E Capital Efficiency &amp; Project Dev"/>
+    <s v="P000001191"/>
+    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="US01TNHZ06"/>
+    <s v="Not found in MDGF"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="CLFF_1000$$$TW03TOKA00 EL-SC-E Capital Efficiency &amp; Project Dev"/>
+    <s v="P000001191"/>
+    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="TW03TOKA00"/>
+    <s v="Not found in MDGF"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="4"/>
+    <s v="CLFF_1000$$$US01TNHZ05 EL-SC-E Global Techn. &amp; Engineering SMEs"/>
+    <s v="P000001195"/>
+    <s v="DFLTPGCOH Default - Unmapped Objects"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="US01TNHZ05"/>
+    <s v="Not found in MDGF"/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="CLFF_1000$$$US01TN0001 US ELDP Central CC"/>
+    <s v="P000001187"/>
+    <s v="P000000635 EL-SC-E Engineering"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="US01TN0001"/>
+    <m/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="CLFF_VMCA$$$US10TN2100 US ELDP Central CC"/>
+    <s v="P000001187"/>
+    <s v="P000000635 EL-SC-E Engineering"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="US10TN2100"/>
+    <m/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="6"/>
+    <s v="CLFF_VMCA$$$CN10C01004 RedOx Operations Technology"/>
+    <s v="P000001193"/>
+    <s v="P000001187 EL-SC-E Engineering Head"/>
+    <s v="LFF (MDG-F)"/>
+    <s v="CN10C01004"/>
+    <m/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
+  <r>
+    <x v="68"/>
+    <x v="1"/>
+    <x v="5"/>
+    <s v="CFLTFLE_2152IMIPARVR02 AR VR Pilot Line"/>
+    <s v="P000000649"/>
+    <s v="DFLTPGCOH_BF-CU_002152"/>
+    <s v="Non-LFF"/>
+    <s v=""/>
+    <m/>
+    <b v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <d v="2025-02-17T15:23:20"/>
+    <m/>
+    <m/>
+    <x v="0"/>
+    <n v="0"/>
+    <s v="Eivy Denine Cruz"/>
+    <m/>
+  </r>
 </pivotCacheRecords>
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="75" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{6368155F-8FF7-496C-A863-6980923EB4AC}" name="PivotTable2" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A3:B4" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -21764,1189 +22051,1189 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="75" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A4:B18" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{B800446F-E8C0-4429-82AF-B0712B64CD0D}" name="PivotTable1" cacheId="19" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="7" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A4:B21" firstHeaderRow="1" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="1250">
-        <item m="1" x="634"/>
+      <items count="1251">
+        <item m="1" x="635"/>
         <item x="0"/>
+        <item m="1" x="705"/>
+        <item m="1" x="1126"/>
+        <item m="1" x="288"/>
+        <item m="1" x="1143"/>
+        <item m="1" x="665"/>
+        <item m="1" x="755"/>
+        <item m="1" x="1176"/>
+        <item m="1" x="970"/>
+        <item m="1" x="658"/>
+        <item m="1" x="1242"/>
+        <item m="1" x="988"/>
+        <item m="1" x="1232"/>
+        <item m="1" x="606"/>
+        <item m="1" x="507"/>
+        <item m="1" x="211"/>
+        <item m="1" x="472"/>
+        <item m="1" x="1196"/>
+        <item m="1" x="264"/>
+        <item m="1" x="572"/>
+        <item m="1" x="940"/>
+        <item m="1" x="655"/>
+        <item m="1" x="748"/>
+        <item m="1" x="1044"/>
+        <item m="1" x="1229"/>
+        <item m="1" x="690"/>
+        <item m="1" x="712"/>
+        <item m="1" x="477"/>
+        <item m="1" x="878"/>
+        <item m="1" x="637"/>
+        <item m="1" x="1183"/>
+        <item m="1" x="840"/>
+        <item m="1" x="273"/>
+        <item m="1" x="381"/>
+        <item m="1" x="1168"/>
+        <item m="1" x="932"/>
+        <item m="1" x="186"/>
+        <item m="1" x="1018"/>
+        <item m="1" x="684"/>
+        <item m="1" x="979"/>
+        <item m="1" x="565"/>
+        <item m="1" x="917"/>
+        <item m="1" x="176"/>
+        <item m="1" x="206"/>
+        <item m="1" x="1245"/>
+        <item m="1" x="924"/>
+        <item m="1" x="992"/>
+        <item m="1" x="1099"/>
+        <item m="1" x="868"/>
+        <item m="1" x="966"/>
+        <item m="1" x="805"/>
+        <item m="1" x="260"/>
+        <item m="1" x="451"/>
+        <item m="1" x="1227"/>
+        <item m="1" x="795"/>
+        <item m="1" x="935"/>
+        <item m="1" x="463"/>
+        <item m="1" x="424"/>
+        <item m="1" x="716"/>
+        <item m="1" x="608"/>
+        <item m="1" x="641"/>
+        <item m="1" x="200"/>
+        <item m="1" x="339"/>
+        <item m="1" x="1001"/>
+        <item m="1" x="1218"/>
+        <item m="1" x="404"/>
+        <item m="1" x="809"/>
+        <item m="1" x="819"/>
+        <item m="1" x="996"/>
+        <item m="1" x="1106"/>
+        <item m="1" x="984"/>
+        <item m="1" x="279"/>
+        <item m="1" x="1127"/>
+        <item m="1" x="857"/>
+        <item m="1" x="844"/>
+        <item m="1" x="379"/>
+        <item m="1" x="732"/>
+        <item m="1" x="1079"/>
+        <item m="1" x="197"/>
+        <item m="1" x="776"/>
+        <item m="1" x="1129"/>
+        <item m="1" x="967"/>
+        <item m="1" x="702"/>
+        <item m="1" x="744"/>
+        <item m="1" x="625"/>
+        <item m="1" x="860"/>
+        <item m="1" x="672"/>
+        <item m="1" x="904"/>
+        <item m="1" x="388"/>
+        <item m="1" x="1217"/>
+        <item m="1" x="742"/>
+        <item m="1" x="1028"/>
+        <item m="1" x="105"/>
+        <item m="1" x="1233"/>
+        <item m="1" x="769"/>
+        <item m="1" x="1058"/>
+        <item m="1" x="971"/>
+        <item m="1" x="749"/>
+        <item m="1" x="259"/>
+        <item m="1" x="266"/>
+        <item m="1" x="306"/>
+        <item m="1" x="488"/>
+        <item m="1" x="912"/>
+        <item m="1" x="673"/>
+        <item m="1" x="789"/>
+        <item m="1" x="852"/>
+        <item m="1" x="999"/>
+        <item m="1" x="1082"/>
+        <item m="1" x="644"/>
+        <item m="1" x="365"/>
+        <item m="1" x="208"/>
+        <item m="1" x="351"/>
+        <item m="1" x="1226"/>
+        <item m="1" x="383"/>
+        <item m="1" x="1064"/>
+        <item m="1" x="993"/>
+        <item m="1" x="611"/>
+        <item m="1" x="683"/>
+        <item m="1" x="549"/>
+        <item m="1" x="806"/>
+        <item m="1" x="1181"/>
+        <item m="1" x="357"/>
+        <item m="1" x="305"/>
+        <item m="1" x="240"/>
+        <item m="1" x="906"/>
+        <item m="1" x="1166"/>
+        <item m="1" x="1094"/>
+        <item m="1" x="751"/>
+        <item m="1" x="275"/>
+        <item m="1" x="1000"/>
+        <item m="1" x="452"/>
+        <item m="1" x="706"/>
+        <item m="1" x="881"/>
+        <item m="1" x="989"/>
+        <item m="1" x="109"/>
+        <item m="1" x="938"/>
+        <item m="1" x="901"/>
+        <item m="1" x="342"/>
+        <item m="1" x="790"/>
+        <item m="1" x="678"/>
+        <item m="1" x="631"/>
+        <item m="1" x="364"/>
+        <item m="1" x="300"/>
+        <item m="1" x="540"/>
+        <item m="1" x="727"/>
+        <item m="1" x="134"/>
+        <item m="1" x="473"/>
+        <item m="1" x="332"/>
+        <item m="1" x="74"/>
+        <item m="1" x="584"/>
+        <item m="1" x="785"/>
+        <item m="1" x="667"/>
+        <item m="1" x="713"/>
+        <item m="1" x="1032"/>
+        <item m="1" x="614"/>
+        <item m="1" x="1140"/>
+        <item m="1" x="864"/>
+        <item m="1" x="803"/>
+        <item m="1" x="317"/>
+        <item m="1" x="950"/>
+        <item m="1" x="1228"/>
+        <item m="1" x="916"/>
+        <item m="1" x="900"/>
+        <item m="1" x="187"/>
+        <item m="1" x="235"/>
+        <item m="1" x="770"/>
+        <item m="1" x="276"/>
+        <item m="1" x="1213"/>
+        <item m="1" x="879"/>
+        <item m="1" x="804"/>
+        <item m="1" x="756"/>
+        <item m="1" x="557"/>
+        <item m="1" x="185"/>
+        <item m="1" x="285"/>
+        <item m="1" x="391"/>
+        <item m="1" x="1124"/>
+        <item m="1" x="1156"/>
+        <item m="1" x="855"/>
+        <item m="1" x="582"/>
+        <item m="1" x="670"/>
+        <item m="1" x="180"/>
+        <item m="1" x="220"/>
+        <item m="1" x="559"/>
+        <item m="1" x="784"/>
+        <item m="1" x="697"/>
+        <item m="1" x="355"/>
+        <item m="1" x="588"/>
+        <item m="1" x="302"/>
+        <item m="1" x="497"/>
+        <item m="1" x="419"/>
+        <item m="1" x="254"/>
+        <item m="1" x="390"/>
+        <item m="1" x="760"/>
+        <item m="1" x="170"/>
+        <item m="1" x="409"/>
+        <item m="1" x="201"/>
+        <item m="1" x="894"/>
+        <item m="1" x="1083"/>
+        <item m="1" x="693"/>
+        <item m="1" x="337"/>
+        <item m="1" x="987"/>
+        <item m="1" x="832"/>
+        <item m="1" x="349"/>
+        <item m="1" x="350"/>
+        <item m="1" x="535"/>
+        <item m="1" x="225"/>
+        <item m="1" x="414"/>
+        <item m="1" x="209"/>
+        <item m="1" x="395"/>
+        <item m="1" x="963"/>
+        <item m="1" x="474"/>
+        <item m="1" x="841"/>
+        <item m="1" x="891"/>
+        <item m="1" x="1025"/>
+        <item m="1" x="1029"/>
+        <item m="1" x="746"/>
+        <item m="1" x="587"/>
+        <item m="1" x="626"/>
+        <item m="1" x="1193"/>
+        <item m="1" x="486"/>
+        <item m="1" x="298"/>
+        <item m="1" x="676"/>
+        <item m="1" x="133"/>
+        <item m="1" x="1197"/>
+        <item m="1" x="660"/>
+        <item m="1" x="94"/>
+        <item m="1" x="1115"/>
+        <item m="1" x="1158"/>
+        <item m="1" x="995"/>
+        <item m="1" x="372"/>
+        <item m="1" x="111"/>
+        <item m="1" x="1045"/>
+        <item m="1" x="436"/>
+        <item m="1" x="72"/>
+        <item m="1" x="1216"/>
+        <item m="1" x="460"/>
+        <item m="1" x="615"/>
+        <item m="1" x="1060"/>
+        <item m="1" x="147"/>
+        <item m="1" x="972"/>
+        <item m="1" x="780"/>
+        <item m="1" x="645"/>
+        <item m="1" x="515"/>
+        <item m="1" x="262"/>
+        <item m="1" x="763"/>
+        <item m="1" x="465"/>
+        <item m="1" x="1003"/>
+        <item m="1" x="325"/>
+        <item m="1" x="1073"/>
+        <item m="1" x="1080"/>
+        <item m="1" x="764"/>
+        <item m="1" x="954"/>
+        <item m="1" x="371"/>
+        <item m="1" x="668"/>
+        <item m="1" x="957"/>
+        <item m="1" x="541"/>
+        <item m="1" x="831"/>
+        <item m="1" x="470"/>
+        <item m="1" x="255"/>
+        <item m="1" x="459"/>
+        <item m="1" x="1225"/>
+        <item m="1" x="1167"/>
+        <item m="1" x="312"/>
+        <item m="1" x="1113"/>
+        <item m="1" x="119"/>
+        <item m="1" x="1135"/>
+        <item m="1" x="154"/>
+        <item m="1" x="456"/>
+        <item m="1" x="554"/>
+        <item m="1" x="501"/>
+        <item m="1" x="1108"/>
+        <item m="1" x="1011"/>
+        <item m="1" x="252"/>
+        <item m="1" x="822"/>
+        <item m="1" x="1030"/>
+        <item m="1" x="1164"/>
+        <item m="1" x="1071"/>
+        <item m="1" x="157"/>
+        <item m="1" x="1237"/>
+        <item m="1" x="308"/>
+        <item m="1" x="589"/>
+        <item m="1" x="1033"/>
+        <item m="1" x="156"/>
+        <item m="1" x="1092"/>
+        <item m="1" x="321"/>
+        <item m="1" x="965"/>
+        <item m="1" x="829"/>
+        <item m="1" x="807"/>
+        <item m="1" x="386"/>
+        <item m="1" x="348"/>
+        <item m="1" x="1160"/>
+        <item m="1" x="101"/>
+        <item m="1" x="283"/>
+        <item m="1" x="942"/>
+        <item m="1" x="1053"/>
+        <item m="1" x="980"/>
+        <item m="1" x="1184"/>
+        <item m="1" x="688"/>
+        <item m="1" x="315"/>
+        <item m="1" x="435"/>
+        <item m="1" x="754"/>
+        <item m="1" x="496"/>
+        <item m="1" x="824"/>
+        <item m="1" x="437"/>
+        <item m="1" x="239"/>
+        <item m="1" x="892"/>
+        <item m="1" x="294"/>
+        <item m="1" x="174"/>
+        <item m="1" x="1026"/>
+        <item m="1" x="1173"/>
+        <item m="1" x="874"/>
+        <item m="1" x="139"/>
+        <item m="1" x="1065"/>
+        <item m="1" x="863"/>
+        <item m="1" x="973"/>
+        <item m="1" x="1112"/>
+        <item m="1" x="340"/>
+        <item m="1" x="532"/>
+        <item m="1" x="370"/>
+        <item m="1" x="638"/>
+        <item m="1" x="562"/>
+        <item m="1" x="592"/>
+        <item m="1" x="1128"/>
+        <item m="1" x="574"/>
+        <item m="1" x="777"/>
+        <item m="1" x="309"/>
+        <item m="1" x="508"/>
+        <item m="1" x="482"/>
+        <item m="1" x="825"/>
+        <item m="1" x="728"/>
+        <item m="1" x="956"/>
+        <item m="1" x="478"/>
+        <item m="1" x="1114"/>
+        <item m="1" x="316"/>
+        <item m="1" x="242"/>
+        <item m="1" x="498"/>
+        <item m="1" x="1039"/>
+        <item m="1" x="149"/>
+        <item m="1" x="150"/>
+        <item m="1" x="446"/>
+        <item m="1" x="1119"/>
+        <item m="1" x="513"/>
+        <item m="1" x="158"/>
+        <item m="1" x="318"/>
+        <item m="1" x="560"/>
+        <item m="1" x="871"/>
+        <item m="1" x="843"/>
+        <item m="1" x="514"/>
+        <item m="1" x="95"/>
+        <item m="1" x="233"/>
+        <item m="1" x="445"/>
+        <item m="1" x="333"/>
+        <item m="1" x="90"/>
+        <item m="1" x="1043"/>
+        <item m="1" x="1172"/>
+        <item m="1" x="642"/>
+        <item m="1" x="1072"/>
+        <item m="1" x="1132"/>
+        <item m="1" x="155"/>
+        <item m="1" x="1170"/>
+        <item m="1" x="908"/>
+        <item m="1" x="331"/>
+        <item m="1" x="517"/>
+        <item m="1" x="421"/>
+        <item m="1" x="783"/>
+        <item m="1" x="354"/>
+        <item m="1" x="570"/>
+        <item m="1" x="865"/>
+        <item m="1" x="990"/>
+        <item m="1" x="493"/>
+        <item m="1" x="621"/>
+        <item m="1" x="433"/>
+        <item m="1" x="359"/>
+        <item m="1" x="870"/>
+        <item m="1" x="985"/>
+        <item m="1" x="1147"/>
+        <item m="1" x="189"/>
+        <item m="1" x="393"/>
+        <item m="1" x="833"/>
+        <item m="1" x="234"/>
+        <item m="1" x="521"/>
+        <item m="1" x="902"/>
+        <item m="1" x="167"/>
+        <item m="1" x="377"/>
+        <item m="1" x="487"/>
+        <item m="1" x="1093"/>
+        <item m="1" x="326"/>
+        <item m="1" x="596"/>
+        <item m="1" x="1149"/>
+        <item m="1" x="277"/>
+        <item m="1" x="466"/>
+        <item m="1" x="654"/>
+        <item m="1" x="991"/>
+        <item m="1" x="289"/>
+        <item m="1" x="545"/>
+        <item m="1" x="387"/>
+        <item m="1" x="883"/>
+        <item m="1" x="1069"/>
+        <item m="1" x="195"/>
+        <item m="1" x="415"/>
+        <item m="1" x="1151"/>
+        <item m="1" x="1116"/>
+        <item m="1" x="216"/>
+        <item m="1" x="533"/>
+        <item m="1" x="1057"/>
+        <item m="1" x="1188"/>
+        <item m="1" x="1059"/>
+        <item m="1" x="1034"/>
+        <item m="1" x="165"/>
+        <item m="1" x="341"/>
+        <item m="1" x="423"/>
+        <item m="1" x="412"/>
+        <item m="1" x="639"/>
+        <item m="1" x="127"/>
+        <item m="1" x="826"/>
+        <item m="1" x="897"/>
+        <item m="1" x="79"/>
+        <item m="1" x="1157"/>
+        <item m="1" x="1019"/>
+        <item m="1" x="1148"/>
+        <item m="1" x="1178"/>
+        <item m="1" x="1214"/>
+        <item m="1" x="1152"/>
+        <item m="1" x="516"/>
+        <item m="1" x="876"/>
+        <item m="1" x="483"/>
+        <item m="1" x="889"/>
+        <item m="1" x="854"/>
+        <item m="1" x="292"/>
+        <item m="1" x="330"/>
+        <item m="1" x="468"/>
+        <item m="1" x="933"/>
+        <item m="1" x="453"/>
+        <item m="1" x="199"/>
+        <item m="1" x="1198"/>
+        <item m="1" x="948"/>
+        <item m="1" x="781"/>
+        <item m="1" x="813"/>
+        <item m="1" x="862"/>
+        <item m="1" x="287"/>
+        <item m="1" x="629"/>
+        <item m="1" x="974"/>
+        <item m="1" x="125"/>
+        <item m="1" x="368"/>
+        <item m="1" x="268"/>
+        <item m="1" x="265"/>
+        <item m="1" x="269"/>
+        <item m="1" x="70"/>
+        <item m="1" x="291"/>
+        <item m="1" x="1088"/>
+        <item m="1" x="92"/>
+        <item m="1" x="738"/>
+        <item m="1" x="1175"/>
+        <item m="1" x="986"/>
+        <item m="1" x="246"/>
+        <item m="1" x="1246"/>
+        <item m="1" x="175"/>
+        <item m="1" x="542"/>
+        <item m="1" x="765"/>
+        <item m="1" x="221"/>
+        <item m="1" x="674"/>
+        <item m="1" x="834"/>
+        <item m="1" x="1102"/>
+        <item m="1" x="1004"/>
+        <item m="1" x="83"/>
+        <item m="1" x="766"/>
+        <item m="1" x="166"/>
+        <item m="1" x="402"/>
+        <item m="1" x="374"/>
+        <item m="1" x="136"/>
+        <item m="1" x="729"/>
+        <item m="1" x="736"/>
+        <item m="1" x="836"/>
+        <item m="1" x="585"/>
+        <item m="1" x="1085"/>
+        <item m="1" x="494"/>
+        <item m="1" x="1204"/>
+        <item m="1" x="839"/>
+        <item m="1" x="730"/>
+        <item m="1" x="394"/>
+        <item m="1" x="802"/>
+        <item m="1" x="1100"/>
+        <item m="1" x="1165"/>
+        <item m="1" x="1144"/>
+        <item m="1" x="1074"/>
+        <item m="1" x="823"/>
+        <item m="1" x="936"/>
+        <item m="1" x="449"/>
+        <item m="1" x="898"/>
+        <item m="1" x="723"/>
+        <item m="1" x="682"/>
+        <item m="1" x="680"/>
+        <item m="1" x="681"/>
+        <item m="1" x="378"/>
+        <item m="1" x="422"/>
+        <item m="1" x="1035"/>
+        <item m="1" x="600"/>
+        <item m="1" x="442"/>
+        <item m="1" x="484"/>
+        <item m="1" x="530"/>
+        <item m="1" x="782"/>
+        <item m="1" x="1120"/>
+        <item m="1" x="1209"/>
+        <item m="1" x="327"/>
+        <item m="1" x="278"/>
+        <item m="1" x="115"/>
+        <item m="1" x="137"/>
+        <item m="1" x="434"/>
+        <item m="1" x="222"/>
+        <item m="1" x="550"/>
+        <item m="1" x="1086"/>
+        <item m="1" x="427"/>
+        <item m="1" x="219"/>
+        <item m="1" x="978"/>
+        <item m="1" x="96"/>
+        <item m="1" x="1104"/>
+        <item m="1" x="1179"/>
+        <item m="1" x="1243"/>
+        <item m="1" x="1118"/>
+        <item m="1" x="361"/>
+        <item m="1" x="138"/>
+        <item m="1" x="602"/>
+        <item m="1" x="686"/>
+        <item m="1" x="882"/>
+        <item m="1" x="850"/>
+        <item m="1" x="886"/>
+        <item m="1" x="663"/>
+        <item m="1" x="701"/>
+        <item m="1" x="1142"/>
+        <item m="1" x="905"/>
+        <item m="1" x="875"/>
+        <item m="1" x="814"/>
+        <item m="1" x="887"/>
+        <item m="1" x="88"/>
+        <item m="1" x="93"/>
+        <item m="1" x="696"/>
+        <item m="1" x="1081"/>
+        <item m="1" x="651"/>
+        <item m="1" x="1221"/>
+        <item m="1" x="620"/>
+        <item m="1" x="796"/>
+        <item m="1" x="867"/>
+        <item m="1" x="481"/>
+        <item m="1" x="313"/>
+        <item m="1" x="689"/>
+        <item m="1" x="375"/>
+        <item m="1" x="1230"/>
+        <item m="1" x="1145"/>
+        <item m="1" x="958"/>
+        <item m="1" x="215"/>
+        <item m="1" x="142"/>
+        <item m="1" x="715"/>
+        <item m="1" x="959"/>
+        <item m="1" x="1248"/>
+        <item m="1" x="594"/>
+        <item m="1" x="1195"/>
+        <item m="1" x="129"/>
+        <item m="1" x="243"/>
+        <item m="1" x="555"/>
+        <item m="1" x="646"/>
+        <item m="1" x="1075"/>
+        <item m="1" x="399"/>
+        <item m="1" x="1078"/>
+        <item m="1" x="495"/>
+        <item m="1" x="1067"/>
+        <item m="1" x="1231"/>
+        <item m="1" x="159"/>
+        <item m="1" x="1215"/>
+        <item m="1" x="106"/>
+        <item m="1" x="968"/>
+        <item m="1" x="586"/>
+        <item m="1" x="417"/>
+        <item m="1" x="380"/>
+        <item m="1" x="524"/>
+        <item m="1" x="123"/>
+        <item m="1" x="1208"/>
+        <item m="1" x="207"/>
+        <item m="1" x="228"/>
+        <item m="1" x="1101"/>
+        <item m="1" x="1180"/>
+        <item m="1" x="694"/>
+        <item m="1" x="835"/>
+        <item m="1" x="536"/>
+        <item m="1" x="649"/>
+        <item m="1" x="798"/>
+        <item m="1" x="915"/>
+        <item m="1" x="502"/>
+        <item m="1" x="778"/>
+        <item m="1" x="597"/>
+        <item m="1" x="1234"/>
+        <item m="1" x="87"/>
+        <item m="1" x="526"/>
+        <item m="1" x="467"/>
+        <item m="1" x="428"/>
+        <item m="1" x="1222"/>
+        <item m="1" x="1040"/>
+        <item m="1" x="1171"/>
+        <item m="1" x="184"/>
+        <item m="1" x="1182"/>
+        <item m="1" x="1169"/>
+        <item m="1" x="1046"/>
+        <item m="1" x="281"/>
+        <item m="1" x="650"/>
+        <item m="1" x="743"/>
+        <item m="1" x="489"/>
+        <item m="1" x="1087"/>
+        <item m="1" x="873"/>
+        <item m="1" x="893"/>
+        <item m="1" x="787"/>
+        <item m="1" x="130"/>
+        <item m="1" x="960"/>
+        <item m="1" x="1122"/>
+        <item m="1" x="527"/>
+        <item m="1" x="1241"/>
+        <item m="1" x="735"/>
+        <item m="1" x="322"/>
+        <item m="1" x="455"/>
+        <item m="1" x="491"/>
+        <item m="1" x="1150"/>
+        <item m="1" x="1134"/>
+        <item m="1" x="194"/>
+        <item m="1" x="196"/>
+        <item m="1" x="110"/>
+        <item m="1" x="1070"/>
+        <item m="1" x="112"/>
+        <item m="1" x="529"/>
+        <item m="1" x="429"/>
+        <item m="1" x="885"/>
+        <item m="1" x="828"/>
+        <item m="1" x="1177"/>
+        <item m="1" x="1109"/>
+        <item m="1" x="601"/>
+        <item m="1" x="815"/>
+        <item m="1" x="1050"/>
+        <item m="1" x="163"/>
+        <item m="1" x="595"/>
+        <item m="1" x="525"/>
+        <item m="1" x="1219"/>
+        <item m="1" x="1186"/>
+        <item m="1" x="617"/>
+        <item m="1" x="223"/>
+        <item m="1" x="518"/>
+        <item m="1" x="691"/>
+        <item m="1" x="145"/>
+        <item m="1" x="981"/>
+        <item m="1" x="575"/>
+        <item m="1" x="385"/>
+        <item m="1" x="479"/>
+        <item m="1" x="925"/>
+        <item m="1" x="1224"/>
+        <item m="1" x="303"/>
+        <item m="1" x="1076"/>
+        <item m="1" x="297"/>
+        <item m="1" x="861"/>
+        <item m="1" x="633"/>
+        <item m="1" x="564"/>
+        <item m="1" x="286"/>
+        <item m="1" x="353"/>
+        <item m="1" x="141"/>
+        <item m="1" x="941"/>
+        <item m="1" x="454"/>
+        <item m="1" x="178"/>
+        <item m="1" x="792"/>
+        <item m="1" x="1107"/>
+        <item m="1" x="647"/>
+        <item m="1" x="605"/>
+        <item m="1" x="76"/>
+        <item m="1" x="1212"/>
+        <item m="1" x="462"/>
+        <item m="1" x="522"/>
+        <item m="1" x="929"/>
+        <item m="1" x="1206"/>
+        <item m="1" x="1131"/>
+        <item m="1" x="982"/>
+        <item m="1" x="1097"/>
+        <item m="1" x="258"/>
+        <item m="1" x="457"/>
+        <item m="1" x="290"/>
+        <item m="1" x="82"/>
+        <item m="1" x="695"/>
+        <item m="1" x="144"/>
+        <item m="1" x="366"/>
+        <item m="1" x="310"/>
+        <item m="1" x="256"/>
+        <item m="1" x="1211"/>
+        <item m="1" x="307"/>
+        <item m="1" x="909"/>
+        <item m="1" x="1121"/>
+        <item m="1" x="247"/>
+        <item m="1" x="151"/>
+        <item m="1" x="944"/>
+        <item m="1" x="920"/>
+        <item m="1" x="961"/>
+        <item m="1" x="880"/>
+        <item m="1" x="224"/>
+        <item m="1" x="580"/>
+        <item m="1" x="848"/>
+        <item m="1" x="1098"/>
+        <item m="1" x="692"/>
+        <item m="1" x="810"/>
+        <item m="1" x="1154"/>
+        <item m="1" x="566"/>
+        <item m="1" x="410"/>
+        <item m="1" x="643"/>
+        <item m="1" x="590"/>
+        <item m="1" x="520"/>
+        <item m="1" x="1037"/>
+        <item m="1" x="724"/>
+        <item m="1" x="820"/>
+        <item m="1" x="71"/>
+        <item m="1" x="616"/>
+        <item m="1" x="218"/>
+        <item m="1" x="485"/>
+        <item m="1" x="623"/>
+        <item m="1" x="153"/>
+        <item m="1" x="270"/>
+        <item m="1" x="725"/>
+        <item m="1" x="922"/>
+        <item m="1" x="1192"/>
+        <item m="1" x="1235"/>
+        <item m="1" x="845"/>
+        <item m="1" x="193"/>
+        <item m="1" x="121"/>
+        <item m="1" x="707"/>
+        <item m="1" x="329"/>
+        <item m="1" x="603"/>
+        <item m="1" x="231"/>
+        <item m="1" x="334"/>
+        <item m="1" x="761"/>
+        <item m="1" x="1117"/>
+        <item m="1" x="1048"/>
+        <item m="1" x="464"/>
+        <item m="1" x="499"/>
+        <item m="1" x="775"/>
+        <item m="1" x="1205"/>
+        <item m="1" x="931"/>
+        <item m="1" x="97"/>
+        <item m="1" x="1159"/>
+        <item m="1" x="205"/>
+        <item m="1" x="851"/>
+        <item m="1" x="896"/>
+        <item m="1" x="899"/>
+        <item m="1" x="1239"/>
+        <item m="1" x="132"/>
+        <item m="1" x="910"/>
+        <item m="1" x="1007"/>
+        <item m="1" x="779"/>
+        <item m="1" x="949"/>
+        <item m="1" x="191"/>
+        <item m="1" x="583"/>
+        <item m="1" x="430"/>
+        <item m="1" x="1042"/>
+        <item m="1" x="1137"/>
+        <item m="1" x="666"/>
+        <item m="1" x="1105"/>
+        <item m="1" x="1153"/>
+        <item m="1" x="506"/>
+        <item m="1" x="1009"/>
+        <item m="1" x="872"/>
+        <item m="1" x="1155"/>
+        <item m="1" x="1199"/>
+        <item m="1" x="937"/>
+        <item m="1" x="547"/>
+        <item m="1" x="352"/>
+        <item m="1" x="1187"/>
+        <item m="1" x="734"/>
+        <item m="1" x="708"/>
+        <item m="1" x="717"/>
+        <item m="1" x="1238"/>
+        <item m="1" x="962"/>
+        <item m="1" x="657"/>
+        <item m="1" x="926"/>
+        <item m="1" x="903"/>
+        <item m="1" x="519"/>
+        <item m="1" x="420"/>
+        <item m="1" x="919"/>
+        <item m="1" x="314"/>
+        <item m="1" x="271"/>
+        <item m="1" x="213"/>
+        <item m="1" x="1200"/>
+        <item m="1" x="816"/>
+        <item m="1" x="551"/>
+        <item m="1" x="632"/>
+        <item m="1" x="113"/>
+        <item m="1" x="1189"/>
+        <item m="1" x="740"/>
+        <item m="1" x="888"/>
+        <item m="1" x="336"/>
+        <item m="1" x="1020"/>
+        <item m="1" x="523"/>
+        <item m="1" x="416"/>
+        <item m="1" x="1244"/>
+        <item m="1" x="546"/>
+        <item m="1" x="1185"/>
+        <item m="1" x="771"/>
+        <item m="1" x="447"/>
+        <item m="1" x="238"/>
+        <item m="1" x="181"/>
+        <item m="1" x="475"/>
+        <item m="1" x="172"/>
+        <item m="1" x="143"/>
+        <item m="1" x="160"/>
+        <item m="1" x="439"/>
+        <item m="1" x="284"/>
+        <item m="1" x="591"/>
+        <item m="1" x="648"/>
+        <item m="1" x="747"/>
+        <item m="1" x="618"/>
+        <item m="1" x="951"/>
+        <item m="1" x="1015"/>
+        <item m="1" x="227"/>
+        <item m="1" x="237"/>
+        <item m="1" x="426"/>
+        <item m="1" x="568"/>
+        <item m="1" x="358"/>
+        <item m="1" x="911"/>
+        <item m="1" x="661"/>
+        <item m="1" x="578"/>
+        <item m="1" x="711"/>
+        <item m="1" x="1017"/>
+        <item m="1" x="955"/>
+        <item m="1" x="1041"/>
+        <item m="1" x="797"/>
+        <item m="1" x="217"/>
+        <item m="1" x="1223"/>
+        <item m="1" x="636"/>
+        <item m="1" x="251"/>
+        <item m="1" x="75"/>
+        <item m="1" x="1220"/>
         <item m="1" x="704"/>
-        <item m="1" x="1125"/>
-        <item m="1" x="287"/>
-        <item m="1" x="1142"/>
+        <item m="1" x="671"/>
+        <item m="1" x="443"/>
+        <item m="1" x="323"/>
+        <item m="1" x="407"/>
+        <item m="1" x="561"/>
+        <item m="1" x="1136"/>
+        <item m="1" x="1055"/>
+        <item m="1" x="431"/>
+        <item m="1" x="504"/>
+        <item m="1" x="511"/>
+        <item m="1" x="1049"/>
+        <item m="1" x="652"/>
+        <item m="1" x="124"/>
+        <item m="1" x="685"/>
+        <item m="1" x="964"/>
+        <item m="1" x="1090"/>
+        <item m="1" x="983"/>
+        <item m="1" x="791"/>
+        <item m="1" x="1089"/>
+        <item m="1" x="103"/>
+        <item m="1" x="1006"/>
+        <item m="1" x="85"/>
+        <item m="1" x="425"/>
+        <item m="1" x="89"/>
+        <item m="1" x="248"/>
+        <item m="1" x="338"/>
+        <item m="1" x="344"/>
+        <item m="1" x="762"/>
+        <item m="1" x="1016"/>
+        <item m="1" x="543"/>
+        <item m="1" x="114"/>
+        <item m="1" x="320"/>
+        <item m="1" x="108"/>
+        <item m="1" x="1103"/>
+        <item m="1" x="328"/>
         <item m="1" x="664"/>
-        <item m="1" x="754"/>
-        <item m="1" x="1175"/>
+        <item m="1" x="1123"/>
+        <item m="1" x="450"/>
+        <item m="1" x="392"/>
+        <item m="1" x="788"/>
+        <item m="1" x="345"/>
+        <item m="1" x="653"/>
+        <item m="1" x="947"/>
+        <item m="1" x="86"/>
+        <item m="1" x="599"/>
+        <item m="1" x="718"/>
+        <item m="1" x="210"/>
+        <item m="1" x="552"/>
+        <item m="1" x="687"/>
+        <item m="1" x="438"/>
+        <item m="1" x="476"/>
+        <item m="1" x="203"/>
+        <item m="1" x="609"/>
+        <item m="1" x="73"/>
+        <item m="1" x="745"/>
+        <item m="1" x="1138"/>
+        <item m="1" x="859"/>
+        <item m="1" x="853"/>
+        <item m="1" x="752"/>
+        <item m="1" x="78"/>
+        <item m="1" x="884"/>
+        <item m="1" x="927"/>
+        <item m="1" x="733"/>
+        <item m="1" x="77"/>
+        <item m="1" x="1084"/>
+        <item m="1" x="1051"/>
+        <item m="1" x="81"/>
+        <item m="1" x="360"/>
+        <item m="1" x="750"/>
+        <item m="1" x="1005"/>
+        <item m="1" x="202"/>
+        <item m="1" x="98"/>
+        <item m="1" x="257"/>
+        <item m="1" x="148"/>
+        <item m="1" x="556"/>
+        <item m="1" x="369"/>
+        <item m="1" x="367"/>
+        <item m="1" x="538"/>
+        <item m="1" x="640"/>
+        <item m="1" x="544"/>
+        <item m="1" x="741"/>
+        <item m="1" x="593"/>
+        <item m="1" x="458"/>
+        <item m="1" x="573"/>
+        <item m="1" x="1066"/>
+        <item m="1" x="1161"/>
+        <item m="1" x="418"/>
+        <item m="1" x="1141"/>
+        <item m="1" x="183"/>
+        <item m="1" x="1130"/>
+        <item m="1" x="827"/>
+        <item m="1" x="998"/>
+        <item m="1" x="1077"/>
+        <item m="1" x="757"/>
         <item m="1" x="969"/>
-        <item m="1" x="657"/>
-        <item m="1" x="1241"/>
-        <item m="1" x="987"/>
-        <item m="1" x="1231"/>
-        <item m="1" x="605"/>
-        <item m="1" x="506"/>
-        <item m="1" x="210"/>
-        <item m="1" x="471"/>
-        <item m="1" x="1195"/>
-        <item m="1" x="263"/>
-        <item m="1" x="571"/>
-        <item m="1" x="939"/>
-        <item m="1" x="654"/>
-        <item m="1" x="747"/>
-        <item m="1" x="1043"/>
-        <item m="1" x="1228"/>
-        <item m="1" x="689"/>
-        <item m="1" x="711"/>
-        <item m="1" x="476"/>
-        <item m="1" x="877"/>
-        <item m="1" x="636"/>
-        <item m="1" x="1182"/>
-        <item m="1" x="839"/>
-        <item m="1" x="272"/>
-        <item m="1" x="380"/>
-        <item m="1" x="1167"/>
-        <item m="1" x="931"/>
-        <item m="1" x="185"/>
-        <item m="1" x="1017"/>
-        <item m="1" x="683"/>
-        <item m="1" x="978"/>
-        <item m="1" x="564"/>
-        <item m="1" x="916"/>
-        <item m="1" x="175"/>
-        <item m="1" x="205"/>
-        <item m="1" x="1244"/>
+        <item m="1" x="261"/>
+        <item m="1" x="244"/>
+        <item m="1" x="866"/>
+        <item m="1" x="838"/>
+        <item m="1" x="400"/>
+        <item m="1" x="1236"/>
+        <item m="1" x="808"/>
+        <item m="1" x="548"/>
+        <item m="1" x="622"/>
+        <item m="1" x="581"/>
+        <item m="1" x="1091"/>
+        <item m="1" x="1095"/>
+        <item m="1" x="91"/>
+        <item m="1" x="975"/>
+        <item m="1" x="1021"/>
+        <item m="1" x="140"/>
+        <item m="1" x="512"/>
+        <item m="1" x="503"/>
+        <item m="1" x="1010"/>
+        <item m="1" x="709"/>
+        <item m="1" x="913"/>
+        <item m="1" x="579"/>
+        <item m="1" x="930"/>
+        <item m="1" x="118"/>
+        <item m="1" x="241"/>
+        <item m="1" x="1210"/>
+        <item m="1" x="830"/>
+        <item m="1" x="1202"/>
+        <item m="1" x="122"/>
+        <item m="1" x="382"/>
+        <item m="1" x="198"/>
+        <item m="1" x="131"/>
+        <item m="1" x="146"/>
+        <item m="1" x="698"/>
+        <item m="1" x="731"/>
+        <item m="1" x="403"/>
+        <item m="1" x="821"/>
+        <item m="1" x="1139"/>
+        <item m="1" x="490"/>
+        <item m="1" x="569"/>
+        <item m="1" x="719"/>
+        <item m="1" x="1207"/>
+        <item m="1" x="384"/>
+        <item m="1" x="396"/>
+        <item m="1" x="406"/>
+        <item m="1" x="1027"/>
+        <item m="1" x="1163"/>
+        <item m="1" x="80"/>
+        <item m="1" x="907"/>
+        <item m="1" x="1203"/>
+        <item m="1" x="304"/>
+        <item m="1" x="619"/>
+        <item m="1" x="1240"/>
+        <item m="1" x="1146"/>
+        <item m="1" x="293"/>
+        <item m="1" x="405"/>
+        <item m="1" x="492"/>
+        <item m="1" x="817"/>
+        <item m="1" x="1014"/>
+        <item m="1" x="249"/>
+        <item m="1" x="720"/>
+        <item m="1" x="245"/>
+        <item m="1" x="214"/>
+        <item m="1" x="162"/>
+        <item m="1" x="1133"/>
+        <item m="1" x="726"/>
+        <item m="1" x="1174"/>
+        <item m="1" x="567"/>
+        <item m="1" x="1191"/>
+        <item m="1" x="943"/>
+        <item m="1" x="232"/>
+        <item m="1" x="1047"/>
+        <item m="1" x="1061"/>
+        <item m="1" x="721"/>
+        <item m="1" x="1096"/>
+        <item m="1" x="934"/>
+        <item m="1" x="799"/>
+        <item m="1" x="116"/>
+        <item m="1" x="945"/>
+        <item m="1" x="677"/>
+        <item m="1" x="610"/>
+        <item m="1" x="953"/>
+        <item m="1" x="537"/>
+        <item m="1" x="171"/>
+        <item m="1" x="343"/>
+        <item m="1" x="120"/>
+        <item m="1" x="469"/>
+        <item m="1" x="847"/>
+        <item m="1" x="432"/>
+        <item m="1" x="295"/>
+        <item m="1" x="510"/>
+        <item m="1" x="188"/>
+        <item m="1" x="440"/>
+        <item m="1" x="311"/>
+        <item m="1" x="662"/>
+        <item m="1" x="1249"/>
+        <item m="1" x="703"/>
+        <item m="1" x="299"/>
+        <item m="1" x="576"/>
+        <item m="1" x="282"/>
+        <item m="1" x="335"/>
+        <item m="1" x="627"/>
+        <item m="1" x="895"/>
+        <item m="1" x="612"/>
+        <item m="1" x="1062"/>
+        <item m="1" x="624"/>
+        <item m="1" x="858"/>
+        <item m="1" x="173"/>
+        <item m="1" x="656"/>
+        <item m="1" x="296"/>
+        <item m="1" x="226"/>
+        <item m="1" x="952"/>
+        <item m="1" x="267"/>
+        <item m="1" x="976"/>
+        <item m="1" x="168"/>
+        <item m="1" x="793"/>
+        <item m="1" x="800"/>
+        <item m="1" x="204"/>
+        <item m="1" x="722"/>
+        <item m="1" x="100"/>
         <item m="1" x="923"/>
-        <item m="1" x="991"/>
-        <item m="1" x="1098"/>
-        <item m="1" x="867"/>
-        <item m="1" x="965"/>
-        <item m="1" x="804"/>
-        <item m="1" x="259"/>
-        <item m="1" x="450"/>
-        <item m="1" x="1226"/>
-        <item m="1" x="794"/>
-        <item m="1" x="934"/>
-        <item m="1" x="462"/>
-        <item m="1" x="423"/>
-        <item m="1" x="715"/>
-        <item m="1" x="607"/>
-        <item m="1" x="640"/>
-        <item m="1" x="199"/>
-        <item m="1" x="338"/>
-        <item m="1" x="1000"/>
-        <item m="1" x="1217"/>
-        <item m="1" x="403"/>
-        <item m="1" x="808"/>
+        <item m="1" x="628"/>
+        <item m="1" x="849"/>
         <item m="1" x="818"/>
-        <item m="1" x="995"/>
-        <item m="1" x="1105"/>
-        <item m="1" x="983"/>
-        <item m="1" x="278"/>
-        <item m="1" x="1126"/>
-        <item m="1" x="856"/>
-        <item m="1" x="843"/>
-        <item m="1" x="378"/>
-        <item m="1" x="731"/>
-        <item m="1" x="1078"/>
-        <item m="1" x="196"/>
-        <item m="1" x="775"/>
-        <item m="1" x="1128"/>
-        <item m="1" x="966"/>
-        <item m="1" x="701"/>
-        <item m="1" x="743"/>
-        <item m="1" x="624"/>
-        <item m="1" x="859"/>
-        <item m="1" x="671"/>
-        <item m="1" x="903"/>
-        <item m="1" x="387"/>
-        <item m="1" x="1216"/>
-        <item m="1" x="741"/>
-        <item m="1" x="1027"/>
-        <item m="1" x="104"/>
-        <item m="1" x="1232"/>
-        <item m="1" x="768"/>
-        <item m="1" x="1057"/>
-        <item m="1" x="970"/>
-        <item m="1" x="748"/>
-        <item m="1" x="258"/>
-        <item m="1" x="265"/>
-        <item m="1" x="305"/>
-        <item m="1" x="487"/>
-        <item m="1" x="911"/>
-        <item m="1" x="672"/>
-        <item m="1" x="788"/>
-        <item m="1" x="851"/>
-        <item m="1" x="998"/>
-        <item m="1" x="1081"/>
-        <item m="1" x="643"/>
-        <item m="1" x="364"/>
-        <item m="1" x="207"/>
-        <item m="1" x="350"/>
-        <item m="1" x="1225"/>
-        <item m="1" x="382"/>
-        <item m="1" x="1063"/>
-        <item m="1" x="992"/>
-        <item m="1" x="610"/>
-        <item m="1" x="682"/>
-        <item m="1" x="548"/>
-        <item m="1" x="805"/>
-        <item m="1" x="1180"/>
-        <item m="1" x="356"/>
-        <item m="1" x="304"/>
-        <item m="1" x="239"/>
-        <item m="1" x="905"/>
-        <item m="1" x="1165"/>
-        <item m="1" x="1093"/>
-        <item m="1" x="750"/>
-        <item m="1" x="274"/>
-        <item m="1" x="999"/>
-        <item m="1" x="451"/>
-        <item m="1" x="705"/>
-        <item m="1" x="880"/>
-        <item m="1" x="988"/>
-        <item m="1" x="108"/>
-        <item m="1" x="937"/>
-        <item m="1" x="900"/>
-        <item m="1" x="341"/>
-        <item m="1" x="789"/>
-        <item m="1" x="677"/>
-        <item m="1" x="630"/>
-        <item m="1" x="363"/>
-        <item m="1" x="299"/>
-        <item m="1" x="539"/>
-        <item m="1" x="726"/>
-        <item m="1" x="133"/>
-        <item m="1" x="472"/>
-        <item m="1" x="331"/>
-        <item m="1" x="73"/>
-        <item m="1" x="583"/>
-        <item m="1" x="784"/>
-        <item m="1" x="666"/>
-        <item m="1" x="712"/>
-        <item m="1" x="1031"/>
-        <item m="1" x="613"/>
-        <item m="1" x="1139"/>
-        <item m="1" x="863"/>
-        <item m="1" x="802"/>
-        <item m="1" x="316"/>
-        <item m="1" x="949"/>
-        <item m="1" x="1227"/>
-        <item m="1" x="915"/>
-        <item m="1" x="899"/>
-        <item m="1" x="186"/>
-        <item m="1" x="234"/>
-        <item m="1" x="769"/>
-        <item m="1" x="275"/>
-        <item m="1" x="1212"/>
-        <item m="1" x="878"/>
-        <item m="1" x="803"/>
-        <item m="1" x="755"/>
-        <item m="1" x="556"/>
-        <item m="1" x="184"/>
-        <item m="1" x="284"/>
-        <item m="1" x="390"/>
-        <item m="1" x="1123"/>
-        <item m="1" x="1155"/>
-        <item m="1" x="854"/>
-        <item m="1" x="581"/>
-        <item m="1" x="669"/>
-        <item m="1" x="179"/>
-        <item m="1" x="219"/>
-        <item m="1" x="558"/>
-        <item m="1" x="783"/>
-        <item m="1" x="696"/>
-        <item m="1" x="354"/>
-        <item m="1" x="587"/>
-        <item m="1" x="301"/>
-        <item m="1" x="496"/>
-        <item m="1" x="418"/>
-        <item m="1" x="253"/>
+        <item m="1" x="1038"/>
+        <item m="1" x="811"/>
         <item m="1" x="389"/>
-        <item m="1" x="759"/>
-        <item m="1" x="169"/>
-        <item m="1" x="408"/>
-        <item m="1" x="200"/>
-        <item m="1" x="893"/>
-        <item m="1" x="1082"/>
-        <item m="1" x="692"/>
-        <item m="1" x="336"/>
-        <item m="1" x="986"/>
-        <item m="1" x="831"/>
-        <item m="1" x="348"/>
-        <item m="1" x="349"/>
-        <item m="1" x="534"/>
-        <item m="1" x="224"/>
-        <item m="1" x="413"/>
-        <item m="1" x="208"/>
-        <item m="1" x="394"/>
-        <item m="1" x="962"/>
-        <item m="1" x="473"/>
-        <item m="1" x="840"/>
         <item m="1" x="890"/>
         <item m="1" x="1024"/>
-        <item m="1" x="1028"/>
-        <item m="1" x="745"/>
-        <item m="1" x="586"/>
-        <item m="1" x="625"/>
-        <item m="1" x="1192"/>
-        <item m="1" x="485"/>
-        <item m="1" x="297"/>
+        <item m="1" x="714"/>
+        <item m="1" x="846"/>
+        <item m="1" x="179"/>
+        <item m="1" x="1012"/>
+        <item m="1" x="669"/>
+        <item m="1" x="534"/>
+        <item m="1" x="918"/>
+        <item m="1" x="444"/>
+        <item m="1" x="767"/>
+        <item m="1" x="301"/>
+        <item m="1" x="397"/>
+        <item m="1" x="794"/>
+        <item m="1" x="563"/>
+        <item m="1" x="107"/>
+        <item m="1" x="441"/>
+        <item m="1" x="921"/>
+        <item m="1" x="1023"/>
+        <item m="1" x="126"/>
+        <item m="1" x="411"/>
+        <item m="1" x="346"/>
+        <item m="1" x="679"/>
+        <item m="1" x="772"/>
+        <item m="1" x="212"/>
+        <item m="1" x="1194"/>
+        <item m="1" x="177"/>
+        <item m="1" x="250"/>
+        <item m="1" x="1031"/>
+        <item m="1" x="539"/>
+        <item m="1" x="553"/>
+        <item m="1" x="607"/>
+        <item m="1" x="182"/>
+        <item m="1" x="461"/>
+        <item m="1" x="856"/>
+        <item m="1" x="768"/>
+        <item m="1" x="558"/>
+        <item m="1" x="505"/>
+        <item m="1" x="135"/>
+        <item m="1" x="373"/>
+        <item m="1" x="837"/>
+        <item m="1" x="471"/>
+        <item m="1" x="634"/>
+        <item m="1" x="571"/>
+        <item m="1" x="753"/>
+        <item m="1" x="117"/>
+        <item m="1" x="598"/>
+        <item m="1" x="272"/>
         <item m="1" x="675"/>
-        <item m="1" x="132"/>
-        <item m="1" x="1196"/>
+        <item m="1" x="801"/>
+        <item m="1" x="877"/>
+        <item m="1" x="812"/>
+        <item m="1" x="773"/>
+        <item m="1" x="699"/>
+        <item m="1" x="1110"/>
+        <item m="1" x="1002"/>
+        <item m="1" x="253"/>
+        <item m="1" x="994"/>
+        <item m="1" x="448"/>
+        <item m="1" x="758"/>
+        <item m="1" x="164"/>
+        <item m="1" x="737"/>
+        <item m="1" x="604"/>
+        <item m="1" x="1036"/>
+        <item m="1" x="190"/>
+        <item m="1" x="1247"/>
+        <item m="1" x="229"/>
+        <item m="1" x="169"/>
+        <item m="1" x="739"/>
+        <item m="1" x="939"/>
+        <item m="1" x="842"/>
+        <item m="1" x="128"/>
+        <item m="1" x="280"/>
+        <item m="1" x="1068"/>
+        <item m="1" x="1008"/>
+        <item m="1" x="263"/>
+        <item m="1" x="236"/>
+        <item m="1" x="531"/>
+        <item m="1" x="152"/>
+        <item m="1" x="759"/>
+        <item m="1" x="192"/>
+        <item m="1" x="362"/>
         <item m="1" x="659"/>
-        <item m="1" x="93"/>
-        <item m="1" x="1114"/>
-        <item m="1" x="1157"/>
-        <item m="1" x="994"/>
-        <item m="1" x="371"/>
-        <item m="1" x="110"/>
-        <item m="1" x="1044"/>
-        <item m="1" x="435"/>
-        <item m="1" x="71"/>
-        <item m="1" x="1215"/>
-        <item m="1" x="459"/>
-        <item m="1" x="614"/>
-        <item m="1" x="1059"/>
-        <item m="1" x="146"/>
-        <item m="1" x="971"/>
-        <item m="1" x="779"/>
-        <item m="1" x="644"/>
-        <item m="1" x="514"/>
-        <item m="1" x="261"/>
-        <item m="1" x="762"/>
-        <item m="1" x="464"/>
-        <item m="1" x="1002"/>
+        <item m="1" x="1190"/>
+        <item m="1" x="230"/>
+        <item m="1" x="500"/>
+        <item m="1" x="347"/>
+        <item m="1" x="509"/>
+        <item m="1" x="1063"/>
+        <item m="1" x="946"/>
+        <item m="1" x="408"/>
+        <item m="1" x="161"/>
+        <item m="1" x="1111"/>
+        <item m="1" x="274"/>
+        <item m="1" x="1056"/>
+        <item m="1" x="613"/>
+        <item m="1" x="997"/>
+        <item m="1" x="356"/>
+        <item m="1" x="528"/>
+        <item m="1" x="1013"/>
+        <item m="1" x="1201"/>
+        <item m="1" x="977"/>
+        <item m="1" x="376"/>
+        <item m="1" x="319"/>
+        <item m="1" x="1022"/>
+        <item m="1" x="786"/>
+        <item m="1" x="630"/>
+        <item m="1" x="1054"/>
+        <item m="1" x="102"/>
+        <item m="1" x="99"/>
+        <item m="1" x="774"/>
+        <item m="1" x="914"/>
+        <item m="1" x="869"/>
+        <item m="1" x="1052"/>
+        <item m="1" x="577"/>
         <item m="1" x="324"/>
-        <item m="1" x="1072"/>
-        <item m="1" x="1079"/>
-        <item m="1" x="763"/>
-        <item m="1" x="953"/>
-        <item m="1" x="370"/>
-        <item m="1" x="667"/>
-        <item m="1" x="956"/>
-        <item m="1" x="540"/>
-        <item m="1" x="830"/>
-        <item m="1" x="469"/>
-        <item m="1" x="254"/>
-        <item m="1" x="458"/>
-        <item m="1" x="1224"/>
-        <item m="1" x="1166"/>
-        <item m="1" x="311"/>
-        <item m="1" x="1112"/>
-        <item m="1" x="118"/>
-        <item m="1" x="1134"/>
-        <item m="1" x="153"/>
-        <item m="1" x="455"/>
-        <item m="1" x="553"/>
-        <item m="1" x="500"/>
-        <item m="1" x="1107"/>
-        <item m="1" x="1010"/>
-        <item m="1" x="251"/>
-        <item m="1" x="821"/>
-        <item m="1" x="1029"/>
-        <item m="1" x="1163"/>
-        <item m="1" x="1070"/>
-        <item m="1" x="156"/>
-        <item m="1" x="1236"/>
-        <item m="1" x="307"/>
-        <item m="1" x="588"/>
-        <item m="1" x="1032"/>
-        <item m="1" x="155"/>
-        <item m="1" x="1091"/>
-        <item m="1" x="320"/>
-        <item m="1" x="964"/>
-        <item m="1" x="828"/>
-        <item m="1" x="806"/>
-        <item m="1" x="385"/>
-        <item m="1" x="347"/>
-        <item m="1" x="1159"/>
-        <item m="1" x="100"/>
-        <item m="1" x="282"/>
-        <item m="1" x="941"/>
-        <item m="1" x="1052"/>
-        <item m="1" x="979"/>
-        <item m="1" x="1183"/>
-        <item m="1" x="687"/>
-        <item m="1" x="314"/>
-        <item m="1" x="434"/>
-        <item m="1" x="753"/>
-        <item m="1" x="495"/>
-        <item m="1" x="823"/>
-        <item m="1" x="436"/>
-        <item m="1" x="238"/>
-        <item m="1" x="891"/>
-        <item m="1" x="293"/>
-        <item m="1" x="173"/>
-        <item m="1" x="1025"/>
-        <item m="1" x="1172"/>
-        <item m="1" x="873"/>
-        <item m="1" x="138"/>
-        <item m="1" x="1064"/>
-        <item m="1" x="862"/>
-        <item m="1" x="972"/>
-        <item m="1" x="1111"/>
-        <item m="1" x="339"/>
-        <item m="1" x="531"/>
-        <item m="1" x="369"/>
-        <item m="1" x="637"/>
-        <item m="1" x="561"/>
-        <item m="1" x="591"/>
-        <item m="1" x="1127"/>
-        <item m="1" x="573"/>
-        <item m="1" x="776"/>
-        <item m="1" x="308"/>
-        <item m="1" x="507"/>
-        <item m="1" x="481"/>
-        <item m="1" x="824"/>
-        <item m="1" x="727"/>
-        <item m="1" x="955"/>
-        <item m="1" x="477"/>
-        <item m="1" x="1113"/>
-        <item m="1" x="315"/>
-        <item m="1" x="241"/>
-        <item m="1" x="497"/>
-        <item m="1" x="1038"/>
-        <item m="1" x="148"/>
-        <item m="1" x="149"/>
-        <item m="1" x="445"/>
-        <item m="1" x="1118"/>
-        <item m="1" x="512"/>
-        <item m="1" x="157"/>
-        <item m="1" x="317"/>
-        <item m="1" x="559"/>
-        <item m="1" x="870"/>
-        <item m="1" x="842"/>
-        <item m="1" x="513"/>
-        <item m="1" x="94"/>
-        <item m="1" x="232"/>
-        <item m="1" x="444"/>
-        <item m="1" x="332"/>
-        <item m="1" x="89"/>
-        <item m="1" x="1042"/>
-        <item m="1" x="1171"/>
-        <item m="1" x="641"/>
-        <item m="1" x="1071"/>
-        <item m="1" x="1131"/>
-        <item m="1" x="154"/>
-        <item m="1" x="1169"/>
-        <item m="1" x="907"/>
-        <item m="1" x="330"/>
-        <item m="1" x="516"/>
-        <item m="1" x="420"/>
-        <item m="1" x="782"/>
-        <item m="1" x="353"/>
-        <item m="1" x="569"/>
-        <item m="1" x="864"/>
-        <item m="1" x="989"/>
-        <item m="1" x="492"/>
-        <item m="1" x="620"/>
-        <item m="1" x="432"/>
-        <item m="1" x="358"/>
-        <item m="1" x="869"/>
-        <item m="1" x="984"/>
-        <item m="1" x="1146"/>
-        <item m="1" x="188"/>
-        <item m="1" x="392"/>
-        <item m="1" x="832"/>
-        <item m="1" x="233"/>
-        <item m="1" x="520"/>
-        <item m="1" x="901"/>
-        <item m="1" x="166"/>
-        <item m="1" x="376"/>
-        <item m="1" x="486"/>
-        <item m="1" x="1092"/>
-        <item m="1" x="325"/>
-        <item m="1" x="595"/>
-        <item m="1" x="1148"/>
-        <item m="1" x="276"/>
-        <item m="1" x="465"/>
-        <item m="1" x="653"/>
-        <item m="1" x="990"/>
-        <item m="1" x="288"/>
-        <item m="1" x="544"/>
-        <item m="1" x="386"/>
-        <item m="1" x="882"/>
-        <item m="1" x="1068"/>
-        <item m="1" x="194"/>
-        <item m="1" x="414"/>
-        <item m="1" x="1150"/>
-        <item m="1" x="1115"/>
-        <item m="1" x="215"/>
-        <item m="1" x="532"/>
-        <item m="1" x="1056"/>
-        <item m="1" x="1187"/>
-        <item m="1" x="1058"/>
-        <item m="1" x="1033"/>
-        <item m="1" x="164"/>
-        <item m="1" x="340"/>
-        <item m="1" x="422"/>
-        <item m="1" x="411"/>
-        <item m="1" x="638"/>
-        <item m="1" x="126"/>
-        <item m="1" x="825"/>
-        <item m="1" x="896"/>
-        <item m="1" x="78"/>
-        <item m="1" x="1156"/>
-        <item m="1" x="1018"/>
-        <item m="1" x="1147"/>
-        <item m="1" x="1177"/>
-        <item m="1" x="1213"/>
-        <item m="1" x="1151"/>
-        <item m="1" x="515"/>
-        <item m="1" x="875"/>
-        <item m="1" x="482"/>
-        <item m="1" x="888"/>
-        <item m="1" x="853"/>
-        <item m="1" x="291"/>
-        <item m="1" x="329"/>
-        <item m="1" x="467"/>
-        <item m="1" x="932"/>
-        <item m="1" x="452"/>
-        <item m="1" x="198"/>
-        <item m="1" x="1197"/>
-        <item m="1" x="947"/>
-        <item m="1" x="780"/>
-        <item m="1" x="812"/>
-        <item m="1" x="861"/>
-        <item m="1" x="286"/>
-        <item m="1" x="628"/>
-        <item m="1" x="973"/>
-        <item m="1" x="124"/>
-        <item m="1" x="367"/>
-        <item m="1" x="267"/>
-        <item m="1" x="264"/>
-        <item m="1" x="268"/>
-        <item m="1" x="69"/>
-        <item m="1" x="290"/>
-        <item m="1" x="1087"/>
-        <item m="1" x="91"/>
-        <item m="1" x="737"/>
-        <item m="1" x="1174"/>
-        <item m="1" x="985"/>
-        <item m="1" x="245"/>
-        <item m="1" x="1245"/>
-        <item m="1" x="174"/>
-        <item m="1" x="541"/>
-        <item m="1" x="764"/>
-        <item m="1" x="220"/>
-        <item m="1" x="673"/>
-        <item m="1" x="833"/>
-        <item m="1" x="1101"/>
-        <item m="1" x="1003"/>
-        <item m="1" x="82"/>
-        <item m="1" x="765"/>
-        <item m="1" x="165"/>
-        <item m="1" x="401"/>
-        <item m="1" x="373"/>
-        <item m="1" x="135"/>
-        <item m="1" x="728"/>
-        <item m="1" x="735"/>
-        <item m="1" x="835"/>
-        <item m="1" x="584"/>
-        <item m="1" x="1084"/>
-        <item m="1" x="493"/>
-        <item m="1" x="1203"/>
-        <item m="1" x="838"/>
-        <item m="1" x="729"/>
-        <item m="1" x="393"/>
-        <item m="1" x="801"/>
-        <item m="1" x="1099"/>
-        <item m="1" x="1164"/>
-        <item m="1" x="1143"/>
-        <item m="1" x="1073"/>
-        <item m="1" x="822"/>
-        <item m="1" x="935"/>
-        <item m="1" x="448"/>
-        <item m="1" x="897"/>
-        <item m="1" x="722"/>
-        <item m="1" x="681"/>
-        <item m="1" x="679"/>
-        <item m="1" x="680"/>
-        <item m="1" x="377"/>
-        <item m="1" x="421"/>
-        <item m="1" x="1034"/>
-        <item m="1" x="599"/>
-        <item m="1" x="441"/>
-        <item m="1" x="483"/>
-        <item m="1" x="529"/>
-        <item m="1" x="781"/>
-        <item m="1" x="1119"/>
-        <item m="1" x="1208"/>
-        <item m="1" x="326"/>
-        <item m="1" x="277"/>
-        <item m="1" x="114"/>
-        <item m="1" x="136"/>
-        <item m="1" x="433"/>
-        <item m="1" x="221"/>
-        <item m="1" x="549"/>
-        <item m="1" x="1085"/>
-        <item m="1" x="426"/>
-        <item m="1" x="218"/>
-        <item m="1" x="977"/>
-        <item m="1" x="95"/>
-        <item m="1" x="1103"/>
-        <item m="1" x="1178"/>
-        <item m="1" x="1242"/>
-        <item m="1" x="1117"/>
-        <item m="1" x="360"/>
-        <item m="1" x="137"/>
-        <item m="1" x="601"/>
-        <item m="1" x="685"/>
-        <item m="1" x="881"/>
-        <item m="1" x="849"/>
-        <item m="1" x="885"/>
-        <item m="1" x="662"/>
+        <item m="1" x="398"/>
+        <item m="1" x="928"/>
+        <item m="1" x="480"/>
+        <item m="1" x="710"/>
+        <item m="1" x="1125"/>
+        <item m="1" x="363"/>
         <item m="1" x="700"/>
-        <item m="1" x="1141"/>
-        <item m="1" x="904"/>
-        <item m="1" x="874"/>
-        <item m="1" x="813"/>
-        <item m="1" x="886"/>
-        <item m="1" x="87"/>
-        <item m="1" x="92"/>
-        <item m="1" x="695"/>
-        <item m="1" x="1080"/>
-        <item m="1" x="650"/>
-        <item m="1" x="1220"/>
-        <item m="1" x="619"/>
-        <item m="1" x="795"/>
-        <item m="1" x="866"/>
-        <item m="1" x="480"/>
-        <item m="1" x="312"/>
-        <item m="1" x="688"/>
-        <item m="1" x="374"/>
-        <item m="1" x="1229"/>
-        <item m="1" x="1144"/>
-        <item m="1" x="957"/>
-        <item m="1" x="214"/>
-        <item m="1" x="141"/>
-        <item m="1" x="714"/>
-        <item m="1" x="958"/>
-        <item m="1" x="1247"/>
-        <item m="1" x="593"/>
-        <item m="1" x="1194"/>
-        <item m="1" x="128"/>
-        <item m="1" x="242"/>
-        <item m="1" x="554"/>
-        <item m="1" x="645"/>
-        <item m="1" x="1074"/>
-        <item m="1" x="398"/>
-        <item m="1" x="1077"/>
-        <item m="1" x="494"/>
-        <item m="1" x="1066"/>
-        <item m="1" x="1230"/>
-        <item m="1" x="158"/>
-        <item m="1" x="1214"/>
-        <item m="1" x="105"/>
-        <item m="1" x="967"/>
-        <item m="1" x="585"/>
-        <item m="1" x="416"/>
-        <item m="1" x="379"/>
-        <item m="1" x="523"/>
-        <item m="1" x="122"/>
-        <item m="1" x="1207"/>
-        <item m="1" x="206"/>
-        <item m="1" x="227"/>
-        <item m="1" x="1100"/>
-        <item m="1" x="1179"/>
-        <item m="1" x="693"/>
-        <item m="1" x="834"/>
-        <item m="1" x="535"/>
-        <item m="1" x="648"/>
-        <item m="1" x="797"/>
-        <item m="1" x="914"/>
-        <item m="1" x="501"/>
-        <item m="1" x="777"/>
-        <item m="1" x="596"/>
-        <item m="1" x="1233"/>
-        <item m="1" x="86"/>
-        <item m="1" x="525"/>
-        <item m="1" x="466"/>
-        <item m="1" x="427"/>
-        <item m="1" x="1221"/>
-        <item m="1" x="1039"/>
-        <item m="1" x="1170"/>
-        <item m="1" x="183"/>
-        <item m="1" x="1181"/>
-        <item m="1" x="1168"/>
-        <item m="1" x="1045"/>
-        <item m="1" x="280"/>
-        <item m="1" x="649"/>
-        <item m="1" x="742"/>
-        <item m="1" x="488"/>
-        <item m="1" x="1086"/>
-        <item m="1" x="872"/>
-        <item m="1" x="892"/>
-        <item m="1" x="786"/>
-        <item m="1" x="129"/>
-        <item m="1" x="959"/>
-        <item m="1" x="1121"/>
-        <item m="1" x="526"/>
-        <item m="1" x="1240"/>
-        <item m="1" x="734"/>
-        <item m="1" x="321"/>
-        <item m="1" x="454"/>
-        <item m="1" x="490"/>
-        <item m="1" x="1149"/>
-        <item m="1" x="1133"/>
-        <item m="1" x="193"/>
-        <item m="1" x="195"/>
-        <item m="1" x="109"/>
-        <item m="1" x="1069"/>
-        <item m="1" x="111"/>
-        <item m="1" x="528"/>
-        <item m="1" x="428"/>
-        <item m="1" x="884"/>
-        <item m="1" x="827"/>
-        <item m="1" x="1176"/>
-        <item m="1" x="1108"/>
-        <item m="1" x="600"/>
-        <item m="1" x="814"/>
-        <item m="1" x="1049"/>
-        <item m="1" x="162"/>
-        <item m="1" x="594"/>
-        <item m="1" x="524"/>
-        <item m="1" x="1218"/>
-        <item m="1" x="1185"/>
-        <item m="1" x="616"/>
-        <item m="1" x="222"/>
-        <item m="1" x="517"/>
-        <item m="1" x="690"/>
-        <item m="1" x="144"/>
-        <item m="1" x="980"/>
-        <item m="1" x="574"/>
-        <item m="1" x="384"/>
-        <item m="1" x="478"/>
-        <item m="1" x="924"/>
-        <item m="1" x="1223"/>
-        <item m="1" x="302"/>
-        <item m="1" x="1075"/>
-        <item m="1" x="296"/>
-        <item m="1" x="860"/>
-        <item m="1" x="632"/>
-        <item m="1" x="563"/>
-        <item m="1" x="285"/>
-        <item m="1" x="352"/>
-        <item m="1" x="140"/>
-        <item m="1" x="940"/>
-        <item m="1" x="453"/>
-        <item m="1" x="177"/>
-        <item m="1" x="791"/>
-        <item m="1" x="1106"/>
-        <item m="1" x="646"/>
-        <item m="1" x="604"/>
-        <item m="1" x="75"/>
-        <item m="1" x="1211"/>
-        <item m="1" x="461"/>
-        <item m="1" x="521"/>
-        <item m="1" x="928"/>
-        <item m="1" x="1205"/>
-        <item m="1" x="1130"/>
-        <item m="1" x="981"/>
-        <item m="1" x="1096"/>
-        <item m="1" x="257"/>
-        <item m="1" x="456"/>
-        <item m="1" x="289"/>
-        <item m="1" x="81"/>
-        <item m="1" x="694"/>
-        <item m="1" x="143"/>
-        <item m="1" x="365"/>
-        <item m="1" x="309"/>
-        <item m="1" x="255"/>
-        <item m="1" x="1210"/>
-        <item m="1" x="306"/>
-        <item m="1" x="908"/>
-        <item m="1" x="1120"/>
-        <item m="1" x="246"/>
-        <item m="1" x="150"/>
-        <item m="1" x="943"/>
-        <item m="1" x="919"/>
-        <item m="1" x="960"/>
-        <item m="1" x="879"/>
-        <item m="1" x="223"/>
-        <item m="1" x="579"/>
-        <item m="1" x="847"/>
-        <item m="1" x="1097"/>
-        <item m="1" x="691"/>
-        <item m="1" x="809"/>
-        <item m="1" x="1153"/>
-        <item m="1" x="565"/>
-        <item m="1" x="409"/>
-        <item m="1" x="642"/>
-        <item m="1" x="589"/>
-        <item m="1" x="519"/>
-        <item m="1" x="1036"/>
-        <item m="1" x="723"/>
-        <item m="1" x="819"/>
-        <item m="1" x="70"/>
-        <item m="1" x="615"/>
-        <item m="1" x="217"/>
-        <item m="1" x="484"/>
-        <item m="1" x="622"/>
-        <item m="1" x="152"/>
-        <item m="1" x="269"/>
-        <item m="1" x="724"/>
-        <item m="1" x="921"/>
-        <item m="1" x="1191"/>
-        <item m="1" x="1234"/>
-        <item m="1" x="844"/>
-        <item m="1" x="192"/>
-        <item m="1" x="120"/>
-        <item m="1" x="706"/>
-        <item m="1" x="328"/>
-        <item m="1" x="602"/>
-        <item m="1" x="230"/>
-        <item m="1" x="333"/>
-        <item m="1" x="760"/>
-        <item m="1" x="1116"/>
-        <item m="1" x="1047"/>
-        <item m="1" x="463"/>
-        <item m="1" x="498"/>
-        <item m="1" x="774"/>
-        <item m="1" x="1204"/>
-        <item m="1" x="930"/>
-        <item m="1" x="96"/>
-        <item m="1" x="1158"/>
-        <item m="1" x="204"/>
-        <item m="1" x="850"/>
-        <item m="1" x="895"/>
-        <item m="1" x="898"/>
-        <item m="1" x="1238"/>
-        <item m="1" x="131"/>
-        <item m="1" x="909"/>
-        <item m="1" x="1006"/>
-        <item m="1" x="778"/>
-        <item m="1" x="948"/>
-        <item m="1" x="190"/>
-        <item m="1" x="582"/>
-        <item m="1" x="429"/>
-        <item m="1" x="1041"/>
-        <item m="1" x="1136"/>
-        <item m="1" x="665"/>
-        <item m="1" x="1104"/>
-        <item m="1" x="1152"/>
-        <item m="1" x="505"/>
-        <item m="1" x="1008"/>
-        <item m="1" x="871"/>
-        <item m="1" x="1154"/>
-        <item m="1" x="1198"/>
-        <item m="1" x="936"/>
-        <item m="1" x="546"/>
-        <item m="1" x="351"/>
-        <item m="1" x="1186"/>
-        <item m="1" x="733"/>
-        <item m="1" x="707"/>
-        <item m="1" x="716"/>
-        <item m="1" x="1237"/>
-        <item m="1" x="961"/>
-        <item m="1" x="656"/>
-        <item m="1" x="925"/>
-        <item m="1" x="902"/>
-        <item m="1" x="518"/>
-        <item m="1" x="419"/>
-        <item m="1" x="918"/>
-        <item m="1" x="313"/>
-        <item m="1" x="270"/>
-        <item m="1" x="212"/>
-        <item m="1" x="1199"/>
-        <item m="1" x="815"/>
-        <item m="1" x="550"/>
-        <item m="1" x="631"/>
-        <item m="1" x="112"/>
-        <item m="1" x="1188"/>
-        <item m="1" x="739"/>
-        <item m="1" x="887"/>
-        <item m="1" x="335"/>
-        <item m="1" x="1019"/>
-        <item m="1" x="522"/>
-        <item m="1" x="415"/>
-        <item m="1" x="1243"/>
-        <item m="1" x="545"/>
-        <item m="1" x="1184"/>
-        <item m="1" x="770"/>
-        <item m="1" x="446"/>
-        <item m="1" x="237"/>
-        <item m="1" x="180"/>
-        <item m="1" x="474"/>
-        <item m="1" x="171"/>
-        <item m="1" x="142"/>
-        <item m="1" x="159"/>
-        <item m="1" x="438"/>
-        <item m="1" x="283"/>
-        <item m="1" x="590"/>
-        <item m="1" x="647"/>
-        <item m="1" x="746"/>
-        <item m="1" x="617"/>
-        <item m="1" x="950"/>
-        <item m="1" x="1014"/>
-        <item m="1" x="226"/>
-        <item m="1" x="236"/>
-        <item m="1" x="425"/>
-        <item m="1" x="567"/>
-        <item m="1" x="357"/>
-        <item m="1" x="910"/>
-        <item m="1" x="660"/>
-        <item m="1" x="577"/>
-        <item m="1" x="710"/>
-        <item m="1" x="1016"/>
-        <item m="1" x="954"/>
-        <item m="1" x="1040"/>
-        <item m="1" x="796"/>
-        <item m="1" x="216"/>
-        <item m="1" x="1222"/>
-        <item m="1" x="635"/>
-        <item m="1" x="250"/>
-        <item m="1" x="74"/>
-        <item m="1" x="1219"/>
-        <item m="1" x="703"/>
-        <item m="1" x="670"/>
-        <item m="1" x="442"/>
-        <item m="1" x="322"/>
-        <item m="1" x="406"/>
-        <item m="1" x="560"/>
-        <item m="1" x="1135"/>
-        <item m="1" x="1054"/>
-        <item m="1" x="430"/>
-        <item m="1" x="503"/>
-        <item m="1" x="510"/>
-        <item m="1" x="1048"/>
-        <item m="1" x="651"/>
-        <item m="1" x="123"/>
-        <item m="1" x="684"/>
-        <item m="1" x="963"/>
-        <item m="1" x="1089"/>
-        <item m="1" x="982"/>
-        <item m="1" x="790"/>
-        <item m="1" x="1088"/>
-        <item m="1" x="102"/>
-        <item m="1" x="1005"/>
         <item m="1" x="84"/>
-        <item m="1" x="424"/>
-        <item m="1" x="88"/>
-        <item m="1" x="247"/>
-        <item m="1" x="337"/>
-        <item m="1" x="343"/>
-        <item m="1" x="761"/>
-        <item m="1" x="1015"/>
-        <item m="1" x="542"/>
-        <item m="1" x="113"/>
-        <item m="1" x="319"/>
-        <item m="1" x="107"/>
-        <item m="1" x="1102"/>
-        <item m="1" x="327"/>
-        <item m="1" x="663"/>
-        <item m="1" x="1122"/>
-        <item m="1" x="449"/>
-        <item m="1" x="391"/>
-        <item m="1" x="787"/>
-        <item m="1" x="344"/>
-        <item m="1" x="652"/>
-        <item m="1" x="946"/>
-        <item m="1" x="85"/>
-        <item m="1" x="598"/>
-        <item m="1" x="717"/>
-        <item m="1" x="209"/>
-        <item m="1" x="551"/>
-        <item m="1" x="686"/>
-        <item m="1" x="437"/>
-        <item m="1" x="475"/>
-        <item m="1" x="202"/>
-        <item m="1" x="608"/>
-        <item m="1" x="72"/>
-        <item m="1" x="744"/>
-        <item m="1" x="1137"/>
-        <item m="1" x="858"/>
-        <item m="1" x="852"/>
-        <item m="1" x="751"/>
-        <item m="1" x="77"/>
-        <item m="1" x="883"/>
-        <item m="1" x="926"/>
-        <item m="1" x="732"/>
-        <item m="1" x="76"/>
-        <item m="1" x="1083"/>
-        <item m="1" x="1050"/>
-        <item m="1" x="80"/>
-        <item m="1" x="359"/>
-        <item m="1" x="749"/>
-        <item m="1" x="1004"/>
-        <item m="1" x="201"/>
-        <item m="1" x="97"/>
-        <item m="1" x="256"/>
-        <item m="1" x="147"/>
-        <item m="1" x="555"/>
-        <item m="1" x="368"/>
-        <item m="1" x="366"/>
-        <item m="1" x="537"/>
-        <item m="1" x="639"/>
-        <item m="1" x="543"/>
-        <item m="1" x="740"/>
-        <item m="1" x="592"/>
-        <item m="1" x="457"/>
-        <item m="1" x="572"/>
-        <item m="1" x="1065"/>
-        <item m="1" x="1160"/>
-        <item m="1" x="417"/>
-        <item m="1" x="1140"/>
-        <item m="1" x="182"/>
-        <item m="1" x="1129"/>
-        <item m="1" x="826"/>
-        <item m="1" x="997"/>
-        <item m="1" x="1076"/>
-        <item m="1" x="756"/>
-        <item m="1" x="968"/>
-        <item m="1" x="260"/>
-        <item m="1" x="243"/>
-        <item m="1" x="865"/>
-        <item m="1" x="837"/>
-        <item m="1" x="399"/>
-        <item m="1" x="1235"/>
-        <item m="1" x="807"/>
-        <item m="1" x="547"/>
-        <item m="1" x="621"/>
-        <item m="1" x="580"/>
-        <item m="1" x="1090"/>
-        <item m="1" x="1094"/>
-        <item m="1" x="90"/>
-        <item m="1" x="974"/>
-        <item m="1" x="1020"/>
-        <item m="1" x="139"/>
-        <item m="1" x="511"/>
-        <item m="1" x="502"/>
-        <item m="1" x="1009"/>
-        <item m="1" x="708"/>
-        <item m="1" x="912"/>
-        <item m="1" x="578"/>
-        <item m="1" x="929"/>
-        <item m="1" x="117"/>
-        <item m="1" x="240"/>
-        <item m="1" x="1209"/>
-        <item m="1" x="829"/>
-        <item m="1" x="1201"/>
-        <item m="1" x="121"/>
-        <item m="1" x="381"/>
-        <item m="1" x="197"/>
-        <item m="1" x="130"/>
-        <item m="1" x="145"/>
-        <item m="1" x="697"/>
-        <item m="1" x="730"/>
-        <item m="1" x="402"/>
-        <item m="1" x="820"/>
-        <item m="1" x="1138"/>
-        <item m="1" x="489"/>
-        <item m="1" x="568"/>
-        <item m="1" x="718"/>
-        <item m="1" x="1206"/>
-        <item m="1" x="383"/>
-        <item m="1" x="395"/>
-        <item m="1" x="405"/>
-        <item m="1" x="1026"/>
-        <item m="1" x="1162"/>
-        <item m="1" x="79"/>
-        <item m="1" x="906"/>
-        <item m="1" x="1202"/>
-        <item m="1" x="303"/>
-        <item m="1" x="618"/>
-        <item m="1" x="1239"/>
-        <item m="1" x="1145"/>
-        <item m="1" x="292"/>
-        <item m="1" x="404"/>
-        <item m="1" x="491"/>
-        <item m="1" x="816"/>
-        <item m="1" x="1013"/>
-        <item m="1" x="248"/>
-        <item m="1" x="719"/>
-        <item m="1" x="244"/>
-        <item m="1" x="213"/>
-        <item m="1" x="161"/>
-        <item m="1" x="1132"/>
-        <item m="1" x="725"/>
-        <item m="1" x="1173"/>
-        <item m="1" x="566"/>
-        <item m="1" x="1190"/>
-        <item m="1" x="942"/>
-        <item m="1" x="231"/>
-        <item m="1" x="1046"/>
-        <item m="1" x="1060"/>
-        <item m="1" x="720"/>
-        <item m="1" x="1095"/>
-        <item m="1" x="933"/>
-        <item m="1" x="798"/>
-        <item m="1" x="115"/>
-        <item m="1" x="944"/>
-        <item m="1" x="676"/>
-        <item m="1" x="609"/>
-        <item m="1" x="952"/>
-        <item m="1" x="536"/>
-        <item m="1" x="170"/>
-        <item m="1" x="342"/>
-        <item m="1" x="119"/>
-        <item m="1" x="468"/>
-        <item m="1" x="846"/>
-        <item m="1" x="431"/>
-        <item m="1" x="294"/>
-        <item m="1" x="509"/>
-        <item m="1" x="187"/>
-        <item m="1" x="439"/>
-        <item m="1" x="310"/>
-        <item m="1" x="661"/>
-        <item m="1" x="1248"/>
-        <item m="1" x="702"/>
-        <item m="1" x="298"/>
-        <item m="1" x="575"/>
-        <item m="1" x="281"/>
-        <item m="1" x="334"/>
-        <item m="1" x="626"/>
-        <item m="1" x="894"/>
-        <item m="1" x="611"/>
-        <item m="1" x="1061"/>
-        <item m="1" x="623"/>
-        <item m="1" x="857"/>
-        <item m="1" x="172"/>
-        <item m="1" x="655"/>
-        <item m="1" x="295"/>
-        <item m="1" x="225"/>
-        <item m="1" x="951"/>
-        <item m="1" x="266"/>
-        <item m="1" x="975"/>
-        <item m="1" x="167"/>
-        <item m="1" x="792"/>
-        <item m="1" x="799"/>
-        <item m="1" x="203"/>
-        <item m="1" x="721"/>
-        <item m="1" x="99"/>
-        <item m="1" x="922"/>
-        <item m="1" x="627"/>
-        <item m="1" x="848"/>
-        <item m="1" x="817"/>
-        <item m="1" x="1037"/>
-        <item m="1" x="810"/>
-        <item m="1" x="388"/>
-        <item m="1" x="889"/>
-        <item m="1" x="1023"/>
-        <item m="1" x="713"/>
-        <item m="1" x="845"/>
-        <item m="1" x="178"/>
-        <item m="1" x="1011"/>
-        <item m="1" x="668"/>
-        <item m="1" x="533"/>
-        <item m="1" x="917"/>
-        <item m="1" x="443"/>
-        <item m="1" x="766"/>
-        <item m="1" x="300"/>
-        <item m="1" x="396"/>
-        <item m="1" x="793"/>
-        <item m="1" x="562"/>
-        <item m="1" x="106"/>
-        <item m="1" x="440"/>
-        <item m="1" x="920"/>
-        <item m="1" x="1022"/>
-        <item m="1" x="125"/>
-        <item m="1" x="410"/>
-        <item m="1" x="345"/>
-        <item m="1" x="678"/>
-        <item m="1" x="771"/>
-        <item m="1" x="211"/>
-        <item m="1" x="1193"/>
-        <item m="1" x="176"/>
-        <item m="1" x="249"/>
-        <item m="1" x="1030"/>
-        <item m="1" x="538"/>
-        <item m="1" x="552"/>
-        <item m="1" x="606"/>
-        <item m="1" x="181"/>
-        <item m="1" x="460"/>
-        <item m="1" x="855"/>
-        <item m="1" x="767"/>
-        <item m="1" x="557"/>
-        <item m="1" x="504"/>
-        <item m="1" x="134"/>
-        <item m="1" x="372"/>
-        <item m="1" x="836"/>
-        <item m="1" x="470"/>
-        <item m="1" x="633"/>
-        <item m="1" x="570"/>
-        <item m="1" x="752"/>
-        <item m="1" x="116"/>
-        <item m="1" x="597"/>
-        <item m="1" x="271"/>
-        <item m="1" x="674"/>
-        <item m="1" x="800"/>
-        <item m="1" x="876"/>
-        <item m="1" x="811"/>
-        <item m="1" x="772"/>
-        <item m="1" x="698"/>
-        <item m="1" x="1109"/>
-        <item m="1" x="1001"/>
-        <item m="1" x="252"/>
-        <item m="1" x="993"/>
-        <item m="1" x="447"/>
-        <item m="1" x="757"/>
-        <item m="1" x="163"/>
-        <item m="1" x="736"/>
-        <item m="1" x="603"/>
-        <item m="1" x="1035"/>
-        <item m="1" x="189"/>
-        <item m="1" x="1246"/>
-        <item m="1" x="228"/>
-        <item m="1" x="168"/>
-        <item m="1" x="738"/>
-        <item m="1" x="938"/>
-        <item m="1" x="841"/>
-        <item m="1" x="127"/>
-        <item m="1" x="279"/>
-        <item m="1" x="1067"/>
-        <item m="1" x="1007"/>
-        <item m="1" x="262"/>
-        <item m="1" x="235"/>
-        <item m="1" x="530"/>
-        <item m="1" x="151"/>
-        <item m="1" x="758"/>
-        <item m="1" x="191"/>
-        <item m="1" x="361"/>
-        <item m="1" x="658"/>
-        <item m="1" x="1189"/>
-        <item m="1" x="229"/>
-        <item m="1" x="499"/>
-        <item m="1" x="346"/>
-        <item m="1" x="508"/>
-        <item m="1" x="1062"/>
-        <item m="1" x="945"/>
-        <item m="1" x="407"/>
-        <item m="1" x="160"/>
-        <item m="1" x="1110"/>
-        <item m="1" x="273"/>
-        <item m="1" x="1055"/>
-        <item m="1" x="612"/>
-        <item m="1" x="996"/>
-        <item m="1" x="355"/>
-        <item m="1" x="527"/>
-        <item m="1" x="1012"/>
-        <item m="1" x="1200"/>
-        <item m="1" x="976"/>
-        <item m="1" x="375"/>
-        <item m="1" x="318"/>
-        <item m="1" x="1021"/>
-        <item m="1" x="785"/>
-        <item m="1" x="629"/>
-        <item m="1" x="1053"/>
-        <item m="1" x="101"/>
-        <item m="1" x="98"/>
-        <item m="1" x="773"/>
-        <item m="1" x="913"/>
-        <item m="1" x="868"/>
-        <item m="1" x="1051"/>
-        <item m="1" x="576"/>
-        <item m="1" x="323"/>
-        <item m="1" x="397"/>
-        <item m="1" x="927"/>
-        <item m="1" x="479"/>
-        <item m="1" x="709"/>
-        <item m="1" x="1124"/>
-        <item m="1" x="362"/>
-        <item m="1" x="699"/>
-        <item m="1" x="83"/>
-        <item m="1" x="412"/>
+        <item m="1" x="413"/>
         <item x="2"/>
         <item x="1"/>
         <item x="4"/>
@@ -23014,10 +23301,11 @@
         <item x="65"/>
         <item x="66"/>
         <item x="67"/>
-        <item m="1" x="400"/>
-        <item m="1" x="1161"/>
-        <item m="1" x="103"/>
-        <item m="1" x="68"/>
+        <item x="68"/>
+        <item m="1" x="401"/>
+        <item m="1" x="1162"/>
+        <item m="1" x="104"/>
+        <item m="1" x="69"/>
         <item t="default"/>
       </items>
     </pivotField>
@@ -23080,7 +23368,7 @@
     <field x="0"/>
     <field x="2"/>
   </rowFields>
-  <rowItems count="14">
+  <rowItems count="17">
     <i>
       <x/>
     </i>
@@ -23098,6 +23386,15 @@
     </i>
     <i r="1">
       <x v="1244"/>
+    </i>
+    <i r="2">
+      <x v="8"/>
+    </i>
+    <i r="2">
+      <x v="10"/>
+    </i>
+    <i r="1">
+      <x v="1245"/>
     </i>
     <i r="2">
       <x v="8"/>
@@ -23208,8 +23505,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S611" totalsRowShown="0">
-  <autoFilter ref="A1:S611" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}" name="Proc" displayName="Proc" ref="A1:S622" totalsRowShown="0">
+  <autoFilter ref="A1:S622" xr:uid="{678037D6-A574-4B81-B392-ED766472D9FE}">
     <filterColumn colId="1">
       <filters>
         <filter val="open"/>
@@ -23869,7 +24166,7 @@
   <dimension ref="A1:K21"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="15"/>
@@ -23924,7 +24221,7 @@
         <v>897</v>
       </c>
       <c r="B5" s="73">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="C5"/>
       <c r="D5"/>
@@ -23988,7 +24285,7 @@
         <v>370</v>
       </c>
       <c r="B11" s="73">
-        <v>8</v>
+        <v>96</v>
       </c>
       <c r="C11"/>
       <c r="D11"/>
@@ -24004,70 +24301,91 @@
       <c r="D12"/>
     </row>
     <row r="13" spans="1:6">
-      <c r="A13" s="68" t="s">
-        <v>375</v>
+      <c r="A13" s="67" t="s">
+        <v>2172</v>
       </c>
       <c r="B13" s="73">
-        <v>88</v>
+        <v>11</v>
       </c>
       <c r="C13"/>
       <c r="D13"/>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="17" t="s">
-        <v>1793</v>
+      <c r="A14" s="68" t="s">
+        <v>370</v>
       </c>
       <c r="B14" s="73">
-        <v>17</v>
+        <v>1</v>
       </c>
       <c r="C14" s="53"/>
       <c r="D14"/>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="67" t="s">
-        <v>1825</v>
+      <c r="A15" s="68" t="s">
+        <v>377</v>
       </c>
       <c r="B15" s="73">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="C15"/>
       <c r="D15"/>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="68" t="s">
-        <v>369</v>
+        <v>375</v>
       </c>
       <c r="B16" s="73">
-        <v>15</v>
+        <v>3</v>
       </c>
       <c r="C16"/>
       <c r="D16"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="68" t="s">
-        <v>370</v>
+      <c r="A17" s="17" t="s">
+        <v>1793</v>
       </c>
       <c r="B17" s="73">
-        <v>2</v>
+        <v>17</v>
       </c>
       <c r="C17"/>
       <c r="D17"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="17" t="s">
-        <v>381</v>
+      <c r="A18" s="67" t="s">
+        <v>1825</v>
       </c>
       <c r="B18" s="73">
-        <v>125</v>
+        <v>17</v>
       </c>
       <c r="C18"/>
       <c r="D18"/>
     </row>
     <row r="19" spans="1:4">
+      <c r="A19" s="68" t="s">
+        <v>369</v>
+      </c>
+      <c r="B19" s="73">
+        <v>15</v>
+      </c>
       <c r="C19" s="47"/>
       <c r="D19"/>
     </row>
-    <row r="21" spans="1:4" ht="17.25" customHeight="1"/>
+    <row r="20" spans="1:4">
+      <c r="A20" s="68" t="s">
+        <v>370</v>
+      </c>
+      <c r="B20" s="73">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" ht="17.25" customHeight="1">
+      <c r="A21" s="17" t="s">
+        <v>381</v>
+      </c>
+      <c r="B21" s="73">
+        <v>136</v>
+      </c>
+    </row>
   </sheetData>
   <autoFilter ref="A2:F1358" xr:uid="{B27B7123-EEA1-4BA6-8CFC-B80BB9988DCB}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -34984,10 +35302,9 @@
   <pageSetup orientation="portrait" r:id="rId1"/>
   <customProperties>
     <customPr name="_pios_id" r:id="rId2"/>
-    <customPr name="IbpWorksheetKeyString_GUID" r:id="rId3"/>
   </customProperties>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -35012,10 +35329,10 @@
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF36F6EB-8AC5-4AC7-9C5A-FF7A5ACB8647}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:S611"/>
+  <dimension ref="A1:S622"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C500" sqref="C500:C508"/>
+    <sheetView topLeftCell="A597" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" outlineLevelCol="1"/>
@@ -64138,10 +64455,10 @@
         <v>370</v>
       </c>
       <c r="D500" t="s">
-        <v>2151</v>
+        <v>2150</v>
       </c>
       <c r="E500" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F500" s="73" t="s">
         <v>1966</v>
@@ -64197,10 +64514,10 @@
         <v>370</v>
       </c>
       <c r="D501" t="s">
-        <v>2152</v>
+        <v>2151</v>
       </c>
       <c r="E501" s="72" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F501" s="73" t="s">
         <v>1967</v>
@@ -64256,10 +64573,10 @@
         <v>370</v>
       </c>
       <c r="D502" t="s">
-        <v>2153</v>
+        <v>2152</v>
       </c>
       <c r="E502" s="72" t="s">
-        <v>2160</v>
+        <v>2159</v>
       </c>
       <c r="F502" s="73" t="s">
         <v>1968</v>
@@ -64315,10 +64632,10 @@
         <v>370</v>
       </c>
       <c r="D503" t="s">
-        <v>2154</v>
+        <v>2153</v>
       </c>
       <c r="E503" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F503" s="73" t="s">
         <v>1966</v>
@@ -64374,10 +64691,10 @@
         <v>370</v>
       </c>
       <c r="D504" t="s">
-        <v>2156</v>
+        <v>2155</v>
       </c>
       <c r="E504" s="72" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F504" s="73" t="s">
         <v>1966</v>
@@ -64433,10 +64750,10 @@
         <v>370</v>
       </c>
       <c r="D505" t="s">
-        <v>2155</v>
+        <v>2154</v>
       </c>
       <c r="E505" s="72" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F505" s="73" t="s">
         <v>1968</v>
@@ -64492,10 +64809,10 @@
         <v>370</v>
       </c>
       <c r="D506" t="s">
-        <v>2157</v>
+        <v>2156</v>
       </c>
       <c r="E506" s="72" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F506" s="73" t="s">
         <v>1968</v>
@@ -64551,10 +64868,10 @@
         <v>370</v>
       </c>
       <c r="D507" t="s">
-        <v>2158</v>
+        <v>2157</v>
       </c>
       <c r="E507" s="72" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F507" s="73" t="s">
         <v>1968</v>
@@ -64610,10 +64927,10 @@
         <v>370</v>
       </c>
       <c r="D508" t="s">
-        <v>2159</v>
+        <v>2158</v>
       </c>
       <c r="E508" s="72" t="s">
-        <v>2161</v>
+        <v>2160</v>
       </c>
       <c r="F508" s="73" t="s">
         <v>1968</v>
@@ -64966,7 +65283,7 @@
         <v>open</v>
       </c>
       <c r="C514" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D514" t="s">
         <v>1985</v>
@@ -65022,7 +65339,7 @@
         <v>open</v>
       </c>
       <c r="C515" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D515" t="s">
         <v>1986</v>
@@ -65078,7 +65395,7 @@
         <v>open</v>
       </c>
       <c r="C516" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D516" t="s">
         <v>1987</v>
@@ -65190,7 +65507,7 @@
         <v>open</v>
       </c>
       <c r="C518" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D518" t="s">
         <v>1989</v>
@@ -65246,13 +65563,13 @@
         <v>open</v>
       </c>
       <c r="C519" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D519" t="s">
         <v>1990</v>
       </c>
       <c r="E519" t="s">
-        <v>2150</v>
+        <v>2086</v>
       </c>
       <c r="F519" s="73" t="s">
         <v>2118</v>
@@ -65302,7 +65619,7 @@
         <v>open</v>
       </c>
       <c r="C520" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D520" t="s">
         <v>1991</v>
@@ -65358,7 +65675,7 @@
         <v>open</v>
       </c>
       <c r="C521" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D521" t="s">
         <v>1992</v>
@@ -65414,7 +65731,7 @@
         <v>open</v>
       </c>
       <c r="C522" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D522" t="s">
         <v>1993</v>
@@ -65470,7 +65787,7 @@
         <v>open</v>
       </c>
       <c r="C523" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D523" t="s">
         <v>1994</v>
@@ -65526,7 +65843,7 @@
         <v>open</v>
       </c>
       <c r="C524" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D524" t="s">
         <v>1995</v>
@@ -65582,7 +65899,7 @@
         <v>open</v>
       </c>
       <c r="C525" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D525" t="s">
         <v>1996</v>
@@ -65638,7 +65955,7 @@
         <v>open</v>
       </c>
       <c r="C526" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D526" t="s">
         <v>1997</v>
@@ -65694,7 +66011,7 @@
         <v>open</v>
       </c>
       <c r="C527" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D527" t="s">
         <v>1998</v>
@@ -65750,7 +66067,7 @@
         <v>open</v>
       </c>
       <c r="C528" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D528" t="s">
         <v>1999</v>
@@ -65806,7 +66123,7 @@
         <v>open</v>
       </c>
       <c r="C529" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D529" t="s">
         <v>2000</v>
@@ -65862,7 +66179,7 @@
         <v>open</v>
       </c>
       <c r="C530" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D530" t="s">
         <v>2001</v>
@@ -65918,7 +66235,7 @@
         <v>open</v>
       </c>
       <c r="C531" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D531" t="s">
         <v>2002</v>
@@ -65974,7 +66291,7 @@
         <v>open</v>
       </c>
       <c r="C532" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D532" t="s">
         <v>2003</v>
@@ -66030,7 +66347,7 @@
         <v>open</v>
       </c>
       <c r="C533" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D533" t="s">
         <v>2004</v>
@@ -66086,7 +66403,7 @@
         <v>open</v>
       </c>
       <c r="C534" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D534" t="s">
         <v>2005</v>
@@ -66142,7 +66459,7 @@
         <v>open</v>
       </c>
       <c r="C535" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D535" t="s">
         <v>2006</v>
@@ -66198,7 +66515,7 @@
         <v>open</v>
       </c>
       <c r="C536" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D536" t="s">
         <v>2007</v>
@@ -66254,7 +66571,7 @@
         <v>open</v>
       </c>
       <c r="C537" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D537" t="s">
         <v>2008</v>
@@ -66310,7 +66627,7 @@
         <v>open</v>
       </c>
       <c r="C538" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D538" t="s">
         <v>2009</v>
@@ -66366,7 +66683,7 @@
         <v>open</v>
       </c>
       <c r="C539" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D539" t="s">
         <v>2010</v>
@@ -66537,7 +66854,7 @@
         <v>open</v>
       </c>
       <c r="C542" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D542" t="s">
         <v>2013</v>
@@ -66593,7 +66910,7 @@
         <v>open</v>
       </c>
       <c r="C543" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D543" t="s">
         <v>2014</v>
@@ -66649,7 +66966,7 @@
         <v>open</v>
       </c>
       <c r="C544" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D544" t="s">
         <v>2015</v>
@@ -66705,7 +67022,7 @@
         <v>open</v>
       </c>
       <c r="C545" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D545" t="s">
         <v>2016</v>
@@ -66761,7 +67078,7 @@
         <v>open</v>
       </c>
       <c r="C546" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D546" t="s">
         <v>2017</v>
@@ -66817,7 +67134,7 @@
         <v>open</v>
       </c>
       <c r="C547" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D547" t="s">
         <v>2018</v>
@@ -66873,7 +67190,7 @@
         <v>open</v>
       </c>
       <c r="C548" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D548" t="s">
         <v>2019</v>
@@ -66929,7 +67246,7 @@
         <v>open</v>
       </c>
       <c r="C549" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D549" t="s">
         <v>2020</v>
@@ -66985,7 +67302,7 @@
         <v>open</v>
       </c>
       <c r="C550" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D550" t="s">
         <v>2021</v>
@@ -67041,7 +67358,7 @@
         <v>open</v>
       </c>
       <c r="C551" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D551" t="s">
         <v>2022</v>
@@ -67097,7 +67414,7 @@
         <v>open</v>
       </c>
       <c r="C552" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D552" t="s">
         <v>2023</v>
@@ -67153,7 +67470,7 @@
         <v>open</v>
       </c>
       <c r="C553" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D553" t="s">
         <v>2024</v>
@@ -67209,7 +67526,7 @@
         <v>open</v>
       </c>
       <c r="C554" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D554" t="s">
         <v>2025</v>
@@ -67265,7 +67582,7 @@
         <v>open</v>
       </c>
       <c r="C555" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D555" t="s">
         <v>2026</v>
@@ -67321,7 +67638,7 @@
         <v>open</v>
       </c>
       <c r="C556" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D556" t="s">
         <v>2027</v>
@@ -67377,7 +67694,7 @@
         <v>open</v>
       </c>
       <c r="C557" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D557" t="s">
         <v>2028</v>
@@ -67433,7 +67750,7 @@
         <v>open</v>
       </c>
       <c r="C558" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D558" t="s">
         <v>2029</v>
@@ -67489,7 +67806,7 @@
         <v>open</v>
       </c>
       <c r="C559" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D559" t="s">
         <v>2030</v>
@@ -67545,7 +67862,7 @@
         <v>open</v>
       </c>
       <c r="C560" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D560" t="s">
         <v>2031</v>
@@ -67601,7 +67918,7 @@
         <v>open</v>
       </c>
       <c r="C561" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D561" t="s">
         <v>2032</v>
@@ -67657,7 +67974,7 @@
         <v>open</v>
       </c>
       <c r="C562" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D562" t="s">
         <v>2033</v>
@@ -67713,7 +68030,7 @@
         <v>open</v>
       </c>
       <c r="C563" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D563" t="s">
         <v>2034</v>
@@ -67769,7 +68086,7 @@
         <v>open</v>
       </c>
       <c r="C564" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D564" t="s">
         <v>2035</v>
@@ -67825,7 +68142,7 @@
         <v>open</v>
       </c>
       <c r="C565" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D565" t="s">
         <v>2036</v>
@@ -67881,7 +68198,7 @@
         <v>open</v>
       </c>
       <c r="C566" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D566" t="s">
         <v>2037</v>
@@ -67937,7 +68254,7 @@
         <v>open</v>
       </c>
       <c r="C567" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D567" t="s">
         <v>2038</v>
@@ -67993,7 +68310,7 @@
         <v>open</v>
       </c>
       <c r="C568" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D568" t="s">
         <v>2039</v>
@@ -68049,7 +68366,7 @@
         <v>open</v>
       </c>
       <c r="C569" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D569" t="s">
         <v>2040</v>
@@ -68105,7 +68422,7 @@
         <v>open</v>
       </c>
       <c r="C570" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D570" t="s">
         <v>2041</v>
@@ -68161,7 +68478,7 @@
         <v>open</v>
       </c>
       <c r="C571" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D571" t="s">
         <v>2042</v>
@@ -68217,7 +68534,7 @@
         <v>open</v>
       </c>
       <c r="C572" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D572" t="s">
         <v>2043</v>
@@ -68273,7 +68590,7 @@
         <v>open</v>
       </c>
       <c r="C573" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D573" t="s">
         <v>2044</v>
@@ -68329,7 +68646,7 @@
         <v>open</v>
       </c>
       <c r="C574" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D574" t="s">
         <v>2045</v>
@@ -68385,7 +68702,7 @@
         <v>open</v>
       </c>
       <c r="C575" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D575" t="s">
         <v>2046</v>
@@ -68441,7 +68758,7 @@
         <v>open</v>
       </c>
       <c r="C576" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D576" t="s">
         <v>2047</v>
@@ -68497,7 +68814,7 @@
         <v>open</v>
       </c>
       <c r="C577" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D577" t="s">
         <v>2048</v>
@@ -68668,7 +68985,7 @@
         <v>open</v>
       </c>
       <c r="C580" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D580" t="s">
         <v>2051</v>
@@ -68724,7 +69041,7 @@
         <v>open</v>
       </c>
       <c r="C581" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D581" t="s">
         <v>2052</v>
@@ -68780,7 +69097,7 @@
         <v>open</v>
       </c>
       <c r="C582" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D582" t="s">
         <v>2053</v>
@@ -68836,7 +69153,7 @@
         <v>open</v>
       </c>
       <c r="C583" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D583" t="s">
         <v>2054</v>
@@ -68892,7 +69209,7 @@
         <v>open</v>
       </c>
       <c r="C584" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D584" t="s">
         <v>2055</v>
@@ -68948,7 +69265,7 @@
         <v>open</v>
       </c>
       <c r="C585" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D585" t="s">
         <v>2056</v>
@@ -69004,7 +69321,7 @@
         <v>open</v>
       </c>
       <c r="C586" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D586" t="s">
         <v>2057</v>
@@ -69060,7 +69377,7 @@
         <v>open</v>
       </c>
       <c r="C587" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D587" t="s">
         <v>2058</v>
@@ -69116,7 +69433,7 @@
         <v>open</v>
       </c>
       <c r="C588" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D588" t="s">
         <v>2059</v>
@@ -69172,7 +69489,7 @@
         <v>open</v>
       </c>
       <c r="C589" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D589" t="s">
         <v>2060</v>
@@ -69228,7 +69545,7 @@
         <v>open</v>
       </c>
       <c r="C590" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D590" t="s">
         <v>2061</v>
@@ -69284,7 +69601,7 @@
         <v>open</v>
       </c>
       <c r="C591" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D591" t="s">
         <v>2062</v>
@@ -69340,7 +69657,7 @@
         <v>open</v>
       </c>
       <c r="C592" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D592" t="s">
         <v>2063</v>
@@ -69396,7 +69713,7 @@
         <v>open</v>
       </c>
       <c r="C593" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D593" t="s">
         <v>2064</v>
@@ -69452,7 +69769,7 @@
         <v>open</v>
       </c>
       <c r="C594" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D594" t="s">
         <v>2065</v>
@@ -69508,7 +69825,7 @@
         <v>open</v>
       </c>
       <c r="C595" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D595" t="s">
         <v>2066</v>
@@ -69564,7 +69881,7 @@
         <v>open</v>
       </c>
       <c r="C596" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D596" t="s">
         <v>2067</v>
@@ -69620,7 +69937,7 @@
         <v>open</v>
       </c>
       <c r="C597" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D597" t="s">
         <v>2068</v>
@@ -69676,7 +69993,7 @@
         <v>open</v>
       </c>
       <c r="C598" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D598" t="s">
         <v>2069</v>
@@ -69732,7 +70049,7 @@
         <v>open</v>
       </c>
       <c r="C599" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D599" t="s">
         <v>2070</v>
@@ -69788,7 +70105,7 @@
         <v>open</v>
       </c>
       <c r="C600" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D600" t="s">
         <v>2071</v>
@@ -69844,7 +70161,7 @@
         <v>open</v>
       </c>
       <c r="C601" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D601" t="s">
         <v>2072</v>
@@ -69900,7 +70217,7 @@
         <v>open</v>
       </c>
       <c r="C602" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D602" t="s">
         <v>2073</v>
@@ -69956,7 +70273,7 @@
         <v>open</v>
       </c>
       <c r="C603" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D603" t="s">
         <v>2074</v>
@@ -70012,7 +70329,7 @@
         <v>open</v>
       </c>
       <c r="C604" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D604" t="s">
         <v>2075</v>
@@ -70068,7 +70385,7 @@
         <v>open</v>
       </c>
       <c r="C605" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D605" t="s">
         <v>2076</v>
@@ -70124,7 +70441,7 @@
         <v>open</v>
       </c>
       <c r="C606" s="72" t="s">
-        <v>375</v>
+        <v>370</v>
       </c>
       <c r="D606" t="s">
         <v>2077</v>
@@ -70450,6 +70767,643 @@
         <v>538</v>
       </c>
       <c r="S611" s="73"/>
+    </row>
+    <row r="612" spans="1:19">
+      <c r="A612" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B612" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C612" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D612" t="s">
+        <v>2161</v>
+      </c>
+      <c r="E612" t="s">
+        <v>763</v>
+      </c>
+      <c r="F612" s="73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G612" t="s">
+        <v>406</v>
+      </c>
+      <c r="H612" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>US20Z01000</v>
+      </c>
+      <c r="I612" t="s">
+        <v>850</v>
+      </c>
+      <c r="J612" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K612" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L612" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M612" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N612" s="74"/>
+      <c r="O612" s="74"/>
+      <c r="P612" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q612" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R612" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S612" s="73"/>
+    </row>
+    <row r="613" spans="1:19">
+      <c r="A613" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B613" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C613" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D613" t="s">
+        <v>2162</v>
+      </c>
+      <c r="E613" t="s">
+        <v>763</v>
+      </c>
+      <c r="F613" s="73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G613" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H613" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>US16Z01000</v>
+      </c>
+      <c r="I613" s="72" t="s">
+        <v>850</v>
+      </c>
+      <c r="J613" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K613" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L613" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M613" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N613" s="74"/>
+      <c r="O613" s="74"/>
+      <c r="P613" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q613" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R613" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S613" s="73"/>
+    </row>
+    <row r="614" spans="1:19">
+      <c r="A614" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B614" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C614" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D614" t="s">
+        <v>2163</v>
+      </c>
+      <c r="E614" t="s">
+        <v>763</v>
+      </c>
+      <c r="F614" s="73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G614" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H614" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>US14Z01000</v>
+      </c>
+      <c r="I614" s="72" t="s">
+        <v>850</v>
+      </c>
+      <c r="J614" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K614" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L614" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M614" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N614" s="74"/>
+      <c r="O614" s="74"/>
+      <c r="P614" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q614" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R614" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S614" s="73"/>
+    </row>
+    <row r="615" spans="1:19">
+      <c r="A615" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B615" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C615" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D615" t="s">
+        <v>2164</v>
+      </c>
+      <c r="E615" t="s">
+        <v>763</v>
+      </c>
+      <c r="F615" s="73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G615" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H615" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>US15Z01000</v>
+      </c>
+      <c r="I615" s="72" t="s">
+        <v>850</v>
+      </c>
+      <c r="J615" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K615" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L615" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M615" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N615" s="74"/>
+      <c r="O615" s="74"/>
+      <c r="P615" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q615" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R615" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S615" s="73"/>
+    </row>
+    <row r="616" spans="1:19">
+      <c r="A616" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B616" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C616" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D616" t="s">
+        <v>2165</v>
+      </c>
+      <c r="E616" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F616" s="73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G616" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H616" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>US01TNHZ06</v>
+      </c>
+      <c r="I616" s="72" t="s">
+        <v>850</v>
+      </c>
+      <c r="J616" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K616" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L616" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M616" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N616" s="74"/>
+      <c r="O616" s="74"/>
+      <c r="P616" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q616" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R616" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S616" s="73"/>
+    </row>
+    <row r="617" spans="1:19">
+      <c r="A617" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B617" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C617" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D617" t="s">
+        <v>2166</v>
+      </c>
+      <c r="E617" t="s">
+        <v>2173</v>
+      </c>
+      <c r="F617" s="73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G617" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H617" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>TW03TOKA00</v>
+      </c>
+      <c r="I617" s="72" t="s">
+        <v>850</v>
+      </c>
+      <c r="J617" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K617" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L617" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M617" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N617" s="74"/>
+      <c r="O617" s="74"/>
+      <c r="P617" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q617" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R617" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S617" s="73"/>
+    </row>
+    <row r="618" spans="1:19">
+      <c r="A618" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B618" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C618" s="72" t="s">
+        <v>377</v>
+      </c>
+      <c r="D618" t="s">
+        <v>2167</v>
+      </c>
+      <c r="E618" t="s">
+        <v>1050</v>
+      </c>
+      <c r="F618" s="73" t="s">
+        <v>1099</v>
+      </c>
+      <c r="G618" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H618" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>US01TNHZ05</v>
+      </c>
+      <c r="I618" s="72" t="s">
+        <v>850</v>
+      </c>
+      <c r="J618" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K618" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L618" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M618" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N618" s="74"/>
+      <c r="O618" s="74"/>
+      <c r="P618" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q618" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R618" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S618" s="73"/>
+    </row>
+    <row r="619" spans="1:19">
+      <c r="A619" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B619" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C619" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="D619" t="s">
+        <v>2168</v>
+      </c>
+      <c r="E619" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F619" s="73" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G619" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H619" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>US01TN0001</v>
+      </c>
+      <c r="J619" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K619" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L619" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M619" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N619" s="74"/>
+      <c r="O619" s="74"/>
+      <c r="P619" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q619" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R619" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S619" s="73"/>
+    </row>
+    <row r="620" spans="1:19">
+      <c r="A620" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B620" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C620" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="D620" t="s">
+        <v>2169</v>
+      </c>
+      <c r="E620" t="s">
+        <v>2174</v>
+      </c>
+      <c r="F620" s="73" t="s">
+        <v>2177</v>
+      </c>
+      <c r="G620" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H620" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>US10TN2100</v>
+      </c>
+      <c r="J620" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K620" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L620" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M620" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N620" s="74"/>
+      <c r="O620" s="74"/>
+      <c r="P620" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q620" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R620" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S620" s="73"/>
+    </row>
+    <row r="621" spans="1:19">
+      <c r="A621" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B621" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C621" s="72" t="s">
+        <v>375</v>
+      </c>
+      <c r="D621" t="s">
+        <v>2170</v>
+      </c>
+      <c r="E621" t="s">
+        <v>2175</v>
+      </c>
+      <c r="F621" s="73" t="s">
+        <v>2178</v>
+      </c>
+      <c r="G621" s="72" t="s">
+        <v>406</v>
+      </c>
+      <c r="H621" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v>CN10C01004</v>
+      </c>
+      <c r="J621" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K621" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L621" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M621" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N621" s="74"/>
+      <c r="O621" s="74"/>
+      <c r="P621" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q621" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R621" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S621" s="73"/>
+    </row>
+    <row r="622" spans="1:19">
+      <c r="A622" s="72" t="s">
+        <v>2172</v>
+      </c>
+      <c r="B622" s="73" t="str">
+        <f>IFERROR(VLOOKUP(Proc[[#This Row],[App]],Table2[],3,0),"open")</f>
+        <v>open</v>
+      </c>
+      <c r="C622" s="72" t="s">
+        <v>370</v>
+      </c>
+      <c r="D622" t="s">
+        <v>2171</v>
+      </c>
+      <c r="E622" t="s">
+        <v>2176</v>
+      </c>
+      <c r="F622" s="73" t="s">
+        <v>2179</v>
+      </c>
+      <c r="G622" s="72" t="s">
+        <v>400</v>
+      </c>
+      <c r="H622" s="73" t="str">
+        <f>IF(Proc[[#This Row],[type]]="LFF (MDG-F)",MID(Proc[[#This Row],[Obj]],13,10),"")</f>
+        <v/>
+      </c>
+      <c r="J622" s="73" t="b">
+        <f>Proc[[#This Row],[Requested]]=Proc[[#This Row],[CurrentParent]]</f>
+        <v>0</v>
+      </c>
+      <c r="K622" s="73" t="str">
+        <f>IF(Proc[[#This Row],[Author]]="Marcela Urrego",VLOOKUP(LEFT(Proc[[#This Row],[Requested]],1),Table3[#All],2,0),VLOOKUP(Proc[[#This Row],[Author]],Table4[],2,0))</f>
+        <v>EL</v>
+      </c>
+      <c r="L622" s="73" t="s">
+        <v>530</v>
+      </c>
+      <c r="M622" s="75">
+        <v>45705.641203703701</v>
+      </c>
+      <c r="N622" s="74"/>
+      <c r="O622" s="74"/>
+      <c r="P622" s="74" t="str">
+        <f ca="1">IF(Proc[[#This Row],[DaysAgeing]]&gt;5,"yep","on track")</f>
+        <v>on track</v>
+      </c>
+      <c r="Q622" s="3">
+        <f ca="1">IF(Proc[[#This Row],[DateClosed]]="",ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],TODAY()))-1,ABS(NETWORKDAYS(Proc[[#This Row],[DateOpened]],Proc[[#This Row],[DateClosed]]))-1)</f>
+        <v>0</v>
+      </c>
+      <c r="R622" s="74" t="s">
+        <v>1113</v>
+      </c>
+      <c r="S622" s="73"/>
     </row>
   </sheetData>
   <phoneticPr fontId="0" type="noConversion"/>
@@ -70464,7 +71418,7 @@
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" disablePrompts="1" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{AA904D87-F005-470F-89A3-B2D56E752386}">
           <x14:formula1>
             <xm:f>STAT!$A$1:$A$11</xm:f>
@@ -70475,7 +71429,7 @@
           <x14:formula1>
             <xm:f>STAT!$A$15:$A$16</xm:f>
           </x14:formula1>
-          <xm:sqref>G2:G611</xm:sqref>
+          <xm:sqref>G2:G622</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
